--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\scmldap\scmldap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\commonldap\commonldap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4048,8 +4048,8 @@
   <dimension ref="A1:J356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F214" sqref="F214"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,7 +4058,7 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="1151">
   <si>
     <t>PROD_NAME</t>
   </si>
@@ -3469,6 +3469,9 @@
   </si>
   <si>
     <t>macco01</t>
+  </si>
+  <si>
+    <t>PFRCH</t>
   </si>
 </sst>
 </file>
@@ -4321,8 +4324,8 @@
   <dimension ref="A1:J442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E419" sqref="E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16316,7 +16319,7 @@
         <v>12</v>
       </c>
       <c r="E419" t="s">
-        <v>1119</v>
+        <v>1150</v>
       </c>
       <c r="G419" t="s">
         <v>1148</v>

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="1150">
   <si>
     <t>PROD_NAME</t>
   </si>
@@ -1869,15 +1869,6 @@
     <t>Solution Integrations</t>
   </si>
   <si>
-    <t>[{"PMFKEY":"goppr01"},{"PMFKEY":"ainjo01"}]</t>
-  </si>
-  <si>
-    <t>ainjo01</t>
-  </si>
-  <si>
-    <t>goppr01</t>
-  </si>
-  <si>
     <t>Solve CPT</t>
   </si>
   <si>
@@ -3099,9 +3090,6 @@
     <t>CSCR709/endevor;MOTM volumes on mainframe tier one DASD</t>
   </si>
   <si>
-    <t>11.0;11.1;11.2;12.0;12.1</t>
-  </si>
-  <si>
     <t>CSCR927/SDr</t>
   </si>
   <si>
@@ -3475,6 +3463,12 @@
   </si>
   <si>
     <t>r12</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"chaso05"}]</t>
+  </si>
+  <si>
+    <t>chaso05</t>
   </si>
 </sst>
 </file>
@@ -4327,8 +4321,8 @@
   <dimension ref="A1:J443"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:J29"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G218" sqref="G218:J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,7 +4513,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -4603,7 +4597,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -4647,7 +4641,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G10" t="s">
         <v>59</v>
@@ -4664,10 +4658,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B11" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -4679,7 +4673,7 @@
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
@@ -4708,7 +4702,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G12" t="s">
         <v>59</v>
@@ -4972,7 +4966,7 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -5187,7 +5181,7 @@
         <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -5199,7 +5193,7 @@
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="G28" t="s">
         <v>125</v>
@@ -5216,7 +5210,7 @@
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -5228,7 +5222,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="G29" t="s">
         <v>125</v>
@@ -5303,7 +5297,7 @@
         <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -5332,7 +5326,7 @@
         <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -5360,9 +5354,6 @@
       <c r="A34" t="s">
         <v>144</v>
       </c>
-      <c r="B34" t="s">
-        <v>1026</v>
-      </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -6306,7 +6297,7 @@
         <v>259</v>
       </c>
       <c r="B64" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -6542,7 +6533,7 @@
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="G71" t="s">
         <v>279</v>
@@ -6568,7 +6559,7 @@
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G72" t="s">
         <v>279</v>
@@ -7187,7 +7178,7 @@
         <v>333</v>
       </c>
       <c r="B92" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -7216,7 +7207,7 @@
         <v>335</v>
       </c>
       <c r="B93" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -7228,7 +7219,7 @@
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="G93" t="s">
         <v>336</v>
@@ -7254,7 +7245,7 @@
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G94" t="s">
         <v>336</v>
@@ -7376,7 +7367,7 @@
         <v>348</v>
       </c>
       <c r="F98" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G98" t="s">
         <v>349</v>
@@ -7405,7 +7396,7 @@
         <v>348</v>
       </c>
       <c r="F99" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="G99" t="s">
         <v>349</v>
@@ -8161,7 +8152,7 @@
         <v>403</v>
       </c>
       <c r="B123" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
@@ -8679,7 +8670,7 @@
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="G139" t="s">
         <v>447</v>
@@ -9051,7 +9042,7 @@
         <v>487</v>
       </c>
       <c r="B151" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -9211,7 +9202,7 @@
         <v>498</v>
       </c>
       <c r="B156" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C156" t="s">
         <v>51</v>
@@ -9223,7 +9214,7 @@
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="G156" t="s">
         <v>53</v>
@@ -9511,7 +9502,7 @@
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G165" t="s">
         <v>109</v>
@@ -9543,7 +9534,7 @@
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G166" t="s">
         <v>109</v>
@@ -9575,7 +9566,7 @@
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="G167" t="s">
         <v>109</v>
@@ -9607,7 +9598,7 @@
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G168" t="s">
         <v>109</v>
@@ -9639,7 +9630,7 @@
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="G169" t="s">
         <v>109</v>
@@ -9671,7 +9662,7 @@
         <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="G170" t="s">
         <v>109</v>
@@ -9703,7 +9694,7 @@
         <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="G171" t="s">
         <v>109</v>
@@ -9735,7 +9726,7 @@
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G172" t="s">
         <v>109</v>
@@ -9755,7 +9746,7 @@
         <v>529</v>
       </c>
       <c r="B173" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C173" t="s">
         <v>11</v>
@@ -9799,7 +9790,7 @@
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="G174" t="s">
         <v>109</v>
@@ -10613,7 +10604,7 @@
         <v>586</v>
       </c>
       <c r="B200" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C200" t="s">
         <v>217</v>
@@ -10785,7 +10776,7 @@
         <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G205" t="s">
         <v>595</v>
@@ -10866,7 +10857,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C208" t="s">
         <v>11</v>
@@ -10878,7 +10869,7 @@
         <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="G208" t="s">
         <v>65</v>
@@ -10895,7 +10886,7 @@
         <v>603</v>
       </c>
       <c r="B209" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C209" t="s">
         <v>11</v>
@@ -10907,7 +10898,7 @@
         <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G209" t="s">
         <v>65</v>
@@ -11090,7 +11081,7 @@
         <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="G215" t="s">
         <v>65</v>
@@ -11104,7 +11095,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C216" t="s">
         <v>11</v>
@@ -11174,21 +11165,18 @@
         <v>38</v>
       </c>
       <c r="F218" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G218" t="s">
-        <v>616</v>
-      </c>
-      <c r="I218" t="s">
-        <v>617</v>
+        <v>1148</v>
       </c>
       <c r="J218" t="s">
-        <v>618</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B219">
         <v>6.1</v>
@@ -11197,7 +11185,7 @@
         <v>51</v>
       </c>
       <c r="D219" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E219" t="s">
         <v>38</v>
@@ -11220,7 +11208,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B220" t="s">
         <v>108</v>
@@ -11252,10 +11240,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B221" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C221" t="s">
         <v>11</v>
@@ -11267,7 +11255,7 @@
         <v>201</v>
       </c>
       <c r="F221" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G221" t="s">
         <v>203</v>
@@ -11284,7 +11272,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B222" t="s">
         <v>503</v>
@@ -11316,10 +11304,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B223" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C223" t="s">
         <v>51</v>
@@ -11348,10 +11336,10 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B224" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C224" t="s">
         <v>51</v>
@@ -11380,10 +11368,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B225" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C225" t="s">
         <v>11</v>
@@ -11412,10 +11400,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B226" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C226" t="s">
         <v>11</v>
@@ -11444,10 +11432,10 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B227" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C227" t="s">
         <v>11</v>
@@ -11456,13 +11444,13 @@
         <v>311</v>
       </c>
       <c r="E227" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F227" t="s">
         <v>22</v>
       </c>
       <c r="G227" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H227" t="s">
         <v>493</v>
@@ -11476,7 +11464,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B228" t="s">
         <v>73</v>
@@ -11508,7 +11496,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B229" t="s">
         <v>73</v>
@@ -11540,10 +11528,10 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B230" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C230" t="s">
         <v>11</v>
@@ -11555,10 +11543,10 @@
         <v>38</v>
       </c>
       <c r="F230" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G230" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H230" t="s">
         <v>16</v>
@@ -11567,12 +11555,12 @@
         <v>17</v>
       </c>
       <c r="J230" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B231" t="s">
         <v>73</v>
@@ -11604,10 +11592,10 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B232" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C232" t="s">
         <v>11</v>
@@ -11636,7 +11624,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B233" t="s">
         <v>376</v>
@@ -11668,7 +11656,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B234" t="s">
         <v>376</v>
@@ -11700,7 +11688,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B235">
         <v>7</v>
@@ -11712,7 +11700,7 @@
         <v>12</v>
       </c>
       <c r="E235" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F235" t="s">
         <v>266</v>
@@ -11732,7 +11720,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B236" t="s">
         <v>376</v>
@@ -11744,7 +11732,7 @@
         <v>12</v>
       </c>
       <c r="E236" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F236" t="s">
         <v>266</v>
@@ -11764,10 +11752,10 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B237" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C237" t="s">
         <v>11</v>
@@ -11796,10 +11784,10 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B238" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C238" t="s">
         <v>11</v>
@@ -11811,53 +11799,53 @@
         <v>38</v>
       </c>
       <c r="F238" t="s">
+        <v>650</v>
+      </c>
+      <c r="G238" t="s">
+        <v>651</v>
+      </c>
+      <c r="I238" t="s">
+        <v>652</v>
+      </c>
+      <c r="J238" t="s">
         <v>653</v>
-      </c>
-      <c r="G238" t="s">
-        <v>654</v>
-      </c>
-      <c r="I238" t="s">
-        <v>655</v>
-      </c>
-      <c r="J238" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>654</v>
+      </c>
+      <c r="B239" t="s">
+        <v>655</v>
+      </c>
+      <c r="C239" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>656</v>
+      </c>
+      <c r="E239" t="s">
+        <v>38</v>
+      </c>
+      <c r="F239" t="s">
         <v>657</v>
       </c>
-      <c r="B239" t="s">
+      <c r="G239" t="s">
         <v>658</v>
-      </c>
-      <c r="C239" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s">
-        <v>659</v>
-      </c>
-      <c r="E239" t="s">
-        <v>38</v>
-      </c>
-      <c r="F239" t="s">
-        <v>660</v>
-      </c>
-      <c r="G239" t="s">
-        <v>661</v>
       </c>
       <c r="H239" t="s">
         <v>204</v>
       </c>
       <c r="I239" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J239" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B240">
         <v>6.2</v>
@@ -11866,7 +11854,7 @@
         <v>217</v>
       </c>
       <c r="D240" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E240" t="s">
         <v>38</v>
@@ -11889,7 +11877,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B241">
         <v>5.0999999999999996</v>
@@ -11898,16 +11886,16 @@
         <v>11</v>
       </c>
       <c r="D241" t="s">
+        <v>664</v>
+      </c>
+      <c r="E241" t="s">
+        <v>665</v>
+      </c>
+      <c r="F241" t="s">
+        <v>666</v>
+      </c>
+      <c r="G241" t="s">
         <v>667</v>
-      </c>
-      <c r="E241" t="s">
-        <v>668</v>
-      </c>
-      <c r="F241" t="s">
-        <v>669</v>
-      </c>
-      <c r="G241" t="s">
-        <v>670</v>
       </c>
       <c r="H241" t="s">
         <v>16</v>
@@ -11916,12 +11904,12 @@
         <v>60</v>
       </c>
       <c r="J241" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B242">
         <v>5.0999999999999996</v>
@@ -11930,16 +11918,16 @@
         <v>11</v>
       </c>
       <c r="D242" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E242" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F242" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G242" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H242" t="s">
         <v>16</v>
@@ -11948,30 +11936,30 @@
         <v>60</v>
       </c>
       <c r="J242" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B243" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C243" t="s">
         <v>11</v>
       </c>
       <c r="D243" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E243" t="s">
         <v>38</v>
       </c>
       <c r="F243" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G243" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H243" t="s">
         <v>16</v>
@@ -11980,12 +11968,12 @@
         <v>60</v>
       </c>
       <c r="J243" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B244" t="s">
         <v>380</v>
@@ -12017,7 +12005,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B245" t="s">
         <v>376</v>
@@ -12029,7 +12017,7 @@
         <v>12</v>
       </c>
       <c r="E245" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F245" t="s">
         <v>266</v>
@@ -12049,7 +12037,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B246" t="s">
         <v>73</v>
@@ -12081,10 +12069,10 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B247" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C247" t="s">
         <v>11</v>
@@ -12093,7 +12081,7 @@
         <v>12</v>
       </c>
       <c r="E247" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F247" t="s">
         <v>361</v>
@@ -12113,10 +12101,10 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B248" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C248" t="s">
         <v>11</v>
@@ -12125,7 +12113,7 @@
         <v>105</v>
       </c>
       <c r="E248" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F248" t="s">
         <v>22</v>
@@ -12145,7 +12133,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B249">
         <v>3.1</v>
@@ -12160,7 +12148,7 @@
         <v>38</v>
       </c>
       <c r="F249" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G249" t="s">
         <v>41</v>
@@ -12177,7 +12165,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B250">
         <v>2.2999999999999998</v>
@@ -12209,7 +12197,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B251">
         <v>3.3</v>
@@ -12224,7 +12212,7 @@
         <v>38</v>
       </c>
       <c r="F251" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G251" t="s">
         <v>41</v>
@@ -12241,10 +12229,10 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B252" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C252" t="s">
         <v>11</v>
@@ -12256,7 +12244,7 @@
         <v>38</v>
       </c>
       <c r="F252" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G252" t="s">
         <v>131</v>
@@ -12270,7 +12258,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B253" t="s">
         <v>73</v>
@@ -12302,7 +12290,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B254" t="s">
         <v>73</v>
@@ -12334,7 +12322,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B255" t="s">
         <v>73</v>
@@ -12366,25 +12354,25 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>693</v>
+      </c>
+      <c r="B256" t="s">
+        <v>694</v>
+      </c>
+      <c r="C256" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s">
+        <v>695</v>
+      </c>
+      <c r="E256" t="s">
         <v>696</v>
-      </c>
-      <c r="B256" t="s">
-        <v>697</v>
-      </c>
-      <c r="C256" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s">
-        <v>698</v>
-      </c>
-      <c r="E256" t="s">
-        <v>699</v>
       </c>
       <c r="F256" t="s">
         <v>46</v>
       </c>
       <c r="G256" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H256" t="s">
         <v>16</v>
@@ -12393,30 +12381,30 @@
         <v>17</v>
       </c>
       <c r="J256" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>698</v>
+      </c>
+      <c r="B257" t="s">
+        <v>699</v>
+      </c>
+      <c r="C257" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s">
+        <v>700</v>
+      </c>
+      <c r="E257" t="s">
+        <v>38</v>
+      </c>
+      <c r="F257" t="s">
+        <v>637</v>
+      </c>
+      <c r="G257" t="s">
         <v>701</v>
-      </c>
-      <c r="B257" t="s">
-        <v>702</v>
-      </c>
-      <c r="C257" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s">
-        <v>703</v>
-      </c>
-      <c r="E257" t="s">
-        <v>38</v>
-      </c>
-      <c r="F257" t="s">
-        <v>640</v>
-      </c>
-      <c r="G257" t="s">
-        <v>704</v>
       </c>
       <c r="H257" t="s">
         <v>16</v>
@@ -12430,10 +12418,10 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B258" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D258" t="s">
         <v>37</v>
@@ -12442,10 +12430,10 @@
         <v>38</v>
       </c>
       <c r="F258" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G258" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H258" t="s">
         <v>16</v>
@@ -12454,15 +12442,15 @@
         <v>17</v>
       </c>
       <c r="J258" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B259" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C259" t="s">
         <v>11</v>
@@ -12471,7 +12459,7 @@
         <v>12</v>
       </c>
       <c r="E259" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F259" t="s">
         <v>266</v>
@@ -12491,10 +12479,10 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B260" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C260" t="s">
         <v>11</v>
@@ -12503,7 +12491,7 @@
         <v>12</v>
       </c>
       <c r="E260" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F260" t="s">
         <v>266</v>
@@ -12523,7 +12511,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B261" t="s">
         <v>329</v>
@@ -12535,7 +12523,7 @@
         <v>12</v>
       </c>
       <c r="E261" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F261" t="s">
         <v>22</v>
@@ -12555,10 +12543,10 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B262" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C262" t="s">
         <v>11</v>
@@ -12587,10 +12575,10 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B263" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C263" t="s">
         <v>11</v>
@@ -12619,10 +12607,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B264" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C264" t="s">
         <v>11</v>
@@ -12651,10 +12639,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B265" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C265" t="s">
         <v>11</v>
@@ -12666,7 +12654,7 @@
         <v>38</v>
       </c>
       <c r="F265" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G265" t="s">
         <v>41</v>
@@ -12683,10 +12671,10 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B266" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C266" t="s">
         <v>74</v>
@@ -12698,7 +12686,7 @@
         <v>38</v>
       </c>
       <c r="F266" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G266" t="s">
         <v>109</v>
@@ -12715,10 +12703,10 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B267" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C267" t="s">
         <v>11</v>
@@ -12730,10 +12718,10 @@
         <v>38</v>
       </c>
       <c r="F267" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G267" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H267" t="s">
         <v>493</v>
@@ -12742,15 +12730,15 @@
         <v>110</v>
       </c>
       <c r="J267" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B268" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C268" t="s">
         <v>11</v>
@@ -12759,7 +12747,7 @@
         <v>105</v>
       </c>
       <c r="E268" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F268" t="s">
         <v>22</v>
@@ -12779,7 +12767,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B269">
         <v>3.1</v>
@@ -12791,7 +12779,7 @@
         <v>12</v>
       </c>
       <c r="E269" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F269" t="s">
         <v>22</v>
@@ -12811,7 +12799,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B270" t="s">
         <v>73</v>
@@ -12843,7 +12831,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C271" t="s">
         <v>11</v>
@@ -12855,18 +12843,18 @@
         <v>38</v>
       </c>
       <c r="F271" t="s">
+        <v>731</v>
+      </c>
+      <c r="G271" t="s">
+        <v>733</v>
+      </c>
+      <c r="J271" t="s">
         <v>734</v>
-      </c>
-      <c r="G271" t="s">
-        <v>736</v>
-      </c>
-      <c r="J271" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C272" t="s">
         <v>11</v>
@@ -12878,10 +12866,10 @@
         <v>38</v>
       </c>
       <c r="F272" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G272" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J272" t="s">
         <v>449</v>
@@ -12889,7 +12877,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C273" t="s">
         <v>11</v>
@@ -12901,18 +12889,18 @@
         <v>38</v>
       </c>
       <c r="F273" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G273" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J273" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C274" t="s">
         <v>11</v>
@@ -12924,21 +12912,21 @@
         <v>38</v>
       </c>
       <c r="F274" t="s">
+        <v>743</v>
+      </c>
+      <c r="G274" t="s">
+        <v>744</v>
+      </c>
+      <c r="I274" t="s">
         <v>746</v>
       </c>
-      <c r="G274" t="s">
-        <v>747</v>
-      </c>
-      <c r="I274" t="s">
-        <v>749</v>
-      </c>
       <c r="J274" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C275" t="s">
         <v>11</v>
@@ -12950,18 +12938,18 @@
         <v>38</v>
       </c>
       <c r="F275" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G275" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J275" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C276" t="s">
         <v>11</v>
@@ -12973,21 +12961,21 @@
         <v>38</v>
       </c>
       <c r="F276" t="s">
+        <v>751</v>
+      </c>
+      <c r="G276" t="s">
         <v>754</v>
       </c>
-      <c r="G276" t="s">
-        <v>757</v>
-      </c>
       <c r="I276" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J276" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C277" t="s">
         <v>11</v>
@@ -12999,18 +12987,18 @@
         <v>38</v>
       </c>
       <c r="F277" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G277" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J277" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C278" t="s">
         <v>11</v>
@@ -13022,7 +13010,7 @@
         <v>38</v>
       </c>
       <c r="F278" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G278" t="s">
         <v>99</v>
@@ -13039,7 +13027,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C279" t="s">
         <v>217</v>
@@ -13051,18 +13039,18 @@
         <v>38</v>
       </c>
       <c r="F279" t="s">
+        <v>759</v>
+      </c>
+      <c r="G279" t="s">
         <v>762</v>
       </c>
-      <c r="G279" t="s">
-        <v>765</v>
-      </c>
       <c r="J279" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C280" t="s">
         <v>11</v>
@@ -13074,7 +13062,7 @@
         <v>38</v>
       </c>
       <c r="F280" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="G280" t="s">
         <v>59</v>
@@ -13091,7 +13079,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C281" t="s">
         <v>11</v>
@@ -13103,18 +13091,18 @@
         <v>38</v>
       </c>
       <c r="F281" t="s">
+        <v>763</v>
+      </c>
+      <c r="G281" t="s">
         <v>766</v>
       </c>
-      <c r="G281" t="s">
-        <v>769</v>
-      </c>
       <c r="J281" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C282" t="s">
         <v>11</v>
@@ -13126,18 +13114,18 @@
         <v>38</v>
       </c>
       <c r="F282" t="s">
+        <v>772</v>
+      </c>
+      <c r="G282" t="s">
+        <v>774</v>
+      </c>
+      <c r="J282" t="s">
         <v>775</v>
-      </c>
-      <c r="G282" t="s">
-        <v>777</v>
-      </c>
-      <c r="J282" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C283" t="s">
         <v>11</v>
@@ -13149,7 +13137,7 @@
         <v>38</v>
       </c>
       <c r="F283" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G283" t="s">
         <v>114</v>
@@ -13163,7 +13151,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C284" t="s">
         <v>11</v>
@@ -13175,18 +13163,18 @@
         <v>38</v>
       </c>
       <c r="F284" t="s">
+        <v>776</v>
+      </c>
+      <c r="G284" t="s">
         <v>779</v>
       </c>
-      <c r="G284" t="s">
-        <v>782</v>
-      </c>
       <c r="J284" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C285" t="s">
         <v>217</v>
@@ -13198,18 +13186,18 @@
         <v>38</v>
       </c>
       <c r="F285" t="s">
+        <v>780</v>
+      </c>
+      <c r="G285" t="s">
         <v>783</v>
       </c>
-      <c r="G285" t="s">
-        <v>786</v>
-      </c>
       <c r="J285" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C286" t="s">
         <v>217</v>
@@ -13221,18 +13209,18 @@
         <v>38</v>
       </c>
       <c r="F286" t="s">
+        <v>784</v>
+      </c>
+      <c r="G286" t="s">
+        <v>786</v>
+      </c>
+      <c r="J286" t="s">
         <v>787</v>
-      </c>
-      <c r="G286" t="s">
-        <v>789</v>
-      </c>
-      <c r="J286" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C287" t="s">
         <v>11</v>
@@ -13244,18 +13232,18 @@
         <v>38</v>
       </c>
       <c r="F287" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G287" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J287" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C288" t="s">
         <v>11</v>
@@ -13267,18 +13255,18 @@
         <v>38</v>
       </c>
       <c r="F288" t="s">
+        <v>792</v>
+      </c>
+      <c r="G288" t="s">
         <v>795</v>
       </c>
-      <c r="G288" t="s">
-        <v>798</v>
-      </c>
       <c r="J288" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C289" t="s">
         <v>11</v>
@@ -13290,18 +13278,18 @@
         <v>38</v>
       </c>
       <c r="F289" t="s">
+        <v>796</v>
+      </c>
+      <c r="G289" t="s">
         <v>799</v>
       </c>
-      <c r="G289" t="s">
-        <v>802</v>
-      </c>
       <c r="J289" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C290" t="s">
         <v>11</v>
@@ -13313,18 +13301,18 @@
         <v>38</v>
       </c>
       <c r="F290" t="s">
+        <v>800</v>
+      </c>
+      <c r="G290" t="s">
         <v>803</v>
       </c>
-      <c r="G290" t="s">
-        <v>806</v>
-      </c>
       <c r="J290" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C291" t="s">
         <v>11</v>
@@ -13336,21 +13324,21 @@
         <v>38</v>
       </c>
       <c r="F291" t="s">
+        <v>804</v>
+      </c>
+      <c r="G291" t="s">
+        <v>808</v>
+      </c>
+      <c r="I291" t="s">
+        <v>806</v>
+      </c>
+      <c r="J291" t="s">
         <v>807</v>
-      </c>
-      <c r="G291" t="s">
-        <v>811</v>
-      </c>
-      <c r="I291" t="s">
-        <v>809</v>
-      </c>
-      <c r="J291" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C292" t="s">
         <v>11</v>
@@ -13362,7 +13350,7 @@
         <v>38</v>
       </c>
       <c r="F292" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G292" t="s">
         <v>65</v>
@@ -13376,7 +13364,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C293" t="s">
         <v>11</v>
@@ -13388,7 +13376,7 @@
         <v>38</v>
       </c>
       <c r="F293" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="G293" t="s">
         <v>65</v>
@@ -13402,7 +13390,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C294" t="s">
         <v>11</v>
@@ -13414,18 +13402,18 @@
         <v>38</v>
       </c>
       <c r="F294" t="s">
+        <v>809</v>
+      </c>
+      <c r="G294" t="s">
+        <v>811</v>
+      </c>
+      <c r="J294" t="s">
         <v>812</v>
-      </c>
-      <c r="G294" t="s">
-        <v>814</v>
-      </c>
-      <c r="J294" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C295" t="s">
         <v>11</v>
@@ -13437,18 +13425,18 @@
         <v>38</v>
       </c>
       <c r="F295" t="s">
+        <v>813</v>
+      </c>
+      <c r="G295" t="s">
         <v>816</v>
       </c>
-      <c r="G295" t="s">
-        <v>819</v>
-      </c>
       <c r="J295" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C296" t="s">
         <v>217</v>
@@ -13460,18 +13448,18 @@
         <v>38</v>
       </c>
       <c r="F296" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G296" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="J296" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C297" t="s">
         <v>11</v>
@@ -13483,10 +13471,10 @@
         <v>38</v>
       </c>
       <c r="F297" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G297" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J297" t="s">
         <v>67</v>
@@ -13494,7 +13482,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C298" t="s">
         <v>11</v>
@@ -13506,18 +13494,18 @@
         <v>38</v>
       </c>
       <c r="F298" t="s">
+        <v>822</v>
+      </c>
+      <c r="G298" t="s">
         <v>825</v>
       </c>
-      <c r="G298" t="s">
-        <v>828</v>
-      </c>
       <c r="J298" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C299" t="s">
         <v>217</v>
@@ -13529,18 +13517,18 @@
         <v>38</v>
       </c>
       <c r="F299" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G299" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="J299" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C300" t="s">
         <v>11</v>
@@ -13552,18 +13540,18 @@
         <v>38</v>
       </c>
       <c r="F300" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G300" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="J300" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C301" t="s">
         <v>11</v>
@@ -13575,10 +13563,10 @@
         <v>38</v>
       </c>
       <c r="F301" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G301" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J301" t="s">
         <v>67</v>
@@ -13586,7 +13574,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C302" t="s">
         <v>217</v>
@@ -13598,18 +13586,18 @@
         <v>38</v>
       </c>
       <c r="F302" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G302" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="J302" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C303" t="s">
         <v>11</v>
@@ -13621,18 +13609,18 @@
         <v>38</v>
       </c>
       <c r="F303" t="s">
+        <v>834</v>
+      </c>
+      <c r="G303" t="s">
         <v>837</v>
       </c>
-      <c r="G303" t="s">
-        <v>840</v>
-      </c>
       <c r="J303" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C304" t="s">
         <v>11</v>
@@ -13644,18 +13632,18 @@
         <v>38</v>
       </c>
       <c r="F304" t="s">
+        <v>838</v>
+      </c>
+      <c r="G304" t="s">
         <v>841</v>
       </c>
-      <c r="G304" t="s">
-        <v>844</v>
-      </c>
       <c r="J304" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C305" t="s">
         <v>11</v>
@@ -13667,18 +13655,18 @@
         <v>38</v>
       </c>
       <c r="F305" t="s">
+        <v>842</v>
+      </c>
+      <c r="G305" t="s">
         <v>845</v>
       </c>
-      <c r="G305" t="s">
-        <v>848</v>
-      </c>
       <c r="J305" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C306" t="s">
         <v>11</v>
@@ -13690,18 +13678,18 @@
         <v>38</v>
       </c>
       <c r="F306" t="s">
+        <v>846</v>
+      </c>
+      <c r="G306" t="s">
         <v>849</v>
       </c>
-      <c r="G306" t="s">
-        <v>852</v>
-      </c>
       <c r="J306" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C307" t="s">
         <v>11</v>
@@ -13713,18 +13701,18 @@
         <v>38</v>
       </c>
       <c r="F307" t="s">
+        <v>850</v>
+      </c>
+      <c r="G307" t="s">
         <v>853</v>
       </c>
-      <c r="G307" t="s">
-        <v>856</v>
-      </c>
       <c r="J307" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C308" t="s">
         <v>11</v>
@@ -13736,18 +13724,18 @@
         <v>38</v>
       </c>
       <c r="F308" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="G308" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J308" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C309" t="s">
         <v>11</v>
@@ -13759,18 +13747,18 @@
         <v>38</v>
       </c>
       <c r="F309" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G309" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="J309" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C310" t="s">
         <v>11</v>
@@ -13782,21 +13770,18 @@
         <v>38</v>
       </c>
       <c r="F310" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G310" t="s">
-        <v>616</v>
-      </c>
-      <c r="I310" t="s">
-        <v>617</v>
+        <v>1148</v>
       </c>
       <c r="J310" t="s">
-        <v>618</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C311" t="s">
         <v>217</v>
@@ -13808,18 +13793,18 @@
         <v>38</v>
       </c>
       <c r="F311" t="s">
+        <v>854</v>
+      </c>
+      <c r="G311" t="s">
         <v>857</v>
       </c>
-      <c r="G311" t="s">
-        <v>860</v>
-      </c>
       <c r="J311" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C312" t="s">
         <v>11</v>
@@ -13831,18 +13816,18 @@
         <v>38</v>
       </c>
       <c r="F312" t="s">
+        <v>858</v>
+      </c>
+      <c r="G312" t="s">
         <v>861</v>
       </c>
-      <c r="G312" t="s">
-        <v>864</v>
-      </c>
       <c r="J312" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C313" t="s">
         <v>11</v>
@@ -13854,18 +13839,18 @@
         <v>38</v>
       </c>
       <c r="F313" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G313" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="J313" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C314" t="s">
         <v>11</v>
@@ -13877,10 +13862,10 @@
         <v>38</v>
       </c>
       <c r="F314" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G314" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J314" t="s">
         <v>449</v>
@@ -13888,7 +13873,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C315" t="s">
         <v>11</v>
@@ -13900,18 +13885,18 @@
         <v>38</v>
       </c>
       <c r="F315" t="s">
+        <v>869</v>
+      </c>
+      <c r="G315" t="s">
         <v>872</v>
       </c>
-      <c r="G315" t="s">
-        <v>875</v>
-      </c>
       <c r="J315" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C316" t="s">
         <v>11</v>
@@ -13923,18 +13908,18 @@
         <v>38</v>
       </c>
       <c r="F316" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="G316" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="J316" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C317" t="s">
         <v>11</v>
@@ -13946,10 +13931,10 @@
         <v>38</v>
       </c>
       <c r="F317" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G317" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J317" t="s">
         <v>449</v>
@@ -13957,7 +13942,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C318" t="s">
         <v>11</v>
@@ -13969,10 +13954,10 @@
         <v>38</v>
       </c>
       <c r="F318" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G318" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J318" t="s">
         <v>449</v>
@@ -13980,7 +13965,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C319" t="s">
         <v>11</v>
@@ -13992,18 +13977,18 @@
         <v>38</v>
       </c>
       <c r="F319" t="s">
+        <v>881</v>
+      </c>
+      <c r="G319" t="s">
         <v>884</v>
       </c>
-      <c r="G319" t="s">
-        <v>887</v>
-      </c>
       <c r="J319" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C320" t="s">
         <v>217</v>
@@ -14015,18 +14000,18 @@
         <v>38</v>
       </c>
       <c r="F320" t="s">
+        <v>885</v>
+      </c>
+      <c r="G320" t="s">
         <v>888</v>
       </c>
-      <c r="G320" t="s">
-        <v>891</v>
-      </c>
       <c r="J320" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C321" t="s">
         <v>217</v>
@@ -14038,18 +14023,18 @@
         <v>38</v>
       </c>
       <c r="F321" t="s">
+        <v>889</v>
+      </c>
+      <c r="G321" t="s">
         <v>892</v>
       </c>
-      <c r="G321" t="s">
-        <v>895</v>
-      </c>
       <c r="J321" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C322" t="s">
         <v>11</v>
@@ -14061,10 +14046,10 @@
         <v>38</v>
       </c>
       <c r="F322" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G322" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J322" t="s">
         <v>449</v>
@@ -14072,7 +14057,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C323" t="s">
         <v>11</v>
@@ -14084,7 +14069,7 @@
         <v>38</v>
       </c>
       <c r="F323" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G323" t="s">
         <v>65</v>
@@ -14098,7 +14083,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C324" t="s">
         <v>11</v>
@@ -14110,7 +14095,7 @@
         <v>38</v>
       </c>
       <c r="F324" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G324" t="s">
         <v>131</v>
@@ -14124,7 +14109,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C325" t="s">
         <v>11</v>
@@ -14136,10 +14121,10 @@
         <v>38</v>
       </c>
       <c r="F325" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G325" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J325" t="s">
         <v>449</v>
@@ -14147,7 +14132,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C326" t="s">
         <v>11</v>
@@ -14159,10 +14144,10 @@
         <v>38</v>
       </c>
       <c r="F326" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G326" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J326" t="s">
         <v>449</v>
@@ -14170,7 +14155,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C327" t="s">
         <v>11</v>
@@ -14182,10 +14167,10 @@
         <v>38</v>
       </c>
       <c r="F327" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G327" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J327" t="s">
         <v>449</v>
@@ -14193,7 +14178,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C328" t="s">
         <v>11</v>
@@ -14205,18 +14190,18 @@
         <v>38</v>
       </c>
       <c r="F328" t="s">
+        <v>903</v>
+      </c>
+      <c r="G328" t="s">
+        <v>907</v>
+      </c>
+      <c r="J328" t="s">
         <v>906</v>
-      </c>
-      <c r="G328" t="s">
-        <v>910</v>
-      </c>
-      <c r="J328" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C329" t="s">
         <v>11</v>
@@ -14228,7 +14213,7 @@
         <v>38</v>
       </c>
       <c r="F329" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G329" t="s">
         <v>65</v>
@@ -14242,7 +14227,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C330" t="s">
         <v>11</v>
@@ -14254,18 +14239,18 @@
         <v>38</v>
       </c>
       <c r="F330" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G330" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="J330" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C331" t="s">
         <v>11</v>
@@ -14277,18 +14262,18 @@
         <v>38</v>
       </c>
       <c r="F331" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G331" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="J331" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C332" t="s">
         <v>11</v>
@@ -14300,18 +14285,18 @@
         <v>38</v>
       </c>
       <c r="F332" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G332" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="J332" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C333" t="s">
         <v>11</v>
@@ -14323,18 +14308,18 @@
         <v>38</v>
       </c>
       <c r="F333" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="G333" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J333" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C334" t="s">
         <v>11</v>
@@ -14346,18 +14331,18 @@
         <v>38</v>
       </c>
       <c r="F334" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G334" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J334" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C335" t="s">
         <v>11</v>
@@ -14369,18 +14354,18 @@
         <v>38</v>
       </c>
       <c r="F335" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G335" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J335" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C336" t="s">
         <v>11</v>
@@ -14392,18 +14377,18 @@
         <v>38</v>
       </c>
       <c r="F336" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G336" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J336" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C337" t="s">
         <v>11</v>
@@ -14415,18 +14400,18 @@
         <v>38</v>
       </c>
       <c r="F337" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G337" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J337" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C338" t="s">
         <v>11</v>
@@ -14438,18 +14423,18 @@
         <v>38</v>
       </c>
       <c r="F338" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G338" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J338" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C339" t="s">
         <v>11</v>
@@ -14461,18 +14446,18 @@
         <v>38</v>
       </c>
       <c r="F339" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G339" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J339" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C340" t="s">
         <v>11</v>
@@ -14484,18 +14469,18 @@
         <v>38</v>
       </c>
       <c r="F340" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="G340" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J340" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C341" t="s">
         <v>11</v>
@@ -14507,18 +14492,18 @@
         <v>38</v>
       </c>
       <c r="F341" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G341" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J341" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C342" t="s">
         <v>11</v>
@@ -14530,18 +14515,18 @@
         <v>38</v>
       </c>
       <c r="F342" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G342" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J342" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C343" t="s">
         <v>11</v>
@@ -14553,18 +14538,18 @@
         <v>38</v>
       </c>
       <c r="F343" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G343" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J343" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C344" t="s">
         <v>11</v>
@@ -14576,18 +14561,18 @@
         <v>38</v>
       </c>
       <c r="F344" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G344" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J344" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C345" t="s">
         <v>11</v>
@@ -14599,18 +14584,18 @@
         <v>38</v>
       </c>
       <c r="F345" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G345" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="J345" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C346" t="s">
         <v>217</v>
@@ -14622,18 +14607,18 @@
         <v>38</v>
       </c>
       <c r="F346" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G346" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="J346" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C347" t="s">
         <v>11</v>
@@ -14645,13 +14630,13 @@
         <v>38</v>
       </c>
       <c r="F347" t="s">
+        <v>951</v>
+      </c>
+      <c r="G347" t="s">
         <v>954</v>
       </c>
-      <c r="G347" t="s">
-        <v>957</v>
-      </c>
       <c r="J347" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -14668,18 +14653,18 @@
         <v>38</v>
       </c>
       <c r="F348" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G348" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="J348" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C349" t="s">
         <v>11</v>
@@ -14691,18 +14676,18 @@
         <v>38</v>
       </c>
       <c r="F349" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="G349" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J349" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C350" t="s">
         <v>217</v>
@@ -14714,18 +14699,18 @@
         <v>38</v>
       </c>
       <c r="F350" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="G350" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J350" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C351" t="s">
         <v>11</v>
@@ -14737,18 +14722,18 @@
         <v>38</v>
       </c>
       <c r="F351" t="s">
+        <v>964</v>
+      </c>
+      <c r="G351" t="s">
         <v>967</v>
       </c>
-      <c r="G351" t="s">
-        <v>970</v>
-      </c>
       <c r="J351" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C352" t="s">
         <v>11</v>
@@ -14760,18 +14745,18 @@
         <v>38</v>
       </c>
       <c r="F352" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G352" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="J352" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C353" t="s">
         <v>11</v>
@@ -14783,18 +14768,18 @@
         <v>38</v>
       </c>
       <c r="F353" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="G353" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="J353" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C354" t="s">
         <v>217</v>
@@ -14806,18 +14791,18 @@
         <v>38</v>
       </c>
       <c r="F354" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G354" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J354" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C355" t="s">
         <v>11</v>
@@ -14829,18 +14814,18 @@
         <v>38</v>
       </c>
       <c r="F355" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G355" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="J355" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C356" t="s">
         <v>217</v>
@@ -14852,18 +14837,18 @@
         <v>38</v>
       </c>
       <c r="F356" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="G356" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="J356" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C357" t="s">
         <v>11</v>
@@ -14875,18 +14860,18 @@
         <v>38</v>
       </c>
       <c r="F357" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G357" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="J357" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C358" t="s">
         <v>11</v>
@@ -14895,18 +14880,18 @@
         <v>12</v>
       </c>
       <c r="E358" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G358" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J358" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C359" t="s">
         <v>11</v>
@@ -14915,18 +14900,18 @@
         <v>12</v>
       </c>
       <c r="E359" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="G359" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="J359" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C360" t="s">
         <v>11</v>
@@ -14935,7 +14920,7 @@
         <v>12</v>
       </c>
       <c r="E360" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="G360" t="s">
         <v>416</v>
@@ -14952,7 +14937,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C361" t="s">
         <v>11</v>
@@ -14961,18 +14946,18 @@
         <v>12</v>
       </c>
       <c r="E361" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="G361" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J361" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C362" t="s">
         <v>11</v>
@@ -14981,7 +14966,7 @@
         <v>12</v>
       </c>
       <c r="E362" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="G362" t="s">
         <v>35</v>
@@ -14998,7 +14983,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C363" t="s">
         <v>11</v>
@@ -15007,18 +14992,18 @@
         <v>12</v>
       </c>
       <c r="E363" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="G363" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J363" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C364" t="s">
         <v>11</v>
@@ -15027,18 +15012,18 @@
         <v>12</v>
       </c>
       <c r="E364" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="G364" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J364" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C365" t="s">
         <v>11</v>
@@ -15047,18 +15032,18 @@
         <v>12</v>
       </c>
       <c r="E365" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="G365" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J365" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C366" t="s">
         <v>11</v>
@@ -15067,7 +15052,7 @@
         <v>12</v>
       </c>
       <c r="E366" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G366" t="s">
         <v>229</v>
@@ -15084,7 +15069,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C367" t="s">
         <v>11</v>
@@ -15093,7 +15078,7 @@
         <v>12</v>
       </c>
       <c r="E367" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G367" t="s">
         <v>78</v>
@@ -15110,7 +15095,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C368" t="s">
         <v>11</v>
@@ -15119,7 +15104,7 @@
         <v>12</v>
       </c>
       <c r="E368" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="G368" t="s">
         <v>229</v>
@@ -15136,7 +15121,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C369" t="s">
         <v>11</v>
@@ -15145,7 +15130,7 @@
         <v>12</v>
       </c>
       <c r="E369" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="G369" t="s">
         <v>229</v>
@@ -15162,7 +15147,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C370" t="s">
         <v>11</v>
@@ -15171,24 +15156,24 @@
         <v>12</v>
       </c>
       <c r="E370" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G370" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H370" t="s">
         <v>204</v>
       </c>
       <c r="I370" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J370" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C371" t="s">
         <v>11</v>
@@ -15197,7 +15182,7 @@
         <v>12</v>
       </c>
       <c r="E371" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="G371" t="s">
         <v>78</v>
@@ -15214,7 +15199,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C372" t="s">
         <v>11</v>
@@ -15223,7 +15208,7 @@
         <v>12</v>
       </c>
       <c r="E372" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="G372" t="s">
         <v>229</v>
@@ -15240,7 +15225,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C373" t="s">
         <v>11</v>
@@ -15249,24 +15234,24 @@
         <v>12</v>
       </c>
       <c r="E373" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="G373" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H373" t="s">
         <v>204</v>
       </c>
       <c r="I373" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J373" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C374" t="s">
         <v>11</v>
@@ -15275,7 +15260,7 @@
         <v>12</v>
       </c>
       <c r="E374" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G374" t="s">
         <v>35</v>
@@ -15292,7 +15277,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C375" t="s">
         <v>11</v>
@@ -15301,18 +15286,18 @@
         <v>12</v>
       </c>
       <c r="E375" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="G375" t="s">
         <v>23</v>
       </c>
       <c r="J375" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C376" t="s">
         <v>11</v>
@@ -15321,7 +15306,7 @@
         <v>12</v>
       </c>
       <c r="E376" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="G376" t="s">
         <v>99</v>
@@ -15338,7 +15323,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C377" t="s">
         <v>11</v>
@@ -15347,7 +15332,7 @@
         <v>12</v>
       </c>
       <c r="E377" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="G377" t="s">
         <v>78</v>
@@ -15364,7 +15349,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C378" t="s">
         <v>11</v>
@@ -15373,7 +15358,7 @@
         <v>12</v>
       </c>
       <c r="E378" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="G378" t="s">
         <v>416</v>
@@ -15390,7 +15375,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C379" t="s">
         <v>11</v>
@@ -15399,7 +15384,7 @@
         <v>12</v>
       </c>
       <c r="E379" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="G379" t="s">
         <v>416</v>
@@ -15416,7 +15401,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C380" t="s">
         <v>11</v>
@@ -15425,7 +15410,7 @@
         <v>12</v>
       </c>
       <c r="E380" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="G380" t="s">
         <v>78</v>
@@ -15442,7 +15427,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C381" t="s">
         <v>11</v>
@@ -15451,7 +15436,7 @@
         <v>12</v>
       </c>
       <c r="E381" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="G381" t="s">
         <v>109</v>
@@ -15468,7 +15453,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C382" t="s">
         <v>11</v>
@@ -15477,7 +15462,7 @@
         <v>12</v>
       </c>
       <c r="E382" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="G382" t="s">
         <v>554</v>
@@ -15494,7 +15479,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C383" t="s">
         <v>11</v>
@@ -15503,18 +15488,18 @@
         <v>12</v>
       </c>
       <c r="E383" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="G383" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J383" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C384" t="s">
         <v>11</v>
@@ -15523,18 +15508,18 @@
         <v>12</v>
       </c>
       <c r="E384" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G384" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J384" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C385" t="s">
         <v>11</v>
@@ -15543,18 +15528,18 @@
         <v>12</v>
       </c>
       <c r="E385" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="G385" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J385" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C386" t="s">
         <v>11</v>
@@ -15563,18 +15548,18 @@
         <v>12</v>
       </c>
       <c r="E386" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G386" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J386" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C387" t="s">
         <v>11</v>
@@ -15583,18 +15568,18 @@
         <v>12</v>
       </c>
       <c r="E387" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="G387" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J387" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C388" t="s">
         <v>11</v>
@@ -15603,18 +15588,18 @@
         <v>12</v>
       </c>
       <c r="E388" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="G388" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J388" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C389" t="s">
         <v>11</v>
@@ -15623,18 +15608,18 @@
         <v>12</v>
       </c>
       <c r="E389" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="G389" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J389" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C390" t="s">
         <v>11</v>
@@ -15643,7 +15628,7 @@
         <v>12</v>
       </c>
       <c r="E390" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G390" t="s">
         <v>78</v>
@@ -15660,7 +15645,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C391" t="s">
         <v>11</v>
@@ -15669,7 +15654,7 @@
         <v>12</v>
       </c>
       <c r="E391" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="G391" t="s">
         <v>168</v>
@@ -15686,7 +15671,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C392" t="s">
         <v>11</v>
@@ -15695,7 +15680,7 @@
         <v>12</v>
       </c>
       <c r="E392" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G392" t="s">
         <v>78</v>
@@ -15712,7 +15697,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C393" t="s">
         <v>11</v>
@@ -15721,18 +15706,18 @@
         <v>12</v>
       </c>
       <c r="E393" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="G393" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J393" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C394" t="s">
         <v>11</v>
@@ -15741,13 +15726,13 @@
         <v>12</v>
       </c>
       <c r="E394" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="G394" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J394" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -15778,7 +15763,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C396" t="s">
         <v>11</v>
@@ -15787,18 +15772,18 @@
         <v>12</v>
       </c>
       <c r="E396" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="G396" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J396" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C397" t="s">
         <v>11</v>
@@ -15807,18 +15792,18 @@
         <v>12</v>
       </c>
       <c r="E397" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G397" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J397" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C398" t="s">
         <v>11</v>
@@ -15827,18 +15812,18 @@
         <v>12</v>
       </c>
       <c r="E398" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="G398" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J398" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C399" t="s">
         <v>11</v>
@@ -15847,7 +15832,7 @@
         <v>12</v>
       </c>
       <c r="E399" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="G399" t="s">
         <v>35</v>
@@ -15864,7 +15849,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C400" t="s">
         <v>11</v>
@@ -15873,7 +15858,7 @@
         <v>12</v>
       </c>
       <c r="E400" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="G400" t="s">
         <v>35</v>
@@ -15890,7 +15875,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C401" t="s">
         <v>11</v>
@@ -15899,7 +15884,7 @@
         <v>12</v>
       </c>
       <c r="E401" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="G401" t="s">
         <v>35</v>
@@ -15916,7 +15901,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C402" t="s">
         <v>11</v>
@@ -15925,7 +15910,7 @@
         <v>12</v>
       </c>
       <c r="E402" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="G402" t="s">
         <v>416</v>
@@ -15942,7 +15927,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C403" t="s">
         <v>11</v>
@@ -15951,7 +15936,7 @@
         <v>12</v>
       </c>
       <c r="E403" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="G403" t="s">
         <v>416</v>
@@ -15968,7 +15953,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C404" t="s">
         <v>11</v>
@@ -15977,7 +15962,7 @@
         <v>12</v>
       </c>
       <c r="E404" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G404" t="s">
         <v>53</v>
@@ -15994,7 +15979,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C405" t="s">
         <v>11</v>
@@ -16003,7 +15988,7 @@
         <v>12</v>
       </c>
       <c r="E405" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="G405" t="s">
         <v>554</v>
@@ -16020,7 +16005,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C406" t="s">
         <v>11</v>
@@ -16029,7 +16014,7 @@
         <v>12</v>
       </c>
       <c r="E406" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="G406" t="s">
         <v>229</v>
@@ -16046,7 +16031,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C407" t="s">
         <v>11</v>
@@ -16055,7 +16040,7 @@
         <v>12</v>
       </c>
       <c r="E407" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="G407" t="s">
         <v>99</v>
@@ -16072,7 +16057,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C408" t="s">
         <v>11</v>
@@ -16081,18 +16066,18 @@
         <v>12</v>
       </c>
       <c r="E408" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="G408" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J408" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C409" t="s">
         <v>11</v>
@@ -16101,7 +16086,7 @@
         <v>12</v>
       </c>
       <c r="E409" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G409" t="s">
         <v>554</v>
@@ -16118,7 +16103,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C410" t="s">
         <v>11</v>
@@ -16127,18 +16112,18 @@
         <v>12</v>
       </c>
       <c r="E410" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="G410" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J410" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C411" t="s">
         <v>11</v>
@@ -16147,18 +16132,18 @@
         <v>12</v>
       </c>
       <c r="E411" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="G411" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J411" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C412" t="s">
         <v>11</v>
@@ -16167,18 +16152,18 @@
         <v>12</v>
       </c>
       <c r="E412" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="G412" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J412" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C413" t="s">
         <v>11</v>
@@ -16187,7 +16172,7 @@
         <v>12</v>
       </c>
       <c r="E413" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G413" t="s">
         <v>203</v>
@@ -16204,7 +16189,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C414" t="s">
         <v>11</v>
@@ -16213,7 +16198,7 @@
         <v>12</v>
       </c>
       <c r="E414" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="G414" t="s">
         <v>109</v>
@@ -16230,7 +16215,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C415" t="s">
         <v>11</v>
@@ -16239,18 +16224,18 @@
         <v>12</v>
       </c>
       <c r="E415" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="G415" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J415" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C416" t="s">
         <v>11</v>
@@ -16259,7 +16244,7 @@
         <v>12</v>
       </c>
       <c r="E416" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="G416" t="s">
         <v>229</v>
@@ -16276,7 +16261,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C417" t="s">
         <v>11</v>
@@ -16285,7 +16270,7 @@
         <v>12</v>
       </c>
       <c r="E417" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G417" t="s">
         <v>59</v>
@@ -16302,7 +16287,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C418" t="s">
         <v>11</v>
@@ -16311,18 +16296,18 @@
         <v>12</v>
       </c>
       <c r="E418" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G418" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J418" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C419" t="s">
         <v>11</v>
@@ -16331,18 +16316,18 @@
         <v>12</v>
       </c>
       <c r="E419" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G419" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J419" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C420" t="s">
         <v>11</v>
@@ -16351,18 +16336,18 @@
         <v>12</v>
       </c>
       <c r="E420" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="G420" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J420" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C421" t="s">
         <v>11</v>
@@ -16371,7 +16356,7 @@
         <v>12</v>
       </c>
       <c r="E421" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="G421" t="s">
         <v>78</v>
@@ -16388,7 +16373,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C422" t="s">
         <v>11</v>
@@ -16397,7 +16382,7 @@
         <v>12</v>
       </c>
       <c r="E422" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="G422" t="s">
         <v>554</v>
@@ -16414,7 +16399,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C423" t="s">
         <v>11</v>
@@ -16423,7 +16408,7 @@
         <v>12</v>
       </c>
       <c r="E423" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="G423" t="s">
         <v>78</v>
@@ -16440,7 +16425,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C424" t="s">
         <v>11</v>
@@ -16449,18 +16434,18 @@
         <v>12</v>
       </c>
       <c r="E424" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="G424" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J424" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C425" t="s">
         <v>11</v>
@@ -16469,7 +16454,7 @@
         <v>12</v>
       </c>
       <c r="E425" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G425" t="s">
         <v>554</v>
@@ -16486,7 +16471,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C426" t="s">
         <v>11</v>
@@ -16495,7 +16480,7 @@
         <v>12</v>
       </c>
       <c r="E426" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="G426" t="s">
         <v>53</v>
@@ -16512,7 +16497,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C427" t="s">
         <v>11</v>
@@ -16521,18 +16506,18 @@
         <v>12</v>
       </c>
       <c r="E427" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G427" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J427" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C428" t="s">
         <v>11</v>
@@ -16541,18 +16526,18 @@
         <v>12</v>
       </c>
       <c r="E428" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G428" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J428" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C429" t="s">
         <v>11</v>
@@ -16561,7 +16546,7 @@
         <v>12</v>
       </c>
       <c r="E429" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="G429" t="s">
         <v>416</v>
@@ -16578,7 +16563,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C430" t="s">
         <v>11</v>
@@ -16587,24 +16572,24 @@
         <v>12</v>
       </c>
       <c r="E430" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="G430" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H430" t="s">
         <v>204</v>
       </c>
       <c r="I430" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J430" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C431" t="s">
         <v>11</v>
@@ -16613,18 +16598,18 @@
         <v>12</v>
       </c>
       <c r="E431" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G431" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J431" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C432" t="s">
         <v>11</v>
@@ -16633,7 +16618,7 @@
         <v>12</v>
       </c>
       <c r="E432" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="G432" t="s">
         <v>78</v>
@@ -16650,7 +16635,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C433" t="s">
         <v>11</v>
@@ -16659,18 +16644,18 @@
         <v>12</v>
       </c>
       <c r="E433" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G433" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J433" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C434" t="s">
         <v>11</v>
@@ -16679,7 +16664,7 @@
         <v>12</v>
       </c>
       <c r="E434" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="G434" t="s">
         <v>99</v>
@@ -16696,7 +16681,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C435" t="s">
         <v>11</v>
@@ -16705,7 +16690,7 @@
         <v>12</v>
       </c>
       <c r="E435" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="G435" t="s">
         <v>229</v>
@@ -16722,7 +16707,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C436" t="s">
         <v>11</v>
@@ -16731,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="E436" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="G436" t="s">
         <v>229</v>
@@ -16748,7 +16733,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C437" t="s">
         <v>11</v>
@@ -16757,7 +16742,7 @@
         <v>12</v>
       </c>
       <c r="E437" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="G437" t="s">
         <v>229</v>
@@ -16774,7 +16759,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C438" t="s">
         <v>11</v>
@@ -16783,7 +16768,7 @@
         <v>12</v>
       </c>
       <c r="E438" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="G438" t="s">
         <v>99</v>
@@ -16800,7 +16785,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C439" t="s">
         <v>11</v>
@@ -16809,18 +16794,18 @@
         <v>12</v>
       </c>
       <c r="E439" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="G439" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J439" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C440" t="s">
         <v>11</v>
@@ -16829,24 +16814,24 @@
         <v>12</v>
       </c>
       <c r="E440" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="G440" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H440" t="s">
         <v>204</v>
       </c>
       <c r="I440" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J440" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C441" t="s">
         <v>11</v>
@@ -16855,18 +16840,18 @@
         <v>12</v>
       </c>
       <c r="E441" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G441" t="s">
         <v>1138</v>
       </c>
-      <c r="G441" t="s">
-        <v>1142</v>
-      </c>
       <c r="J441" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="C442" t="s">
         <v>11</v>
@@ -16875,7 +16860,7 @@
         <v>12</v>
       </c>
       <c r="E442" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="G442" t="s">
         <v>35</v>
@@ -16892,7 +16877,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C443" t="s">
         <v>11</v>
@@ -16901,13 +16886,13 @@
         <v>12</v>
       </c>
       <c r="E443" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G443" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J443" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
   </sheetData>

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SourceMinder_Product_Contacts!$A$1:$J$573</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="1498">
   <si>
     <t>Viewpoint CS</t>
   </si>
@@ -2361,12 +2360,6 @@
     <t>CAGEN</t>
   </si>
   <si>
-    <t>[{"PMFKEY":"thoro06"},{"PMFKEY":"brete05"}]</t>
-  </si>
-  <si>
-    <t>thoro06;brete05</t>
-  </si>
-  <si>
     <t>General Services  for DB2</t>
   </si>
   <si>
@@ -4510,6 +4503,24 @@
   </si>
   <si>
     <t>PTE</t>
+  </si>
+  <si>
+    <t>JOHLE05;THORO06</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"THORO06"},{"PMFKEY":"JOHLE05"}]</t>
+  </si>
+  <si>
+    <t>GORSU02;MALTR01;SAJNA02;TUCJO02</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"TUCJO02"},{"PMFKEY":"GORSU02"},{"PMFKEY":"MALTR01"},{"PMFKEY":"SAJNA02"}]</t>
+  </si>
+  <si>
+    <t>BERBE02;FISJA01</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"BERBE02"},{"PMFKEY":"FISJA01"}]</t>
   </si>
 </sst>
 </file>
@@ -4916,8 +4927,8 @@
   <dimension ref="A1:J572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E385" sqref="E385"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G326" sqref="G326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4950,7 +4961,7 @@
         <v>448</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>449</v>
@@ -4985,7 +4996,7 @@
         <v>455</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
@@ -4994,7 +5005,7 @@
         <v>107</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5063,7 +5074,7 @@
     </row>
     <row r="5" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -5073,16 +5084,16 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5105,7 +5116,7 @@
         <v>464</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>15</v>
@@ -5114,12 +5125,12 @@
         <v>107</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -5129,16 +5140,16 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5289,7 +5300,7 @@
         <v>470</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>15</v>
@@ -5298,7 +5309,7 @@
         <v>471</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5335,7 +5346,7 @@
     </row>
     <row r="14" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
@@ -5348,20 +5359,20 @@
         <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -5374,20 +5385,20 @@
         <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -5397,11 +5408,11 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>7</v>
@@ -5410,7 +5421,7 @@
         <v>684</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5479,7 +5490,7 @@
     </row>
     <row r="19" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -5492,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>480</v>
@@ -5539,7 +5550,7 @@
     </row>
     <row r="21" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -5549,16 +5560,16 @@
         <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5591,7 +5602,7 @@
     </row>
     <row r="23" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -5604,7 +5615,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>490</v>
@@ -5637,7 +5648,7 @@
         <v>496</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
@@ -5646,7 +5657,7 @@
         <v>107</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5669,7 +5680,7 @@
         <v>501</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
@@ -5678,7 +5689,7 @@
         <v>144</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5747,7 +5758,7 @@
     </row>
     <row r="28" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -5757,7 +5768,7 @@
         <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
@@ -5775,7 +5786,7 @@
     </row>
     <row r="29" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
@@ -5788,20 +5799,20 @@
         <v>4</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -5811,21 +5822,21 @@
         <v>31</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -5838,20 +5849,20 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
@@ -5864,20 +5875,20 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -5890,15 +5901,15 @@
         <v>4</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5931,7 +5942,7 @@
     </row>
     <row r="35" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -5941,15 +5952,15 @@
         <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="H35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5986,7 +5997,7 @@
     </row>
     <row r="37" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -5996,16 +6007,16 @@
         <v>31</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6028,7 +6039,7 @@
         <v>509</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>15</v>
@@ -6037,7 +6048,7 @@
         <v>107</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6060,7 +6071,7 @@
         <v>470</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>15</v>
@@ -6069,12 +6080,12 @@
         <v>471</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
@@ -6084,11 +6095,11 @@
         <v>31</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>176</v>
@@ -6097,7 +6108,7 @@
         <v>177</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6166,7 +6177,7 @@
     </row>
     <row r="43" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
@@ -6214,7 +6225,7 @@
         <v>501</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>15</v>
@@ -6223,7 +6234,7 @@
         <v>144</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6246,7 +6257,7 @@
         <v>501</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>15</v>
@@ -6255,7 +6266,7 @@
         <v>144</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6292,7 +6303,7 @@
     </row>
     <row r="47" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
@@ -6305,20 +6316,20 @@
         <v>4</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -6328,11 +6339,11 @@
         <v>31</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>15</v>
@@ -6341,12 +6352,12 @@
         <v>144</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
@@ -6359,15 +6370,15 @@
         <v>4</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6390,7 +6401,7 @@
         <v>458</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>15</v>
@@ -6399,12 +6410,12 @@
         <v>115</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
@@ -6417,15 +6428,15 @@
         <v>4</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6458,7 +6469,7 @@
     </row>
     <row r="53" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
@@ -6471,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>527</v>
@@ -6531,7 +6542,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>536</v>
@@ -6561,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>536</v>
@@ -6724,7 +6735,7 @@
     </row>
     <row r="62" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
@@ -6737,20 +6748,20 @@
         <v>4</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
@@ -6763,15 +6774,15 @@
         <v>4</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6794,7 +6805,7 @@
         <v>563</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>15</v>
@@ -6803,12 +6814,12 @@
         <v>471</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
@@ -6821,10 +6832,10 @@
         <v>4</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -6834,7 +6845,7 @@
     </row>
     <row r="66" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
@@ -6847,20 +6858,20 @@
         <v>4</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
@@ -6873,20 +6884,20 @@
         <v>4</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
@@ -6899,15 +6910,15 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6930,7 +6941,7 @@
         <v>563</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>15</v>
@@ -6939,7 +6950,7 @@
         <v>471</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7070,7 +7081,7 @@
     </row>
     <row r="74" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
@@ -7080,11 +7091,11 @@
         <v>31</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>176</v>
@@ -7093,7 +7104,7 @@
         <v>177</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7130,7 +7141,7 @@
     </row>
     <row r="76" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
@@ -7143,20 +7154,20 @@
         <v>4</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
@@ -7166,11 +7177,11 @@
         <v>31</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>176</v>
@@ -7179,12 +7190,12 @@
         <v>177</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
@@ -7194,11 +7205,11 @@
         <v>31</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>73</v>
@@ -7207,7 +7218,7 @@
         <v>87</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7230,7 +7241,7 @@
         <v>501</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>15</v>
@@ -7239,12 +7250,12 @@
         <v>144</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
@@ -7257,20 +7268,20 @@
         <v>4</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
@@ -7280,7 +7291,7 @@
         <v>31</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
@@ -7298,7 +7309,7 @@
     </row>
     <row r="82" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
@@ -7311,20 +7322,20 @@
         <v>4</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
@@ -7337,15 +7348,15 @@
         <v>4</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7382,7 +7393,7 @@
     </row>
     <row r="85" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
@@ -7392,11 +7403,11 @@
         <v>31</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>176</v>
@@ -7405,12 +7416,12 @@
         <v>177</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
@@ -7423,15 +7434,15 @@
         <v>4</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7451,16 +7462,16 @@
         <v>4</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>580</v>
@@ -7518,7 +7529,7 @@
         <v>592</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>15</v>
@@ -7527,7 +7538,7 @@
         <v>144</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7550,7 +7561,7 @@
         <v>596</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>143</v>
+        <v>1495</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>15</v>
@@ -7559,7 +7570,7 @@
         <v>144</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>145</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7582,7 +7593,7 @@
         <v>601</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>15</v>
@@ -7591,7 +7602,7 @@
         <v>471</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7614,7 +7625,7 @@
         <v>606</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>15</v>
@@ -7623,7 +7634,7 @@
         <v>107</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7646,7 +7657,7 @@
         <v>611</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>73</v>
@@ -7655,12 +7666,12 @@
         <v>133</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5" t="s">
@@ -7673,17 +7684,17 @@
         <v>4</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7723,7 +7734,7 @@
         <v>211</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>2</v>
@@ -7784,7 +7795,7 @@
     </row>
     <row r="98" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
@@ -7797,15 +7808,15 @@
         <v>4</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7828,7 +7839,7 @@
         <v>615</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>15</v>
@@ -7837,7 +7848,7 @@
         <v>471</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7860,7 +7871,7 @@
         <v>470</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>15</v>
@@ -7869,7 +7880,7 @@
         <v>471</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7892,7 +7903,7 @@
         <v>470</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>15</v>
@@ -7901,12 +7912,12 @@
         <v>471</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5" t="s">
@@ -7919,15 +7930,15 @@
         <v>4</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7964,7 +7975,7 @@
     </row>
     <row r="104" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
@@ -7977,7 +7988,7 @@
         <v>4</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>490</v>
@@ -8024,7 +8035,7 @@
     </row>
     <row r="106" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
@@ -8034,11 +8045,11 @@
         <v>31</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>73</v>
@@ -8047,7 +8058,7 @@
         <v>87</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8134,7 +8145,7 @@
         <v>501</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>15</v>
@@ -8166,7 +8177,7 @@
         <v>501</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>15</v>
@@ -8175,7 +8186,7 @@
         <v>144</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8198,7 +8209,7 @@
         <v>458</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>176</v>
@@ -8207,7 +8218,7 @@
         <v>177</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8230,7 +8241,7 @@
         <v>501</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>15</v>
@@ -8239,7 +8250,7 @@
         <v>144</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8262,7 +8273,7 @@
         <v>638</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>15</v>
@@ -8271,7 +8282,7 @@
         <v>471</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8326,7 +8337,7 @@
         <v>642</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>15</v>
@@ -8335,7 +8346,7 @@
         <v>144</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8358,7 +8369,7 @@
         <v>645</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>15</v>
@@ -8367,7 +8378,7 @@
         <v>144</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8448,7 +8459,7 @@
         <v>464</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>15</v>
@@ -8457,7 +8468,7 @@
         <v>107</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8522,7 +8533,7 @@
     </row>
     <row r="122" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
@@ -8532,7 +8543,7 @@
         <v>31</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
@@ -8541,7 +8552,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8564,7 +8575,7 @@
         <v>648</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>15</v>
@@ -8573,12 +8584,12 @@
         <v>107</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5" t="s">
@@ -8591,20 +8602,20 @@
         <v>4</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
@@ -8617,15 +8628,15 @@
         <v>4</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8662,7 +8673,7 @@
     </row>
     <row r="127" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
@@ -8672,11 +8683,11 @@
         <v>31</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>15</v>
@@ -8685,7 +8696,7 @@
         <v>80</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8754,7 +8765,7 @@
     </row>
     <row r="130" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
@@ -8764,11 +8775,11 @@
         <v>31</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>7</v>
@@ -8777,7 +8788,7 @@
         <v>506</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8832,7 +8843,7 @@
         <v>668</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>15</v>
@@ -8841,7 +8852,7 @@
         <v>471</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8864,7 +8875,7 @@
         <v>501</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>15</v>
@@ -8873,7 +8884,7 @@
         <v>144</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8896,7 +8907,7 @@
         <v>645</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>15</v>
@@ -8905,7 +8916,7 @@
         <v>144</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8928,7 +8939,7 @@
         <v>501</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>15</v>
@@ -8937,7 +8948,7 @@
         <v>144</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8960,7 +8971,7 @@
         <v>645</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>15</v>
@@ -8969,7 +8980,7 @@
         <v>144</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9050,7 +9061,7 @@
         <v>645</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>15</v>
@@ -9059,7 +9070,7 @@
         <v>144</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9210,7 +9221,7 @@
         <v>501</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>15</v>
@@ -9219,7 +9230,7 @@
         <v>144</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9306,7 +9317,7 @@
         <v>470</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>15</v>
@@ -9315,12 +9326,12 @@
         <v>471</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
@@ -9330,11 +9341,11 @@
         <v>31</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>15</v>
@@ -9343,12 +9354,12 @@
         <v>144</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
@@ -9358,11 +9369,11 @@
         <v>31</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>7</v>
@@ -9371,12 +9382,12 @@
         <v>684</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
@@ -9386,11 +9397,11 @@
         <v>31</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>7</v>
@@ -9399,7 +9410,7 @@
         <v>684</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9454,7 +9465,7 @@
         <v>700</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>15</v>
@@ -9463,7 +9474,7 @@
         <v>115</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9483,7 +9494,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>210</v>
@@ -9518,7 +9529,7 @@
         <v>501</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>15</v>
@@ -9527,7 +9538,7 @@
         <v>144</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9550,7 +9561,7 @@
         <v>648</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>15</v>
@@ -9559,7 +9570,7 @@
         <v>107</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9646,7 +9657,7 @@
         <v>700</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>15</v>
@@ -9655,7 +9666,7 @@
         <v>115</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9678,7 +9689,7 @@
         <v>458</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>15</v>
@@ -9687,7 +9698,7 @@
         <v>115</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9724,7 +9735,7 @@
     </row>
     <row r="161" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
@@ -9734,11 +9745,11 @@
         <v>31</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>15</v>
@@ -9747,7 +9758,7 @@
         <v>144</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9784,7 +9795,7 @@
     </row>
     <row r="163" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
@@ -9794,11 +9805,11 @@
         <v>31</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>15</v>
@@ -9807,7 +9818,7 @@
         <v>115</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9844,7 +9855,7 @@
     </row>
     <row r="165" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
@@ -9854,21 +9865,21 @@
         <v>31</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
@@ -9878,21 +9889,21 @@
         <v>31</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
@@ -9902,21 +9913,21 @@
         <v>31</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
@@ -9926,21 +9937,21 @@
         <v>31</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
@@ -9950,21 +9961,21 @@
         <v>31</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
@@ -9974,21 +9985,21 @@
         <v>31</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
@@ -9998,16 +10009,16 @@
         <v>31</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10094,7 +10105,7 @@
         <v>458</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>15</v>
@@ -10103,7 +10114,7 @@
         <v>25</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10126,7 +10137,7 @@
         <v>458</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>7</v>
@@ -10135,7 +10146,7 @@
         <v>25</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10220,7 +10231,7 @@
         <v>458</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>15</v>
@@ -10229,7 +10240,7 @@
         <v>115</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10264,7 +10275,7 @@
     </row>
     <row r="180" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="5" t="s">
@@ -10277,7 +10288,7 @@
         <v>4</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>542</v>
@@ -10380,7 +10391,7 @@
     </row>
     <row r="184" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
@@ -10390,7 +10401,7 @@
         <v>31</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
@@ -10490,7 +10501,7 @@
         <v>501</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>15</v>
@@ -10499,7 +10510,7 @@
         <v>144</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10517,19 +10528,19 @@
         <v>736</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10545,16 +10556,16 @@
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="J189" s="5" t="s">
         <v>737</v>
@@ -10562,7 +10573,7 @@
     </row>
     <row r="190" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
@@ -10572,25 +10583,25 @@
         <v>31</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="6" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
@@ -10600,7 +10611,7 @@
         <v>31</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2" t="s">
@@ -10682,7 +10693,7 @@
     </row>
     <row r="194" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
@@ -10692,21 +10703,21 @@
         <v>31</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
@@ -10716,16 +10727,16 @@
         <v>31</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10822,7 +10833,7 @@
     </row>
     <row r="199" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -10832,21 +10843,21 @@
         <v>31</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="5" t="s">
@@ -10859,15 +10870,15 @@
         <v>4</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10922,7 +10933,7 @@
         <v>501</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>15</v>
@@ -10931,7 +10942,7 @@
         <v>144</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11178,7 +11189,7 @@
         <v>645</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>15</v>
@@ -11187,7 +11198,7 @@
         <v>144</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11274,7 +11285,7 @@
         <v>501</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>15</v>
@@ -11283,7 +11294,7 @@
         <v>144</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11306,7 +11317,7 @@
         <v>501</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>15</v>
@@ -11315,7 +11326,7 @@
         <v>144</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11338,7 +11349,7 @@
         <v>501</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>15</v>
@@ -11347,7 +11358,7 @@
         <v>144</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11370,7 +11381,7 @@
         <v>501</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>15</v>
@@ -11379,7 +11390,7 @@
         <v>144</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11402,7 +11413,7 @@
         <v>501</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>15</v>
@@ -11411,7 +11422,7 @@
         <v>144</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11434,7 +11445,7 @@
         <v>648</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>15</v>
@@ -11443,7 +11454,7 @@
         <v>107</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11480,7 +11491,7 @@
     </row>
     <row r="220" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -11490,16 +11501,16 @@
         <v>31</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11522,7 +11533,7 @@
         <v>664</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>15</v>
@@ -11531,7 +11542,7 @@
         <v>25</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11554,7 +11565,7 @@
         <v>664</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>15</v>
@@ -11563,7 +11574,7 @@
         <v>25</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11618,7 +11629,7 @@
         <v>664</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>15</v>
@@ -11627,7 +11638,7 @@
         <v>25</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11696,7 +11707,7 @@
     </row>
     <row r="227" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -11706,16 +11717,16 @@
         <v>31</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11802,7 +11813,7 @@
         <v>501</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>15</v>
@@ -11811,7 +11822,7 @@
         <v>144</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11866,7 +11877,7 @@
         <v>458</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>777</v>
+        <v>1493</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>15</v>
@@ -11875,12 +11886,12 @@
         <v>773</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>778</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>498</v>
@@ -11898,7 +11909,7 @@
         <v>501</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>15</v>
@@ -11907,7 +11918,7 @@
         <v>144</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11976,7 +11987,7 @@
     </row>
     <row r="236" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="5" t="s">
@@ -11989,20 +12000,20 @@
         <v>4</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="5" t="s">
@@ -12015,20 +12026,20 @@
         <v>4</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="5" t="s">
@@ -12041,20 +12052,20 @@
         <v>4</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="5" t="s">
@@ -12067,20 +12078,20 @@
         <v>4</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="5" t="s">
@@ -12093,20 +12104,20 @@
         <v>4</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="5" t="s">
@@ -12119,20 +12130,20 @@
         <v>4</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="5" t="s">
@@ -12145,20 +12156,20 @@
         <v>4</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="5" t="s">
@@ -12171,20 +12182,20 @@
         <v>4</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="5" t="s">
@@ -12197,20 +12208,20 @@
         <v>4</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="5" t="s">
@@ -12223,20 +12234,20 @@
         <v>4</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="5" t="s">
@@ -12249,20 +12260,20 @@
         <v>4</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="5" t="s">
@@ -12275,20 +12286,20 @@
         <v>4</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="5" t="s">
@@ -12301,20 +12312,20 @@
         <v>4</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="5" t="s">
@@ -12327,20 +12338,20 @@
         <v>4</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="5" t="s">
@@ -12353,20 +12364,20 @@
         <v>4</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="5" t="s">
@@ -12379,20 +12390,20 @@
         <v>4</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="5" t="s">
@@ -12405,22 +12416,22 @@
         <v>4</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H252" s="5"/>
       <c r="I252" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2" t="s">
@@ -12430,7 +12441,7 @@
         <v>31</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2" t="s">
@@ -12448,7 +12459,7 @@
     </row>
     <row r="254" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
@@ -12458,7 +12469,7 @@
         <v>31</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2" t="s">
@@ -12476,10 +12487,10 @@
     </row>
     <row r="255" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>2</v>
@@ -12508,10 +12519,10 @@
     </row>
     <row r="256" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>2</v>
@@ -12523,10 +12534,10 @@
         <v>4</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>7</v>
@@ -12535,15 +12546,15 @@
         <v>624</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>2</v>
@@ -12555,10 +12566,10 @@
         <v>4</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>7</v>
@@ -12567,7 +12578,7 @@
         <v>624</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12604,7 +12615,7 @@
     </row>
     <row r="259" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="5" t="s">
@@ -12617,20 +12628,20 @@
         <v>4</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="5" t="s">
@@ -12643,20 +12654,20 @@
         <v>4</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>644</v>
@@ -12674,7 +12685,7 @@
         <v>645</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>15</v>
@@ -12683,15 +12694,15 @@
         <v>144</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>2</v>
@@ -12700,13 +12711,13 @@
         <v>31</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>648</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>15</v>
@@ -12715,7 +12726,7 @@
         <v>107</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12750,7 +12761,7 @@
     </row>
     <row r="264" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="5" t="s">
@@ -12763,20 +12774,20 @@
         <v>4</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2" t="s">
@@ -12786,7 +12797,7 @@
         <v>31</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2" t="s">
@@ -12804,10 +12815,10 @@
     </row>
     <row r="266" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -12816,13 +12827,13 @@
         <v>31</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>458</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>7</v>
@@ -12831,12 +12842,12 @@
         <v>684</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="s">
@@ -12846,11 +12857,11 @@
         <v>31</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>7</v>
@@ -12859,15 +12870,15 @@
         <v>684</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>2</v>
@@ -12876,28 +12887,28 @@
         <v>31</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>2</v>
@@ -12906,30 +12917,30 @@
         <v>119</v>
       </c>
       <c r="E269" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I269" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="F269" s="5" t="s">
+      <c r="J269" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="G269" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="H269" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I269" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J269" s="5" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>2</v>
@@ -12941,27 +12952,27 @@
         <v>4</v>
       </c>
       <c r="F270" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J270" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="G270" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="H270" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I270" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J270" s="5" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>2</v>
@@ -12973,24 +12984,24 @@
         <v>4</v>
       </c>
       <c r="F271" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="J271" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="G271" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="H271" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I271" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J271" s="5" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B272" s="5"/>
       <c r="C272" s="5" t="s">
@@ -13003,15 +13014,15 @@
         <v>4</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13112,7 +13123,7 @@
     </row>
     <row r="276" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>498</v>
@@ -13130,7 +13141,7 @@
         <v>501</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>15</v>
@@ -13139,12 +13150,12 @@
         <v>144</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>498</v>
@@ -13156,13 +13167,13 @@
         <v>499</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>501</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>15</v>
@@ -13171,12 +13182,12 @@
         <v>144</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B278" s="5"/>
       <c r="C278" s="5" t="s">
@@ -13189,15 +13200,15 @@
         <v>4</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13205,7 +13216,7 @@
         <v>47</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>2</v>
@@ -13214,13 +13225,13 @@
         <v>31</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H279" s="2" t="s">
         <v>15</v>
@@ -13229,7 +13240,7 @@
         <v>25</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13266,10 +13277,10 @@
     </row>
     <row r="281" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>2</v>
@@ -13284,7 +13295,7 @@
         <v>761</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H281" s="5" t="s">
         <v>15</v>
@@ -13298,10 +13309,10 @@
     </row>
     <row r="282" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>2</v>
@@ -13310,13 +13321,13 @@
         <v>31</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>15</v>
@@ -13325,7 +13336,7 @@
         <v>25</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13362,7 +13373,7 @@
     </row>
     <row r="284" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
@@ -13372,11 +13383,11 @@
         <v>31</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>7</v>
@@ -13385,12 +13396,12 @@
         <v>684</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B285" s="5"/>
       <c r="C285" s="5" t="s">
@@ -13403,20 +13414,20 @@
         <v>4</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
@@ -13426,7 +13437,7 @@
         <v>31</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2" t="s">
@@ -13508,10 +13519,10 @@
     </row>
     <row r="289" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>2</v>
@@ -13520,7 +13531,7 @@
         <v>31</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>458</v>
@@ -13540,10 +13551,10 @@
     </row>
     <row r="290" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>2</v>
@@ -13555,19 +13566,19 @@
         <v>4</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H290" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J290" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13586,7 +13597,7 @@
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>15</v>
@@ -13595,7 +13606,7 @@
         <v>80</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13632,7 +13643,7 @@
     </row>
     <row r="293" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>476</v>
@@ -13644,7 +13655,7 @@
         <v>31</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>458</v>
@@ -13667,36 +13678,36 @@
         <v>27</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F294" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="E294" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>833</v>
-      </c>
       <c r="G294" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="295" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B295" s="5"/>
       <c r="C295" s="5" t="s">
@@ -13709,20 +13720,20 @@
         <v>4</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B296" s="5"/>
       <c r="C296" s="5" t="s">
@@ -13735,22 +13746,22 @@
         <v>4</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H296" s="5"/>
       <c r="I296" s="5" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J296" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>498</v>
@@ -13768,7 +13779,7 @@
         <v>501</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>15</v>
@@ -13777,12 +13788,12 @@
         <v>144</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>498</v>
@@ -13800,7 +13811,7 @@
         <v>501</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H298" s="2" t="s">
         <v>15</v>
@@ -13809,7 +13820,7 @@
         <v>144</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13846,10 +13857,10 @@
     </row>
     <row r="300" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>2</v>
@@ -13858,13 +13869,13 @@
         <v>342</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>458</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H300" s="2" t="s">
         <v>7</v>
@@ -13873,15 +13884,15 @@
         <v>115</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>2</v>
@@ -13893,7 +13904,7 @@
         <v>4</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G301" s="5" t="s">
         <v>184</v>
@@ -13910,10 +13921,10 @@
     </row>
     <row r="302" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>2</v>
@@ -13922,7 +13933,7 @@
         <v>512</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>611</v>
@@ -13942,7 +13953,7 @@
     </row>
     <row r="303" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2" t="s">
@@ -13952,21 +13963,21 @@
         <v>31</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
       <c r="J303" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="2" t="s">
@@ -13976,11 +13987,11 @@
         <v>31</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H304" s="2" t="s">
         <v>176</v>
@@ -13989,15 +14000,15 @@
         <v>177</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>2</v>
@@ -14006,13 +14017,13 @@
         <v>31</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H305" s="2" t="s">
         <v>15</v>
@@ -14021,15 +14032,15 @@
         <v>25</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>2</v>
@@ -14058,10 +14069,10 @@
     </row>
     <row r="307" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
@@ -14090,34 +14101,34 @@
     </row>
     <row r="308" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="E308" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D308" s="2" t="s">
+      <c r="F308" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="E308" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>854</v>
-      </c>
       <c r="G308" s="2" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>176</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14186,7 +14197,7 @@
     </row>
     <row r="311" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" s="2" t="s">
@@ -14196,11 +14207,11 @@
         <v>31</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F311" s="2"/>
       <c r="G311" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H311" s="2" t="s">
         <v>7</v>
@@ -14209,7 +14220,7 @@
         <v>506</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14246,7 +14257,7 @@
     </row>
     <row r="313" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>498</v>
@@ -14264,7 +14275,7 @@
         <v>501</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>15</v>
@@ -14273,7 +14284,7 @@
         <v>144</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14310,7 +14321,7 @@
     </row>
     <row r="315" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" s="2" t="s">
@@ -14320,21 +14331,21 @@
         <v>31</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="2" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
       <c r="J315" s="2" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" s="2" t="s">
@@ -14344,21 +14355,21 @@
         <v>31</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" s="2" t="s">
-        <v>1354</v>
+        <v>1497</v>
       </c>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
       <c r="J316" s="2" t="s">
-        <v>1355</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B317" s="5"/>
       <c r="C317" s="5" t="s">
@@ -14371,20 +14382,20 @@
         <v>4</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2" t="s">
@@ -14394,11 +14405,11 @@
         <v>31</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>15</v>
@@ -14407,12 +14418,12 @@
         <v>80</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B319" s="5"/>
       <c r="C319" s="5" t="s">
@@ -14425,15 +14436,15 @@
         <v>4</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14470,10 +14481,10 @@
     </row>
     <row r="321" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>2</v>
@@ -14485,7 +14496,7 @@
         <v>4</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G321" s="5" t="s">
         <v>71</v>
@@ -14534,10 +14545,10 @@
     </row>
     <row r="323" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>2</v>
@@ -14546,7 +14557,7 @@
         <v>512</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>611</v>
@@ -14566,7 +14577,7 @@
     </row>
     <row r="324" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>324</v>
@@ -14581,7 +14592,7 @@
         <v>4</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G324" s="5" t="s">
         <v>203</v>
@@ -14598,7 +14609,7 @@
     </row>
     <row r="325" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B325" s="5"/>
       <c r="C325" s="5" t="s">
@@ -14611,20 +14622,20 @@
         <v>4</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" s="2" t="s">
@@ -14634,16 +14645,16 @@
         <v>31</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2" t="s">
-        <v>1354</v>
+        <v>1497</v>
       </c>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
       <c r="J326" s="2" t="s">
-        <v>1355</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14680,10 +14691,10 @@
     </row>
     <row r="328" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>2</v>
@@ -14698,7 +14709,7 @@
         <v>611</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H328" s="2" t="s">
         <v>73</v>
@@ -14712,10 +14723,10 @@
     </row>
     <row r="329" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>2</v>
@@ -14730,7 +14741,7 @@
         <v>611</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>73</v>
@@ -14744,10 +14755,10 @@
     </row>
     <row r="330" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>2</v>
@@ -14762,7 +14773,7 @@
         <v>611</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H330" s="2" t="s">
         <v>73</v>
@@ -14776,10 +14787,10 @@
     </row>
     <row r="331" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>2</v>
@@ -14794,7 +14805,7 @@
         <v>611</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H331" s="2" t="s">
         <v>73</v>
@@ -14808,10 +14819,10 @@
     </row>
     <row r="332" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>2</v>
@@ -14826,7 +14837,7 @@
         <v>611</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H332" s="2" t="s">
         <v>73</v>
@@ -14840,10 +14851,10 @@
     </row>
     <row r="333" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>12</v>
@@ -14858,7 +14869,7 @@
         <v>611</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H333" s="2" t="s">
         <v>73</v>
@@ -14872,10 +14883,10 @@
     </row>
     <row r="334" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>2</v>
@@ -14904,7 +14915,7 @@
     </row>
     <row r="335" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" s="2" t="s">
@@ -14914,11 +14925,11 @@
         <v>31</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H335" s="2" t="s">
         <v>73</v>
@@ -14927,7 +14938,7 @@
         <v>133</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14964,7 +14975,7 @@
     </row>
     <row r="337" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B337" s="5"/>
       <c r="C337" s="5" t="s">
@@ -14977,20 +14988,20 @@
         <v>4</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G337" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
       <c r="J337" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B338" s="5"/>
       <c r="C338" s="5" t="s">
@@ -15003,20 +15014,20 @@
         <v>4</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G338" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
       <c r="J338" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B339" s="5"/>
       <c r="C339" s="5" t="s">
@@ -15029,23 +15040,23 @@
         <v>4</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
       <c r="J339" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>2</v>
@@ -15057,7 +15068,7 @@
         <v>4</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G340" s="5" t="s">
         <v>524</v>
@@ -15074,10 +15085,10 @@
     </row>
     <row r="341" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>2</v>
@@ -15089,7 +15100,7 @@
         <v>4</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G341" s="5" t="s">
         <v>524</v>
@@ -15106,7 +15117,7 @@
     </row>
     <row r="342" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>173</v>
@@ -15121,7 +15132,7 @@
         <v>4</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G342" s="5" t="s">
         <v>524</v>
@@ -15138,10 +15149,10 @@
     </row>
     <row r="343" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>2</v>
@@ -15153,7 +15164,7 @@
         <v>4</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G343" s="5" t="s">
         <v>524</v>
@@ -15170,10 +15181,10 @@
     </row>
     <row r="344" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>2</v>
@@ -15185,7 +15196,7 @@
         <v>4</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G344" s="5" t="s">
         <v>524</v>
@@ -15202,7 +15213,7 @@
     </row>
     <row r="345" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B345" s="5" t="s">
         <v>112</v>
@@ -15217,7 +15228,7 @@
         <v>4</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G345" s="5" t="s">
         <v>524</v>
@@ -15234,10 +15245,10 @@
     </row>
     <row r="346" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>2</v>
@@ -15249,7 +15260,7 @@
         <v>4</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G346" s="5" t="s">
         <v>524</v>
@@ -15266,7 +15277,7 @@
     </row>
     <row r="347" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>173</v>
@@ -15281,7 +15292,7 @@
         <v>4</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G347" s="5" t="s">
         <v>524</v>
@@ -15298,7 +15309,7 @@
     </row>
     <row r="348" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>635</v>
@@ -15313,7 +15324,7 @@
         <v>4</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G348" s="5" t="s">
         <v>524</v>
@@ -15330,10 +15341,10 @@
     </row>
     <row r="349" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>2</v>
@@ -15345,7 +15356,7 @@
         <v>4</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G349" s="5" t="s">
         <v>524</v>
@@ -15362,7 +15373,7 @@
     </row>
     <row r="350" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B350" s="5" t="s">
         <v>173</v>
@@ -15377,7 +15388,7 @@
         <v>4</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G350" s="5" t="s">
         <v>524</v>
@@ -15394,7 +15405,7 @@
     </row>
     <row r="351" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" s="2" t="s">
@@ -15404,11 +15415,11 @@
         <v>31</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H351" s="2" t="s">
         <v>15</v>
@@ -15417,12 +15428,12 @@
         <v>115</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B352" s="5"/>
       <c r="C352" s="5" t="s">
@@ -15435,10 +15446,10 @@
         <v>4</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G352" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H352" s="5"/>
       <c r="I352" s="5" t="s">
@@ -15450,10 +15461,10 @@
     </row>
     <row r="353" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>137</v>
@@ -15482,7 +15493,7 @@
     </row>
     <row r="354" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>498</v>
@@ -15497,10 +15508,10 @@
         <v>500</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H354" s="2" t="s">
         <v>15</v>
@@ -15509,7 +15520,7 @@
         <v>144</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="355" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15546,19 +15557,19 @@
     </row>
     <row r="356" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D356" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="E356" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>611</v>
@@ -15590,13 +15601,13 @@
         <v>31</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>15</v>
@@ -15605,7 +15616,7 @@
         <v>25</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="358" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15677,7 +15688,7 @@
         <v>56</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>2</v>
@@ -15686,7 +15697,7 @@
         <v>31</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>664</v>
@@ -15770,10 +15781,10 @@
     </row>
     <row r="363" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>12</v>
@@ -15785,7 +15796,7 @@
         <v>4</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G363" s="5" t="s">
         <v>524</v>
@@ -15884,7 +15895,7 @@
         <v>14</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>15</v>
@@ -15896,7 +15907,7 @@
     </row>
     <row r="367" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" s="2" t="s">
@@ -15906,16 +15917,16 @@
         <v>31</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
       <c r="J367" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="368" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15938,7 +15949,7 @@
         <v>18</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="H368" s="3" t="s">
         <v>15</v>
@@ -15950,7 +15961,7 @@
     </row>
     <row r="369" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" s="2" t="s">
@@ -15960,11 +15971,11 @@
         <v>31</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>176</v>
@@ -15973,12 +15984,12 @@
         <v>177</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="370" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" s="2" t="s">
@@ -15988,18 +15999,18 @@
         <v>31</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H370" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I370" s="2"/>
       <c r="J370" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="371" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16036,7 +16047,7 @@
     </row>
     <row r="372" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" s="2" t="s">
@@ -16046,39 +16057,39 @@
         <v>31</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
       <c r="J372" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D373" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="E373" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D373" s="2" t="s">
+      <c r="F373" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="E373" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="F373" s="2" t="s">
-        <v>924</v>
-      </c>
       <c r="G373" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H373" s="2" t="s">
         <v>15</v>
@@ -16087,15 +16098,15 @@
         <v>80</v>
       </c>
       <c r="J373" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="374" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>2</v>
@@ -16107,10 +16118,10 @@
         <v>4</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H374" s="5" t="s">
         <v>7</v>
@@ -16119,12 +16130,12 @@
         <v>624</v>
       </c>
       <c r="J374" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>498</v>
@@ -16142,7 +16153,7 @@
         <v>501</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>15</v>
@@ -16151,12 +16162,12 @@
         <v>144</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>498</v>
@@ -16174,7 +16185,7 @@
         <v>501</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>15</v>
@@ -16183,15 +16194,15 @@
         <v>144</v>
       </c>
       <c r="J376" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="377" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>2</v>
@@ -16203,19 +16214,19 @@
         <v>4</v>
       </c>
       <c r="F377" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="H377" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I377" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="G377" s="5" t="s">
+      <c r="J377" s="5" t="s">
         <v>933</v>
-      </c>
-      <c r="H377" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I377" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="J377" s="5" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="378" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16252,7 +16263,7 @@
     </row>
     <row r="379" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" s="2" t="s">
@@ -16262,24 +16273,24 @@
         <v>31</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
       <c r="J379" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="380" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>2</v>
@@ -16288,13 +16299,13 @@
         <v>512</v>
       </c>
       <c r="E380" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F380" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="F380" s="2" t="s">
-        <v>938</v>
-      </c>
       <c r="G380" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>15</v>
@@ -16303,12 +16314,12 @@
         <v>204</v>
       </c>
       <c r="J380" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="381" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>498</v>
@@ -16326,7 +16337,7 @@
         <v>501</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H381" s="2" t="s">
         <v>15</v>
@@ -16335,12 +16346,12 @@
         <v>144</v>
       </c>
       <c r="J381" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" s="2" t="s">
@@ -16350,21 +16361,21 @@
         <v>31</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" s="2" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
       <c r="J382" s="2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B383" s="5"/>
       <c r="C383" s="5" t="s">
@@ -16377,20 +16388,20 @@
         <v>4</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
       <c r="J383" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="384" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>644</v>
@@ -16408,7 +16419,7 @@
         <v>645</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>15</v>
@@ -16417,12 +16428,12 @@
         <v>144</v>
       </c>
       <c r="J384" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="385" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" s="2" t="s">
@@ -16432,11 +16443,11 @@
         <v>31</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>7</v>
@@ -16445,12 +16456,12 @@
         <v>506</v>
       </c>
       <c r="J385" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="386" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" s="2" t="s">
@@ -16460,11 +16471,11 @@
         <v>31</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="F386" s="2"/>
       <c r="G386" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>15</v>
@@ -16473,12 +16484,12 @@
         <v>144</v>
       </c>
       <c r="J386" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="387" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B387" s="5"/>
       <c r="C387" s="5" t="s">
@@ -16491,7 +16502,7 @@
         <v>4</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G387" s="5" t="s">
         <v>490</v>
@@ -16506,7 +16517,7 @@
     </row>
     <row r="388" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" s="2" t="s">
@@ -16516,11 +16527,11 @@
         <v>31</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H388" s="2" t="s">
         <v>15</v>
@@ -16529,12 +16540,12 @@
         <v>80</v>
       </c>
       <c r="J388" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="389" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>173</v>
@@ -16549,24 +16560,24 @@
         <v>4</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G389" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H389" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I389" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J389" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="390" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>498</v>
@@ -16584,7 +16595,7 @@
         <v>501</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H390" s="2" t="s">
         <v>15</v>
@@ -16593,7 +16604,7 @@
         <v>144</v>
       </c>
       <c r="J390" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16662,7 +16673,7 @@
     </row>
     <row r="393" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>498</v>
@@ -16680,7 +16691,7 @@
         <v>501</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H393" s="2" t="s">
         <v>15</v>
@@ -16689,12 +16700,12 @@
         <v>144</v>
       </c>
       <c r="J393" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="394" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>498</v>
@@ -16712,7 +16723,7 @@
         <v>501</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H394" s="2" t="s">
         <v>15</v>
@@ -16721,7 +16732,7 @@
         <v>144</v>
       </c>
       <c r="J394" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="395" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16758,7 +16769,7 @@
     </row>
     <row r="396" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>498</v>
@@ -16776,7 +16787,7 @@
         <v>501</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H396" s="2" t="s">
         <v>15</v>
@@ -16785,12 +16796,12 @@
         <v>144</v>
       </c>
       <c r="J396" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="397" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>498</v>
@@ -16808,7 +16819,7 @@
         <v>501</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H397" s="2" t="s">
         <v>15</v>
@@ -16817,12 +16828,12 @@
         <v>144</v>
       </c>
       <c r="J397" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="398" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>498</v>
@@ -16840,7 +16851,7 @@
         <v>501</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H398" s="2" t="s">
         <v>15</v>
@@ -16849,12 +16860,12 @@
         <v>144</v>
       </c>
       <c r="J398" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="399" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>498</v>
@@ -16872,7 +16883,7 @@
         <v>501</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H399" s="2" t="s">
         <v>15</v>
@@ -16881,12 +16892,12 @@
         <v>144</v>
       </c>
       <c r="J399" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="400" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>498</v>
@@ -16904,7 +16915,7 @@
         <v>501</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H400" s="2" t="s">
         <v>15</v>
@@ -16913,12 +16924,12 @@
         <v>144</v>
       </c>
       <c r="J400" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="401" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" s="2" t="s">
@@ -16928,11 +16939,11 @@
         <v>31</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H401" s="2" t="s">
         <v>15</v>
@@ -16941,12 +16952,12 @@
         <v>144</v>
       </c>
       <c r="J401" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="402" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>250</v>
@@ -16964,7 +16975,7 @@
         <v>761</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H402" s="5" t="s">
         <v>7</v>
@@ -16978,7 +16989,7 @@
     </row>
     <row r="403" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>498</v>
@@ -16996,7 +17007,7 @@
         <v>501</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H403" s="2" t="s">
         <v>15</v>
@@ -17005,12 +17016,12 @@
         <v>144</v>
       </c>
       <c r="J403" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="404" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" s="2" t="s">
@@ -17020,21 +17031,21 @@
         <v>31</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
       <c r="J404" s="2" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="405" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B405" s="2">
         <v>2.2999999999999998</v>
@@ -17046,13 +17057,13 @@
         <v>512</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>458</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H405" s="2" t="s">
         <v>15</v>
@@ -17061,12 +17072,12 @@
         <v>204</v>
       </c>
       <c r="J405" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="406" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>498</v>
@@ -17084,7 +17095,7 @@
         <v>501</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H406" s="2" t="s">
         <v>15</v>
@@ -17093,7 +17104,7 @@
         <v>144</v>
       </c>
       <c r="J406" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="407" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17113,7 +17124,7 @@
         <v>4</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G407" s="5" t="s">
         <v>414</v>
@@ -17177,7 +17188,7 @@
         <v>4</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G409" s="5" t="s">
         <v>414</v>
@@ -17207,7 +17218,7 @@
         <v>4</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="G410" s="5" t="s">
         <v>414</v>
@@ -17256,7 +17267,7 @@
     </row>
     <row r="412" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>498</v>
@@ -17274,7 +17285,7 @@
         <v>501</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>15</v>
@@ -17283,12 +17294,12 @@
         <v>144</v>
       </c>
       <c r="J412" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="413" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" s="2" t="s">
@@ -17298,11 +17309,11 @@
         <v>31</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>15</v>
@@ -17311,12 +17322,12 @@
         <v>80</v>
       </c>
       <c r="J413" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="414" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" s="2" t="s">
@@ -17326,7 +17337,7 @@
         <v>31</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2" t="s">
@@ -17376,10 +17387,10 @@
     </row>
     <row r="416" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>2</v>
@@ -17391,7 +17402,7 @@
         <v>4</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G416" s="5" t="s">
         <v>490</v>
@@ -17406,7 +17417,7 @@
     </row>
     <row r="417" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B417" s="5"/>
       <c r="C417" s="5" t="s">
@@ -17419,7 +17430,7 @@
         <v>4</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G417" s="5" t="s">
         <v>490</v>
@@ -17466,7 +17477,7 @@
     </row>
     <row r="419" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>476</v>
@@ -17478,7 +17489,7 @@
         <v>31</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>458</v>
@@ -17594,7 +17605,7 @@
     </row>
     <row r="423" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>644</v>
@@ -17612,7 +17623,7 @@
         <v>645</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H423" s="2" t="s">
         <v>15</v>
@@ -17621,12 +17632,12 @@
         <v>144</v>
       </c>
       <c r="J423" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="424" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>644</v>
@@ -17644,7 +17655,7 @@
         <v>645</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H424" s="2" t="s">
         <v>15</v>
@@ -17653,12 +17664,12 @@
         <v>144</v>
       </c>
       <c r="J424" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="425" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B425" s="5"/>
       <c r="C425" s="5" t="s">
@@ -17671,10 +17682,10 @@
         <v>4</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="G425" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
@@ -17684,7 +17695,7 @@
     </row>
     <row r="426" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B426" s="5"/>
       <c r="C426" s="5" t="s">
@@ -17697,7 +17708,7 @@
         <v>4</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G426" s="5" t="s">
         <v>490</v>
@@ -17712,10 +17723,10 @@
     </row>
     <row r="427" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B427" s="5" t="s">
         <v>971</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>973</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>2</v>
@@ -17727,7 +17738,7 @@
         <v>4</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G427" s="5" t="s">
         <v>490</v>
@@ -17742,7 +17753,7 @@
     </row>
     <row r="428" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B428" s="5"/>
       <c r="C428" s="5" t="s">
@@ -17755,7 +17766,7 @@
         <v>4</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G428" s="5" t="s">
         <v>490</v>
@@ -17770,7 +17781,7 @@
     </row>
     <row r="429" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B429" s="5"/>
       <c r="C429" s="5" t="s">
@@ -17783,15 +17794,15 @@
         <v>4</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G429" s="5" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
       <c r="J429" s="5" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="430" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17828,7 +17839,7 @@
     </row>
     <row r="431" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" s="2" t="s">
@@ -17838,16 +17849,16 @@
         <v>31</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="F431" s="2"/>
       <c r="G431" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
       <c r="J431" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="432" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17866,12 +17877,12 @@
       </c>
       <c r="F432" s="2"/>
       <c r="G432" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
       <c r="J432" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="433" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17908,7 +17919,7 @@
     </row>
     <row r="434" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>498</v>
@@ -17926,7 +17937,7 @@
         <v>501</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H434" s="2" t="s">
         <v>15</v>
@@ -17935,12 +17946,12 @@
         <v>144</v>
       </c>
       <c r="J434" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B435" s="2"/>
       <c r="C435" s="2" t="s">
@@ -17953,15 +17964,15 @@
         <v>4</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
       <c r="J435" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="436" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17998,7 +18009,7 @@
     </row>
     <row r="437" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>523</v>
@@ -18030,10 +18041,10 @@
     </row>
     <row r="438" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>2</v>
@@ -18045,7 +18056,7 @@
         <v>610</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>132</v>
@@ -18062,10 +18073,10 @@
     </row>
     <row r="439" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>2</v>
@@ -18094,10 +18105,10 @@
     </row>
     <row r="440" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>12</v>
@@ -18126,10 +18137,10 @@
     </row>
     <row r="441" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>12</v>
@@ -18144,7 +18155,7 @@
         <v>611</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H441" s="2" t="s">
         <v>73</v>
@@ -18158,10 +18169,10 @@
     </row>
     <row r="442" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>2</v>
@@ -18190,10 +18201,10 @@
     </row>
     <row r="443" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>2</v>
@@ -18222,7 +18233,7 @@
     </row>
     <row r="444" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B444" s="5"/>
       <c r="C444" s="5" t="s">
@@ -18235,23 +18246,23 @@
         <v>4</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H444" s="5"/>
       <c r="I444" s="5"/>
       <c r="J444" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="445" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>2</v>
@@ -18260,13 +18271,13 @@
         <v>707</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>458</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H445" s="2" t="s">
         <v>72</v>
@@ -18275,12 +18286,12 @@
         <v>115</v>
       </c>
       <c r="J445" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="446" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>498</v>
@@ -18298,7 +18309,7 @@
         <v>501</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H446" s="2" t="s">
         <v>15</v>
@@ -18307,7 +18318,7 @@
         <v>144</v>
       </c>
       <c r="J446" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="447" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18344,7 +18355,7 @@
     </row>
     <row r="448" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B448" s="2"/>
       <c r="C448" s="2" t="s">
@@ -18354,11 +18365,11 @@
         <v>31</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="F448" s="2"/>
       <c r="G448" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H448" s="2" t="s">
         <v>7</v>
@@ -18367,12 +18378,12 @@
         <v>684</v>
       </c>
       <c r="J448" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="449" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B449" s="5"/>
       <c r="C449" s="5" t="s">
@@ -18385,20 +18396,20 @@
         <v>4</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G449" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H449" s="5"/>
       <c r="I449" s="5"/>
       <c r="J449" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="450" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>498</v>
@@ -18416,7 +18427,7 @@
         <v>501</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H450" s="2" t="s">
         <v>15</v>
@@ -18425,15 +18436,15 @@
         <v>144</v>
       </c>
       <c r="J450" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="451" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>2</v>
@@ -18445,10 +18456,10 @@
         <v>4</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G451" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H451" s="5" t="s">
         <v>15</v>
@@ -18457,12 +18468,12 @@
         <v>107</v>
       </c>
       <c r="J451" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="452" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>498</v>
@@ -18480,7 +18491,7 @@
         <v>501</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H452" s="2" t="s">
         <v>15</v>
@@ -18489,12 +18500,12 @@
         <v>144</v>
       </c>
       <c r="J452" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="453" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B453" s="2"/>
       <c r="C453" s="2" t="s">
@@ -18504,11 +18515,11 @@
         <v>31</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="F453" s="2"/>
       <c r="G453" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H453" s="2" t="s">
         <v>73</v>
@@ -18517,12 +18528,12 @@
         <v>87</v>
       </c>
       <c r="J453" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="454" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>43</v>
@@ -18534,7 +18545,7 @@
         <v>31</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>664</v>
@@ -18554,7 +18565,7 @@
     </row>
     <row r="455" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>757</v>
@@ -18566,7 +18577,7 @@
         <v>31</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>664</v>
@@ -18598,7 +18609,7 @@
         <v>31</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>664</v>
@@ -18662,13 +18673,13 @@
         <v>31</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H458" s="2" t="s">
         <v>15</v>
@@ -18677,7 +18688,7 @@
         <v>25</v>
       </c>
       <c r="J458" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="459" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18694,13 +18705,13 @@
         <v>31</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H459" s="2" t="s">
         <v>15</v>
@@ -18709,7 +18720,7 @@
         <v>25</v>
       </c>
       <c r="J459" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="460" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18746,10 +18757,10 @@
     </row>
     <row r="461" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>2</v>
@@ -18764,7 +18775,7 @@
         <v>761</v>
       </c>
       <c r="G461" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H461" s="5" t="s">
         <v>15</v>
@@ -18778,10 +18789,10 @@
     </row>
     <row r="462" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>2</v>
@@ -18793,22 +18804,22 @@
         <v>4</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G462" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H462" s="5"/>
       <c r="I462" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="J462" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="463" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B463" s="2"/>
       <c r="C463" s="2" t="s">
@@ -18818,16 +18829,16 @@
         <v>31</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="F463" s="2"/>
       <c r="G463" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
       <c r="J463" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="464" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18864,7 +18875,7 @@
     </row>
     <row r="465" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" s="2" t="s">
@@ -18874,11 +18885,11 @@
         <v>31</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" s="2" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="H465" s="2" t="s">
         <v>15</v>
@@ -18887,7 +18898,7 @@
         <v>144</v>
       </c>
       <c r="J465" s="2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="466" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19020,7 +19031,7 @@
     </row>
     <row r="470" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B470" s="2"/>
       <c r="C470" s="2" t="s">
@@ -19030,21 +19041,21 @@
         <v>31</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="F470" s="2"/>
       <c r="G470" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H470" s="2"/>
       <c r="I470" s="2"/>
       <c r="J470" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="471" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B471" s="5"/>
       <c r="C471" s="5" t="s">
@@ -19057,20 +19068,20 @@
         <v>4</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="G471" s="5" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H471" s="5"/>
       <c r="I471" s="5"/>
       <c r="J471" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="472" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B472" s="5"/>
       <c r="C472" s="5" t="s">
@@ -19083,20 +19094,20 @@
         <v>4</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="G472" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H472" s="5"/>
       <c r="I472" s="5"/>
       <c r="J472" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="473" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B473" s="5"/>
       <c r="C473" s="5" t="s">
@@ -19109,15 +19120,15 @@
         <v>4</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G473" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
       <c r="J473" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="474" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19154,7 +19165,7 @@
     </row>
     <row r="475" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B475" s="2">
         <v>5.0999999999999996</v>
@@ -19163,16 +19174,16 @@
         <v>2</v>
       </c>
       <c r="D475" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F475" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="E475" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F475" s="2" t="s">
-        <v>1017</v>
-      </c>
       <c r="G475" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H475" s="2" t="s">
         <v>15</v>
@@ -19181,12 +19192,12 @@
         <v>481</v>
       </c>
       <c r="J475" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="476" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B476" s="5">
         <v>5.0999999999999996</v>
@@ -19195,16 +19206,16 @@
         <v>2</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E476" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G476" s="5" t="s">
         <v>1016</v>
-      </c>
-      <c r="F476" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G476" s="5" t="s">
-        <v>1018</v>
       </c>
       <c r="H476" s="5" t="s">
         <v>15</v>
@@ -19213,30 +19224,30 @@
         <v>481</v>
       </c>
       <c r="J476" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="477" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D477" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="B477" s="5" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D477" s="5" t="s">
-        <v>1025</v>
-      </c>
       <c r="E477" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G477" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H477" s="5" t="s">
         <v>15</v>
@@ -19245,7 +19256,7 @@
         <v>481</v>
       </c>
       <c r="J477" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="478" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19282,7 +19293,7 @@
     </row>
     <row r="479" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B479" s="5" t="s">
         <v>760</v>
@@ -19300,7 +19311,7 @@
         <v>761</v>
       </c>
       <c r="G479" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H479" s="5" t="s">
         <v>15</v>
@@ -19314,7 +19325,7 @@
     </row>
     <row r="480" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>757</v>
@@ -19326,13 +19337,13 @@
         <v>31</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H480" s="2" t="s">
         <v>15</v>
@@ -19341,12 +19352,12 @@
         <v>25</v>
       </c>
       <c r="J480" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="481" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>498</v>
@@ -19364,7 +19375,7 @@
         <v>501</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H481" s="2" t="s">
         <v>15</v>
@@ -19373,15 +19384,15 @@
         <v>144</v>
       </c>
       <c r="J481" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="482" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>2</v>
@@ -19390,13 +19401,13 @@
         <v>31</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>742</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H482" s="2" t="s">
         <v>15</v>
@@ -19405,7 +19416,7 @@
         <v>107</v>
       </c>
       <c r="J482" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="483" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19442,7 +19453,7 @@
     </row>
     <row r="484" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B484" s="2"/>
       <c r="C484" s="2" t="s">
@@ -19452,11 +19463,11 @@
         <v>31</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="F484" s="2"/>
       <c r="G484" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H484" s="2" t="s">
         <v>7</v>
@@ -19465,7 +19476,7 @@
         <v>506</v>
       </c>
       <c r="J484" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="485" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19502,7 +19513,7 @@
     </row>
     <row r="486" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" s="2" t="s">
@@ -19512,11 +19523,11 @@
         <v>31</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="F486" s="2"/>
       <c r="G486" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H486" s="2" t="s">
         <v>176</v>
@@ -19525,15 +19536,15 @@
         <v>177</v>
       </c>
       <c r="J486" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="487" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>2</v>
@@ -19542,13 +19553,13 @@
         <v>31</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>458</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H487" s="2" t="s">
         <v>15</v>
@@ -19557,7 +19568,7 @@
         <v>80</v>
       </c>
       <c r="J487" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="488" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19626,7 +19637,7 @@
     </row>
     <row r="490" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B490" s="5">
         <v>2.2999999999999998</v>
@@ -19644,7 +19655,7 @@
         <v>761</v>
       </c>
       <c r="G490" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H490" s="5" t="s">
         <v>15</v>
@@ -19690,7 +19701,7 @@
     </row>
     <row r="492" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B492" s="2"/>
       <c r="C492" s="2" t="s">
@@ -19700,11 +19711,11 @@
         <v>31</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="F492" s="2"/>
       <c r="G492" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H492" s="2" t="s">
         <v>176</v>
@@ -19713,12 +19724,12 @@
         <v>177</v>
       </c>
       <c r="J492" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="493" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B493" s="2"/>
       <c r="C493" s="2" t="s">
@@ -19728,11 +19739,11 @@
         <v>31</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F493" s="2"/>
       <c r="G493" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H493" s="2" t="s">
         <v>176</v>
@@ -19741,12 +19752,12 @@
         <v>177</v>
       </c>
       <c r="J493" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="494" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" s="2" t="s">
@@ -19756,11 +19767,11 @@
         <v>31</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="F494" s="2"/>
       <c r="G494" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H494" s="2" t="s">
         <v>7</v>
@@ -19769,7 +19780,7 @@
         <v>506</v>
       </c>
       <c r="J494" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="495" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19806,7 +19817,7 @@
     </row>
     <row r="496" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B496" s="2"/>
       <c r="C496" s="2" t="s">
@@ -19816,16 +19827,16 @@
         <v>31</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F496" s="2"/>
       <c r="G496" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H496" s="2"/>
       <c r="I496" s="2"/>
       <c r="J496" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19862,7 +19873,7 @@
     </row>
     <row r="498" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B498" s="5"/>
       <c r="C498" s="5" t="s">
@@ -19875,20 +19886,20 @@
         <v>4</v>
       </c>
       <c r="F498" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G498" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H498" s="5"/>
       <c r="I498" s="5"/>
       <c r="J498" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="499" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B499" s="5"/>
       <c r="C499" s="5" t="s">
@@ -19901,20 +19912,20 @@
         <v>4</v>
       </c>
       <c r="F499" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G499" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H499" s="5"/>
       <c r="I499" s="5"/>
       <c r="J499" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="500" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B500" s="5"/>
       <c r="C500" s="5" t="s">
@@ -19927,20 +19938,20 @@
         <v>4</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="G500" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
       <c r="J500" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="501" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B501" s="5"/>
       <c r="C501" s="5" t="s">
@@ -19953,20 +19964,20 @@
         <v>4</v>
       </c>
       <c r="F501" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G501" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
       <c r="J501" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="502" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B502" s="5"/>
       <c r="C502" s="5" t="s">
@@ -19979,20 +19990,20 @@
         <v>4</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
       <c r="J502" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="503" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B503" s="5"/>
       <c r="C503" s="5" t="s">
@@ -20005,20 +20016,20 @@
         <v>4</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
       <c r="J503" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="504" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B504" s="5"/>
       <c r="C504" s="5" t="s">
@@ -20031,20 +20042,20 @@
         <v>4</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
       <c r="J504" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="505" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B505" s="5"/>
       <c r="C505" s="5" t="s">
@@ -20057,20 +20068,20 @@
         <v>4</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
       <c r="J505" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="506" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B506" s="5"/>
       <c r="C506" s="5" t="s">
@@ -20083,20 +20094,20 @@
         <v>4</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
       <c r="J506" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="507" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B507" s="5"/>
       <c r="C507" s="5" t="s">
@@ -20109,20 +20120,20 @@
         <v>4</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G507" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
       <c r="J507" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="508" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B508" s="5"/>
       <c r="C508" s="5" t="s">
@@ -20135,20 +20146,20 @@
         <v>4</v>
       </c>
       <c r="F508" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="G508" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
       <c r="J508" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="509" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B509" s="5"/>
       <c r="C509" s="5" t="s">
@@ -20161,20 +20172,20 @@
         <v>4</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="G509" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
       <c r="J509" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="510" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B510" s="5"/>
       <c r="C510" s="5" t="s">
@@ -20187,7 +20198,7 @@
         <v>4</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G510" s="5" t="s">
         <v>490</v>
@@ -20202,10 +20213,10 @@
     </row>
     <row r="511" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>2</v>
@@ -20217,7 +20228,7 @@
         <v>4</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G511" s="5" t="s">
         <v>542</v>
@@ -20232,7 +20243,7 @@
     </row>
     <row r="512" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>498</v>
@@ -20250,7 +20261,7 @@
         <v>501</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H512" s="2" t="s">
         <v>15</v>
@@ -20259,12 +20270,12 @@
         <v>144</v>
       </c>
       <c r="J512" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="513" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>498</v>
@@ -20282,7 +20293,7 @@
         <v>501</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H513" s="2" t="s">
         <v>15</v>
@@ -20291,12 +20302,12 @@
         <v>144</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="514" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>498</v>
@@ -20314,7 +20325,7 @@
         <v>501</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H514" s="2" t="s">
         <v>15</v>
@@ -20323,7 +20334,7 @@
         <v>144</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="515" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20360,25 +20371,25 @@
     </row>
     <row r="516" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D516" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="E516" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D516" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E516" s="2" t="s">
-        <v>1045</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>470</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H516" s="2" t="s">
         <v>15</v>
@@ -20387,30 +20398,30 @@
         <v>107</v>
       </c>
       <c r="J516" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D517" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="B517" s="5" t="s">
+      <c r="E517" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G517" s="5" t="s">
         <v>1047</v>
-      </c>
-      <c r="C517" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D517" s="5" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E517" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F517" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G517" s="5" t="s">
-        <v>1049</v>
       </c>
       <c r="H517" s="5" t="s">
         <v>15</v>
@@ -20424,10 +20435,10 @@
     </row>
     <row r="518" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C518" s="5"/>
       <c r="D518" s="5" t="s">
@@ -20437,10 +20448,10 @@
         <v>4</v>
       </c>
       <c r="F518" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H518" s="5" t="s">
         <v>15</v>
@@ -20449,15 +20460,15 @@
         <v>107</v>
       </c>
       <c r="J518" s="5" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="519" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>2</v>
@@ -20466,13 +20477,13 @@
         <v>31</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H519" s="2" t="s">
         <v>15</v>
@@ -20481,15 +20492,15 @@
         <v>25</v>
       </c>
       <c r="J519" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="520" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>2</v>
@@ -20498,13 +20509,13 @@
         <v>31</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H520" s="2" t="s">
         <v>15</v>
@@ -20513,12 +20524,12 @@
         <v>25</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="521" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>718</v>
@@ -20530,13 +20541,13 @@
         <v>31</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>458</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H521" s="2" t="s">
         <v>15</v>
@@ -20545,7 +20556,7 @@
         <v>115</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="522" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20966,10 +20977,10 @@
     </row>
     <row r="535" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>2</v>
@@ -20981,19 +20992,19 @@
         <v>4</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G535" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H535" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I535" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J535" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="536" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21161,7 +21172,7 @@
         <v>406</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C541" s="3" t="s">
         <v>2</v>
@@ -21382,10 +21393,10 @@
     </row>
     <row r="548" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C548" s="5" t="s">
         <v>2</v>
@@ -21496,7 +21507,7 @@
         <v>20</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="H551" s="3" t="s">
         <v>15</v>
@@ -21636,7 +21647,7 @@
     </row>
     <row r="556" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B556" s="2"/>
       <c r="C556" s="2" t="s">
@@ -21646,11 +21657,11 @@
         <v>31</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="F556" s="2"/>
       <c r="G556" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H556" s="2" t="s">
         <v>73</v>
@@ -21659,7 +21670,7 @@
         <v>87</v>
       </c>
       <c r="J556" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="557" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21679,7 +21690,7 @@
         <v>4</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G557" s="3" t="s">
         <v>79</v>
@@ -21696,10 +21707,10 @@
     </row>
     <row r="558" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C558" s="5" t="s">
         <v>137</v>
@@ -21711,7 +21722,7 @@
         <v>4</v>
       </c>
       <c r="F558" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G558" s="5" t="s">
         <v>524</v>
@@ -21728,7 +21739,7 @@
     </row>
     <row r="559" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B559" s="2"/>
       <c r="C559" s="2" t="s">
@@ -21738,21 +21749,21 @@
         <v>31</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F559" s="2"/>
       <c r="G559" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="H559" s="2"/>
       <c r="I559" s="2"/>
       <c r="J559" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="560" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B560" s="5"/>
       <c r="C560" s="5" t="s">
@@ -21765,20 +21776,20 @@
         <v>4</v>
       </c>
       <c r="F560" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G560" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H560" s="5"/>
       <c r="I560" s="5"/>
       <c r="J560" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="561" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B561" s="5"/>
       <c r="C561" s="5" t="s">
@@ -21791,15 +21802,15 @@
         <v>4</v>
       </c>
       <c r="F561" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G561" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H561" s="5"/>
       <c r="I561" s="5"/>
       <c r="J561" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="562" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21836,10 +21847,10 @@
     </row>
     <row r="563" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>2</v>
@@ -21851,10 +21862,10 @@
         <v>4</v>
       </c>
       <c r="F563" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G563" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H563" s="5" t="s">
         <v>72</v>
@@ -21863,15 +21874,15 @@
         <v>115</v>
       </c>
       <c r="J563" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="564" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>2</v>
@@ -21880,13 +21891,13 @@
         <v>31</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F564" s="2" t="s">
         <v>458</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H564" s="2" t="s">
         <v>72</v>
@@ -21895,7 +21906,7 @@
         <v>115</v>
       </c>
       <c r="J564" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="565" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21932,7 +21943,7 @@
     </row>
     <row r="566" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B566" s="2">
         <v>3.1</v>
@@ -21944,13 +21955,13 @@
         <v>31</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F566" s="2" t="s">
         <v>458</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H566" s="2" t="s">
         <v>72</v>
@@ -21959,7 +21970,7 @@
         <v>115</v>
       </c>
       <c r="J566" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="567" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21996,7 +22007,7 @@
     </row>
     <row r="568" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B568" s="2" t="s">
         <v>498</v>
@@ -22014,7 +22025,7 @@
         <v>501</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H568" s="2" t="s">
         <v>15</v>
@@ -22023,7 +22034,7 @@
         <v>144</v>
       </c>
       <c r="J568" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="569" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22060,7 +22071,7 @@
     </row>
     <row r="570" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B570" s="2"/>
       <c r="C570" s="2" t="s">
@@ -22070,7 +22081,7 @@
         <v>31</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="F570" s="2"/>
       <c r="G570" s="2" t="s">
@@ -22088,7 +22099,7 @@
     </row>
     <row r="571" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B571" s="2"/>
       <c r="C571" s="2" t="s">
@@ -22098,16 +22109,16 @@
         <v>31</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F571" s="2"/>
       <c r="G571" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H571" s="2"/>
       <c r="I571" s="2"/>
       <c r="J571" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="572" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="1484">
   <si>
     <t>Viewpoint CS</t>
   </si>
@@ -2864,9 +2864,6 @@
     <t>CSCR616/SDMAF;CSCR927/SDM</t>
   </si>
   <si>
-    <t>R12;12.1;12.5;12.6;12.7;12.9;14.1;14.1.01;14.1.02;14.1.03</t>
-  </si>
-  <si>
     <t>CSCR927/SDr</t>
   </si>
   <si>
@@ -3077,12 +3074,6 @@
     <t>Vantage SRM/CA GMI Web User Interface</t>
   </si>
   <si>
-    <t>12;12.5;14.0</t>
-  </si>
-  <si>
-    <t>Harvest</t>
-  </si>
-  <si>
     <t>Vantage SRM/CA GMI Windows Client UI</t>
   </si>
   <si>
@@ -4479,6 +4470,15 @@
   </si>
   <si>
     <t>CSCR504/CA Vantage SRM Windows Client</t>
+  </si>
+  <si>
+    <t>12;12.5;14.0;Development</t>
+  </si>
+  <si>
+    <t>12;Development</t>
+  </si>
+  <si>
+    <t>R12;12.1;12.5;12.6;12.7;12.9;14.1;14.1.01;14.1.02;14.1.03;17</t>
   </si>
 </sst>
 </file>
@@ -4885,8 +4885,8 @@
   <dimension ref="A1:J574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F519" sqref="F519"/>
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F429" sqref="F429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4919,7 +4919,7 @@
         <v>431</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>432</v>
@@ -4954,12 +4954,12 @@
         <v>438</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4982,12 +4982,12 @@
         <v>441</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5010,7 +5010,7 @@
         <v>441</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="5" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -5030,16 +5030,16 @@
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5062,17 +5062,17 @@
         <v>447</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -5082,16 +5082,16 @@
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5114,7 +5114,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -5142,12 +5142,12 @@
         <v>448</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5170,12 +5170,12 @@
         <v>111</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
         <v>419</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -5226,14 +5226,14 @@
         <v>453</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5268,7 +5268,7 @@
     </row>
     <row r="14" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
@@ -5281,20 +5281,20 @@
         <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -5307,20 +5307,20 @@
         <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -5330,18 +5330,18 @@
         <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
         <v>663</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5406,7 +5406,7 @@
     </row>
     <row r="19" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -5419,7 +5419,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>463</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="21" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -5472,16 +5472,16 @@
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5514,7 +5514,7 @@
     </row>
     <row r="23" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -5527,7 +5527,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>473</v>
@@ -5560,12 +5560,12 @@
         <v>479</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5588,7 +5588,7 @@
         <v>484</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
@@ -5660,7 +5660,7 @@
     </row>
     <row r="28" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -5670,11 +5670,11 @@
         <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="29" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
@@ -5697,20 +5697,20 @@
         <v>4</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -5720,21 +5720,21 @@
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -5747,20 +5747,20 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
@@ -5773,20 +5773,20 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -5799,15 +5799,15 @@
         <v>4</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5840,7 +5840,7 @@
     </row>
     <row r="35" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -5850,15 +5850,15 @@
         <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="H35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5881,7 +5881,7 @@
         <v>325</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="37" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -5901,16 +5901,16 @@
         <v>28</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5933,12 +5933,12 @@
         <v>492</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5961,19 +5961,19 @@
         <v>453</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
@@ -5983,18 +5983,18 @@
         <v>28</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6059,7 +6059,7 @@
     </row>
     <row r="43" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
@@ -6105,7 +6105,7 @@
         <v>484</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
@@ -6135,7 +6135,7 @@
         <v>484</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
@@ -6165,7 +6165,7 @@
         <v>328</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="47" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
@@ -6188,20 +6188,20 @@
         <v>4</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -6211,11 +6211,11 @@
         <v>28</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
@@ -6227,7 +6227,7 @@
     </row>
     <row r="49" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
@@ -6240,15 +6240,15 @@
         <v>4</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6271,19 +6271,19 @@
         <v>441</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
@@ -6296,15 +6296,15 @@
         <v>4</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6337,7 +6337,7 @@
     </row>
     <row r="53" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
@@ -6350,7 +6350,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>510</v>
@@ -6410,7 +6410,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>519</v>
@@ -6438,7 +6438,7 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>519</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="62" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
@@ -6612,20 +6612,20 @@
         <v>4</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
@@ -6638,15 +6638,15 @@
         <v>4</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6669,19 +6669,19 @@
         <v>546</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
@@ -6694,10 +6694,10 @@
         <v>4</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="66" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
@@ -6720,20 +6720,20 @@
         <v>4</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
@@ -6746,20 +6746,20 @@
         <v>4</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
@@ -6772,15 +6772,15 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6803,14 +6803,14 @@
         <v>546</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6935,7 +6935,7 @@
     </row>
     <row r="74" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
@@ -6945,18 +6945,18 @@
         <v>28</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6991,7 +6991,7 @@
     </row>
     <row r="76" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
@@ -7004,20 +7004,20 @@
         <v>4</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
@@ -7027,23 +7027,23 @@
         <v>28</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
@@ -7053,11 +7053,11 @@
         <v>28</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>69</v>
@@ -7066,7 +7066,7 @@
         <v>83</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7089,7 +7089,7 @@
         <v>484</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
@@ -7101,7 +7101,7 @@
     </row>
     <row r="80" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
@@ -7114,20 +7114,20 @@
         <v>4</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
@@ -7137,7 +7137,7 @@
         <v>28</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
@@ -7153,7 +7153,7 @@
     </row>
     <row r="82" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
@@ -7166,20 +7166,20 @@
         <v>4</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
@@ -7192,15 +7192,15 @@
         <v>4</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7223,19 +7223,19 @@
         <v>558</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5" t="s">
         <v>165</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
@@ -7245,23 +7245,23 @@
         <v>28</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
@@ -7274,15 +7274,15 @@
         <v>4</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7302,14 +7302,14 @@
         <v>4</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>561</v>
@@ -7365,7 +7365,7 @@
         <v>573</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
@@ -7395,14 +7395,14 @@
         <v>577</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7425,14 +7425,14 @@
         <v>582</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7452,15 +7452,15 @@
         <v>586</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7483,7 +7483,7 @@
         <v>591</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>69</v>
@@ -7492,12 +7492,12 @@
         <v>122</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5" t="s">
@@ -7510,17 +7510,17 @@
         <v>4</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7558,7 +7558,7 @@
         <v>196</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>2</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="98" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
@@ -7628,15 +7628,15 @@
         <v>4</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7659,14 +7659,14 @@
         <v>595</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7689,14 +7689,14 @@
         <v>453</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7719,19 +7719,19 @@
         <v>453</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5" t="s">
@@ -7744,15 +7744,15 @@
         <v>4</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7787,7 +7787,7 @@
     </row>
     <row r="104" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
@@ -7800,7 +7800,7 @@
         <v>4</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>473</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="106" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
@@ -7857,11 +7857,11 @@
         <v>28</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>69</v>
@@ -7870,7 +7870,7 @@
         <v>83</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7953,7 +7953,7 @@
         <v>484</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2" t="s">
@@ -7983,7 +7983,7 @@
         <v>484</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2" t="s">
@@ -8013,14 +8013,14 @@
         <v>441</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8043,7 +8043,7 @@
         <v>484</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2" t="s">
@@ -8073,14 +8073,14 @@
         <v>618</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,14 +8133,14 @@
         <v>622</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8163,14 +8163,14 @@
         <v>625</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8219,7 +8219,7 @@
         <v>330</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -8247,12 +8247,12 @@
         <v>447</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="122" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
@@ -8321,16 +8321,16 @@
         <v>28</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8353,17 +8353,17 @@
         <v>628</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5" t="s">
@@ -8376,20 +8376,20 @@
         <v>4</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
@@ -8402,15 +8402,15 @@
         <v>4</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8445,7 +8445,7 @@
     </row>
     <row r="127" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
@@ -8455,18 +8455,18 @@
         <v>28</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8531,7 +8531,7 @@
     </row>
     <row r="130" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
@@ -8541,18 +8541,18 @@
         <v>28</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2" t="s">
         <v>489</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8575,7 +8575,7 @@
         <v>332</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -8603,14 +8603,14 @@
         <v>648</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8633,7 +8633,7 @@
         <v>484</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2" t="s">
@@ -8663,14 +8663,14 @@
         <v>625</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8693,7 +8693,7 @@
         <v>484</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2" t="s">
@@ -8723,14 +8723,14 @@
         <v>625</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8811,14 +8811,14 @@
         <v>625</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8841,7 +8841,7 @@
         <v>441</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
@@ -8871,7 +8871,7 @@
         <v>441</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
@@ -8901,7 +8901,7 @@
         <v>441</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2" t="s">
@@ -8961,7 +8961,7 @@
         <v>484</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2" t="s">
@@ -9051,19 +9051,19 @@
         <v>453</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
@@ -9073,11 +9073,11 @@
         <v>28</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2" t="s">
@@ -9089,7 +9089,7 @@
     </row>
     <row r="149" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
@@ -9099,23 +9099,23 @@
         <v>28</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2" t="s">
         <v>663</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
@@ -9125,18 +9125,18 @@
         <v>28</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2" t="s">
         <v>663</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9189,14 +9189,14 @@
         <v>678</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9216,7 +9216,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>195</v>
@@ -9249,7 +9249,7 @@
         <v>484</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2" t="s">
@@ -9279,12 +9279,12 @@
         <v>628</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9307,7 +9307,7 @@
         <v>339</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -9335,7 +9335,7 @@
         <v>337</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
@@ -9363,14 +9363,14 @@
         <v>678</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9393,14 +9393,14 @@
         <v>441</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9435,7 +9435,7 @@
     </row>
     <row r="161" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
@@ -9445,11 +9445,11 @@
         <v>28</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2" t="s">
@@ -9479,7 +9479,7 @@
         <v>334</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="163" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
@@ -9499,18 +9499,18 @@
         <v>28</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9545,7 +9545,7 @@
     </row>
     <row r="165" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
@@ -9555,21 +9555,21 @@
         <v>28</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
@@ -9579,21 +9579,21 @@
         <v>28</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
@@ -9603,21 +9603,21 @@
         <v>28</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
@@ -9627,21 +9627,21 @@
         <v>28</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
@@ -9651,21 +9651,21 @@
         <v>28</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
@@ -9675,21 +9675,21 @@
         <v>28</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
@@ -9699,16 +9699,16 @@
         <v>28</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9791,14 +9791,14 @@
         <v>441</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9821,14 +9821,14 @@
         <v>441</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9909,14 +9909,14 @@
         <v>441</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9951,7 +9951,7 @@
     </row>
     <row r="180" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="5" t="s">
@@ -9964,7 +9964,7 @@
         <v>4</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>525</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="184" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
@@ -10077,7 +10077,7 @@
         <v>28</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
@@ -10111,7 +10111,7 @@
         <v>174</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -10139,7 +10139,7 @@
         <v>628</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -10167,7 +10167,7 @@
         <v>484</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2" t="s">
@@ -10192,17 +10192,17 @@
         <v>714</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10218,14 +10218,14 @@
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="5" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="J189" s="5" t="s">
         <v>715</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="190" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
@@ -10243,23 +10243,23 @@
         <v>28</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="6" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
@@ -10269,7 +10269,7 @@
         <v>28</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2" t="s">
@@ -10345,7 +10345,7 @@
     </row>
     <row r="194" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
@@ -10355,21 +10355,21 @@
         <v>28</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
@@ -10379,16 +10379,16 @@
         <v>28</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -10435,7 +10435,7 @@
         <v>92</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -10463,7 +10463,7 @@
         <v>88</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="199" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -10483,21 +10483,21 @@
         <v>28</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="5" t="s">
@@ -10510,15 +10510,15 @@
         <v>4</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10571,7 +10571,7 @@
         <v>484</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H202" s="2"/>
       <c r="I202" s="2" t="s">
@@ -10751,7 +10751,7 @@
         <v>342</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
@@ -10809,14 +10809,14 @@
         <v>625</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10899,7 +10899,7 @@
         <v>484</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2" t="s">
@@ -10929,7 +10929,7 @@
         <v>484</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H214" s="2"/>
       <c r="I214" s="2" t="s">
@@ -10959,7 +10959,7 @@
         <v>484</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H215" s="2"/>
       <c r="I215" s="2" t="s">
@@ -10989,7 +10989,7 @@
         <v>484</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H216" s="2"/>
       <c r="I216" s="2" t="s">
@@ -11019,7 +11019,7 @@
         <v>484</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2" t="s">
@@ -11049,12 +11049,12 @@
         <v>628</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
       <c r="J218" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11089,7 +11089,7 @@
     </row>
     <row r="220" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -11099,16 +11099,16 @@
         <v>28</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11131,14 +11131,14 @@
         <v>644</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11161,14 +11161,14 @@
         <v>644</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H222" s="2"/>
       <c r="I222" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11221,14 +11221,14 @@
         <v>644</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11293,7 +11293,7 @@
     </row>
     <row r="227" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -11303,16 +11303,16 @@
         <v>28</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11395,7 +11395,7 @@
         <v>484</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2" t="s">
@@ -11455,14 +11455,14 @@
         <v>441</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="H232" s="2"/>
       <c r="I232" s="2" t="s">
         <v>751</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11485,7 +11485,7 @@
         <v>484</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2" t="s">
@@ -11557,7 +11557,7 @@
     </row>
     <row r="236" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="5" t="s">
@@ -11570,20 +11570,20 @@
         <v>4</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="5" t="s">
@@ -11596,20 +11596,20 @@
         <v>4</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="5" t="s">
@@ -11622,20 +11622,20 @@
         <v>4</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="5" t="s">
@@ -11648,20 +11648,20 @@
         <v>4</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="5" t="s">
@@ -11674,20 +11674,20 @@
         <v>4</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="5" t="s">
@@ -11700,20 +11700,20 @@
         <v>4</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="5" t="s">
@@ -11726,20 +11726,20 @@
         <v>4</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="5" t="s">
@@ -11752,20 +11752,20 @@
         <v>4</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="5" t="s">
@@ -11778,20 +11778,20 @@
         <v>4</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="5" t="s">
@@ -11804,20 +11804,20 @@
         <v>4</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="5" t="s">
@@ -11830,20 +11830,20 @@
         <v>4</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="5" t="s">
@@ -11856,20 +11856,20 @@
         <v>4</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="5" t="s">
@@ -11882,20 +11882,20 @@
         <v>4</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="5" t="s">
@@ -11908,20 +11908,20 @@
         <v>4</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="5" t="s">
@@ -11934,20 +11934,20 @@
         <v>4</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="5" t="s">
@@ -11960,20 +11960,20 @@
         <v>4</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="5" t="s">
@@ -11986,20 +11986,20 @@
         <v>4</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="5" t="s">
@@ -12012,20 +12012,20 @@
         <v>4</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="5" t="s">
@@ -12038,22 +12038,22 @@
         <v>4</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="H254" s="5"/>
       <c r="I254" s="5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2" t="s">
@@ -12063,11 +12063,11 @@
         <v>28</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
@@ -12077,7 +12077,7 @@
     </row>
     <row r="256" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
@@ -12087,11 +12087,11 @@
         <v>28</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
@@ -12178,7 +12178,7 @@
         <v>4</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>761</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="261" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="5" t="s">
@@ -12236,20 +12236,20 @@
         <v>4</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="5" t="s">
@@ -12262,15 +12262,15 @@
         <v>4</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12293,14 +12293,14 @@
         <v>625</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H263" s="2"/>
       <c r="I263" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12323,12 +12323,12 @@
         <v>628</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
       <c r="J264" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12363,7 +12363,7 @@
     </row>
     <row r="266" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B266" s="5"/>
       <c r="C266" s="5" t="s">
@@ -12376,20 +12376,20 @@
         <v>4</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="s">
@@ -12399,11 +12399,11 @@
         <v>28</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
@@ -12431,19 +12431,19 @@
         <v>441</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H268" s="2"/>
       <c r="I268" s="2" t="s">
         <v>663</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
@@ -12453,18 +12453,18 @@
         <v>28</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H269" s="2"/>
       <c r="I269" s="2" t="s">
         <v>663</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12485,14 +12485,14 @@
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="H270" s="2"/>
       <c r="I270" s="2" t="s">
         <v>774</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12587,7 +12587,7 @@
     </row>
     <row r="274" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B274" s="5"/>
       <c r="C274" s="5" t="s">
@@ -12600,15 +12600,15 @@
         <v>4</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12721,7 +12721,7 @@
         <v>484</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H278" s="2"/>
       <c r="I278" s="2" t="s">
@@ -12745,13 +12745,13 @@
         <v>482</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>484</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H279" s="2"/>
       <c r="I279" s="2" t="s">
@@ -12763,7 +12763,7 @@
     </row>
     <row r="280" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B280" s="5"/>
       <c r="C280" s="5" t="s">
@@ -12776,15 +12776,15 @@
         <v>4</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12792,7 +12792,7 @@
         <v>44</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
@@ -12807,14 +12807,14 @@
         <v>644</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12897,14 +12897,14 @@
         <v>644</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H284" s="2"/>
       <c r="I284" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12939,7 +12939,7 @@
     </row>
     <row r="286" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
@@ -12949,23 +12949,23 @@
         <v>28</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H286" s="2"/>
       <c r="I286" s="2" t="s">
         <v>663</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="5" t="s">
@@ -12978,20 +12978,20 @@
         <v>4</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2" t="s">
@@ -13001,7 +13001,7 @@
         <v>28</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2" t="s">
@@ -13095,7 +13095,7 @@
         <v>441</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
@@ -13123,7 +13123,7 @@
         <v>798</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
@@ -13147,14 +13147,14 @@
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H293" s="2"/>
       <c r="I293" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13207,7 +13207,7 @@
         <v>441</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
@@ -13235,19 +13235,19 @@
         <v>805</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H296" s="2"/>
       <c r="I296" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B297" s="5"/>
       <c r="C297" s="5" t="s">
@@ -13260,20 +13260,20 @@
         <v>4</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B298" s="5"/>
       <c r="C298" s="5" t="s">
@@ -13286,17 +13286,17 @@
         <v>4</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="H298" s="5"/>
       <c r="I298" s="5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13319,7 +13319,7 @@
         <v>484</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H299" s="2"/>
       <c r="I299" s="2" t="s">
@@ -13349,7 +13349,7 @@
         <v>484</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H300" s="2"/>
       <c r="I300" s="2" t="s">
@@ -13409,14 +13409,14 @@
         <v>441</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H302" s="2"/>
       <c r="I302" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13481,7 +13481,7 @@
     </row>
     <row r="305" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" s="2" t="s">
@@ -13491,21 +13491,21 @@
         <v>28</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
       <c r="J305" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2" t="s">
@@ -13515,18 +13515,18 @@
         <v>28</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H306" s="2"/>
       <c r="I306" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13549,14 +13549,14 @@
         <v>644</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H307" s="2"/>
       <c r="I307" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13641,14 +13641,14 @@
         <v>826</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="H310" s="2"/>
       <c r="I310" s="2" t="s">
         <v>827</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13671,7 +13671,7 @@
         <v>183</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
@@ -13711,7 +13711,7 @@
     </row>
     <row r="313" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="2" t="s">
@@ -13721,18 +13721,18 @@
         <v>28</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H313" s="2"/>
       <c r="I313" s="2" t="s">
         <v>489</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13785,7 +13785,7 @@
         <v>484</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H315" s="2"/>
       <c r="I315" s="2" t="s">
@@ -13827,7 +13827,7 @@
     </row>
     <row r="317" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" s="2" t="s">
@@ -13837,21 +13837,21 @@
         <v>28</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
       <c r="J317" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2" t="s">
@@ -13861,21 +13861,21 @@
         <v>28</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
       <c r="J318" s="2" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="B319" s="5"/>
       <c r="C319" s="5" t="s">
@@ -13888,20 +13888,20 @@
         <v>4</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" s="2" t="s">
@@ -13911,23 +13911,23 @@
         <v>28</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H320" s="2"/>
       <c r="I320" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="5" t="s">
@@ -13940,15 +13940,15 @@
         <v>4</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14031,7 +14031,7 @@
         <v>185</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
@@ -14114,20 +14114,20 @@
         <v>4</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" s="2" t="s">
@@ -14137,16 +14137,16 @@
         <v>28</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
       <c r="J328" s="2" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14405,7 +14405,7 @@
     </row>
     <row r="337" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" s="2" t="s">
@@ -14415,11 +14415,11 @@
         <v>28</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>69</v>
@@ -14428,7 +14428,7 @@
         <v>122</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14463,7 +14463,7 @@
     </row>
     <row r="339" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B339" s="5"/>
       <c r="C339" s="5" t="s">
@@ -14476,10 +14476,10 @@
         <v>4</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
@@ -14489,7 +14489,7 @@
     </row>
     <row r="340" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B340" s="5"/>
       <c r="C340" s="5" t="s">
@@ -14502,20 +14502,20 @@
         <v>4</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B341" s="5"/>
       <c r="C341" s="5" t="s">
@@ -14528,15 +14528,15 @@
         <v>4</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14871,7 +14871,7 @@
     </row>
     <row r="353" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" s="2" t="s">
@@ -14881,18 +14881,18 @@
         <v>28</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H353" s="2"/>
       <c r="I353" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="354" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14975,7 +14975,7 @@
         <v>883</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H356" s="2"/>
       <c r="I356" s="2" t="s">
@@ -15065,14 +15065,14 @@
         <v>644</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H359" s="2"/>
       <c r="I359" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15335,7 +15335,7 @@
         <v>13</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
@@ -15345,7 +15345,7 @@
     </row>
     <row r="369" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" s="2" t="s">
@@ -15355,16 +15355,16 @@
         <v>28</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
       <c r="J369" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="370" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15387,7 +15387,7 @@
         <v>16</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
@@ -15397,7 +15397,7 @@
     </row>
     <row r="371" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" s="2" t="s">
@@ -15407,23 +15407,23 @@
         <v>28</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H371" s="2"/>
       <c r="I371" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J371" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="372" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" s="2" t="s">
@@ -15433,16 +15433,16 @@
         <v>28</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
       <c r="J372" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15477,7 +15477,7 @@
     </row>
     <row r="374" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" s="2" t="s">
@@ -15487,16 +15487,16 @@
         <v>28</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" s="2" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
       <c r="J374" s="2" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15519,14 +15519,14 @@
         <v>896</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H375" s="2"/>
       <c r="I375" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15579,7 +15579,7 @@
         <v>484</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H377" s="2"/>
       <c r="I377" s="2" t="s">
@@ -15609,7 +15609,7 @@
         <v>484</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H378" s="2"/>
       <c r="I378" s="2" t="s">
@@ -15681,7 +15681,7 @@
     </row>
     <row r="381" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" s="2" t="s">
@@ -15691,16 +15691,16 @@
         <v>28</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
       <c r="J381" s="2" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15723,14 +15723,14 @@
         <v>910</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H382" s="2"/>
       <c r="I382" s="2" t="s">
         <v>189</v>
       </c>
       <c r="J382" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15753,7 +15753,7 @@
         <v>484</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H383" s="2"/>
       <c r="I383" s="2" t="s">
@@ -15765,7 +15765,7 @@
     </row>
     <row r="384" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" s="2" t="s">
@@ -15775,21 +15775,21 @@
         <v>28</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" s="2" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
       <c r="J384" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="385" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B385" s="5"/>
       <c r="C385" s="5" t="s">
@@ -15802,15 +15802,15 @@
         <v>4</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
       <c r="J385" s="5" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="386" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15833,19 +15833,19 @@
         <v>625</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H386" s="2"/>
       <c r="I386" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J386" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="387" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" s="2" t="s">
@@ -15855,23 +15855,23 @@
         <v>28</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H387" s="2"/>
       <c r="I387" s="2" t="s">
         <v>489</v>
       </c>
       <c r="J387" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="388" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" s="2" t="s">
@@ -15881,11 +15881,11 @@
         <v>28</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H388" s="2"/>
       <c r="I388" s="2" t="s">
@@ -15897,7 +15897,7 @@
     </row>
     <row r="389" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B389" s="5"/>
       <c r="C389" s="5" t="s">
@@ -15910,7 +15910,7 @@
         <v>4</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G389" s="5" t="s">
         <v>473</v>
@@ -15925,7 +15925,7 @@
     </row>
     <row r="390" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" s="2" t="s">
@@ -15935,18 +15935,18 @@
         <v>28</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H390" s="2"/>
       <c r="I390" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J390" s="2" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15999,7 +15999,7 @@
         <v>484</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H392" s="2"/>
       <c r="I392" s="2" t="s">
@@ -16089,7 +16089,7 @@
         <v>484</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H395" s="2"/>
       <c r="I395" s="2" t="s">
@@ -16119,7 +16119,7 @@
         <v>484</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H396" s="2"/>
       <c r="I396" s="2" t="s">
@@ -16179,7 +16179,7 @@
         <v>484</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H398" s="2"/>
       <c r="I398" s="2" t="s">
@@ -16209,7 +16209,7 @@
         <v>484</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H399" s="2"/>
       <c r="I399" s="2" t="s">
@@ -16269,7 +16269,7 @@
         <v>484</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H401" s="2"/>
       <c r="I401" s="2" t="s">
@@ -16299,7 +16299,7 @@
         <v>484</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H402" s="2"/>
       <c r="I402" s="2" t="s">
@@ -16311,7 +16311,7 @@
     </row>
     <row r="403" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" s="2" t="s">
@@ -16321,11 +16321,11 @@
         <v>28</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H403" s="2"/>
       <c r="I403" s="2" t="s">
@@ -16385,7 +16385,7 @@
         <v>484</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H405" s="2"/>
       <c r="I405" s="2" t="s">
@@ -16397,7 +16397,7 @@
     </row>
     <row r="406" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" s="2" t="s">
@@ -16407,16 +16407,16 @@
         <v>28</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
       <c r="J406" s="2" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="407" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16439,14 +16439,14 @@
         <v>441</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H407" s="2"/>
       <c r="I407" s="2" t="s">
         <v>189</v>
       </c>
       <c r="J407" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="408" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16469,7 +16469,7 @@
         <v>484</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H408" s="2"/>
       <c r="I408" s="2" t="s">
@@ -16499,7 +16499,7 @@
         <v>932</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="H409" s="5"/>
       <c r="I409" s="5" t="s">
@@ -16529,7 +16529,7 @@
         <v>402</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="H410" s="3"/>
       <c r="I410" s="3" t="s">
@@ -16556,10 +16556,10 @@
         <v>4</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="H411" s="5"/>
       <c r="I411" s="5" t="s">
@@ -16584,10 +16584,10 @@
         <v>4</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="H412" s="5"/>
       <c r="I412" s="5" t="s">
@@ -16617,7 +16617,7 @@
         <v>398</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="H413" s="3"/>
       <c r="I413" s="3" t="s">
@@ -16647,7 +16647,7 @@
         <v>484</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H414" s="2"/>
       <c r="I414" s="2" t="s">
@@ -16659,7 +16659,7 @@
     </row>
     <row r="415" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" s="2" t="s">
@@ -16669,23 +16669,23 @@
         <v>28</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H415" s="2"/>
       <c r="I415" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J415" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="416" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" s="2" t="s">
@@ -16695,7 +16695,7 @@
         <v>28</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="2" t="s">
@@ -16729,7 +16729,7 @@
         <v>181</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
@@ -16845,7 +16845,7 @@
         <v>441</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
@@ -16963,14 +16963,14 @@
         <v>625</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H425" s="2"/>
       <c r="I425" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J425" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="426" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16993,19 +16993,19 @@
         <v>625</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H426" s="2"/>
       <c r="I426" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J426" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="427" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B427" s="5"/>
       <c r="C427" s="5" t="s">
@@ -17018,10 +17018,10 @@
         <v>4</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="G427" s="5" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H427" s="5"/>
       <c r="I427" s="5"/>
@@ -17062,7 +17062,7 @@
         <v>943</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>945</v>
+        <v>1483</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>2</v>
@@ -17074,7 +17074,7 @@
         <v>4</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G429" s="5" t="s">
         <v>473</v>
@@ -17089,7 +17089,7 @@
     </row>
     <row r="430" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B430" s="5"/>
       <c r="C430" s="5" t="s">
@@ -17102,7 +17102,7 @@
         <v>4</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G430" s="5" t="s">
         <v>473</v>
@@ -17117,7 +17117,7 @@
     </row>
     <row r="431" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B431" s="5"/>
       <c r="C431" s="5" t="s">
@@ -17130,15 +17130,15 @@
         <v>4</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="G431" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
       <c r="J431" s="5" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="432" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17173,7 +17173,7 @@
     </row>
     <row r="433" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" s="2" t="s">
@@ -17183,16 +17183,16 @@
         <v>28</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="F433" s="2"/>
       <c r="G433" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
       <c r="J433" s="2" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="434" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17211,12 +17211,12 @@
       </c>
       <c r="F434" s="2"/>
       <c r="G434" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
       <c r="J434" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17251,7 +17251,7 @@
     </row>
     <row r="436" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>481</v>
@@ -17269,7 +17269,7 @@
         <v>484</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H436" s="2"/>
       <c r="I436" s="2" t="s">
@@ -17281,7 +17281,7 @@
     </row>
     <row r="437" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B437" s="2"/>
       <c r="C437" s="2" t="s">
@@ -17294,15 +17294,15 @@
         <v>4</v>
       </c>
       <c r="F437" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G437" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="G437" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="H437" s="2"/>
       <c r="I437" s="2"/>
       <c r="J437" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="438" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17337,7 +17337,7 @@
     </row>
     <row r="439" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>506</v>
@@ -17369,10 +17369,10 @@
     </row>
     <row r="440" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B440" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>2</v>
@@ -17384,7 +17384,7 @@
         <v>590</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G440" s="2" t="s">
         <v>121</v>
@@ -17401,7 +17401,7 @@
     </row>
     <row r="441" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>840</v>
@@ -17433,10 +17433,10 @@
     </row>
     <row r="442" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>11</v>
@@ -17465,10 +17465,10 @@
     </row>
     <row r="443" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>11</v>
@@ -17497,10 +17497,10 @@
     </row>
     <row r="444" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>2</v>
@@ -17529,10 +17529,10 @@
     </row>
     <row r="445" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>2</v>
@@ -17561,7 +17561,7 @@
     </row>
     <row r="446" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B446" s="5"/>
       <c r="C446" s="5" t="s">
@@ -17574,23 +17574,23 @@
         <v>4</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H446" s="5"/>
       <c r="I446" s="5"/>
       <c r="J446" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="447" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B447" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>2</v>
@@ -17599,25 +17599,25 @@
         <v>685</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>441</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H447" s="2"/>
       <c r="I447" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J447" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="448" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>481</v>
@@ -17635,7 +17635,7 @@
         <v>484</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H448" s="2"/>
       <c r="I448" s="2" t="s">
@@ -17677,7 +17677,7 @@
     </row>
     <row r="450" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" s="2" t="s">
@@ -17687,23 +17687,23 @@
         <v>28</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="F450" s="2"/>
       <c r="G450" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H450" s="2"/>
       <c r="I450" s="2" t="s">
         <v>663</v>
       </c>
       <c r="J450" s="2" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="451" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B451" s="5"/>
       <c r="C451" s="5" t="s">
@@ -17716,20 +17716,20 @@
         <v>4</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G451" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H451" s="5"/>
       <c r="I451" s="5"/>
       <c r="J451" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="452" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>481</v>
@@ -17747,7 +17747,7 @@
         <v>484</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H452" s="2"/>
       <c r="I452" s="2" t="s">
@@ -17759,7 +17759,7 @@
     </row>
     <row r="453" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B453" s="5"/>
       <c r="C453" s="5" t="s">
@@ -17772,20 +17772,20 @@
         <v>4</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="G453" s="5" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
       <c r="J453" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="454" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>481</v>
@@ -17803,7 +17803,7 @@
         <v>484</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H454" s="2"/>
       <c r="I454" s="2" t="s">
@@ -17815,7 +17815,7 @@
     </row>
     <row r="455" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" s="2" t="s">
@@ -17825,11 +17825,11 @@
         <v>28</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="F455" s="2"/>
       <c r="G455" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H455" s="2" t="s">
         <v>69</v>
@@ -17838,12 +17838,12 @@
         <v>83</v>
       </c>
       <c r="J455" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="456" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>40</v>
@@ -17873,7 +17873,7 @@
     </row>
     <row r="457" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>735</v>
@@ -17975,20 +17975,20 @@
         <v>28</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>644</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H460" s="2"/>
       <c r="I460" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J460" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="461" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18005,20 +18005,20 @@
         <v>28</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>644</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H461" s="2"/>
       <c r="I461" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J461" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="462" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18053,10 +18053,10 @@
     </row>
     <row r="463" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="B463" s="5" t="s">
         <v>975</v>
-      </c>
-      <c r="B463" s="5" t="s">
-        <v>976</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>2</v>
@@ -18083,10 +18083,10 @@
     </row>
     <row r="464" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="B464" s="5" t="s">
         <v>977</v>
-      </c>
-      <c r="B464" s="5" t="s">
-        <v>978</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>2</v>
@@ -18098,22 +18098,22 @@
         <v>4</v>
       </c>
       <c r="F464" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G464" s="5" t="s">
         <v>979</v>
-      </c>
-      <c r="G464" s="5" t="s">
-        <v>980</v>
       </c>
       <c r="H464" s="5"/>
       <c r="I464" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="J464" s="5" t="s">
         <v>981</v>
-      </c>
-      <c r="J464" s="5" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="465" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" s="2" t="s">
@@ -18123,16 +18123,16 @@
         <v>28</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
       <c r="J465" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="466" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18169,7 +18169,7 @@
     </row>
     <row r="467" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" s="2" t="s">
@@ -18179,18 +18179,18 @@
         <v>28</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="F467" s="2"/>
       <c r="G467" s="2" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="H467" s="2"/>
       <c r="I467" s="2" t="s">
         <v>133</v>
       </c>
       <c r="J467" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="468" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18317,7 +18317,7 @@
     </row>
     <row r="472" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" s="2" t="s">
@@ -18327,21 +18327,21 @@
         <v>28</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="F472" s="2"/>
       <c r="G472" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
       <c r="J472" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="473" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B473" s="5"/>
       <c r="C473" s="5" t="s">
@@ -18354,20 +18354,20 @@
         <v>4</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="G473" s="5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
       <c r="J473" s="5" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="474" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B474" s="5"/>
       <c r="C474" s="5" t="s">
@@ -18380,20 +18380,20 @@
         <v>4</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="G474" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="H474" s="5"/>
       <c r="I474" s="5"/>
       <c r="J474" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="475" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B475" s="5"/>
       <c r="C475" s="5" t="s">
@@ -18406,15 +18406,15 @@
         <v>4</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="G475" s="5" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="H475" s="5"/>
       <c r="I475" s="5"/>
       <c r="J475" s="5" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="476" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18449,7 +18449,7 @@
     </row>
     <row r="477" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B477" s="2">
         <v>5.0999999999999996</v>
@@ -18458,28 +18458,28 @@
         <v>2</v>
       </c>
       <c r="D477" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="E477" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="E477" s="2" t="s">
+      <c r="F477" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="F477" s="2" t="s">
-        <v>986</v>
-      </c>
       <c r="G477" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H477" s="2"/>
       <c r="I477" s="2" t="s">
         <v>464</v>
       </c>
       <c r="J477" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="478" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B478" s="5">
         <v>5.0999999999999996</v>
@@ -18488,53 +18488,53 @@
         <v>2</v>
       </c>
       <c r="D478" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="F478" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="E478" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="F478" s="5" t="s">
-        <v>991</v>
-      </c>
       <c r="G478" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H478" s="5"/>
       <c r="I478" s="5" t="s">
         <v>464</v>
       </c>
       <c r="J478" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="479" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B479" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="B479" s="5" t="s">
+      <c r="C479" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D479" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="C479" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D479" s="5" t="s">
-        <v>994</v>
-      </c>
       <c r="E479" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G479" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H479" s="5"/>
       <c r="I479" s="5" t="s">
         <v>464</v>
       </c>
       <c r="J479" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="480" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18569,7 +18569,7 @@
     </row>
     <row r="481" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B481" s="5" t="s">
         <v>738</v>
@@ -18599,7 +18599,7 @@
     </row>
     <row r="482" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>735</v>
@@ -18611,25 +18611,25 @@
         <v>28</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>644</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H482" s="2"/>
       <c r="I482" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J482" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="483" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>481</v>
@@ -18647,7 +18647,7 @@
         <v>484</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H483" s="2"/>
       <c r="I483" s="2" t="s">
@@ -18659,10 +18659,10 @@
     </row>
     <row r="484" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B484" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>2</v>
@@ -18671,18 +18671,18 @@
         <v>28</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>720</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H484" s="2"/>
       <c r="I484" s="2"/>
       <c r="J484" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="485" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18705,7 +18705,7 @@
         <v>98</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
@@ -18715,7 +18715,7 @@
     </row>
     <row r="486" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" s="2" t="s">
@@ -18725,18 +18725,18 @@
         <v>28</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="F486" s="2"/>
       <c r="G486" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H486" s="2"/>
       <c r="I486" s="2" t="s">
         <v>489</v>
       </c>
       <c r="J486" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="487" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18771,7 +18771,7 @@
     </row>
     <row r="488" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B488" s="2"/>
       <c r="C488" s="2" t="s">
@@ -18781,26 +18781,26 @@
         <v>28</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="F488" s="2"/>
       <c r="G488" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H488" s="2"/>
       <c r="I488" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J488" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="489" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B489" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>1002</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>2</v>
@@ -18809,20 +18809,20 @@
         <v>28</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>441</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H489" s="2"/>
       <c r="I489" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J489" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="490" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18875,7 +18875,7 @@
         <v>177</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H491" s="3"/>
       <c r="I491" s="3"/>
@@ -18885,7 +18885,7 @@
     </row>
     <row r="492" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B492" s="5">
         <v>2.2999999999999998</v>
@@ -18945,7 +18945,7 @@
     </row>
     <row r="494" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" s="2" t="s">
@@ -18955,23 +18955,23 @@
         <v>28</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="F494" s="2"/>
       <c r="G494" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H494" s="2"/>
       <c r="I494" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J494" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="495" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B495" s="2"/>
       <c r="C495" s="2" t="s">
@@ -18981,23 +18981,23 @@
         <v>28</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="F495" s="2"/>
       <c r="G495" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H495" s="2"/>
       <c r="I495" s="2" t="s">
         <v>165</v>
       </c>
       <c r="J495" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="496" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B496" s="2"/>
       <c r="C496" s="2" t="s">
@@ -19007,18 +19007,18 @@
         <v>28</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="F496" s="2"/>
       <c r="G496" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H496" s="2"/>
       <c r="I496" s="2" t="s">
         <v>489</v>
       </c>
       <c r="J496" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19041,7 +19041,7 @@
         <v>179</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
@@ -19051,7 +19051,7 @@
     </row>
     <row r="498" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" s="2" t="s">
@@ -19061,16 +19061,16 @@
         <v>28</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="F498" s="2"/>
       <c r="G498" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H498" s="2"/>
       <c r="I498" s="2"/>
       <c r="J498" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="499" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19105,7 +19105,7 @@
     </row>
     <row r="500" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B500" s="5"/>
       <c r="C500" s="5" t="s">
@@ -19118,10 +19118,10 @@
         <v>4</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="G500" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
@@ -19131,7 +19131,7 @@
     </row>
     <row r="501" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B501" s="5"/>
       <c r="C501" s="5" t="s">
@@ -19144,20 +19144,20 @@
         <v>4</v>
       </c>
       <c r="F501" s="5" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="G501" s="5" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
       <c r="J501" s="5" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="502" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B502" s="5"/>
       <c r="C502" s="5" t="s">
@@ -19170,20 +19170,20 @@
         <v>4</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
       <c r="J502" s="5" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="503" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B503" s="5"/>
       <c r="C503" s="5" t="s">
@@ -19196,10 +19196,10 @@
         <v>4</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
@@ -19209,7 +19209,7 @@
     </row>
     <row r="504" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B504" s="5"/>
       <c r="C504" s="5" t="s">
@@ -19222,20 +19222,20 @@
         <v>4</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
       <c r="J504" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="505" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B505" s="5"/>
       <c r="C505" s="5" t="s">
@@ -19248,20 +19248,20 @@
         <v>4</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
       <c r="J505" s="5" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="506" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="B506" s="5"/>
       <c r="C506" s="5" t="s">
@@ -19274,10 +19274,10 @@
         <v>4</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
@@ -19287,7 +19287,7 @@
     </row>
     <row r="507" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B507" s="5"/>
       <c r="C507" s="5" t="s">
@@ -19300,10 +19300,10 @@
         <v>4</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="G507" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
@@ -19313,7 +19313,7 @@
     </row>
     <row r="508" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B508" s="5"/>
       <c r="C508" s="5" t="s">
@@ -19326,10 +19326,10 @@
         <v>4</v>
       </c>
       <c r="F508" s="5" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="G508" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
@@ -19339,7 +19339,7 @@
     </row>
     <row r="509" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="B509" s="5"/>
       <c r="C509" s="5" t="s">
@@ -19352,10 +19352,10 @@
         <v>4</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G509" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
@@ -19365,7 +19365,7 @@
     </row>
     <row r="510" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B510" s="5"/>
       <c r="C510" s="5" t="s">
@@ -19378,20 +19378,20 @@
         <v>4</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="G510" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="H510" s="5"/>
       <c r="I510" s="5"/>
       <c r="J510" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="511" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B511" s="5"/>
       <c r="C511" s="5" t="s">
@@ -19404,10 +19404,10 @@
         <v>4</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G511" s="5" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H511" s="5"/>
       <c r="I511" s="5"/>
@@ -19417,7 +19417,7 @@
     </row>
     <row r="512" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B512" s="5"/>
       <c r="C512" s="5" t="s">
@@ -19430,7 +19430,7 @@
         <v>4</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="G512" s="5" t="s">
         <v>473</v>
@@ -19445,10 +19445,10 @@
     </row>
     <row r="513" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B513" s="5" t="s">
         <v>1005</v>
-      </c>
-      <c r="B513" s="5" t="s">
-        <v>1006</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>2</v>
@@ -19460,7 +19460,7 @@
         <v>4</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G513" s="5" t="s">
         <v>525</v>
@@ -19475,7 +19475,7 @@
     </row>
     <row r="514" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>481</v>
@@ -19493,7 +19493,7 @@
         <v>484</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H514" s="2"/>
       <c r="I514" s="2" t="s">
@@ -19505,7 +19505,7 @@
     </row>
     <row r="515" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>481</v>
@@ -19523,7 +19523,7 @@
         <v>484</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H515" s="2"/>
       <c r="I515" s="2" t="s">
@@ -19535,7 +19535,7 @@
     </row>
     <row r="516" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>481</v>
@@ -19553,7 +19553,7 @@
         <v>484</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H516" s="2"/>
       <c r="I516" s="2" t="s">
@@ -19595,37 +19595,39 @@
     </row>
     <row r="518" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B518" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="C518" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D518" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="C518" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D518" s="2" t="s">
+      <c r="E518" s="2" t="s">
         <v>1013</v>
-      </c>
-      <c r="E518" s="2" t="s">
-        <v>1014</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>453</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H518" s="2"/>
       <c r="I518" s="2"/>
       <c r="J518" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="519" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B519" s="5"/>
+        <v>1015</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>1482</v>
+      </c>
       <c r="C519" s="5" t="s">
         <v>2</v>
       </c>
@@ -19636,38 +19638,38 @@
         <v>4</v>
       </c>
       <c r="F519" s="5" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
       <c r="J519" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="520" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1016</v>
+        <v>1481</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D520" s="5" t="s">
-        <v>1017</v>
+        <v>110</v>
       </c>
       <c r="E520" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F520" s="5" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="H520" s="5"/>
       <c r="I520" s="5"/>
@@ -19677,10 +19679,10 @@
     </row>
     <row r="521" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>2</v>
@@ -19689,28 +19691,28 @@
         <v>28</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>644</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H521" s="2"/>
       <c r="I521" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="522" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>2</v>
@@ -19719,25 +19721,25 @@
         <v>28</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>644</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H522" s="2"/>
       <c r="I522" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J522" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="523" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>696</v>
@@ -19749,20 +19751,20 @@
         <v>28</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>441</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H523" s="2"/>
       <c r="I523" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J523" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="524" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20157,10 +20159,10 @@
     </row>
     <row r="537" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>2</v>
@@ -20340,7 +20342,7 @@
         <v>391</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C543" s="3" t="s">
         <v>2</v>
@@ -20547,10 +20549,10 @@
     </row>
     <row r="550" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C550" s="5" t="s">
         <v>2</v>
@@ -20655,7 +20657,7 @@
         <v>18</v>
       </c>
       <c r="G553" s="3" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
@@ -20743,7 +20745,7 @@
         <v>323</v>
       </c>
       <c r="G556" s="3" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
@@ -20783,7 +20785,7 @@
     </row>
     <row r="558" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B558" s="2"/>
       <c r="C558" s="2" t="s">
@@ -20793,11 +20795,11 @@
         <v>28</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="F558" s="2"/>
       <c r="G558" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H558" s="2" t="s">
         <v>69</v>
@@ -20806,7 +20808,7 @@
         <v>83</v>
       </c>
       <c r="J558" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="559" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20826,7 +20828,7 @@
         <v>4</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="G559" s="3" t="s">
         <v>75</v>
@@ -20841,10 +20843,10 @@
     </row>
     <row r="560" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C560" s="5" t="s">
         <v>126</v>
@@ -20856,7 +20858,7 @@
         <v>4</v>
       </c>
       <c r="F560" s="5" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="G560" s="5" t="s">
         <v>507</v>
@@ -20871,7 +20873,7 @@
     </row>
     <row r="561" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B561" s="2"/>
       <c r="C561" s="2" t="s">
@@ -20881,21 +20883,21 @@
         <v>28</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="F561" s="2"/>
       <c r="G561" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="H561" s="2"/>
       <c r="I561" s="2"/>
       <c r="J561" s="2" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="562" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B562" s="5"/>
       <c r="C562" s="5" t="s">
@@ -20908,20 +20910,20 @@
         <v>4</v>
       </c>
       <c r="F562" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G562" s="5" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="H562" s="5"/>
       <c r="I562" s="5"/>
       <c r="J562" s="5" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="563" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B563" s="5"/>
       <c r="C563" s="5" t="s">
@@ -20934,15 +20936,15 @@
         <v>4</v>
       </c>
       <c r="F563" s="5" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G563" s="5" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="H563" s="5"/>
       <c r="I563" s="5"/>
       <c r="J563" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="564" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20977,10 +20979,10 @@
     </row>
     <row r="565" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>2</v>
@@ -20992,25 +20994,25 @@
         <v>4</v>
       </c>
       <c r="F565" s="5" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="G565" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="H565" s="5"/>
       <c r="I565" s="5" t="s">
         <v>106</v>
       </c>
       <c r="J565" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="566" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>2</v>
@@ -21019,20 +21021,20 @@
         <v>28</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F566" s="2" t="s">
         <v>441</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H566" s="2"/>
       <c r="I566" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J566" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="567" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21067,7 +21069,7 @@
     </row>
     <row r="568" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B568" s="2">
         <v>3.1</v>
@@ -21079,20 +21081,20 @@
         <v>28</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F568" s="2" t="s">
         <v>441</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H568" s="2"/>
       <c r="I568" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J568" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="569" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21127,7 +21129,7 @@
     </row>
     <row r="570" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>481</v>
@@ -21145,7 +21147,7 @@
         <v>484</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H570" s="2"/>
       <c r="I570" s="2" t="s">
@@ -21187,7 +21189,7 @@
     </row>
     <row r="572" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B572" s="2"/>
       <c r="C572" s="2" t="s">
@@ -21197,11 +21199,11 @@
         <v>28</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="F572" s="2"/>
       <c r="G572" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H572" s="2"/>
       <c r="I572" s="2"/>
@@ -21211,7 +21213,7 @@
     </row>
     <row r="573" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B573" s="2"/>
       <c r="C573" s="2" t="s">
@@ -21221,16 +21223,16 @@
         <v>28</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="F573" s="2"/>
       <c r="G573" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H573" s="2"/>
       <c r="I573" s="2"/>
       <c r="J573" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="574" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -4849,8 +4849,8 @@
   <dimension ref="A1:J574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G574" sqref="G574"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
-    <sheet name="SourceMinder_Product_Contacts" sheetId="2" r:id="rId1"/>
+    <sheet name="SourceMinder_Product_Contacts.t" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SourceMinder_Product_Contacts!$A$1:$J$575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SourceMinder_Product_Contacts.t!$A$1:$J$575</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -3452,12 +3452,6 @@
     <t>CSCR709/apm</t>
   </si>
   <si>
-    <t>[{"PMFKEY":"fusle01"}]</t>
-  </si>
-  <si>
-    <t>fusle01</t>
-  </si>
-  <si>
     <t>APPDynamics connector</t>
   </si>
   <si>
@@ -4443,6 +4437,12 @@
   </si>
   <si>
     <t>[{"PMFKEY":"kokja01"}]</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"fusle01"},{"PMFKEY":"zhowe05"}]</t>
+  </si>
+  <si>
+    <t>fusle01;zhowe05</t>
   </si>
 </sst>
 </file>
@@ -4849,8 +4849,8 @@
   <dimension ref="A1:J574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4883,7 +4883,7 @@
         <v>420</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>421</v>
@@ -4918,12 +4918,12 @@
         <v>427</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4946,12 +4946,12 @@
         <v>430</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4974,7 +4974,7 @@
         <v>430</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="5" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -4994,16 +4994,16 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5026,17 +5026,17 @@
         <v>436</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -5046,16 +5046,16 @@
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5078,7 +5078,7 @@
         <v>93</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -5106,12 +5106,12 @@
         <v>437</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,12 +5134,12 @@
         <v>106</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5162,7 +5162,7 @@
         <v>408</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -5190,14 +5190,14 @@
         <v>442</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
     </row>
     <row r="16" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -5294,18 +5294,18 @@
         <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
         <v>652</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5426,7 +5426,7 @@
     </row>
     <row r="21" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -5436,16 +5436,16 @@
         <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5478,7 +5478,7 @@
     </row>
     <row r="23" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -5491,7 +5491,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>462</v>
@@ -5524,12 +5524,12 @@
         <v>468</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
         <v>473</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="28" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -5632,11 +5632,11 @@
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -5662,17 +5662,17 @@
         <v>1140</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1141</v>
+        <v>1470</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>1142</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -5682,21 +5682,21 @@
         <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -5709,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>1099</v>
@@ -5764,7 +5764,7 @@
         <v>1137</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="35" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -5812,15 +5812,15 @@
         <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5843,7 +5843,7 @@
         <v>315</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="37" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -5863,16 +5863,16 @@
         <v>25</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5895,12 +5895,12 @@
         <v>481</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5923,19 +5923,19 @@
         <v>442</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
@@ -5945,18 +5945,18 @@
         <v>25</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6067,7 +6067,7 @@
         <v>473</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -6095,7 +6095,7 @@
         <v>473</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -6123,7 +6123,7 @@
         <v>318</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="48" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -6169,11 +6169,11 @@
         <v>25</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -6227,14 +6227,14 @@
         <v>430</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6366,7 +6366,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>508</v>
@@ -6394,7 +6394,7 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>508</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="63" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
@@ -6594,15 +6594,15 @@
         <v>4</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6625,14 +6625,14 @@
         <v>535</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6663,7 +6663,7 @@
     </row>
     <row r="66" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
@@ -6676,20 +6676,20 @@
         <v>4</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
@@ -6702,20 +6702,20 @@
         <v>4</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
@@ -6728,15 +6728,15 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6759,14 +6759,14 @@
         <v>535</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6891,7 +6891,7 @@
     </row>
     <row r="74" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
@@ -6901,18 +6901,18 @@
         <v>25</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6947,7 +6947,7 @@
     </row>
     <row r="76" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
@@ -6960,7 +6960,7 @@
         <v>4</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>1068</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="77" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
@@ -6983,23 +6983,23 @@
         <v>25</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
@@ -7009,11 +7009,11 @@
         <v>25</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>66</v>
@@ -7022,7 +7022,7 @@
         <v>78</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7045,7 +7045,7 @@
         <v>473</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="80" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
@@ -7068,7 +7068,7 @@
         <v>4</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>935</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="81" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
@@ -7091,11 +7091,11 @@
         <v>25</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="82" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
@@ -7118,20 +7118,20 @@
         <v>4</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
@@ -7144,15 +7144,15 @@
         <v>4</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7175,19 +7175,19 @@
         <v>547</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5" t="s">
         <v>158</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
@@ -7197,18 +7197,18 @@
         <v>25</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7254,14 +7254,14 @@
         <v>4</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>550</v>
@@ -7317,7 +7317,7 @@
         <v>562</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -7345,12 +7345,12 @@
         <v>566</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7373,14 +7373,14 @@
         <v>571</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7400,15 +7400,15 @@
         <v>575</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7431,7 +7431,7 @@
         <v>580</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>66</v>
@@ -7440,7 +7440,7 @@
         <v>117</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7461,14 +7461,14 @@
         <v>1091</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5" t="s">
         <v>1092</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7506,7 +7506,7 @@
         <v>186</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>2</v>
@@ -7551,7 +7551,7 @@
         <v>351</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3" t="s">
@@ -7605,14 +7605,14 @@
         <v>584</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7635,14 +7635,14 @@
         <v>442</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7665,14 +7665,14 @@
         <v>442</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7693,7 +7693,7 @@
         <v>1049</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -7791,7 +7791,7 @@
     </row>
     <row r="106" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
@@ -7801,11 +7801,11 @@
         <v>25</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>66</v>
@@ -7814,7 +7814,7 @@
         <v>78</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7867,7 +7867,7 @@
         <v>148</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -7895,7 +7895,7 @@
         <v>473</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -7923,7 +7923,7 @@
         <v>473</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -7951,14 +7951,14 @@
         <v>430</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7981,7 +7981,7 @@
         <v>473</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -8009,14 +8009,14 @@
         <v>607</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8069,12 +8069,12 @@
         <v>611</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8097,12 +8097,12 @@
         <v>614</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8151,7 +8151,7 @@
         <v>320</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -8179,12 +8179,12 @@
         <v>436</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="122" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
@@ -8253,16 +8253,16 @@
         <v>25</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8285,12 +8285,12 @@
         <v>617</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8337,12 +8337,12 @@
         <v>1046</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8377,7 +8377,7 @@
     </row>
     <row r="127" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
@@ -8387,18 +8387,18 @@
         <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
     </row>
     <row r="130" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
@@ -8473,18 +8473,18 @@
         <v>25</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2" t="s">
         <v>478</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8507,7 +8507,7 @@
         <v>322</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -8535,14 +8535,14 @@
         <v>637</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8565,7 +8565,7 @@
         <v>473</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -8593,12 +8593,12 @@
         <v>614</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8621,7 +8621,7 @@
         <v>473</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -8649,12 +8649,12 @@
         <v>614</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8735,12 +8735,12 @@
         <v>614</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8763,7 +8763,7 @@
         <v>430</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
@@ -8793,7 +8793,7 @@
         <v>430</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
@@ -8823,7 +8823,7 @@
         <v>430</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2" t="s">
@@ -8883,7 +8883,7 @@
         <v>473</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -8971,19 +8971,19 @@
         <v>442</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2" t="s">
         <v>443</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
@@ -8993,11 +8993,11 @@
         <v>25</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="149" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
@@ -9017,23 +9017,23 @@
         <v>25</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2" t="s">
         <v>652</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
@@ -9043,18 +9043,18 @@
         <v>25</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2" t="s">
         <v>652</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9077,7 +9077,7 @@
         <v>152</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -9105,14 +9105,14 @@
         <v>667</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9132,7 +9132,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>185</v>
@@ -9165,7 +9165,7 @@
         <v>473</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -9193,12 +9193,12 @@
         <v>617</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9221,7 +9221,7 @@
         <v>329</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -9249,7 +9249,7 @@
         <v>327</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
@@ -9277,14 +9277,14 @@
         <v>667</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9307,14 +9307,14 @@
         <v>430</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9349,7 +9349,7 @@
     </row>
     <row r="161" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
@@ -9359,11 +9359,11 @@
         <v>25</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -9391,7 +9391,7 @@
         <v>324</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="163" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
@@ -9411,18 +9411,18 @@
         <v>25</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9457,7 +9457,7 @@
     </row>
     <row r="165" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
@@ -9467,21 +9467,21 @@
         <v>25</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
@@ -9491,21 +9491,21 @@
         <v>25</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
@@ -9515,21 +9515,21 @@
         <v>25</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
@@ -9539,21 +9539,21 @@
         <v>25</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
@@ -9563,21 +9563,21 @@
         <v>25</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
@@ -9587,21 +9587,21 @@
         <v>25</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
@@ -9611,16 +9611,16 @@
         <v>25</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9703,14 +9703,14 @@
         <v>430</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9733,14 +9733,14 @@
         <v>430</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9821,14 +9821,14 @@
         <v>430</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9863,7 +9863,7 @@
     </row>
     <row r="180" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="5" t="s">
@@ -9876,7 +9876,7 @@
         <v>4</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>514</v>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="184" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
@@ -9989,11 +9989,11 @@
         <v>25</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -10049,7 +10049,7 @@
         <v>617</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -10077,7 +10077,7 @@
         <v>473</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -10100,17 +10100,17 @@
         <v>703</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="6" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10126,14 +10126,14 @@
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J189" s="5" t="s">
         <v>550</v>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="190" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
@@ -10151,23 +10151,23 @@
         <v>25</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="6" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="6" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
@@ -10177,11 +10177,11 @@
         <v>25</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -10251,7 +10251,7 @@
     </row>
     <row r="194" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
@@ -10261,21 +10261,21 @@
         <v>25</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
@@ -10285,16 +10285,16 @@
         <v>25</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -10341,7 +10341,7 @@
         <v>87</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -10369,7 +10369,7 @@
         <v>83</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="199" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -10389,16 +10389,16 @@
         <v>25</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10477,7 +10477,7 @@
         <v>473</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -10535,7 +10535,7 @@
         <v>347</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H204" s="3"/>
       <c r="I204" s="3" t="s">
@@ -10653,7 +10653,7 @@
         <v>332</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
@@ -10711,12 +10711,12 @@
         <v>614</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10799,7 +10799,7 @@
         <v>473</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -10827,7 +10827,7 @@
         <v>473</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -10855,7 +10855,7 @@
         <v>473</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
@@ -10883,7 +10883,7 @@
         <v>473</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -10911,7 +10911,7 @@
         <v>473</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -10939,12 +10939,12 @@
         <v>617</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
       <c r="J218" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10979,7 +10979,7 @@
     </row>
     <row r="220" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -10989,16 +10989,16 @@
         <v>25</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11021,14 +11021,14 @@
         <v>633</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11051,14 +11051,14 @@
         <v>633</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H222" s="2"/>
       <c r="I222" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11109,14 +11109,14 @@
         <v>633</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11179,7 +11179,7 @@
     </row>
     <row r="227" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -11189,16 +11189,16 @@
         <v>25</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11281,7 +11281,7 @@
         <v>473</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -11309,14 +11309,14 @@
         <v>736</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="5" t="s">
         <v>737</v>
       </c>
       <c r="J231" s="5" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11339,14 +11339,14 @@
         <v>430</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H232" s="2"/>
       <c r="I232" s="2" t="s">
         <v>737</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11369,7 +11369,7 @@
         <v>473</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
@@ -11397,7 +11397,7 @@
         <v>139</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="236" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="5" t="s">
@@ -11450,20 +11450,20 @@
         <v>4</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="5" t="s">
@@ -11476,20 +11476,20 @@
         <v>4</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="5" t="s">
@@ -11502,20 +11502,20 @@
         <v>4</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="5" t="s">
@@ -11528,20 +11528,20 @@
         <v>4</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="5" t="s">
@@ -11554,20 +11554,20 @@
         <v>4</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="5" t="s">
@@ -11580,20 +11580,20 @@
         <v>4</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="5" t="s">
@@ -11606,20 +11606,20 @@
         <v>4</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="5" t="s">
@@ -11632,20 +11632,20 @@
         <v>4</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="5" t="s">
@@ -11658,20 +11658,20 @@
         <v>4</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="5" t="s">
@@ -11684,20 +11684,20 @@
         <v>4</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="5" t="s">
@@ -11710,20 +11710,20 @@
         <v>4</v>
       </c>
       <c r="F246" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G246" s="5" t="s">
         <v>1420</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>1422</v>
       </c>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="5" t="s">
@@ -11736,20 +11736,20 @@
         <v>4</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="5" t="s">
@@ -11762,20 +11762,20 @@
         <v>4</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="5" t="s">
@@ -11788,20 +11788,20 @@
         <v>4</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="5" t="s">
@@ -11814,20 +11814,20 @@
         <v>4</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="5" t="s">
@@ -11840,20 +11840,20 @@
         <v>4</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="5" t="s">
@@ -11866,20 +11866,20 @@
         <v>4</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="5" t="s">
@@ -11892,15 +11892,15 @@
         <v>4</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11933,7 +11933,7 @@
     </row>
     <row r="255" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2" t="s">
@@ -11943,11 +11943,11 @@
         <v>25</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="256" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
@@ -11967,11 +11967,11 @@
         <v>25</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
@@ -12058,7 +12058,7 @@
         <v>4</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>746</v>
@@ -12091,7 +12091,7 @@
         <v>347</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H260" s="3"/>
       <c r="I260" s="3" t="s">
@@ -12101,7 +12101,7 @@
     </row>
     <row r="261" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="5" t="s">
@@ -12114,20 +12114,20 @@
         <v>4</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="5" t="s">
@@ -12140,15 +12140,15 @@
         <v>4</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12171,12 +12171,12 @@
         <v>614</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
       <c r="J263" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12199,12 +12199,12 @@
         <v>617</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
       <c r="J264" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12265,7 +12265,7 @@
     </row>
     <row r="267" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="s">
@@ -12275,11 +12275,11 @@
         <v>25</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
@@ -12307,19 +12307,19 @@
         <v>430</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H268" s="2"/>
       <c r="I268" s="2" t="s">
         <v>652</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
@@ -12329,18 +12329,18 @@
         <v>25</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H269" s="2"/>
       <c r="I269" s="2" t="s">
         <v>652</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12361,14 +12361,14 @@
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="H270" s="2"/>
       <c r="I270" s="2" t="s">
         <v>759</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12463,7 +12463,7 @@
     </row>
     <row r="274" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B274" s="5"/>
       <c r="C274" s="5" t="s">
@@ -12476,15 +12476,15 @@
         <v>4</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12507,7 +12507,7 @@
         <v>145</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
@@ -12535,7 +12535,7 @@
         <v>136</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
@@ -12591,7 +12591,7 @@
         <v>473</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
@@ -12613,13 +12613,13 @@
         <v>471</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>473</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
@@ -12658,7 +12658,7 @@
         <v>41</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
@@ -12673,14 +12673,14 @@
         <v>633</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12761,14 +12761,14 @@
         <v>633</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H284" s="2"/>
       <c r="I284" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12803,7 +12803,7 @@
     </row>
     <row r="286" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
@@ -12813,18 +12813,18 @@
         <v>25</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H286" s="2"/>
       <c r="I286" s="2" t="s">
         <v>652</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12855,7 +12855,7 @@
     </row>
     <row r="288" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2" t="s">
@@ -12865,7 +12865,7 @@
         <v>25</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2" t="s">
@@ -12959,7 +12959,7 @@
         <v>430</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
@@ -12987,7 +12987,7 @@
         <v>782</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
@@ -13011,14 +13011,14 @@
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H293" s="2"/>
       <c r="I293" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13071,7 +13071,7 @@
         <v>430</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
@@ -13099,14 +13099,14 @@
         <v>789</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H296" s="2"/>
       <c r="I296" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13183,7 +13183,7 @@
         <v>473</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
@@ -13211,7 +13211,7 @@
         <v>473</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
@@ -13239,7 +13239,7 @@
         <v>132</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
@@ -13267,14 +13267,14 @@
         <v>430</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H302" s="2"/>
       <c r="I302" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13297,7 +13297,7 @@
         <v>797</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H303" s="5"/>
       <c r="I303" s="5" t="s">
@@ -13337,7 +13337,7 @@
     </row>
     <row r="305" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" s="2" t="s">
@@ -13347,21 +13347,21 @@
         <v>25</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
       <c r="J305" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2" t="s">
@@ -13371,18 +13371,18 @@
         <v>25</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H306" s="2"/>
       <c r="I306" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13405,14 +13405,14 @@
         <v>633</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H307" s="2"/>
       <c r="I307" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13495,14 +13495,14 @@
         <v>810</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="H310" s="2"/>
       <c r="I310" s="2" t="s">
         <v>811</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13525,7 +13525,7 @@
         <v>173</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="313" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" s="2" t="s">
@@ -13575,18 +13575,18 @@
         <v>25</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H313" s="2"/>
       <c r="I313" s="2" t="s">
         <v>478</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13639,7 +13639,7 @@
         <v>473</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="317" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" s="2" t="s">
@@ -13689,21 +13689,21 @@
         <v>25</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
       <c r="J317" s="2" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2" t="s">
@@ -13713,21 +13713,21 @@
         <v>25</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
       <c r="J318" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B319" s="5"/>
       <c r="C319" s="5" t="s">
@@ -13740,10 +13740,10 @@
         <v>4</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="H319" s="5"/>
       <c r="I319" s="5" t="s">
@@ -13755,7 +13755,7 @@
     </row>
     <row r="320" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" s="2" t="s">
@@ -13765,23 +13765,23 @@
         <v>25</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H320" s="2"/>
       <c r="I320" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="5" t="s">
@@ -13794,15 +13794,15 @@
         <v>4</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13885,7 +13885,7 @@
         <v>175</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
@@ -13968,20 +13968,20 @@
         <v>4</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" s="2" t="s">
@@ -13991,16 +13991,16 @@
         <v>25</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
       <c r="J328" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14259,7 +14259,7 @@
     </row>
     <row r="337" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" s="2" t="s">
@@ -14269,11 +14269,11 @@
         <v>25</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>66</v>
@@ -14282,7 +14282,7 @@
         <v>117</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14305,7 +14305,7 @@
         <v>130</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
@@ -14315,7 +14315,7 @@
     </row>
     <row r="339" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B339" s="5"/>
       <c r="C339" s="5" t="s">
@@ -14328,10 +14328,10 @@
         <v>4</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
@@ -14341,7 +14341,7 @@
     </row>
     <row r="340" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B340" s="5"/>
       <c r="C340" s="5" t="s">
@@ -14354,15 +14354,15 @@
         <v>4</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14723,7 +14723,7 @@
     </row>
     <row r="353" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" s="2" t="s">
@@ -14733,18 +14733,18 @@
         <v>25</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H353" s="2"/>
       <c r="I353" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="354" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14827,7 +14827,7 @@
         <v>867</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
@@ -14915,14 +14915,14 @@
         <v>633</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H359" s="2"/>
       <c r="I359" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15185,7 +15185,7 @@
         <v>10</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
@@ -15195,7 +15195,7 @@
     </row>
     <row r="369" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" s="2" t="s">
@@ -15205,16 +15205,16 @@
         <v>25</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
       <c r="J369" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="370" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15237,7 +15237,7 @@
         <v>13</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="371" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" s="2" t="s">
@@ -15257,23 +15257,23 @@
         <v>25</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H371" s="2"/>
       <c r="I371" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J371" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="372" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" s="2" t="s">
@@ -15283,16 +15283,16 @@
         <v>25</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
       <c r="J372" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15315,7 +15315,7 @@
         <v>143</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
@@ -15325,7 +15325,7 @@
     </row>
     <row r="374" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" s="2" t="s">
@@ -15335,16 +15335,16 @@
         <v>25</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
       <c r="J374" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15367,14 +15367,14 @@
         <v>880</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H375" s="2"/>
       <c r="I375" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15427,7 +15427,7 @@
         <v>473</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
@@ -15455,7 +15455,7 @@
         <v>473</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H378" s="2"/>
       <c r="I378" s="2"/>
@@ -15525,7 +15525,7 @@
     </row>
     <row r="381" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" s="2" t="s">
@@ -15535,16 +15535,16 @@
         <v>25</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
       <c r="J381" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15567,14 +15567,14 @@
         <v>894</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H382" s="2"/>
       <c r="I382" s="2" t="s">
         <v>179</v>
       </c>
       <c r="J382" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15597,7 +15597,7 @@
         <v>473</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
@@ -15607,7 +15607,7 @@
     </row>
     <row r="384" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" s="2" t="s">
@@ -15617,16 +15617,16 @@
         <v>25</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
       <c r="J384" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="385" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15675,17 +15675,17 @@
         <v>614</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
       <c r="J386" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="387" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" s="2" t="s">
@@ -15695,23 +15695,23 @@
         <v>25</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H387" s="2"/>
       <c r="I387" s="2" t="s">
         <v>478</v>
       </c>
       <c r="J387" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="388" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" s="2" t="s">
@@ -15721,11 +15721,11 @@
         <v>25</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H388" s="2"/>
       <c r="I388" s="2"/>
@@ -15763,7 +15763,7 @@
     </row>
     <row r="390" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" s="2" t="s">
@@ -15773,18 +15773,18 @@
         <v>25</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H390" s="2"/>
       <c r="I390" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J390" s="2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15837,7 +15837,7 @@
         <v>473</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H392" s="2"/>
       <c r="I392" s="2"/>
@@ -15925,7 +15925,7 @@
         <v>473</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H395" s="2"/>
       <c r="I395" s="2"/>
@@ -15953,7 +15953,7 @@
         <v>473</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
@@ -16011,7 +16011,7 @@
         <v>473</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
@@ -16039,7 +16039,7 @@
         <v>473</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
@@ -16067,7 +16067,7 @@
         <v>473</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
@@ -16095,7 +16095,7 @@
         <v>473</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
@@ -16123,7 +16123,7 @@
         <v>473</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H402" s="2"/>
       <c r="I402" s="2"/>
@@ -16133,7 +16133,7 @@
     </row>
     <row r="403" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" s="2" t="s">
@@ -16143,11 +16143,11 @@
         <v>25</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
@@ -16205,7 +16205,7 @@
         <v>473</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H405" s="2"/>
       <c r="I405" s="2"/>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="406" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" s="2" t="s">
@@ -16225,16 +16225,16 @@
         <v>25</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
       <c r="J406" s="2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="407" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16257,14 +16257,14 @@
         <v>430</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H407" s="2"/>
       <c r="I407" s="2" t="s">
         <v>179</v>
       </c>
       <c r="J407" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="408" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16287,7 +16287,7 @@
         <v>473</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
@@ -16315,7 +16315,7 @@
         <v>916</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H409" s="5"/>
       <c r="I409" s="5" t="s">
@@ -16345,7 +16345,7 @@
         <v>391</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H410" s="3"/>
       <c r="I410" s="3" t="s">
@@ -16372,10 +16372,10 @@
         <v>4</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H411" s="5"/>
       <c r="I411" s="5" t="s">
@@ -16400,10 +16400,10 @@
         <v>4</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H412" s="5"/>
       <c r="I412" s="5" t="s">
@@ -16433,7 +16433,7 @@
         <v>387</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H413" s="3"/>
       <c r="I413" s="3" t="s">
@@ -16463,7 +16463,7 @@
         <v>473</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
@@ -16473,7 +16473,7 @@
     </row>
     <row r="415" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" s="2" t="s">
@@ -16483,23 +16483,23 @@
         <v>25</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H415" s="2"/>
       <c r="I415" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J415" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="416" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" s="2" t="s">
@@ -16509,7 +16509,7 @@
         <v>25</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="2" t="s">
@@ -16543,7 +16543,7 @@
         <v>171</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
@@ -16629,7 +16629,7 @@
         <v>148</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
@@ -16657,7 +16657,7 @@
         <v>430</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
@@ -16775,12 +16775,12 @@
         <v>614</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H425" s="2"/>
       <c r="I425" s="2"/>
       <c r="J425" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="426" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16803,12 +16803,12 @@
         <v>614</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H426" s="2"/>
       <c r="I426" s="2"/>
       <c r="J426" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="427" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16870,7 +16870,7 @@
         <v>927</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>2</v>
@@ -16925,7 +16925,7 @@
     </row>
     <row r="431" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B431" s="5"/>
       <c r="C431" s="5" t="s">
@@ -16938,15 +16938,15 @@
         <v>4</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G431" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
       <c r="J431" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="432" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16969,7 +16969,7 @@
         <v>71</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H432" s="3"/>
       <c r="I432" s="3" t="s">
@@ -16979,7 +16979,7 @@
     </row>
     <row r="433" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" s="2" t="s">
@@ -16989,16 +16989,16 @@
         <v>25</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F433" s="2"/>
       <c r="G433" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
       <c r="J433" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="434" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17017,12 +17017,12 @@
       </c>
       <c r="F434" s="2"/>
       <c r="G434" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
       <c r="J434" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17075,7 +17075,7 @@
         <v>473</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
@@ -17365,7 +17365,7 @@
     </row>
     <row r="446" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B446" s="5"/>
       <c r="C446" s="5" t="s">
@@ -17378,7 +17378,7 @@
         <v>4</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G446" s="5" t="s">
         <v>1068</v>
@@ -17409,14 +17409,14 @@
         <v>430</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H447" s="2"/>
       <c r="I447" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J447" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="448" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17439,7 +17439,7 @@
         <v>473</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H448" s="2"/>
       <c r="I448" s="2"/>
@@ -17479,7 +17479,7 @@
     </row>
     <row r="450" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" s="2" t="s">
@@ -17489,18 +17489,18 @@
         <v>25</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F450" s="2"/>
       <c r="G450" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H450" s="2"/>
       <c r="I450" s="2" t="s">
         <v>652</v>
       </c>
       <c r="J450" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="451" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17549,7 +17549,7 @@
         <v>473</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H452" s="2"/>
       <c r="I452" s="2"/>
@@ -17572,10 +17572,10 @@
         <v>4</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G453" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
@@ -17603,7 +17603,7 @@
         <v>473</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
@@ -17613,7 +17613,7 @@
     </row>
     <row r="455" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" s="2" t="s">
@@ -17623,11 +17623,11 @@
         <v>25</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="F455" s="2"/>
       <c r="G455" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H455" s="2" t="s">
         <v>66</v>
@@ -17636,7 +17636,7 @@
         <v>78</v>
       </c>
       <c r="J455" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="456" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17779,14 +17779,14 @@
         <v>633</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H460" s="2"/>
       <c r="I460" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J460" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="461" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17809,14 +17809,14 @@
         <v>633</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H461" s="2"/>
       <c r="I461" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J461" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="462" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17909,7 +17909,7 @@
     </row>
     <row r="465" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" s="2" t="s">
@@ -17919,16 +17919,16 @@
         <v>25</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
       <c r="J465" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="466" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17965,7 +17965,7 @@
     </row>
     <row r="467" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" s="2" t="s">
@@ -17975,16 +17975,16 @@
         <v>25</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F467" s="2"/>
       <c r="G467" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H467" s="2"/>
       <c r="I467" s="2"/>
       <c r="J467" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="468" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18111,7 +18111,7 @@
     </row>
     <row r="472" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" s="2" t="s">
@@ -18121,16 +18121,16 @@
         <v>25</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F472" s="2"/>
       <c r="G472" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
       <c r="J472" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="473" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18203,12 +18203,12 @@
         <v>1131</v>
       </c>
       <c r="G475" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="H475" s="5"/>
       <c r="I475" s="5"/>
       <c r="J475" s="5" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="476" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18261,14 +18261,14 @@
         <v>969</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H477" s="2"/>
       <c r="I477" s="2" t="s">
         <v>453</v>
       </c>
       <c r="J477" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="478" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18409,14 +18409,14 @@
         <v>633</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H482" s="2"/>
       <c r="I482" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J482" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="483" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18439,7 +18439,7 @@
         <v>473</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H483" s="2"/>
       <c r="I483" s="2"/>
@@ -18467,12 +18467,12 @@
         <v>708</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H484" s="2"/>
       <c r="I484" s="2"/>
       <c r="J484" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="485" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18495,7 +18495,7 @@
         <v>93</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
@@ -18505,7 +18505,7 @@
     </row>
     <row r="486" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" s="2" t="s">
@@ -18515,18 +18515,18 @@
         <v>25</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F486" s="2"/>
       <c r="G486" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H486" s="2"/>
       <c r="I486" s="2" t="s">
         <v>478</v>
       </c>
       <c r="J486" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="487" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18561,7 +18561,7 @@
     </row>
     <row r="488" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B488" s="2"/>
       <c r="C488" s="2" t="s">
@@ -18571,18 +18571,18 @@
         <v>25</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F488" s="2"/>
       <c r="G488" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H488" s="2"/>
       <c r="I488" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J488" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="489" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18605,14 +18605,14 @@
         <v>430</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H489" s="2"/>
       <c r="I489" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J489" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="490" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18635,7 +18635,7 @@
         <v>349</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H490" s="3"/>
       <c r="I490" s="3" t="s">
@@ -18663,7 +18663,7 @@
         <v>167</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H491" s="3"/>
       <c r="I491" s="3"/>
@@ -18731,7 +18731,7 @@
     </row>
     <row r="494" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" s="2" t="s">
@@ -18741,23 +18741,23 @@
         <v>25</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F494" s="2"/>
       <c r="G494" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H494" s="2"/>
       <c r="I494" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J494" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="495" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B495" s="2"/>
       <c r="C495" s="2" t="s">
@@ -18767,23 +18767,23 @@
         <v>25</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F495" s="2"/>
       <c r="G495" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H495" s="2"/>
       <c r="I495" s="2" t="s">
         <v>158</v>
       </c>
       <c r="J495" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="496" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B496" s="2"/>
       <c r="C496" s="2" t="s">
@@ -18793,18 +18793,18 @@
         <v>25</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F496" s="2"/>
       <c r="G496" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H496" s="2"/>
       <c r="I496" s="2" t="s">
         <v>478</v>
       </c>
       <c r="J496" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18827,7 +18827,7 @@
         <v>169</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
@@ -18837,7 +18837,7 @@
     </row>
     <row r="498" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" s="2" t="s">
@@ -18847,16 +18847,16 @@
         <v>25</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F498" s="2"/>
       <c r="G498" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H498" s="2"/>
       <c r="I498" s="2"/>
       <c r="J498" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="499" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18891,7 +18891,7 @@
     </row>
     <row r="500" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B500" s="5"/>
       <c r="C500" s="5" t="s">
@@ -18904,10 +18904,10 @@
         <v>4</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G500" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
@@ -18917,7 +18917,7 @@
     </row>
     <row r="501" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B501" s="5"/>
       <c r="C501" s="5" t="s">
@@ -18930,20 +18930,20 @@
         <v>4</v>
       </c>
       <c r="F501" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G501" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
       <c r="J501" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="502" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B502" s="5"/>
       <c r="C502" s="5" t="s">
@@ -18956,20 +18956,20 @@
         <v>4</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
       <c r="J502" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="503" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B503" s="5"/>
       <c r="C503" s="5" t="s">
@@ -18982,10 +18982,10 @@
         <v>4</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
@@ -18995,7 +18995,7 @@
     </row>
     <row r="504" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B504" s="5"/>
       <c r="C504" s="5" t="s">
@@ -19008,10 +19008,10 @@
         <v>4</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
@@ -19021,7 +19021,7 @@
     </row>
     <row r="505" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B505" s="5"/>
       <c r="C505" s="5" t="s">
@@ -19034,20 +19034,20 @@
         <v>4</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
       <c r="J505" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="506" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B506" s="5"/>
       <c r="C506" s="5" t="s">
@@ -19060,10 +19060,10 @@
         <v>4</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
@@ -19073,7 +19073,7 @@
     </row>
     <row r="507" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B507" s="5"/>
       <c r="C507" s="5" t="s">
@@ -19086,10 +19086,10 @@
         <v>4</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="G507" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
@@ -19099,7 +19099,7 @@
     </row>
     <row r="508" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B508" s="5"/>
       <c r="C508" s="5" t="s">
@@ -19112,10 +19112,10 @@
         <v>4</v>
       </c>
       <c r="F508" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="G508" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
@@ -19125,7 +19125,7 @@
     </row>
     <row r="509" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B509" s="5"/>
       <c r="C509" s="5" t="s">
@@ -19138,10 +19138,10 @@
         <v>4</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="G509" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="510" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B510" s="5"/>
       <c r="C510" s="5" t="s">
@@ -19164,15 +19164,15 @@
         <v>4</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G510" s="5" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="H510" s="5"/>
       <c r="I510" s="5"/>
       <c r="J510" s="5" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="511" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19203,7 +19203,7 @@
     </row>
     <row r="512" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B512" s="5"/>
       <c r="C512" s="5" t="s">
@@ -19216,7 +19216,7 @@
         <v>4</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="G512" s="5" t="s">
         <v>462</v>
@@ -19279,7 +19279,7 @@
         <v>473</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H514" s="2"/>
       <c r="I514" s="2"/>
@@ -19307,7 +19307,7 @@
         <v>473</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H515" s="2"/>
       <c r="I515" s="2"/>
@@ -19335,7 +19335,7 @@
         <v>473</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H516" s="2"/>
       <c r="I516" s="2"/>
@@ -19363,7 +19363,7 @@
         <v>347</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H517" s="3"/>
       <c r="I517" s="3" t="s">
@@ -19391,12 +19391,12 @@
         <v>442</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H518" s="2"/>
       <c r="I518" s="2"/>
       <c r="J518" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="519" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19404,7 +19404,7 @@
         <v>999</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>2</v>
@@ -19416,10 +19416,10 @@
         <v>4</v>
       </c>
       <c r="F519" s="5" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
@@ -19432,7 +19432,7 @@
         <v>998</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>2</v>
@@ -19444,10 +19444,10 @@
         <v>4</v>
       </c>
       <c r="F520" s="5" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="H520" s="5"/>
       <c r="I520" s="5"/>
@@ -19475,14 +19475,14 @@
         <v>633</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H521" s="2"/>
       <c r="I521" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="522" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19505,14 +19505,14 @@
         <v>633</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H522" s="2"/>
       <c r="I522" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J522" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="523" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19535,14 +19535,14 @@
         <v>430</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H523" s="2"/>
       <c r="I523" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J523" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="524" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19565,12 +19565,12 @@
         <v>5</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="H524" s="3"/>
       <c r="I524" s="3"/>
       <c r="J524" s="3" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="525" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19983,7 +19983,7 @@
         <v>347</v>
       </c>
       <c r="G538" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H538" s="3"/>
       <c r="I538" s="3" t="s">
@@ -20011,7 +20011,7 @@
         <v>347</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H539" s="3"/>
       <c r="I539" s="3" t="s">
@@ -20039,7 +20039,7 @@
         <v>347</v>
       </c>
       <c r="G540" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H540" s="3"/>
       <c r="I540" s="3" t="s">
@@ -20067,7 +20067,7 @@
         <v>347</v>
       </c>
       <c r="G541" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H541" s="3"/>
       <c r="I541" s="3" t="s">
@@ -20095,7 +20095,7 @@
         <v>347</v>
       </c>
       <c r="G542" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H542" s="3"/>
       <c r="I542" s="3" t="s">
@@ -20108,7 +20108,7 @@
         <v>380</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C543" s="3" t="s">
         <v>2</v>
@@ -20123,7 +20123,7 @@
         <v>347</v>
       </c>
       <c r="G543" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H543" s="3"/>
       <c r="I543" s="3" t="s">
@@ -20151,7 +20151,7 @@
         <v>347</v>
       </c>
       <c r="G544" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H544" s="3"/>
       <c r="I544" s="3" t="s">
@@ -20179,7 +20179,7 @@
         <v>347</v>
       </c>
       <c r="G545" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H545" s="3"/>
       <c r="I545" s="3" t="s">
@@ -20207,7 +20207,7 @@
         <v>347</v>
       </c>
       <c r="G546" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H546" s="3"/>
       <c r="I546" s="3" t="s">
@@ -20235,7 +20235,7 @@
         <v>347</v>
       </c>
       <c r="G547" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H547" s="3"/>
       <c r="I547" s="3" t="s">
@@ -20263,7 +20263,7 @@
         <v>347</v>
       </c>
       <c r="G548" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H548" s="3"/>
       <c r="I548" s="3" t="s">
@@ -20291,7 +20291,7 @@
         <v>347</v>
       </c>
       <c r="G549" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H549" s="3"/>
       <c r="I549" s="3" t="s">
@@ -20319,7 +20319,7 @@
         <v>727</v>
       </c>
       <c r="G550" s="5" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H550" s="5"/>
       <c r="I550" s="5" t="s">
@@ -20347,7 +20347,7 @@
         <v>347</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H551" s="3"/>
       <c r="I551" s="3" t="s">
@@ -20405,7 +20405,7 @@
         <v>15</v>
       </c>
       <c r="G553" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
@@ -20433,7 +20433,7 @@
         <v>347</v>
       </c>
       <c r="G554" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H554" s="3"/>
       <c r="I554" s="3" t="s">
@@ -20491,7 +20491,7 @@
         <v>313</v>
       </c>
       <c r="G556" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
@@ -20531,7 +20531,7 @@
     </row>
     <row r="558" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B558" s="2"/>
       <c r="C558" s="2" t="s">
@@ -20541,11 +20541,11 @@
         <v>25</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F558" s="2"/>
       <c r="G558" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H558" s="2" t="s">
         <v>66</v>
@@ -20554,7 +20554,7 @@
         <v>78</v>
       </c>
       <c r="J558" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="559" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20574,10 +20574,10 @@
         <v>4</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G559" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H559" s="3"/>
       <c r="I559" s="3" t="s">
@@ -20617,7 +20617,7 @@
     </row>
     <row r="561" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B561" s="2"/>
       <c r="C561" s="2" t="s">
@@ -20627,16 +20627,16 @@
         <v>25</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F561" s="2"/>
       <c r="G561" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="H561" s="2"/>
       <c r="I561" s="2"/>
       <c r="J561" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="562" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20711,7 +20711,7 @@
         <v>126</v>
       </c>
       <c r="G564" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H564" s="3"/>
       <c r="I564" s="3"/>
@@ -20739,14 +20739,14 @@
         <v>1015</v>
       </c>
       <c r="G565" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H565" s="5"/>
       <c r="I565" s="5" t="s">
         <v>101</v>
       </c>
       <c r="J565" s="5" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="566" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20769,14 +20769,14 @@
         <v>430</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H566" s="2"/>
       <c r="I566" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J566" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="567" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20799,7 +20799,7 @@
         <v>163</v>
       </c>
       <c r="G567" s="3" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H567" s="3"/>
       <c r="I567" s="3" t="s">
@@ -20827,14 +20827,14 @@
         <v>430</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H568" s="2"/>
       <c r="I568" s="2" t="s">
         <v>101</v>
       </c>
       <c r="J568" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="569" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20857,7 +20857,7 @@
         <v>141</v>
       </c>
       <c r="G569" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H569" s="3"/>
       <c r="I569" s="3"/>
@@ -20885,7 +20885,7 @@
         <v>473</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H570" s="2"/>
       <c r="I570" s="2"/>
@@ -20925,7 +20925,7 @@
     </row>
     <row r="572" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B572" s="2"/>
       <c r="C572" s="2" t="s">
@@ -20935,11 +20935,11 @@
         <v>25</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F572" s="2"/>
       <c r="G572" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H572" s="2"/>
       <c r="I572" s="2"/>
@@ -20949,7 +20949,7 @@
     </row>
     <row r="573" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B573" s="2"/>
       <c r="C573" s="2" t="s">
@@ -20959,16 +20959,16 @@
         <v>25</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F573" s="2"/>
       <c r="G573" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H573" s="2"/>
       <c r="I573" s="2"/>
       <c r="J573" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="574" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4559" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4559" uniqueCount="1478">
   <si>
     <t>Viewpoint CS</t>
   </si>
@@ -4458,6 +4458,9 @@
   </si>
   <si>
     <t>CSCR504/Chorus,Distributed Storage Chorus Role;CSCR702</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
@@ -4864,8 +4867,8 @@
   <dimension ref="A1:J575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F520" sqref="F520"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9854,7 +9857,7 @@
         <v>687</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>2</v>
+        <v>1477</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>105</v>

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4872" uniqueCount="1685">
   <si>
     <t>Viewpoint CS</t>
   </si>
@@ -4754,12 +4754,6 @@
     <t>CSCR801/File Master Plus v,File Master Prime</t>
   </si>
   <si>
-    <t> 7.3</t>
-  </si>
-  <si>
-    <t> 3.2</t>
-  </si>
-  <si>
     <t>7.1; 7; 6</t>
   </si>
   <si>
@@ -4769,12 +4763,6 @@
     <t>7.1; 7.0; 6.8</t>
   </si>
   <si>
-    <t>SFS;Directories:;DRVDOS.*;DRVDOS72.0191;DRVDOS72.0192;VSEDEV.*</t>
-  </si>
-  <si>
-    <t>SFS;Directories:;COLSFS.*;ISMQA.*;SCHDVSE.019*;COLSFS.SCHDVS.R73.LISTING</t>
-  </si>
-  <si>
     <t>[{"PMFKEY":"cafjo01"},{"PMFKEY":"stoda04"}]]</t>
   </si>
   <si>
@@ -4907,7 +4895,193 @@
     <t xml:space="preserve"> DSN;VMVSE</t>
   </si>
   <si>
-    <t xml:space="preserve"> VMVSE;DSN;OTHER</t>
+    <t>VM_VSE_SRC_LOC</t>
+  </si>
+  <si>
+    <t>[{"location":"ASM2MS","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"VSESOURC","type":"VMMDISK"},{"location":"ADAPTVSE","type":"VMMDISK"},{"location":"ADAPTDOS","type":"VMMDISK"},{"location":"DOSACT","type":"VMMDISK"},{"location":"VSEAPAR","type":"VMMDISK"},{"location":"CUI2","type":"VMMDISK"},{"location":"VSEDEV.ADAPTER","type":"DIRECTRY"},{"location":"VSEDEV.CUI","type":"DIRECTRY"},{"location":"VSEDEV.CCIVSE","type":"DIRECTRY"},{"location":"VSEDEV.CCIVM","type":"DIRECTRY"},{"location":"VSEDEV.ENF","type":"DIRECTRY"},{"location":"VSEDEV.CATALOG","type":"DIRECTRY"},{"location":"VSEDEV.CAIPROD.GSS.42","type":"DIRECTRY"},{"location":"VSEDEV.CAPRDSEL.SOURCE","type":"DIRECTRY"},{"location":"VSEDEV.CICSSPAWN","type":"DIRECTRY"},{"location":"VSEDEV.CICSMAC","type":"DIRECTRY"},{"location":"VSEDEV.TCPIP","type":"DIRECTRY"},{"location":"VSEDEV.CAAUDIT","type":"DIRECTRY"},{"location":"COLSFS.CUI","type":"DIRECTRY"},{"location":"COLSFS.CAAUDIT","type":"DIRECTRY"},{"location":"COLSFS.GSSVSE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"SYSADAPT","type":"DIRECTRY"},{"location":"IOS","type":"DIRECTRY"},{"location":"VSEDEV.CATALOG","type":"DIRECTRY"},{"location":"VSEDEV.CAPANMAN","type":"DIRECTRY"},{"location":"ADAPTCMS","type":"VMMDISK"},{"location":"CACT","type":"VMMDISK"},{"location":"CAMT","type":"VMMDISK"},{"location":"CAPRODVM","type":"VMMDISK"},{"location":"CAPANMAN","type":"VMMDISK"},{"location":"TASKMAN","type":"VMMDISK"},{"location":"CCIVMDVL","type":"VMMDISK"},{"location":"CDSM","type":"VMMDISK"},{"location":"CASE","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"conv13.191","type":"DIRECTRY"},{"location":"conv13.192","type":"DIRECTRY"},{"location":"conv13.193","type":"DIRECTRY"},{"location":"conv13.194","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"VSEDEV.DELIVER","type":"DIRECTRY"},{"location":"EPSAR","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>HARDCOPY;in;Columbus;also;images;on;CD-ROM;and;on;CSCR;at;/CSCR801/CA_Driver_for_VSE/Development/Packages/Driver;Listings/;Type:;Hardcopy</t>
+  </si>
+  <si>
+    <t>[{"location":"DRVDOS","type":"VMMDISK"},{"location":"VSEDEV.DRIVER","type":"DIRECTRY"},{"location":"ISMQA.VSE.DRVR","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"DUO.191","type":"DIRECTRY"},{"location":"DUO.193","type":"DIRECTRY"},{"location":"DUO.197","type":"DIRECTRY"},{"location":"DU0.192","type":"DIRECTRY"},{"location":"DUO.194","type":"DIRECTRY"},{"location":"DUO.195","type":"DIRECTRY"},{"location":"DUO.196","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"CATMAN","type":"VMMDISK"},{"location":"CAPRODVM","type":"VMMDISK"},{"location":"VSEDEV.DYNAM","type":"DIRECTRY"},{"location":"VSEDEV.IXVTOC","type":"DIRECTRY"},{"location":"VSEDEV.DYNTCMS","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"EARLDEV.0191","type":"VMMDISK"},{"location":"EARLDEV.0192","type":"VMMDISK"},{"location":"EARLDEV.0194","type":"VMMDISK"},{"location":"EARLDEV.0491","type":"VMMDISK"},{"location":"EARLDEV.0591","type":"VMMDISK"},{"location":"EARLDEV.0691","type":"VMMDISK"},{"location":"EARLMNT.0191","type":"VMMDISK"},{"location":"EARLMNT.0193","type":"VMMDISK"},{"location":"EARL60.0191","type":"VMMDISK"},{"location":"EARL60.0192","type":"VMMDISK"},{"location":"EARL60.0193","type":"VMMDISK"},{"location":"EARL61.0191","type":"VMMDISK"},{"location":"EARL61.0192","type":"VMMDISK"},{"location":"EARL61.0193","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"EPC","type":"DIRECTRY"},{"location":"EPV","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"COLSFS.EXPRPT","type":"DIRECTRY"},{"location":"VSEDEV.EXPRPT","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"EXPLORE","type":"DIRECTRY"},{"location":"EXPNUC","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"COLSFS.EXPVTAM","type":"DIRECTRY"},{"location":"VSEDEV.EXPVTAM","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"COLSFS.EXPCICS","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"COLSFS.EXPVSE","type":"DIRECTRY"},{"location":"VSEDEV.EXPLORE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"COLSFS.FAQS","type":"DIRECTRY"},{"location":"VSEDEV.FAQS","type":"DIRECTRY"},{"location":"VSEDEV.FAQSVM","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"FAVERV","type":"VMMDISK"},{"location":"FAVER2","type":"VMMDISK"},{"location":"COLSFS.FAVER","type":"DIRECTRY"},{"location":"ISMQA.VSE.FAV2","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"COLSFS.FLEE","type":"DIRECTRY"},{"location":"ISMQA.VSE.FLEE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"G471NL1.191","type":"VMMDISK"},{"location":"G471NL1.192","type":"VMMDISK"},{"location":"SLCVML.191","type":"VMMDISK"},{"location":"SLCVML.192","type":"VMMDISK"},{"location":"SLCVML.194","type":"VMMDISK"},{"location":"SLCVML.195","type":"VMMDISK"},{"location":"SLCVML.196","type":"VMMDISK"},{"location":"SLCVML.197","type":"VMMDISK"},{"location":"SLCVML.199","type":"VMMDISK"},{"location":"SLCVML.291","type":"VMMDISK"},{"location":"SLCVML.292","type":"VMMDISK"},{"location":"SLCVML.293","type":"VMMDISK"},{"location":"SLCVML.294","type":"VMMDISK"},{"location":"SLCVML.295","type":"VMMDISK"},{"location":"SLCVML.296","type":"VMMDISK"},{"location":"SLCVML.299","type":"VMMDISK"},{"location":"SLCVML","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"HIDRO","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"DYNBUF","type":"VMMDISK"},{"location":"COLSFS.HBUF","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"VSEDEV.JARSCVSE","type":"DIRECTRY"},{"location":"VSEDEV.JARSVSE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"MCATVSE","type":"VMMDISK"},{"location":"COLSFS.MCAT","type":"DIRECTRY"},{"location":"VSEDEV.MCATVSE","type":"DIRECTRY"},{"location":"ISMQA.SHARED","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"OPTOS.0191","type":"VMMDISK"},{"location":"OPTOS.0192","type":"VMMDISK"},{"location":"OPTOS.0197","type":"VMMDISK"},{"location":"OPTXA.0192","type":"VMMDISK"},{"location":"OPTXA.0191","type":"VMMDISK"},{"location":"OPTXA.0194","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"OPTDOS.0192","type":"VMMDISK"},{"location":"OPTDOS.0191","type":"VMMDISK"},{"location":"OPTDOS.0195","type":"VMMDISK"},{"location":"OPTDXA.0191","type":"VMMDISK"},{"location":"OPTDXA.0192","type":"VMMDISK"},{"location":"OPTDRTL.0191","type":"VMMDISK"},{"location":"OPTDRTL.0192","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"OPTDXA.0191","type":"VMMDISK"},{"location":"OPTDXA.0192","type":"VMMDISK"},{"location":"OPTDRTL.0191","type":"VMMDISK"},{"location":"OPTDRTL.0192","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"ramis.19a","type":"VMMDISK"},{"location":"ramis.191","type":"VMMDISK"},{"location":"ramis.192","type":"VMMDISK"},{"location":"ramis.194","type":"VMMDISK"},{"location":"rammac.191","type":"VMMDISK"},{"location":"rammac.740","type":"VMMDISK"},{"location":"sbx720.191","type":"VMMDISK"},{"location":"sbx720.740","type":"VMMDISK"},{"location":"supptf.191","type":"VMMDISK"},{"location":"supptf.193","type":"VMMDISK"},{"location":"supptf.198","type":"VMMDISK"},{"location":"maclib.all","type":"DIRECTRY"},{"location":"RAMSRC.RAMENGL.R74SP3.BASE","type":"DIRECTRY"},{"location":"RAMSRC.RAMIS.NEXT.UPDATES","type":"DIRECTRY"},{"location":"RAMSRC.RAMIS.R74SP3.BASE","type":"DIRECTRY"},{"location":"RAMSRC.RAMIS.R74SP3.ZAPS","type":"DIRECTRY"},{"location":"RAMSRC.RAMLIBE.R74SP3.BASE","type":"DIRECTRY"},{"location":"RAMSRC.TOOLS","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"RAPSVSE","type":"VMMDISK"},{"location":"VSEDEV.RAPS","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"ASM2ms","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"SCHDVSE","type":"VMMDISK"},{"location":"COLSFS.SCHDVS","type":"DIRECTRY"},{"location":"ISMQA.VSE.SCHD","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>HARDCOPY;in;Columbus;also;images;on;CD-ROM;and;on;CSCR;at;/CSCR801/CA_Scheduler_for_VSE/Development/Packages/Scheduler;Listings/;EPCMS:COLSFS.SCHDVS.R73.LISTING;incomplete;Type:;Hardcopy</t>
+  </si>
+  <si>
+    <t>[{"location":"ACCMAINT","type":"DIRECTRY"},{"location":"ACCMAINT.CPT.CPT520","type":"DIRECTRY"},{"location":"ACCMAINT.CPT.CPT600","type":"DIRECTRY"},{"location":"ACCMAINT.CPT.CPT601","type":"DIRECTRY"},{"location":"ACCMAINT.CPT.CPT610","type":"DIRECTRY"},{"location":"ACCMAINT.CPT","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>VMVSE;DSN;OTHER</t>
+  </si>
+  <si>
+    <t>[{"location":"SYSVPROD.R140","type":"DIRECTRY"},{"location":"SYSVPROD.R141","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"ACCMAINT.TCP.BASE600","type":"DIRECTRY"},{"location":"ACCMAINT.TCP.GTDBASE","type":"DIRECTRY"},{"location":"ACCMAINT.TCP.TCP521","type":"DIRECTRY"},{"location":"ACCMAINT.TCP.TCP530","type":"DIRECTRY"},{"location":"ACCMAINT.TCP.TCP531","type":"DIRECTRY"},{"location":"ACCMAINT.TCP.TCP600","type":"DIRECTRY"},{"location":"ACCMAINT.TCP.TCP601","type":"DIRECTRY"},{"location":"ACCMAINT.TCP.TCP610","type":"DIRECTRY"},{"location":"ACCMAINT.TCP","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"ACCMAINT.FTP.FTP201","type":"DIRECTRY"},{"location":"ACCMAINT.FTP.FTP600","type":"DIRECTRY"},{"location":"ACCMAINT.FTP.FTP601","type":"DIRECTRY"},{"location":"ACCMAINT.FTP.FTP610","type":"DIRECTRY"},{"location":"ACCMAINT.FTP","type":"DIRECTRY"},{"location":"ACCMAINT.SMCUTIL","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"ACCMAINT.TLN.TLN600","type":"DIRECTRY"},{"location":"ACCMAINT.TLN.TLN601","type":"DIRECTRY"},{"location":"ACCMAINT.TLN.TLN610","type":"DIRECTRY"},{"location":"ACCMAINT.TLN.TLN611","type":"DIRECTRY"},{"location":"ACCMAINT.TLN.TLN620","type":"DIRECTRY"},{"location":"ACCMAINT.TLN","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"TC2000.0191","type":"VMMDISK"},{"location":"TC2000.0192","type":"VMMDISK"},{"location":"OPTXA.0191","type":"VMMDISK"},{"location":"OPTXA.0192","type":"VMMDISK"},{"location":"OPTRTL.0191","type":"VMMDISK"},{"location":"OPTRTL.0192","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"INFOVSE","type":"VMMDISK"},{"location":"ESIVSE","type":"VMMDISK"},{"location":"VSEDEV.ESI","type":"DIRECTRY"},{"location":"VSEDEV.ESIVSE","type":"DIRECTRY"},{"location":"VSEDEV.TSS","type":"DIRECTRY"},{"location":"VSEDEV.TSSDUMP","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"UFOSRC.UFO.NEXT.UPDATES","type":"DIRECTRY"},{"location":"UFOSRC.UFO.R320.ZAPS","type":"DIRECTRY"},{"location":"UFOSRC.UFO.R320.BASE","type":"DIRECTRY"},{"location":"MACLIB.ALL","type":"VMMDISK"},{"location":"UFOSRC.TOOLS","type":"DIRECTRY"},{"location":"UFOSRC.LLOSP.NEXT.UPDATES","type":"DIRECTRY"},{"location":"UFOSRC.LLOSP.R320.ZAPS","type":"DIRECTRY"},{"location":"UFOSRC.LLOSP.R320.BASE","type":"DIRECTRY"},{"location":"UFOSRC.CAT.NEXT.UPDATES","type":"DIRECTRY"},{"location":"UFOSRC.CAT.R320.ZAPS","type":"DIRECTRY"},{"location":"UFOSRC.CAT.R320.BASE","type":"DIRECTRY"},{"location":"UFOSRC.PAINT.NEXT.UPDATES","type":"DIRECTRY"},{"location":"UFOSRC.PAINT.R320.ZAPS","type":"DIRECTRY"},{"location":"UFOSRC.PAINT.R320.BASE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"VSEG","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"KOALA.0124","type":"VMMDISK"},{"location":"KOALA.0192","type":"VMMDISK"},{"location":"KOALA.0200","type":"VMMDISK"},{"location":"KOALA.0212","type":"VMMDISK"},{"location":"KOALA.0305","type":"VMMDISK"},{"location":"KOALA.0503","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"ACCOUNT","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"ARCHIVER","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"BACKUP","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"BATCH","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"SECURE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"MANAGER","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"VMYCPM","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"PROREXX","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"SCHEDULE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"SORT","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"SPOOL","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"TAPE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"GATEWAY","type":"DIRECTRY"},{"location":"WEBSERVE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"XMENU","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"VOLSOURC","type":"VMMDISK"},{"location":"VOLLIE","type":"VMMDISK"},{"location":"VSEDEV.VOLLIE","type":"DIRECTRY"},{"location":"COLSFS.VOLLIE","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"VSAMAID","type":"VMMDISK"},{"location":"COLSFS.VAID","type":"DIRECTRY"},{"location":"ISMQA.VSE.VAID","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"CAVTERM","type":"VMMDISK"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"EPRAPVTM","type":"DIRECTRY"}]</t>
+  </si>
+  <si>
+    <t>[{"location":"UFOSRC.COBOLXE.NEXT.UPDATES","type":"DIRECTRY"},{"location":"UFOSRC.COBOLXE.R300.BASE","type":"DIRECTRY"},{"location":"UFOSRC.COBOLXE.R300.ZAPS","type":"DIRECTRY"}]</t>
   </si>
 </sst>
 </file>
@@ -4983,7 +5157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5009,14 +5183,20 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5335,8 +5515,8 @@
   <dimension ref="A1:L603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K601" sqref="K601"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5351,9 +5531,10 @@
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>390</v>
       </c>
@@ -5385,10 +5566,13 @@
         <v>398</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1616</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5418,7 +5602,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>7</v>
       </c>
@@ -5448,7 +5632,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>11</v>
       </c>
@@ -5478,7 +5662,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1206</v>
       </c>
@@ -5502,7 +5686,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>407</v>
       </c>
@@ -5530,7 +5714,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1209</v>
       </c>
@@ -5554,7 +5738,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>88</v>
       </c>
@@ -5581,11 +5765,11 @@
       <c r="J8" s="3" t="s">
         <v>1392</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="10" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -5613,7 +5797,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
@@ -5642,11 +5826,11 @@
       <c r="J10" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="10" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>381</v>
       </c>
@@ -5673,11 +5857,11 @@
       <c r="J11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="10" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>412</v>
       </c>
@@ -5707,7 +5891,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>418</v>
       </c>
@@ -5737,7 +5921,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1020</v>
       </c>
@@ -5763,7 +5947,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1024</v>
       </c>
@@ -5789,7 +5973,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1210</v>
       </c>
@@ -6108,8 +6292,8 @@
       <c r="J27" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>1624</v>
+      <c r="K27" s="10" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6141,8 +6325,8 @@
       <c r="J28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>1624</v>
+      <c r="K28" s="10" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6245,7 +6429,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>1062</v>
       </c>
@@ -6271,7 +6455,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>1082</v>
       </c>
@@ -6297,7 +6481,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>446</v>
       </c>
@@ -6325,7 +6509,7 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1214</v>
       </c>
@@ -6348,10 +6532,10 @@
         <v>362</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>291</v>
       </c>
@@ -6379,10 +6563,13 @@
         <v>171</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1618</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1215</v>
       </c>
@@ -6406,7 +6593,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>451</v>
       </c>
@@ -6434,7 +6621,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>454</v>
       </c>
@@ -6464,7 +6651,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1216</v>
       </c>
@@ -6490,7 +6677,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>458</v>
       </c>
@@ -6520,7 +6707,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>458</v>
       </c>
@@ -6550,7 +6737,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>995</v>
       </c>
@@ -6578,7 +6765,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>464</v>
       </c>
@@ -6606,7 +6793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>465</v>
       </c>
@@ -6634,7 +6821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>293</v>
       </c>
@@ -6661,11 +6848,11 @@
       <c r="J47" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="10" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1012</v>
       </c>
@@ -6768,7 +6955,7 @@
         <v>362</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7171,7 +7358,7 @@
     </row>
     <row r="66" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
@@ -7184,15 +7371,15 @@
         <v>4</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7795,7 +7982,7 @@
     </row>
     <row r="90" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
@@ -7808,15 +7995,15 @@
         <v>4</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7908,8 +8095,8 @@
       <c r="J93" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K93" s="11" t="s">
-        <v>1624</v>
+      <c r="K93" s="10" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7939,8 +8126,8 @@
       <c r="J94" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="K94" s="11" t="s">
-        <v>1624</v>
+      <c r="K94" s="10" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7970,8 +8157,8 @@
       <c r="J95" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="K95" s="11" t="s">
-        <v>1624</v>
+      <c r="K95" s="10" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8027,8 +8214,8 @@
       <c r="J97" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K97" s="11" t="s">
-        <v>1624</v>
+      <c r="K97" s="10" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8608,11 +8795,11 @@
       <c r="J118" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K118" s="11" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K118" s="10" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>1545</v>
       </c>
@@ -8641,14 +8828,14 @@
       <c r="J119" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K119" s="10" t="s">
-        <v>1623</v>
-      </c>
-      <c r="L119" s="9" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K119" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L119" s="12" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>325</v>
       </c>
@@ -8675,8 +8862,11 @@
         <v>69</v>
       </c>
       <c r="J120" s="3"/>
-      <c r="K120" s="10" t="s">
-        <v>1623</v>
+      <c r="K120" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8911,7 +9101,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>1223</v>
       </c>
@@ -8939,7 +9129,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>176</v>
       </c>
@@ -8969,10 +9159,13 @@
         <v>171</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>139</v>
       </c>
@@ -9000,10 +9193,10 @@
         <v>120</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>567</v>
       </c>
@@ -9031,7 +9224,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>568</v>
       </c>
@@ -9059,7 +9252,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>569</v>
       </c>
@@ -9089,7 +9282,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>572</v>
       </c>
@@ -9117,7 +9310,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>573</v>
       </c>
@@ -9147,7 +9340,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>180</v>
       </c>
@@ -9177,10 +9370,10 @@
         <v>171</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>578</v>
       </c>
@@ -9208,7 +9401,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>582</v>
       </c>
@@ -9236,7 +9429,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>585</v>
       </c>
@@ -9262,7 +9455,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>296</v>
       </c>
@@ -9290,10 +9483,13 @@
         <v>171</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1618</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>588</v>
       </c>
@@ -9321,7 +9517,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>590</v>
       </c>
@@ -9344,10 +9540,10 @@
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>590</v>
       </c>
@@ -9370,7 +9566,7 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9583,7 +9779,7 @@
         <v>171</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9614,7 +9810,7 @@
         <v>171</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9668,7 +9864,7 @@
         <v>1537</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10015,10 +10211,10 @@
         <v>1196</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>624</v>
       </c>
@@ -10074,7 +10270,7 @@
         <v>426</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10105,7 +10301,7 @@
         <v>19</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10242,7 +10438,7 @@
         <v>120</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10273,12 +10469,12 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>1576</v>
+      <c r="B177" s="3">
+        <v>3.2</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>1388</v>
@@ -10301,10 +10497,13 @@
         <v>1428</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>633</v>
       </c>
@@ -10332,7 +10531,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>634</v>
       </c>
@@ -10360,7 +10559,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>305</v>
       </c>
@@ -10388,10 +10587,10 @@
         <v>1537</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>302</v>
       </c>
@@ -10419,10 +10618,10 @@
         <v>1537</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>637</v>
       </c>
@@ -10450,7 +10649,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>641</v>
       </c>
@@ -10478,12 +10677,12 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>1575</v>
+      <c r="B184" s="3">
+        <v>7.3</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>2</v>
@@ -10495,7 +10694,7 @@
         <v>4</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1580</v>
+        <v>1628</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>169</v>
@@ -10508,10 +10707,13 @@
         <v>171</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -10539,7 +10741,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>1230</v>
       </c>
@@ -10563,7 +10765,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>300</v>
       </c>
@@ -10591,10 +10793,13 @@
         <v>1537</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>1231</v>
       </c>
@@ -10618,12 +10823,12 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>2</v>
@@ -10648,10 +10853,13 @@
         <v>171</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>1233</v>
       </c>
@@ -10675,7 +10883,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>1238</v>
       </c>
@@ -10699,7 +10907,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>1239</v>
       </c>
@@ -10723,7 +10931,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>1234</v>
       </c>
@@ -10747,7 +10955,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>1235</v>
       </c>
@@ -10771,7 +10979,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>1236</v>
       </c>
@@ -10795,7 +11003,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>1237</v>
       </c>
@@ -10819,7 +11027,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>201</v>
       </c>
@@ -10849,10 +11057,13 @@
         <v>171</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>167</v>
       </c>
@@ -10882,10 +11093,10 @@
         <v>171</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>643</v>
       </c>
@@ -10913,7 +11124,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>646</v>
       </c>
@@ -10941,7 +11152,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>647</v>
       </c>
@@ -10964,10 +11175,10 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>1546</v>
       </c>
@@ -10992,13 +11203,13 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>649</v>
       </c>
@@ -11026,7 +11237,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>651</v>
       </c>
@@ -11050,13 +11261,13 @@
       </c>
       <c r="H204" s="5"/>
       <c r="I204" s="5" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="J204" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>1130</v>
       </c>
@@ -11078,13 +11289,13 @@
       </c>
       <c r="H205" s="5"/>
       <c r="I205" s="5" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="J205" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>654</v>
       </c>
@@ -11108,13 +11319,13 @@
       </c>
       <c r="H206" s="5"/>
       <c r="I206" s="5" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="J206" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>657</v>
       </c>
@@ -11142,7 +11353,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>657</v>
       </c>
@@ -11168,7 +11379,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>1240</v>
       </c>
@@ -11192,7 +11403,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>155</v>
       </c>
@@ -11220,10 +11431,10 @@
       </c>
       <c r="J210" s="3"/>
       <c r="K210" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>663</v>
       </c>
@@ -11251,7 +11462,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>666</v>
       </c>
@@ -11279,7 +11490,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>667</v>
       </c>
@@ -11305,7 +11516,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>667</v>
       </c>
@@ -11331,7 +11542,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>1241</v>
       </c>
@@ -11357,7 +11568,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>1242</v>
       </c>
@@ -11381,7 +11592,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>33</v>
       </c>
@@ -11408,18 +11619,18 @@
         <v>362</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>2</v>
@@ -11444,12 +11655,15 @@
         <v>171</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="5" t="s">
@@ -11462,18 +11676,18 @@
         <v>4</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>1243</v>
       </c>
@@ -11497,7 +11711,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>1244</v>
       </c>
@@ -11521,7 +11735,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>82</v>
       </c>
@@ -11545,7 +11759,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>82</v>
       </c>
@@ -11573,10 +11787,10 @@
         <v>1392</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>77</v>
       </c>
@@ -11604,10 +11818,10 @@
         <v>81</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>1245</v>
       </c>
@@ -11631,7 +11845,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>1008</v>
       </c>
@@ -11657,7 +11871,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>669</v>
       </c>
@@ -11687,7 +11901,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>672</v>
       </c>
@@ -11715,12 +11929,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>2</v>
@@ -11745,10 +11959,13 @@
         <v>171</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>327</v>
       </c>
@@ -11776,10 +11993,13 @@
       </c>
       <c r="J230" s="3"/>
       <c r="K230" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>196</v>
       </c>
@@ -11809,10 +12029,13 @@
         <v>171</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>188</v>
       </c>
@@ -11842,10 +12065,13 @@
         <v>171</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>193</v>
       </c>
@@ -11875,10 +12101,13 @@
         <v>171</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>307</v>
       </c>
@@ -11906,10 +12135,10 @@
         <v>171</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>198</v>
       </c>
@@ -11939,10 +12168,10 @@
         <v>171</v>
       </c>
       <c r="K235" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>674</v>
       </c>
@@ -11970,7 +12199,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>208</v>
       </c>
@@ -12000,10 +12229,13 @@
         <v>171</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>211</v>
       </c>
@@ -12033,10 +12265,13 @@
         <v>171</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>675</v>
       </c>
@@ -12064,7 +12299,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>676</v>
       </c>
@@ -12092,7 +12327,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>677</v>
       </c>
@@ -12120,7 +12355,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>679</v>
       </c>
@@ -12148,7 +12383,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>680</v>
       </c>
@@ -12176,7 +12411,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>681</v>
       </c>
@@ -12204,7 +12439,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>213</v>
       </c>
@@ -12224,7 +12459,7 @@
         <v>215</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="H245" s="3"/>
       <c r="I245" s="3" t="s">
@@ -12234,10 +12469,13 @@
         <v>171</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>1246</v>
       </c>
@@ -12261,7 +12499,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>684</v>
       </c>
@@ -12288,10 +12526,10 @@
         <v>426</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>687</v>
       </c>
@@ -12319,7 +12557,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>690</v>
       </c>
@@ -12345,7 +12583,7 @@
       </c>
       <c r="J249" s="5"/>
     </row>
-    <row r="250" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>38</v>
       </c>
@@ -12372,10 +12610,10 @@
         <v>426</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>38</v>
       </c>
@@ -12403,10 +12641,10 @@
       </c>
       <c r="J251" s="3"/>
       <c r="K251" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>693</v>
       </c>
@@ -12434,7 +12672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>1247</v>
       </c>
@@ -12458,7 +12696,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>216</v>
       </c>
@@ -12488,10 +12726,13 @@
         <v>171</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>694</v>
       </c>
@@ -12521,7 +12762,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>697</v>
       </c>
@@ -12549,7 +12790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>698</v>
       </c>
@@ -12579,7 +12820,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>702</v>
       </c>
@@ -12609,7 +12850,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>704</v>
       </c>
@@ -12637,7 +12878,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>130</v>
       </c>
@@ -12665,10 +12906,10 @@
         <v>120</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>219</v>
       </c>
@@ -12698,12 +12939,15 @@
         <v>171</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="5" t="s">
@@ -12727,7 +12971,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>1547</v>
       </c>
@@ -12753,7 +12997,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>1548</v>
       </c>
@@ -12779,7 +13023,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>1549</v>
       </c>
@@ -12805,7 +13049,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>1550</v>
       </c>
@@ -12831,7 +13075,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>1551</v>
       </c>
@@ -12857,9 +13101,9 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="5" t="s">
@@ -12872,18 +13116,18 @@
         <v>4</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>1552</v>
       </c>
@@ -12909,7 +13153,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>1553</v>
       </c>
@@ -12935,7 +13179,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>1554</v>
       </c>
@@ -12961,7 +13205,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>1555</v>
       </c>
@@ -12987,7 +13231,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>1556</v>
       </c>
@@ -13013,7 +13257,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>1557</v>
       </c>
@@ -13039,7 +13283,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>1558</v>
       </c>
@@ -13065,7 +13309,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>1559</v>
       </c>
@@ -13091,7 +13335,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>1560</v>
       </c>
@@ -13117,7 +13361,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>1561</v>
       </c>
@@ -13143,7 +13387,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>1562</v>
       </c>
@@ -13169,7 +13413,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>1563</v>
       </c>
@@ -13195,7 +13439,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>1174</v>
       </c>
@@ -13221,7 +13465,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>991</v>
       </c>
@@ -13244,10 +13488,10 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>1248</v>
       </c>
@@ -13271,7 +13515,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>1249</v>
       </c>
@@ -13295,7 +13539,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>705</v>
       </c>
@@ -13327,7 +13571,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>707</v>
       </c>
@@ -13357,7 +13601,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>712</v>
       </c>
@@ -13387,7 +13631,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>352</v>
       </c>
@@ -13415,10 +13659,13 @@
       </c>
       <c r="J288" s="3"/>
       <c r="K288" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>1114</v>
       </c>
@@ -13444,7 +13691,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>1118</v>
       </c>
@@ -13470,7 +13717,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>714</v>
       </c>
@@ -13498,7 +13745,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>715</v>
       </c>
@@ -13526,7 +13773,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>222</v>
       </c>
@@ -13556,10 +13803,13 @@
         <v>171</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>1066</v>
       </c>
@@ -13585,7 +13835,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>1250</v>
       </c>
@@ -13609,7 +13859,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>718</v>
       </c>
@@ -13639,7 +13889,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>1251</v>
       </c>
@@ -13665,7 +13915,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>721</v>
       </c>
@@ -13693,7 +13943,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>724</v>
       </c>
@@ -13723,7 +13973,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>729</v>
       </c>
@@ -13753,7 +14003,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>731</v>
       </c>
@@ -13783,7 +14033,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>1187</v>
       </c>
@@ -13809,7 +14059,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>137</v>
       </c>
@@ -13837,10 +14087,10 @@
         <v>120</v>
       </c>
       <c r="K303" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>128</v>
       </c>
@@ -13868,10 +14118,10 @@
         <v>120</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>126</v>
       </c>
@@ -13899,10 +14149,10 @@
         <v>120</v>
       </c>
       <c r="K305" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>733</v>
       </c>
@@ -13930,7 +14180,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>734</v>
       </c>
@@ -13958,7 +14208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>1028</v>
       </c>
@@ -13984,7 +14234,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>40</v>
       </c>
@@ -14014,7 +14264,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>1540</v>
       </c>
@@ -14042,10 +14292,10 @@
       </c>
       <c r="J310" s="3"/>
       <c r="K310" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>737</v>
       </c>
@@ -14071,7 +14321,7 @@
       </c>
       <c r="J311" s="5"/>
     </row>
-    <row r="312" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>738</v>
       </c>
@@ -14101,7 +14351,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>42</v>
       </c>
@@ -14129,10 +14379,10 @@
         <v>171</v>
       </c>
       <c r="K313" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>1252</v>
       </c>
@@ -14158,7 +14408,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>1078</v>
       </c>
@@ -14184,7 +14434,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>1253</v>
       </c>
@@ -14210,7 +14460,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>284</v>
       </c>
@@ -14240,10 +14490,10 @@
         <v>171</v>
       </c>
       <c r="K317" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>286</v>
       </c>
@@ -14273,10 +14523,13 @@
         <v>171</v>
       </c>
       <c r="K318" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>740</v>
       </c>
@@ -14304,7 +14557,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>743</v>
       </c>
@@ -14388,7 +14641,7 @@
         <v>171</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14496,7 +14749,7 @@
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14583,7 +14836,7 @@
         <v>120</v>
       </c>
       <c r="K329" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="330" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14631,7 +14884,7 @@
         <v>4</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="G331" s="5" t="s">
         <v>1355</v>
@@ -14778,7 +15031,7 @@
       </c>
       <c r="J336" s="5"/>
     </row>
-    <row r="337" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>766</v>
       </c>
@@ -14810,7 +15063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>767</v>
       </c>
@@ -14840,7 +15093,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>163</v>
       </c>
@@ -14868,10 +15121,10 @@
         <v>1537</v>
       </c>
       <c r="K339" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>226</v>
       </c>
@@ -14901,10 +15154,13 @@
         <v>171</v>
       </c>
       <c r="K340" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L340" s="3" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>1255</v>
       </c>
@@ -14930,7 +15186,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>45</v>
       </c>
@@ -14958,10 +15214,10 @@
       </c>
       <c r="J342" s="3"/>
       <c r="K342" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>773</v>
       </c>
@@ -14989,7 +15245,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>47</v>
       </c>
@@ -15017,10 +15273,10 @@
         <v>1429</v>
       </c>
       <c r="K344" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>1256</v>
       </c>
@@ -15044,7 +15300,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>1258</v>
       </c>
@@ -15068,7 +15324,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>1191</v>
       </c>
@@ -15093,10 +15349,10 @@
         <v>563</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>1257</v>
       </c>
@@ -15122,7 +15378,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>1383</v>
       </c>
@@ -15148,7 +15404,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>1193</v>
       </c>
@@ -15174,7 +15430,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>61</v>
       </c>
@@ -15204,10 +15460,10 @@
         <v>1403</v>
       </c>
       <c r="K351" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>774</v>
       </c>
@@ -15265,7 +15521,7 @@
         <v>1537</v>
       </c>
       <c r="K353" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="354" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15404,7 +15660,7 @@
         <v>171</v>
       </c>
       <c r="K358" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="359" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15679,7 +15935,7 @@
         <v>120</v>
       </c>
       <c r="K367" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="368" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16152,7 +16408,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>827</v>
       </c>
@@ -16180,7 +16436,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>105</v>
       </c>
@@ -16210,10 +16466,10 @@
         <v>104</v>
       </c>
       <c r="K386" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>829</v>
       </c>
@@ -16243,7 +16499,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>57</v>
       </c>
@@ -16270,10 +16526,10 @@
         <v>19</v>
       </c>
       <c r="J388" s="2" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>57</v>
       </c>
@@ -16301,10 +16557,13 @@
         <v>171</v>
       </c>
       <c r="K389" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L389" s="3" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>59</v>
       </c>
@@ -16332,10 +16591,13 @@
         <v>171</v>
       </c>
       <c r="K390" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1619</v>
+      </c>
+      <c r="L390" s="3" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>49</v>
       </c>
@@ -16363,7 +16625,7 @@
       </c>
       <c r="J391" s="2"/>
     </row>
-    <row r="392" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>49</v>
       </c>
@@ -16391,10 +16653,10 @@
       </c>
       <c r="J392" s="3"/>
       <c r="K392" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>55</v>
       </c>
@@ -16422,10 +16684,13 @@
         <v>171</v>
       </c>
       <c r="K393" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L393" s="3" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>835</v>
       </c>
@@ -16442,7 +16707,7 @@
         <v>4</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>468</v>
@@ -16455,7 +16720,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>314</v>
       </c>
@@ -16480,13 +16745,13 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="K395" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>317</v>
       </c>
@@ -16511,13 +16776,13 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="K396" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>6</v>
       </c>
@@ -16545,10 +16810,10 @@
         <v>1436</v>
       </c>
       <c r="K397" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>1263</v>
       </c>
@@ -16572,7 +16837,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>11</v>
       </c>
@@ -16600,10 +16865,10 @@
         <v>1436</v>
       </c>
       <c r="K399" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>1264</v>
       </c>
@@ -16681,7 +16946,7 @@
         <v>120</v>
       </c>
       <c r="K402" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="403" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16884,7 +17149,7 @@
         <v>171</v>
       </c>
       <c r="K409" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17073,7 +17338,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>1269</v>
       </c>
@@ -17097,7 +17362,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>1039</v>
       </c>
@@ -17125,7 +17390,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>1270</v>
       </c>
@@ -17151,7 +17416,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>858</v>
       </c>
@@ -17181,7 +17446,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>863</v>
       </c>
@@ -17209,7 +17474,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>235</v>
       </c>
@@ -17239,10 +17504,10 @@
         <v>171</v>
       </c>
       <c r="K422" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>229</v>
       </c>
@@ -17272,10 +17537,13 @@
         <v>171</v>
       </c>
       <c r="K423" s="3" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1618</v>
+      </c>
+      <c r="L423" s="3" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>864</v>
       </c>
@@ -17303,7 +17571,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>865</v>
       </c>
@@ -17331,7 +17599,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>232</v>
       </c>
@@ -17361,10 +17629,13 @@
         <v>171</v>
       </c>
       <c r="K426" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L426" s="3" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>866</v>
       </c>
@@ -17392,7 +17663,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>867</v>
       </c>
@@ -17420,7 +17691,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>868</v>
       </c>
@@ -17448,7 +17719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>869</v>
       </c>
@@ -17476,7 +17747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>870</v>
       </c>
@@ -17504,7 +17775,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>1271</v>
       </c>
@@ -17528,7 +17799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>871</v>
       </c>
@@ -17558,7 +17829,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>873</v>
       </c>
@@ -17586,7 +17857,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>1272</v>
       </c>
@@ -17610,7 +17881,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>874</v>
       </c>
@@ -17640,7 +17911,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>876</v>
       </c>
@@ -17668,7 +17939,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>363</v>
       </c>
@@ -17696,7 +17967,7 @@
       </c>
       <c r="J438" s="5"/>
     </row>
-    <row r="439" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>363</v>
       </c>
@@ -17724,10 +17995,10 @@
       </c>
       <c r="J439" s="3"/>
       <c r="K439" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>359</v>
       </c>
@@ -17755,7 +18026,7 @@
       </c>
       <c r="J440" s="5"/>
     </row>
-    <row r="441" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>359</v>
       </c>
@@ -17781,7 +18052,7 @@
       </c>
       <c r="J441" s="5"/>
     </row>
-    <row r="442" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>359</v>
       </c>
@@ -17809,10 +18080,10 @@
       </c>
       <c r="J442" s="3"/>
       <c r="K442" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>878</v>
       </c>
@@ -17840,7 +18111,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>1273</v>
       </c>
@@ -17866,7 +18137,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>1274</v>
       </c>
@@ -17892,7 +18163,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>161</v>
       </c>
@@ -17920,10 +18191,13 @@
         <v>171</v>
       </c>
       <c r="K446" s="3" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+      <c r="L446" s="3" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>881</v>
       </c>
@@ -17953,7 +18227,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>879</v>
       </c>
@@ -17981,7 +18255,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>146</v>
       </c>
@@ -18009,10 +18283,10 @@
         <v>120</v>
       </c>
       <c r="K449" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="450" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>884</v>
       </c>
@@ -18040,7 +18314,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>106</v>
       </c>
@@ -18065,13 +18339,13 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="K451" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="452" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>234</v>
       </c>
@@ -18099,7 +18373,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>234</v>
       </c>
@@ -18116,7 +18390,7 @@
         <v>4</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>1581</v>
+        <v>1654</v>
       </c>
       <c r="G453" s="3" t="s">
         <v>169</v>
@@ -18129,10 +18403,13 @@
         <v>171</v>
       </c>
       <c r="K453" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="454" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L453" s="3" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>886</v>
       </c>
@@ -18160,7 +18437,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>887</v>
       </c>
@@ -18188,7 +18465,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>1053</v>
       </c>
@@ -18214,7 +18491,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>888</v>
       </c>
@@ -18242,7 +18519,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>888</v>
       </c>
@@ -18272,7 +18549,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>891</v>
       </c>
@@ -18300,7 +18577,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>1202</v>
       </c>
@@ -18326,7 +18603,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>65</v>
       </c>
@@ -18354,10 +18631,10 @@
       </c>
       <c r="J461" s="3"/>
       <c r="K461" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="462" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>1275</v>
       </c>
@@ -18381,7 +18658,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>376</v>
       </c>
@@ -18405,7 +18682,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>376</v>
       </c>
@@ -18435,10 +18712,10 @@
         <v>171</v>
       </c>
       <c r="K464" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="465" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>893</v>
       </c>
@@ -18466,7 +18743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>894</v>
       </c>
@@ -18492,7 +18769,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>239</v>
       </c>
@@ -18522,10 +18799,13 @@
         <v>171</v>
       </c>
       <c r="K467" s="3" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="468" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1618</v>
+      </c>
+      <c r="L467" s="3" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>898</v>
       </c>
@@ -18557,7 +18837,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>899</v>
       </c>
@@ -18589,7 +18869,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>902</v>
       </c>
@@ -18621,7 +18901,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>903</v>
       </c>
@@ -18653,7 +18933,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>905</v>
       </c>
@@ -18685,7 +18965,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>906</v>
       </c>
@@ -18717,7 +18997,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>908</v>
       </c>
@@ -18749,7 +19029,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>1200</v>
       </c>
@@ -18775,7 +19055,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>909</v>
       </c>
@@ -18803,7 +19083,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>912</v>
       </c>
@@ -18831,7 +19111,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>237</v>
       </c>
@@ -18861,10 +19141,10 @@
         <v>171</v>
       </c>
       <c r="K478" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="479" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>1276</v>
       </c>
@@ -18890,7 +19170,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>1060</v>
       </c>
@@ -18916,7 +19196,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>913</v>
       </c>
@@ -18944,7 +19224,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>914</v>
       </c>
@@ -18970,7 +19250,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>915</v>
       </c>
@@ -18998,7 +19278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>1277</v>
       </c>
@@ -19026,7 +19306,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>916</v>
       </c>
@@ -19054,7 +19334,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>916</v>
       </c>
@@ -19082,7 +19362,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>35</v>
       </c>
@@ -19110,7 +19390,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>35</v>
       </c>
@@ -19138,10 +19418,10 @@
         <v>426</v>
       </c>
       <c r="K488" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="489" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>51</v>
       </c>
@@ -19169,7 +19449,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>51</v>
       </c>
@@ -19197,10 +19477,10 @@
         <v>426</v>
       </c>
       <c r="K490" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="491" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>918</v>
       </c>
@@ -19226,7 +19506,7 @@
       </c>
       <c r="J491" s="5"/>
     </row>
-    <row r="492" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>919</v>
       </c>
@@ -19256,7 +19536,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>1278</v>
       </c>
@@ -19280,7 +19560,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>70</v>
       </c>
@@ -19312,10 +19592,13 @@
         <v>76</v>
       </c>
       <c r="K494" s="3" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="495" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1656</v>
+      </c>
+      <c r="L494" s="3" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>1279</v>
       </c>
@@ -19343,7 +19626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>366</v>
       </c>
@@ -19373,10 +19656,13 @@
         <v>171</v>
       </c>
       <c r="K496" s="3" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="497" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+      <c r="L496" s="3" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>388</v>
       </c>
@@ -19406,10 +19692,13 @@
         <v>171</v>
       </c>
       <c r="K497" s="3" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="498" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+      <c r="L497" s="3" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>383</v>
       </c>
@@ -19439,10 +19728,13 @@
         <v>171</v>
       </c>
       <c r="K498" s="3" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="499" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+      <c r="L498" s="3" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>107</v>
       </c>
@@ -19472,10 +19764,10 @@
         <v>1440</v>
       </c>
       <c r="K499" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="500" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>1280</v>
       </c>
@@ -19499,7 +19791,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>975</v>
       </c>
@@ -19527,7 +19819,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>987</v>
       </c>
@@ -19553,7 +19845,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>1076</v>
       </c>
@@ -19579,7 +19871,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>242</v>
       </c>
@@ -19609,10 +19901,10 @@
         <v>171</v>
       </c>
       <c r="K504" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="505" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>925</v>
       </c>
@@ -19640,7 +19932,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>932</v>
       </c>
@@ -19670,7 +19962,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>86</v>
       </c>
@@ -19698,10 +19990,13 @@
       </c>
       <c r="J507" s="3"/>
       <c r="K507" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="508" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L507" s="3" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>934</v>
       </c>
@@ -19727,7 +20022,7 @@
       </c>
       <c r="J508" s="5"/>
     </row>
-    <row r="509" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>935</v>
       </c>
@@ -19755,7 +20050,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>937</v>
       </c>
@@ -19783,7 +20078,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>938</v>
       </c>
@@ -19811,7 +20106,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>91</v>
       </c>
@@ -19841,10 +20136,10 @@
         <v>1392</v>
       </c>
       <c r="K512" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="513" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>1281</v>
       </c>
@@ -19870,7 +20165,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>378</v>
       </c>
@@ -19900,10 +20195,13 @@
         <v>171</v>
       </c>
       <c r="K514" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="515" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L514" s="3" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>1282</v>
       </c>
@@ -19929,7 +20227,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>940</v>
       </c>
@@ -19959,7 +20257,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>323</v>
       </c>
@@ -19987,10 +20285,10 @@
       </c>
       <c r="J517" s="3"/>
       <c r="K517" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="518" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>157</v>
       </c>
@@ -20018,10 +20316,10 @@
         <v>171</v>
       </c>
       <c r="K518" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="519" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>943</v>
       </c>
@@ -20047,7 +20345,7 @@
       </c>
       <c r="J519" s="5"/>
     </row>
-    <row r="520" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>386</v>
       </c>
@@ -20077,10 +20375,10 @@
         <v>171</v>
       </c>
       <c r="K520" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="521" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>1283</v>
       </c>
@@ -20106,7 +20404,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>1284</v>
       </c>
@@ -20132,7 +20430,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>1285</v>
       </c>
@@ -20158,7 +20456,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>159</v>
       </c>
@@ -20186,10 +20484,10 @@
         <v>171</v>
       </c>
       <c r="K524" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="525" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>1286</v>
       </c>
@@ -20213,7 +20511,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>244</v>
       </c>
@@ -20243,10 +20541,13 @@
         <v>171</v>
       </c>
       <c r="K526" s="3" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="527" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1621</v>
+      </c>
+      <c r="L526" s="3" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>1132</v>
       </c>
@@ -20272,7 +20573,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>1099</v>
       </c>
@@ -20298,7 +20599,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>1104</v>
       </c>
@@ -20324,7 +20625,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>1101</v>
       </c>
@@ -20350,7 +20651,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
         <v>1108</v>
       </c>
@@ -20376,7 +20677,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>1122</v>
       </c>
@@ -20402,7 +20703,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>1134</v>
       </c>
@@ -20428,7 +20729,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
         <v>1110</v>
       </c>
@@ -20454,7 +20755,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>1112</v>
       </c>
@@ -20480,7 +20781,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>1136</v>
       </c>
@@ -20506,7 +20807,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>1138</v>
       </c>
@@ -20532,7 +20833,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>978</v>
       </c>
@@ -20558,7 +20859,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>1140</v>
       </c>
@@ -20586,7 +20887,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>944</v>
       </c>
@@ -20610,13 +20911,13 @@
       </c>
       <c r="H540" s="5"/>
       <c r="I540" s="5" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="J540" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>947</v>
       </c>
@@ -20644,7 +20945,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>948</v>
       </c>
@@ -20672,7 +20973,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>949</v>
       </c>
@@ -20700,7 +21001,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>320</v>
       </c>
@@ -20728,10 +21029,13 @@
       </c>
       <c r="J544" s="3"/>
       <c r="K544" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="545" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L544" s="3" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>950</v>
       </c>
@@ -20759,7 +21063,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
         <v>955</v>
       </c>
@@ -20787,7 +21091,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>954</v>
       </c>
@@ -20804,7 +21108,7 @@
         <v>4</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="G547" s="5" t="s">
         <v>1535</v>
@@ -20815,9 +21119,9 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="B548" s="5"/>
       <c r="C548" s="5" t="s">
@@ -20830,7 +21134,7 @@
         <v>4</v>
       </c>
       <c r="F548" s="5" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="G548" s="5" t="s">
         <v>1535</v>
@@ -20841,7 +21145,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>956</v>
       </c>
@@ -20869,7 +21173,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>959</v>
       </c>
@@ -20897,7 +21201,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>960</v>
       </c>
@@ -20925,7 +21229,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>0</v>
       </c>
@@ -20953,10 +21257,13 @@
         <v>1373</v>
       </c>
       <c r="K552" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="553" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L552" s="3" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>247</v>
       </c>
@@ -20986,10 +21293,10 @@
         <v>171</v>
       </c>
       <c r="K553" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="554" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>249</v>
       </c>
@@ -21019,10 +21326,10 @@
         <v>171</v>
       </c>
       <c r="K554" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="555" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>273</v>
       </c>
@@ -21052,10 +21359,10 @@
         <v>171</v>
       </c>
       <c r="K555" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="556" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>252</v>
       </c>
@@ -21085,10 +21392,10 @@
         <v>171</v>
       </c>
       <c r="K556" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="557" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>276</v>
       </c>
@@ -21118,10 +21425,10 @@
         <v>171</v>
       </c>
       <c r="K557" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="558" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>279</v>
       </c>
@@ -21151,10 +21458,10 @@
         <v>171</v>
       </c>
       <c r="K558" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="559" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>254</v>
       </c>
@@ -21184,10 +21491,10 @@
         <v>171</v>
       </c>
       <c r="K559" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="560" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>259</v>
       </c>
@@ -21217,10 +21524,10 @@
         <v>171</v>
       </c>
       <c r="K560" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="561" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>261</v>
       </c>
@@ -21250,10 +21557,10 @@
         <v>171</v>
       </c>
       <c r="K561" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="562" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>271</v>
       </c>
@@ -21283,10 +21590,10 @@
         <v>171</v>
       </c>
       <c r="K562" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="563" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>268</v>
       </c>
@@ -21316,10 +21623,10 @@
         <v>171</v>
       </c>
       <c r="K563" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="564" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>263</v>
       </c>
@@ -21349,10 +21656,10 @@
         <v>171</v>
       </c>
       <c r="K564" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="565" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
         <v>961</v>
       </c>
@@ -21382,7 +21689,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="566" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>333</v>
       </c>
@@ -21410,10 +21717,13 @@
       </c>
       <c r="J566" s="3"/>
       <c r="K566" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="567" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L566" s="3" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>331</v>
       </c>
@@ -21441,10 +21751,13 @@
       </c>
       <c r="J567" s="3"/>
       <c r="K567" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="568" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L567" s="3" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>329</v>
       </c>
@@ -21472,10 +21785,13 @@
       </c>
       <c r="J568" s="3"/>
       <c r="K568" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="569" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L568" s="3" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>335</v>
       </c>
@@ -21503,10 +21819,13 @@
       </c>
       <c r="J569" s="3"/>
       <c r="K569" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="570" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L569" s="3" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>339</v>
       </c>
@@ -21534,10 +21853,13 @@
       </c>
       <c r="J570" s="3"/>
       <c r="K570" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="571" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L570" s="3" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>354</v>
       </c>
@@ -21565,10 +21887,13 @@
       </c>
       <c r="J571" s="3"/>
       <c r="K571" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="572" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L571" s="3" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>345</v>
       </c>
@@ -21596,10 +21921,13 @@
       </c>
       <c r="J572" s="3"/>
       <c r="K572" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="573" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L572" s="3" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>347</v>
       </c>
@@ -21627,10 +21955,13 @@
       </c>
       <c r="J573" s="3"/>
       <c r="K573" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="574" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L573" s="3" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>337</v>
       </c>
@@ -21658,10 +21989,13 @@
       </c>
       <c r="J574" s="3"/>
       <c r="K574" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="575" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L574" s="3" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>357</v>
       </c>
@@ -21689,10 +22023,13 @@
       </c>
       <c r="J575" s="3"/>
       <c r="K575" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="576" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L575" s="3" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>355</v>
       </c>
@@ -21720,7 +22057,10 @@
       </c>
       <c r="J576" s="3"/>
       <c r="K576" s="3" t="s">
-        <v>1621</v>
+        <v>1617</v>
+      </c>
+      <c r="L576" s="3" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="577" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21751,7 +22091,10 @@
       </c>
       <c r="J577" s="3"/>
       <c r="K577" s="3" t="s">
-        <v>1621</v>
+        <v>1617</v>
+      </c>
+      <c r="L577" s="3" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="578" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21808,9 +22151,11 @@
       </c>
       <c r="J579" s="3"/>
       <c r="K579" s="3" t="s">
-        <v>1621</v>
-      </c>
-      <c r="L579" s="9"/>
+        <v>1617</v>
+      </c>
+      <c r="L579" s="3" t="s">
+        <v>1678</v>
+      </c>
     </row>
     <row r="580" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
@@ -21842,7 +22187,7 @@
         <v>171</v>
       </c>
       <c r="K580" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="581" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21873,7 +22218,7 @@
         <v>1436</v>
       </c>
       <c r="K581" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="582" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21904,7 +22249,10 @@
       </c>
       <c r="J582" s="3"/>
       <c r="K582" s="3" t="s">
-        <v>1623</v>
+        <v>1619</v>
+      </c>
+      <c r="L582" s="3" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="583" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21937,10 +22285,10 @@
         <v>171</v>
       </c>
       <c r="K583" s="3" t="s">
-        <v>1623</v>
-      </c>
-      <c r="L583" s="9" t="s">
-        <v>1621</v>
+        <v>1619</v>
+      </c>
+      <c r="L583" s="13" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="584" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21973,7 +22321,7 @@
         <v>171</v>
       </c>
       <c r="K584" s="3" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="585" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22006,7 +22354,10 @@
         <v>171</v>
       </c>
       <c r="K585" s="3" t="s">
-        <v>1623</v>
+        <v>1619</v>
+      </c>
+      <c r="L585" s="3" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="586" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22065,7 +22416,10 @@
       </c>
       <c r="J587" s="3"/>
       <c r="K587" s="3" t="s">
-        <v>1621</v>
+        <v>1617</v>
+      </c>
+      <c r="L587" s="3" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="588" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22202,10 +22556,10 @@
         <v>120</v>
       </c>
       <c r="K592" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="593" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
         <v>967</v>
       </c>
@@ -22235,7 +22589,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>970</v>
       </c>
@@ -22263,7 +22617,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>153</v>
       </c>
@@ -22291,10 +22645,10 @@
         <v>1526</v>
       </c>
       <c r="K595" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="596" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="596" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>973</v>
       </c>
@@ -22324,7 +22678,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>133</v>
       </c>
@@ -22352,10 +22706,10 @@
         <v>120</v>
       </c>
       <c r="K597" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="598" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>974</v>
       </c>
@@ -22383,7 +22737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>205</v>
       </c>
@@ -22413,10 +22767,13 @@
         <v>171</v>
       </c>
       <c r="K599" s="3" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="600" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1617</v>
+      </c>
+      <c r="L599" s="3" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>1289</v>
       </c>
@@ -22440,7 +22797,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>1290</v>
       </c>
@@ -22464,7 +22821,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>113</v>
       </c>
@@ -22494,12 +22851,12 @@
         <v>1440</v>
       </c>
       <c r="K602" s="3" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="603" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="B603" s="5"/>
       <c r="C603" s="5" t="s">
@@ -22512,15 +22869,15 @@
         <v>4</v>
       </c>
       <c r="F603" s="5" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="G603" s="5" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="H603" s="5"/>
       <c r="I603" s="5"/>
       <c r="J603" s="5" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
   </sheetData>

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Product Contact Matrix" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Contact Matrix'!$A$1:$L$695</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Contact Matrix'!$A$1:$L$696</definedName>
   </definedNames>
   <calcPr calcId="171026"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5743" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5750" uniqueCount="1778">
   <si>
     <t>PROD_NAME</t>
   </si>
@@ -5346,6 +5346,21 @@
   </si>
   <si>
     <t>CSCR809</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>bobsr01</t>
+  </si>
+  <si>
+    <t>github-isl-01.ca.com/WLA</t>
+  </si>
+  <si>
+    <t>Workload Automation</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"bobsr01","TYPE":"Team","NAME":"Agents"},{"PMFKEY":"bobsr01","TYPE":"Repository","NAME":"ae"}]</t>
   </si>
 </sst>
 </file>
@@ -5383,7 +5398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5408,6 +5423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5421,7 +5442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5461,6 +5482,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5776,11 +5800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L695"/>
+  <dimension ref="A1:L696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A679" sqref="A679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25593,34 +25617,34 @@
       </c>
     </row>
     <row r="679" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="5" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B679" s="5"/>
-      <c r="C679" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D679" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E679" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F679" s="5" t="s">
-        <v>1719</v>
-      </c>
-      <c r="G679" s="5" t="s">
-        <v>1720</v>
-      </c>
-      <c r="H679" s="5"/>
-      <c r="I679" s="5"/>
-      <c r="J679" s="5" t="s">
-        <v>1721</v>
+      <c r="A679" s="14" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B679" s="14"/>
+      <c r="C679" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D679" s="14" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E679" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F679" s="14" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G679" s="14" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H679" s="14"/>
+      <c r="I679" s="14"/>
+      <c r="J679" s="14" t="s">
+        <v>1774</v>
       </c>
     </row>
     <row r="680" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="B680" s="5"/>
       <c r="C680" s="5" t="s">
@@ -25633,143 +25657,138 @@
         <v>42</v>
       </c>
       <c r="F680" s="5" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="G680" s="5" t="s">
-        <v>541</v>
+        <v>1720</v>
       </c>
       <c r="H680" s="5"/>
       <c r="I680" s="5"/>
       <c r="J680" s="5" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B681" s="5"/>
+      <c r="C681" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D681" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E681" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F681" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G681" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H681" s="5"/>
+      <c r="I681" s="5"/>
+      <c r="J681" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="681" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="3" t="s">
+    <row r="682" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="3" t="s">
         <v>1724</v>
       </c>
-      <c r="B681" s="3" t="s">
+      <c r="B682" s="3" t="s">
         <v>1725</v>
       </c>
-      <c r="C681" s="3" t="s">
+      <c r="C682" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D681" s="3" t="s">
+      <c r="D682" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E681" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F681" s="3" t="s">
+      <c r="E682" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F682" s="3" t="s">
         <v>1726</v>
       </c>
-      <c r="G681" s="3" t="s">
+      <c r="G682" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H681" s="3"/>
-      <c r="I681" s="3"/>
-      <c r="J681" s="3" t="s">
+      <c r="H682" s="3"/>
+      <c r="I682" s="3"/>
+      <c r="J682" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K681" s="3" t="s">
+      <c r="K682" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="682" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="5" t="s">
+    <row r="683" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="5" t="s">
         <v>1727</v>
       </c>
-      <c r="B682" s="5" t="s">
+      <c r="B683" s="5" t="s">
         <v>1728</v>
       </c>
-      <c r="C682" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D682" s="5" t="s">
+      <c r="C683" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D683" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E682" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F682" s="5" t="s">
+      <c r="E683" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F683" s="5" t="s">
         <v>1729</v>
       </c>
-      <c r="G682" s="5" t="s">
+      <c r="G683" s="5" t="s">
         <v>1730</v>
       </c>
-      <c r="H682" s="5"/>
-      <c r="I682" s="5" t="s">
+      <c r="H683" s="5"/>
+      <c r="I683" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J682" s="5" t="s">
+      <c r="J683" s="5" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="683" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="2" t="s">
+    <row r="684" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="B684" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="C683" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D683" s="2" t="s">
+      <c r="C684" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D684" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E683" s="2" t="s">
+      <c r="E684" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="F683" s="2" t="s">
+      <c r="F684" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G683" s="2" t="s">
+      <c r="G684" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="H683" s="2"/>
-      <c r="I683" s="2"/>
-      <c r="J683" s="2" t="s">
+      <c r="H684" s="2"/>
+      <c r="I684" s="2"/>
+      <c r="J684" s="2" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="684" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="3" t="s">
+    <row r="685" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
         <v>1732</v>
       </c>
-      <c r="B684" s="3" t="s">
+      <c r="B685" s="3" t="s">
         <v>1733</v>
-      </c>
-      <c r="C684" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D684" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E684" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F684" s="3" t="s">
-        <v>1737</v>
-      </c>
-      <c r="G684" s="3" t="s">
-        <v>1735</v>
-      </c>
-      <c r="H684" s="3"/>
-      <c r="I684" s="3"/>
-      <c r="J684" s="3" t="s">
-        <v>1736</v>
-      </c>
-      <c r="K684" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="685" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="3" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B685" s="3">
-        <v>2.4</v>
       </c>
       <c r="C685" s="3" t="s">
         <v>13</v>
@@ -25781,7 +25800,7 @@
         <v>42</v>
       </c>
       <c r="F685" s="3" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="G685" s="3" t="s">
         <v>1735</v>
@@ -25796,188 +25815,195 @@
       </c>
     </row>
     <row r="686" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A686" s="2" t="s">
+      <c r="A686" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B686" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E686" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H686" s="3"/>
+      <c r="I686" s="3"/>
+      <c r="J686" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="K686" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="B686" s="2">
+      <c r="B687" s="2">
         <v>3.1</v>
       </c>
-      <c r="C686" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D686" s="2" t="s">
+      <c r="C687" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D687" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E686" s="2" t="s">
+      <c r="E687" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="F686" s="2" t="s">
+      <c r="F687" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G686" s="2" t="s">
+      <c r="G687" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="H686" s="2"/>
-      <c r="I686" s="2" t="s">
+      <c r="H687" s="2"/>
+      <c r="I687" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="J686" s="2" t="s">
+      <c r="J687" s="2" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="687" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="3" t="s">
+    <row r="688" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A688" s="3" t="s">
         <v>1743</v>
       </c>
-      <c r="B687" s="3" t="s">
+      <c r="B688" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="C687" s="3" t="s">
+      <c r="C688" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D687" s="3" t="s">
+      <c r="D688" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E687" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F687" s="3" t="s">
+      <c r="E688" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F688" s="3" t="s">
         <v>1744</v>
       </c>
-      <c r="G687" s="3" t="s">
+      <c r="G688" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H687" s="3"/>
-      <c r="I687" s="3"/>
-      <c r="J687" s="3" t="s">
+      <c r="H688" s="3"/>
+      <c r="I688" s="3"/>
+      <c r="J688" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K687" s="3" t="s">
+      <c r="K688" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="688" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A688" s="2" t="s">
+    <row r="689" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="2" t="s">
         <v>1745</v>
       </c>
-      <c r="B688" s="2" t="s">
+      <c r="B689" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C688" s="2" t="s">
+      <c r="C689" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D688" s="2" t="s">
+      <c r="D689" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E688" s="2" t="s">
+      <c r="E689" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F688" s="2" t="s">
+      <c r="F689" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G688" s="2" t="s">
+      <c r="G689" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H688" s="2"/>
-      <c r="I688" s="2"/>
-      <c r="J688" s="2" t="s">
+      <c r="H689" s="2"/>
+      <c r="I689" s="2"/>
+      <c r="J689" s="2" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="689" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="3" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B689" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C689" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D689" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E689" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F689" s="3" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G689" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H689" s="3"/>
-      <c r="I689" s="3"/>
-      <c r="J689" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K689" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="690" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E690" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H690" s="3"/>
+      <c r="I690" s="3"/>
+      <c r="J690" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K690" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="3" t="s">
         <v>1747</v>
       </c>
-      <c r="B690" s="3" t="s">
+      <c r="B691" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="C690" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D690" s="3" t="s">
+      <c r="C691" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D691" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E690" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F690" s="3" t="s">
+      <c r="E691" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F691" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="G690" s="3" t="s">
+      <c r="G691" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H690" s="3"/>
-      <c r="I690" s="3" t="s">
+      <c r="H691" s="3"/>
+      <c r="I691" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J690" s="3" t="s">
+      <c r="J691" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K690" s="3" t="s">
+      <c r="K691" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="L690" s="3" t="s">
+      <c r="L691" s="3" t="s">
         <v>1749</v>
-      </c>
-    </row>
-    <row r="691" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B691" s="2"/>
-      <c r="C691" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D691" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E691" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="F691" s="2"/>
-      <c r="G691" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H691" s="2"/>
-      <c r="I691" s="2"/>
-      <c r="J691" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="692" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B692" s="2"/>
       <c r="C692" s="2" t="s">
@@ -25987,86 +26013,82 @@
         <v>14</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F692" s="2"/>
       <c r="G692" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H692" s="2"/>
       <c r="I692" s="2"/>
       <c r="J692" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B693" s="2"/>
+      <c r="C693" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E693" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F693" s="2"/>
+      <c r="G693" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H693" s="2"/>
+      <c r="I693" s="2"/>
+      <c r="J693" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="693" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A693" s="3" t="s">
+    <row r="694" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
         <v>1752</v>
       </c>
-      <c r="B693" s="3" t="s">
+      <c r="B694" s="3" t="s">
         <v>1753</v>
       </c>
-      <c r="C693" s="3" t="s">
+      <c r="C694" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D693" s="3" t="s">
+      <c r="D694" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E693" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F693" s="3" t="s">
+      <c r="E694" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F694" s="3" t="s">
         <v>1754</v>
       </c>
-      <c r="G693" s="3" t="s">
+      <c r="G694" s="3" t="s">
         <v>1473</v>
       </c>
-      <c r="H693" s="3" t="s">
+      <c r="H694" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="I693" s="3"/>
-      <c r="J693" s="3" t="s">
+      <c r="I694" s="3"/>
+      <c r="J694" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="K693" s="3" t="s">
+      <c r="K694" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="694" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="5" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B694" s="5"/>
-      <c r="C694" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D694" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E694" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F694" s="5" t="s">
-        <v>1772</v>
-      </c>
-      <c r="G694" s="5" t="s">
-        <v>1758</v>
-      </c>
-      <c r="H694" s="5"/>
-      <c r="I694" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="J694" s="5" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="695" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1755</v>
+        <v>1771</v>
       </c>
       <c r="B695" s="5"/>
       <c r="C695" s="5" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="D695" s="5" t="s">
         <v>47</v>
@@ -26075,14 +26097,42 @@
         <v>42</v>
       </c>
       <c r="F695" s="5" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G695" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H695" s="5"/>
+      <c r="I695" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J695" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B696" s="5"/>
+      <c r="C696" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D696" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E696" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F696" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="G695" s="5" t="s">
+      <c r="G696" s="5" t="s">
         <v>1756</v>
       </c>
-      <c r="H695" s="5"/>
-      <c r="I695" s="5"/>
-      <c r="J695" s="5" t="s">
+      <c r="H696" s="5"/>
+      <c r="I696" s="5"/>
+      <c r="J696" s="5" t="s">
         <v>1757</v>
       </c>
     </row>
@@ -26093,6 +26143,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -26142,46 +26201,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Order0 xmlns="afd34d76-bd0a-4401-a24d-7f289c41d043">1</Order0>
-    <SharedWithUsers xmlns="caa4e187-f897-484e-8238-9cf00fcb7318">
-      <UserInfo>
-        <DisplayName>Costello, Debra L</DisplayName>
-        <AccountId>8430</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bigornia Jr, Agustin</DisplayName>
-        <AccountId>11541</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Armstrong, Francis J</DisplayName>
-        <AccountId>9317</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Morales, John</DisplayName>
-        <AccountId>316</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0E9129E47F7CB438C96AC380E87590A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e88feaa25e6ad09e6ba324897e71446">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="caa4e187-f897-484e-8238-9cf00fcb7318" xmlns:ns3="afd34d76-bd0a-4401-a24d-7f289c41d043" xmlns:ns4="a875d3b0-e276-4560-a424-4019c376e5e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f03fa3b171511b141aa43c09ca253c1" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="caa4e187-f897-484e-8238-9cf00fcb7318"/>
@@ -26359,7 +26379,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Order0 xmlns="afd34d76-bd0a-4401-a24d-7f289c41d043">1</Order0>
+    <SharedWithUsers xmlns="caa4e187-f897-484e-8238-9cf00fcb7318">
+      <UserInfo>
+        <DisplayName>Costello, Debra L</DisplayName>
+        <AccountId>8430</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bigornia Jr, Agustin</DisplayName>
+        <AccountId>11541</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Armstrong, Francis J</DisplayName>
+        <AccountId>9317</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Morales, John</DisplayName>
+        <AccountId>316</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F157CC7-0BC4-4431-8527-4D48F8B34954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8654B897-6565-4D9A-AEDC-2108E98326EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -26367,33 +26425,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F157CC7-0BC4-4431-8527-4D48F8B34954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
-    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{668497AE-C76A-4CE9-8BAA-F6F3316D1975}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26411,4 +26443,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
+    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5801" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5798" uniqueCount="1794">
   <si>
     <t>PROD_NAME</t>
   </si>
@@ -5496,7 +5496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5555,6 +5555,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18033,12 +18036,10 @@
         <v>13</v>
       </c>
       <c r="D422" s="15"/>
-      <c r="E422" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F422" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="E422" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F422" s="15"/>
       <c r="G422" s="15" t="s">
         <v>1783</v>
       </c>
@@ -19218,9 +19219,7 @@
       <c r="E463" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F463" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="F463" s="15"/>
       <c r="G463" s="15" t="s">
         <v>1783</v>
       </c>
@@ -24163,9 +24162,7 @@
       <c r="E631" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F631" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="F631" s="15"/>
       <c r="G631" s="15" t="s">
         <v>1783</v>
       </c>
@@ -26396,15 +26393,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Order0 xmlns="afd34d76-bd0a-4401-a24d-7f289c41d043">1</Order0>
@@ -26434,7 +26422,66 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0E9129E47F7CB438C96AC380E87590A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e88feaa25e6ad09e6ba324897e71446">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="caa4e187-f897-484e-8238-9cf00fcb7318" xmlns:ns3="afd34d76-bd0a-4401-a24d-7f289c41d043" xmlns:ns4="a875d3b0-e276-4560-a424-4019c376e5e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f03fa3b171511b141aa43c09ca253c1" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="caa4e187-f897-484e-8238-9cf00fcb7318"/>
@@ -26612,65 +26659,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F157CC7-0BC4-4431-8527-4D48F8B34954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -26688,7 +26677,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F157CC7-0BC4-4431-8527-4D48F8B34954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8654B897-6565-4D9A-AEDC-2108E98326EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{668497AE-C76A-4CE9-8BAA-F6F3316D1975}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26706,12 +26711,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8654B897-6565-4D9A-AEDC-2108E98326EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5880" uniqueCount="1793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5882" uniqueCount="1795">
   <si>
     <t>PROD_NAME</t>
   </si>
@@ -3047,9 +3047,6 @@
     <t>ITPAM Connectors</t>
   </si>
   <si>
-    <t>CSCR709/itpam</t>
-  </si>
-  <si>
     <t>[{"PMFKEY":"bn$ba01"}]</t>
   </si>
   <si>
@@ -3812,7 +3809,7 @@
     <t>CSCR808</t>
   </si>
   <si>
-    <t>[{"PMFKEY":"chera14"},{"PMFKEY":"paiar01"}]</t>
+    <t>[{"PMFKEY":"paiar01"},{"PMFKEY":"chera14"}]</t>
   </si>
   <si>
     <t>dalal01</t>
@@ -4532,12 +4529,6 @@
     <t>CSCR706</t>
   </si>
   <si>
-    <t>[{"PMFKEY":"deyar02"}]</t>
-  </si>
-  <si>
-    <t>deyar02</t>
-  </si>
-  <si>
     <t>Teleview</t>
   </si>
   <si>
@@ -5406,6 +5397,21 @@
   </si>
   <si>
     <t>varsr03</t>
+  </si>
+  <si>
+    <t>palha04</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"palha04"}]</t>
+  </si>
+  <si>
+    <t>nekma01</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"nekma01"}]</t>
+  </si>
+  <si>
+    <t>CSCR709/itpam,ITPAM</t>
   </si>
 </sst>
 </file>
@@ -16087,7 +16093,7 @@
       </c>
       <c r="B355" s="5"/>
       <c r="C355" s="5" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D355" s="5" t="s">
         <v>64</v>
@@ -16096,20 +16102,22 @@
         <v>41</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>1006</v>
+        <v>1794</v>
       </c>
       <c r="G355" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H355" s="5"/>
+      <c r="I355" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="H355" s="5"/>
-      <c r="I355" s="5"/>
       <c r="J355" s="5" t="s">
-        <v>1008</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="356" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" s="2" t="s">
@@ -16119,7 +16127,7 @@
         <v>14</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="2" t="s">
@@ -16135,7 +16143,7 @@
     </row>
     <row r="357" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B357" s="3">
         <v>6.2</v>
@@ -16144,13 +16152,13 @@
         <v>63</v>
       </c>
       <c r="D357" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F357" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="E357" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F357" s="3" t="s">
-        <v>1012</v>
       </c>
       <c r="G357" s="3" t="s">
         <v>66</v>
@@ -16168,10 +16176,10 @@
     </row>
     <row r="358" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>1013</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>1014</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>13</v>
@@ -16183,7 +16191,7 @@
         <v>41</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>66</v>
@@ -16199,15 +16207,15 @@
         <v>640</v>
       </c>
       <c r="L358" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="359" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B359" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>1018</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>13</v>
@@ -16216,7 +16224,7 @@
         <v>14</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>23</v>
@@ -16234,10 +16242,10 @@
     </row>
     <row r="360" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B360" s="5" t="s">
         <v>1020</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>1021</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>182</v>
@@ -16249,20 +16257,20 @@
         <v>41</v>
       </c>
       <c r="F360" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G360" s="5" t="s">
         <v>1022</v>
-      </c>
-      <c r="G360" s="5" t="s">
-        <v>1023</v>
       </c>
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="361" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" s="2" t="s">
@@ -16272,7 +16280,7 @@
         <v>14</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="2" t="s">
@@ -16288,7 +16296,7 @@
     </row>
     <row r="362" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B362" s="3">
         <v>4.5999999999999996</v>
@@ -16303,7 +16311,7 @@
         <v>41</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G362" s="3" t="s">
         <v>66</v>
@@ -16321,10 +16329,10 @@
     </row>
     <row r="363" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="15" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B363" s="15" t="s">
         <v>1027</v>
-      </c>
-      <c r="B363" s="15" t="s">
-        <v>1028</v>
       </c>
       <c r="C363" s="15" t="s">
         <v>13</v>
@@ -16345,12 +16353,12 @@
         <v>454</v>
       </c>
       <c r="K363" s="15" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="364" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>81</v>
@@ -16362,7 +16370,7 @@
         <v>14</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>23</v>
@@ -16383,19 +16391,19 @@
         <v>119</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D365" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E365" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="E365" s="2" t="s">
+      <c r="F365" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="F365" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="G365" s="2" t="s">
         <v>130</v>
@@ -16408,7 +16416,7 @@
     </row>
     <row r="366" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B366" s="5"/>
       <c r="C366" s="5" t="s">
@@ -16421,20 +16429,20 @@
         <v>41</v>
       </c>
       <c r="F366" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G366" s="5" t="s">
         <v>1037</v>
-      </c>
-      <c r="G366" s="5" t="s">
-        <v>1038</v>
       </c>
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
       <c r="J366" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="367" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B367" s="5"/>
       <c r="C367" s="5" t="s">
@@ -16447,20 +16455,20 @@
         <v>41</v>
       </c>
       <c r="F367" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G367" s="5" t="s">
         <v>1041</v>
-      </c>
-      <c r="G367" s="5" t="s">
-        <v>1042</v>
       </c>
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="368" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>109</v>
@@ -16488,7 +16496,7 @@
     </row>
     <row r="369" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>109</v>
@@ -16503,7 +16511,7 @@
         <v>41</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>113</v>
@@ -16519,7 +16527,7 @@
     </row>
     <row r="370" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>109</v>
@@ -16547,7 +16555,7 @@
     </row>
     <row r="371" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>109</v>
@@ -16562,7 +16570,7 @@
         <v>41</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>113</v>
@@ -16578,7 +16586,7 @@
     </row>
     <row r="372" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>970</v>
@@ -16593,7 +16601,7 @@
         <v>41</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>113</v>
@@ -16609,10 +16617,10 @@
     </row>
     <row r="373" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>1050</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>1051</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>13</v>
@@ -16621,26 +16629,26 @@
         <v>14</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
       <c r="J373" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="374" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>1051</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>13</v>
@@ -16652,15 +16660,15 @@
         <v>41</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K374" s="3" t="s">
         <v>44</v>
@@ -16668,10 +16676,10 @@
     </row>
     <row r="375" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>13</v>
@@ -16680,7 +16688,7 @@
         <v>53</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>397</v>
@@ -16698,10 +16706,10 @@
     </row>
     <row r="376" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>1057</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>13</v>
@@ -16713,7 +16721,7 @@
         <v>41</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>29</v>
@@ -16731,7 +16739,7 @@
     </row>
     <row r="377" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" s="2" t="s">
@@ -16741,7 +16749,7 @@
         <v>14</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F377" s="2"/>
       <c r="G377" s="2" t="s">
@@ -16755,7 +16763,7 @@
     </row>
     <row r="378" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" s="2" t="s">
@@ -16765,7 +16773,7 @@
         <v>14</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F378" s="2"/>
       <c r="G378" s="2" t="s">
@@ -16779,10 +16787,10 @@
     </row>
     <row r="379" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>1061</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>13</v>
@@ -16791,7 +16799,7 @@
         <v>14</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>800</v>
@@ -16807,7 +16815,7 @@
     </row>
     <row r="380" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B380" s="5"/>
       <c r="C380" s="5" t="s">
@@ -16820,7 +16828,7 @@
         <v>41</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>253</v>
@@ -16833,7 +16841,7 @@
     </row>
     <row r="381" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>922</v>
@@ -16865,7 +16873,7 @@
     </row>
     <row r="382" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>922</v>
@@ -16880,7 +16888,7 @@
         <v>41</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>449</v>
@@ -16900,67 +16908,67 @@
     </row>
     <row r="383" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="C383" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D383" s="2" t="s">
+      <c r="E383" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="E383" s="2" t="s">
+      <c r="F383" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="F383" s="2" t="s">
+      <c r="G383" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="G383" s="2" t="s">
-        <v>1073</v>
       </c>
       <c r="H383" s="2"/>
       <c r="I383" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J383" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="J383" s="2" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="384" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B384" s="14" t="s">
         <v>1068</v>
       </c>
-      <c r="B384" s="14" t="s">
-        <v>1069</v>
-      </c>
       <c r="C384" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D384" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E384" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F384" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="E384" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F384" s="14" t="s">
-        <v>1077</v>
-      </c>
       <c r="G384" s="14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H384" s="14"/>
       <c r="I384" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J384" s="14" t="s">
         <v>1074</v>
-      </c>
-      <c r="J384" s="14" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="385" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B385" s="3">
         <v>4.3</v>
@@ -16975,7 +16983,7 @@
         <v>41</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>179</v>
@@ -16991,10 +16999,10 @@
     </row>
     <row r="386" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B386" s="3" t="s">
         <v>1080</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>1081</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>13</v>
@@ -17006,7 +17014,7 @@
         <v>41</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>66</v>
@@ -17022,12 +17030,12 @@
         <v>413</v>
       </c>
       <c r="L386" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="387" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" s="2" t="s">
@@ -17037,23 +17045,23 @@
         <v>14</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H387" s="2"/>
       <c r="I387" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J387" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="388" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B388" s="3">
         <v>3.4</v>
@@ -17068,7 +17076,7 @@
         <v>41</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>253</v>
@@ -17084,7 +17092,7 @@
     </row>
     <row r="389" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>109</v>
@@ -17112,7 +17120,7 @@
     </row>
     <row r="390" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>109</v>
@@ -17127,7 +17135,7 @@
         <v>41</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>113</v>
@@ -17143,7 +17151,7 @@
     </row>
     <row r="391" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B391" s="3">
         <v>1.1000000000000001</v>
@@ -17158,15 +17166,15 @@
         <v>41</v>
       </c>
       <c r="F391" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G391" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="G391" s="3" t="s">
-        <v>1093</v>
       </c>
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K391" s="3" t="s">
         <v>44</v>
@@ -17174,7 +17182,7 @@
     </row>
     <row r="392" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" s="2" t="s">
@@ -17184,21 +17192,21 @@
         <v>14</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F392" s="2"/>
       <c r="G392" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H392" s="2"/>
       <c r="I392" s="2"/>
       <c r="J392" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="393" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B393" s="5"/>
       <c r="C393" s="5" t="s">
@@ -17211,10 +17219,10 @@
         <v>41</v>
       </c>
       <c r="F393" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G393" s="5" t="s">
         <v>1099</v>
-      </c>
-      <c r="G393" s="5" t="s">
-        <v>1100</v>
       </c>
       <c r="H393" s="5"/>
       <c r="I393" s="5" t="s">
@@ -17226,7 +17234,7 @@
     </row>
     <row r="394" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" s="2" t="s">
@@ -17236,7 +17244,7 @@
         <v>14</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2" t="s">
@@ -17252,7 +17260,7 @@
     </row>
     <row r="395" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B395" s="5"/>
       <c r="C395" s="5" t="s">
@@ -17265,14 +17273,14 @@
         <v>41</v>
       </c>
       <c r="F395" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G395" s="5" t="s">
         <v>1103</v>
-      </c>
-      <c r="G395" s="5" t="s">
-        <v>1104</v>
       </c>
       <c r="H395" s="5"/>
       <c r="I395" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J395" s="5" t="s">
         <v>259</v>
@@ -17280,7 +17288,7 @@
     </row>
     <row r="396" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B396" s="5"/>
       <c r="C396" s="5" t="s">
@@ -17293,10 +17301,10 @@
         <v>41</v>
       </c>
       <c r="F396" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G396" s="5" t="s">
         <v>1107</v>
-      </c>
-      <c r="G396" s="5" t="s">
-        <v>1108</v>
       </c>
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
@@ -17306,10 +17314,10 @@
     </row>
     <row r="397" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B397" s="3" t="s">
         <v>1109</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>1110</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>13</v>
@@ -17321,17 +17329,17 @@
         <v>41</v>
       </c>
       <c r="F397" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G397" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="G397" s="3" t="s">
-        <v>1112</v>
       </c>
       <c r="H397" s="3"/>
       <c r="I397" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K397" s="3" t="s">
         <v>44</v>
@@ -17339,10 +17347,10 @@
     </row>
     <row r="398" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B398" s="5" t="s">
         <v>1114</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>1115</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>73</v>
@@ -17354,22 +17362,22 @@
         <v>41</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G398" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H398" s="5"/>
       <c r="I398" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="399" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B399" s="3">
         <v>2</v>
@@ -17384,7 +17392,7 @@
         <v>41</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G399" s="3" t="s">
         <v>179</v>
@@ -17400,10 +17408,10 @@
     </row>
     <row r="400" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>1120</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>13</v>
@@ -17412,7 +17420,7 @@
         <v>53</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>397</v>
@@ -17430,10 +17438,10 @@
     </row>
     <row r="401" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B401" s="3" t="s">
         <v>1119</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>1120</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>13</v>
@@ -17445,7 +17453,7 @@
         <v>41</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G401" s="3" t="s">
         <v>29</v>
@@ -17463,10 +17471,10 @@
     </row>
     <row r="402" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B402" s="5" t="s">
         <v>1122</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>1123</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>63</v>
@@ -17478,7 +17486,7 @@
         <v>41</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>66</v>
@@ -17493,7 +17501,7 @@
     </row>
     <row r="403" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B403" s="5"/>
       <c r="C403" s="5" t="s">
@@ -17506,15 +17514,15 @@
         <v>41</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
       <c r="J403" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="404" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17531,21 +17539,21 @@
         <v>14</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
       <c r="J404" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="405" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B405" s="5"/>
       <c r="C405" s="5" t="s">
@@ -17558,10 +17566,10 @@
         <v>41</v>
       </c>
       <c r="F405" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G405" s="5" t="s">
         <v>1130</v>
-      </c>
-      <c r="G405" s="5" t="s">
-        <v>1131</v>
       </c>
       <c r="H405" s="5"/>
       <c r="I405" s="5" t="s">
@@ -17571,7 +17579,7 @@
     </row>
     <row r="406" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B406" s="3">
         <v>4.9000000000000004</v>
@@ -17586,7 +17594,7 @@
         <v>41</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G406" s="3" t="s">
         <v>49</v>
@@ -17602,10 +17610,10 @@
     </row>
     <row r="407" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>1134</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>13</v>
@@ -17625,15 +17633,15 @@
       <c r="H407" s="2"/>
       <c r="I407" s="2"/>
       <c r="J407" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="408" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B408" s="3" t="s">
         <v>1134</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>1135</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>13</v>
@@ -17645,7 +17653,7 @@
         <v>41</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>398</v>
@@ -17653,7 +17661,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K408" s="3" t="s">
         <v>44</v>
@@ -17661,10 +17669,10 @@
     </row>
     <row r="409" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>1138</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>1139</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>13</v>
@@ -17679,7 +17687,7 @@
         <v>397</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H409" s="2" t="s">
         <v>399</v>
@@ -17693,10 +17701,10 @@
     </row>
     <row r="410" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B410" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>1139</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>13</v>
@@ -17711,7 +17719,7 @@
         <v>402</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H410" s="3" t="s">
         <v>399</v>
@@ -17728,10 +17736,10 @@
     </row>
     <row r="411" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>13</v>
@@ -17746,7 +17754,7 @@
         <v>397</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>399</v>
@@ -17760,10 +17768,10 @@
     </row>
     <row r="412" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>13</v>
@@ -17778,7 +17786,7 @@
         <v>402</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H412" s="3" t="s">
         <v>399</v>
@@ -17795,10 +17803,10 @@
     </row>
     <row r="413" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>13</v>
@@ -17813,7 +17821,7 @@
         <v>397</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>399</v>
@@ -17827,10 +17835,10 @@
     </row>
     <row r="414" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>13</v>
@@ -17845,7 +17853,7 @@
         <v>402</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H414" s="3" t="s">
         <v>399</v>
@@ -17862,10 +17870,10 @@
     </row>
     <row r="415" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>1144</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>13</v>
@@ -17880,7 +17888,7 @@
         <v>397</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H415" s="2" t="s">
         <v>399</v>
@@ -17894,10 +17902,10 @@
     </row>
     <row r="416" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B416" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>1144</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>13</v>
@@ -17912,7 +17920,7 @@
         <v>402</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H416" s="3" t="s">
         <v>399</v>
@@ -17929,10 +17937,10 @@
     </row>
     <row r="417" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>1146</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>63</v>
@@ -17947,7 +17955,7 @@
         <v>397</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H417" s="2" t="s">
         <v>399</v>
@@ -17961,10 +17969,10 @@
     </row>
     <row r="418" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B418" s="3" t="s">
         <v>1145</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>1146</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>63</v>
@@ -17976,10 +17984,10 @@
         <v>41</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H418" s="3" t="s">
         <v>399</v>
@@ -17996,10 +18004,10 @@
     </row>
     <row r="419" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>13</v>
@@ -18028,10 +18036,10 @@
     </row>
     <row r="420" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B420" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>1149</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>13</v>
@@ -18046,7 +18054,7 @@
         <v>402</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H420" s="3" t="s">
         <v>399</v>
@@ -18063,7 +18071,7 @@
     </row>
     <row r="421" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" s="2" t="s">
@@ -18073,7 +18081,7 @@
         <v>14</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" s="2" t="s">
@@ -18082,12 +18090,12 @@
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
       <c r="J421" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="422" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>970</v>
@@ -18102,7 +18110,7 @@
         <v>41</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>113</v>
@@ -18118,10 +18126,10 @@
     </row>
     <row r="423" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B423" s="15" t="s">
         <v>1153</v>
-      </c>
-      <c r="B423" s="15" t="s">
-        <v>1154</v>
       </c>
       <c r="C423" s="15" t="s">
         <v>13</v>
@@ -18142,12 +18150,12 @@
         <v>454</v>
       </c>
       <c r="K423" s="15" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="424" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B424" s="5"/>
       <c r="C424" s="5" t="s">
@@ -18160,20 +18168,20 @@
         <v>41</v>
       </c>
       <c r="F424" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G424" s="5" t="s">
         <v>1156</v>
-      </c>
-      <c r="G424" s="5" t="s">
-        <v>1157</v>
       </c>
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
       <c r="J424" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="425" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B425" s="5"/>
       <c r="C425" s="5" t="s">
@@ -18186,20 +18194,20 @@
         <v>41</v>
       </c>
       <c r="F425" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G425" s="5" t="s">
         <v>1159</v>
-      </c>
-      <c r="G425" s="5" t="s">
-        <v>1160</v>
       </c>
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
       <c r="J425" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="426" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B426" s="5"/>
       <c r="C426" s="5" t="s">
@@ -18212,23 +18220,23 @@
         <v>41</v>
       </c>
       <c r="F426" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G426" s="5" t="s">
         <v>1163</v>
-      </c>
-      <c r="G426" s="5" t="s">
-        <v>1164</v>
       </c>
       <c r="H426" s="5"/>
       <c r="I426" s="5"/>
       <c r="J426" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="427" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B427" s="5" t="s">
         <v>1166</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>1167</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>13</v>
@@ -18240,7 +18248,7 @@
         <v>41</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G427" s="5" t="s">
         <v>648</v>
@@ -18253,10 +18261,10 @@
     </row>
     <row r="428" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B428" s="5" t="s">
         <v>1169</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>1170</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>13</v>
@@ -18268,7 +18276,7 @@
         <v>41</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G428" s="5" t="s">
         <v>648</v>
@@ -18281,10 +18289,10 @@
     </row>
     <row r="429" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B429" s="5" t="s">
         <v>1172</v>
-      </c>
-      <c r="B429" s="5" t="s">
-        <v>1173</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>13</v>
@@ -18296,7 +18304,7 @@
         <v>41</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G429" s="5" t="s">
         <v>648</v>
@@ -18309,7 +18317,7 @@
     </row>
     <row r="430" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B430" s="5" t="s">
         <v>205</v>
@@ -18324,7 +18332,7 @@
         <v>41</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G430" s="5" t="s">
         <v>648</v>
@@ -18337,10 +18345,10 @@
     </row>
     <row r="431" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B431" s="5" t="s">
         <v>1177</v>
-      </c>
-      <c r="B431" s="5" t="s">
-        <v>1178</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>13</v>
@@ -18352,7 +18360,7 @@
         <v>41</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G431" s="5" t="s">
         <v>648</v>
@@ -18365,10 +18373,10 @@
     </row>
     <row r="432" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B432" s="5" t="s">
         <v>1180</v>
-      </c>
-      <c r="B432" s="5" t="s">
-        <v>1181</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>13</v>
@@ -18380,7 +18388,7 @@
         <v>41</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G432" s="5" t="s">
         <v>648</v>
@@ -18393,7 +18401,7 @@
     </row>
     <row r="433" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B433" s="5" t="s">
         <v>118</v>
@@ -18408,7 +18416,7 @@
         <v>41</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G433" s="5" t="s">
         <v>648</v>
@@ -18421,10 +18429,10 @@
     </row>
     <row r="434" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B434" s="5" t="s">
         <v>1185</v>
-      </c>
-      <c r="B434" s="5" t="s">
-        <v>1186</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>13</v>
@@ -18436,7 +18444,7 @@
         <v>41</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G434" s="5" t="s">
         <v>648</v>
@@ -18449,7 +18457,7 @@
     </row>
     <row r="435" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B435" s="5" t="s">
         <v>205</v>
@@ -18464,7 +18472,7 @@
         <v>41</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G435" s="5" t="s">
         <v>648</v>
@@ -18477,7 +18485,7 @@
     </row>
     <row r="436" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B436" s="5" t="s">
         <v>476</v>
@@ -18492,7 +18500,7 @@
         <v>41</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G436" s="5" t="s">
         <v>648</v>
@@ -18505,10 +18513,10 @@
     </row>
     <row r="437" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B437" s="5" t="s">
         <v>1192</v>
-      </c>
-      <c r="B437" s="5" t="s">
-        <v>1193</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>13</v>
@@ -18520,7 +18528,7 @@
         <v>41</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G437" s="5" t="s">
         <v>648</v>
@@ -18533,7 +18541,7 @@
     </row>
     <row r="438" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B438" s="5" t="s">
         <v>205</v>
@@ -18548,7 +18556,7 @@
         <v>41</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G438" s="5" t="s">
         <v>648</v>
@@ -18561,7 +18569,7 @@
     </row>
     <row r="439" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B439" s="2"/>
       <c r="C439" s="2" t="s">
@@ -18571,7 +18579,7 @@
         <v>14</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F439" s="2"/>
       <c r="G439" s="2" t="s">
@@ -18585,7 +18593,7 @@
     </row>
     <row r="440" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B440" s="5"/>
       <c r="C440" s="5" t="s">
@@ -18598,10 +18606,10 @@
         <v>41</v>
       </c>
       <c r="F440" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G440" s="5" t="s">
         <v>1199</v>
-      </c>
-      <c r="G440" s="5" t="s">
-        <v>1200</v>
       </c>
       <c r="H440" s="5"/>
       <c r="I440" s="5" t="s">
@@ -18613,10 +18621,10 @@
     </row>
     <row r="441" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>1201</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>1202</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>110</v>
@@ -18645,7 +18653,7 @@
     </row>
     <row r="442" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>109</v>
@@ -18660,7 +18668,7 @@
         <v>111</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G442" s="2" t="s">
         <v>113</v>
@@ -18673,7 +18681,7 @@
     </row>
     <row r="443" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>109</v>
@@ -18688,7 +18696,7 @@
         <v>41</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G443" s="3" t="s">
         <v>113</v>
@@ -18704,7 +18712,7 @@
     </row>
     <row r="444" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B444" s="3">
         <v>3.1</v>
@@ -18737,19 +18745,19 @@
     </row>
     <row r="445" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B445" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="C445" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D445" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D445" s="2" t="s">
+      <c r="E445" s="2" t="s">
         <v>1209</v>
-      </c>
-      <c r="E445" s="2" t="s">
-        <v>1210</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>397</v>
@@ -18767,7 +18775,7 @@
     </row>
     <row r="446" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B446" s="3">
         <v>7</v>
@@ -18782,7 +18790,7 @@
         <v>41</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G446" s="3" t="s">
         <v>49</v>
@@ -18796,12 +18804,12 @@
         <v>413</v>
       </c>
       <c r="L446" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="447" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B447" s="3">
         <v>6</v>
@@ -18816,7 +18824,7 @@
         <v>41</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G447" s="3" t="s">
         <v>49</v>
@@ -18830,12 +18838,12 @@
         <v>413</v>
       </c>
       <c r="L447" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="448" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B448" s="3">
         <v>7</v>
@@ -18850,7 +18858,7 @@
         <v>41</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>49</v>
@@ -18866,7 +18874,7 @@
     </row>
     <row r="449" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B449" s="3">
         <v>2</v>
@@ -18881,7 +18889,7 @@
         <v>41</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G449" s="3" t="s">
         <v>49</v>
@@ -18895,15 +18903,15 @@
         <v>640</v>
       </c>
       <c r="L449" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="450" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B450" s="5" t="s">
         <v>1222</v>
-      </c>
-      <c r="B450" s="5" t="s">
-        <v>1223</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>63</v>
@@ -18915,7 +18923,7 @@
         <v>41</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G450" s="5" t="s">
         <v>317</v>
@@ -18930,22 +18938,22 @@
     </row>
     <row r="451" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B451" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="B451" s="3" t="s">
+      <c r="C451" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D451" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="C451" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D451" s="3" t="s">
+      <c r="E451" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F451" s="3" t="s">
         <v>1227</v>
-      </c>
-      <c r="E451" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F451" s="3" t="s">
-        <v>1228</v>
       </c>
       <c r="G451" s="3" t="s">
         <v>671</v>
@@ -18953,7 +18961,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K451" s="3" t="s">
         <v>44</v>
@@ -18961,10 +18969,10 @@
     </row>
     <row r="452" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B452" s="3" t="s">
         <v>1230</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>1231</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>13</v>
@@ -18976,7 +18984,7 @@
         <v>41</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G452" s="3" t="s">
         <v>671</v>
@@ -18984,7 +18992,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K452" s="3" t="s">
         <v>44</v>
@@ -18992,22 +19000,22 @@
     </row>
     <row r="453" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B453" s="3" t="s">
         <v>1233</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>1234</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G453" s="3" t="s">
         <v>75</v>
@@ -19023,7 +19031,7 @@
     </row>
     <row r="454" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B454" s="2"/>
       <c r="C454" s="2" t="s">
@@ -19033,7 +19041,7 @@
         <v>14</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F454" s="2"/>
       <c r="G454" s="2" t="s">
@@ -19047,7 +19055,7 @@
     </row>
     <row r="455" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B455" s="3">
         <v>5.3</v>
@@ -19056,13 +19064,13 @@
         <v>63</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E455" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>75</v>
@@ -19078,7 +19086,7 @@
     </row>
     <row r="456" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" s="2" t="s">
@@ -19088,7 +19096,7 @@
         <v>14</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F456" s="2"/>
       <c r="G456" s="2" t="s">
@@ -19102,7 +19110,7 @@
     </row>
     <row r="457" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B457" s="2"/>
       <c r="C457" s="2" t="s">
@@ -19112,7 +19120,7 @@
         <v>14</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" s="2" t="s">
@@ -19126,7 +19134,7 @@
     </row>
     <row r="458" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>970</v>
@@ -19141,7 +19149,7 @@
         <v>41</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G458" s="3" t="s">
         <v>113</v>
@@ -19157,7 +19165,7 @@
     </row>
     <row r="459" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B459" s="2"/>
       <c r="C459" s="2" t="s">
@@ -19167,7 +19175,7 @@
         <v>14</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" s="2" t="s">
@@ -19181,10 +19189,10 @@
     </row>
     <row r="460" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B460" s="2" t="s">
         <v>1244</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>1245</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>13</v>
@@ -19193,10 +19201,10 @@
         <v>53</v>
       </c>
       <c r="E460" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F460" s="2" t="s">
         <v>1246</v>
-      </c>
-      <c r="F460" s="2" t="s">
-        <v>1247</v>
       </c>
       <c r="G460" s="2" t="s">
         <v>542</v>
@@ -19211,10 +19219,10 @@
     </row>
     <row r="461" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B461" s="3" t="s">
         <v>1244</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>1245</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>13</v>
@@ -19226,7 +19234,7 @@
         <v>41</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G461" s="3" t="s">
         <v>542</v>
@@ -19244,10 +19252,10 @@
     </row>
     <row r="462" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B462" s="5" t="s">
         <v>1249</v>
-      </c>
-      <c r="B462" s="5" t="s">
-        <v>1250</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>73</v>
@@ -19259,7 +19267,7 @@
         <v>41</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G462" s="5" t="s">
         <v>936</v>
@@ -19272,10 +19280,10 @@
     </row>
     <row r="463" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="15" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B463" s="15" t="s">
         <v>1252</v>
-      </c>
-      <c r="B463" s="15" t="s">
-        <v>1253</v>
       </c>
       <c r="C463" s="15" t="s">
         <v>13</v>
@@ -19296,12 +19304,12 @@
         <v>454</v>
       </c>
       <c r="K463" s="20" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="464" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>109</v>
@@ -19329,7 +19337,7 @@
     </row>
     <row r="465" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>109</v>
@@ -19344,7 +19352,7 @@
         <v>41</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G465" s="3" t="s">
         <v>113</v>
@@ -19360,7 +19368,7 @@
     </row>
     <row r="466" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>109</v>
@@ -19388,7 +19396,7 @@
     </row>
     <row r="467" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>109</v>
@@ -19403,7 +19411,7 @@
         <v>41</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G467" s="3" t="s">
         <v>113</v>
@@ -19419,13 +19427,13 @@
     </row>
     <row r="468" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B468" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="B468" s="5" t="s">
-        <v>1259</v>
-      </c>
       <c r="C468" s="5" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D468" s="5" t="s">
         <v>64</v>
@@ -19434,37 +19442,37 @@
         <v>41</v>
       </c>
       <c r="F468" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G468" s="5" t="s">
         <v>1260</v>
-      </c>
-      <c r="G468" s="5" t="s">
-        <v>1261</v>
       </c>
       <c r="H468" s="5"/>
       <c r="I468" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J468" s="5" t="s">
         <v>1262</v>
-      </c>
-      <c r="J468" s="5" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="469" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B469" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="C469" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E469" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F469" s="3" t="s">
         <v>1265</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E469" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F469" s="3" t="s">
-        <v>1266</v>
       </c>
       <c r="G469" s="3" t="s">
         <v>66</v>
@@ -19482,7 +19490,7 @@
     </row>
     <row r="470" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B470" s="2"/>
       <c r="C470" s="2" t="s">
@@ -19492,24 +19500,24 @@
         <v>14</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F470" s="2"/>
       <c r="G470" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H470" s="6"/>
       <c r="I470" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J470" s="2"/>
     </row>
     <row r="471" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B471" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>1271</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>13</v>
@@ -19518,10 +19526,10 @@
         <v>53</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G471" s="2" t="s">
         <v>542</v>
@@ -19536,10 +19544,10 @@
     </row>
     <row r="472" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B472" s="3" t="s">
         <v>1270</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>1271</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>13</v>
@@ -19551,7 +19559,7 @@
         <v>41</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G472" s="3" t="s">
         <v>542</v>
@@ -19569,7 +19577,7 @@
     </row>
     <row r="473" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>109</v>
@@ -19597,7 +19605,7 @@
     </row>
     <row r="474" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>109</v>
@@ -19612,7 +19620,7 @@
         <v>41</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G474" s="3" t="s">
         <v>113</v>
@@ -19628,7 +19636,7 @@
     </row>
     <row r="475" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B475" s="2"/>
       <c r="C475" s="2" t="s">
@@ -19638,27 +19646,27 @@
         <v>14</v>
       </c>
       <c r="E475" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F475" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="F475" s="2" t="s">
+      <c r="G475" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="G475" s="2" t="s">
-        <v>1277</v>
       </c>
       <c r="H475" s="2" t="s">
         <v>399</v>
       </c>
       <c r="I475" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J475" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="J475" s="2" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="476" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B476" s="5"/>
       <c r="C476" s="5" t="s">
@@ -19671,7 +19679,7 @@
         <v>41</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G476" s="5" t="s">
         <v>138</v>
@@ -19684,7 +19692,7 @@
     </row>
     <row r="477" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>498</v>
@@ -19712,7 +19720,7 @@
     </row>
     <row r="478" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>498</v>
@@ -19727,7 +19735,7 @@
         <v>41</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G478" s="3" t="s">
         <v>491</v>
@@ -19743,7 +19751,7 @@
     </row>
     <row r="479" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B479" s="2"/>
       <c r="C479" s="2" t="s">
@@ -19753,7 +19761,7 @@
         <v>14</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F479" s="2"/>
       <c r="G479" s="2" t="s">
@@ -19767,7 +19775,7 @@
     </row>
     <row r="480" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B480" s="2"/>
       <c r="C480" s="2" t="s">
@@ -19777,7 +19785,7 @@
         <v>14</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F480" s="2"/>
       <c r="G480" s="2" t="s">
@@ -19791,7 +19799,7 @@
     </row>
     <row r="481" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B481" s="5"/>
       <c r="C481" s="5" t="s">
@@ -19804,7 +19812,7 @@
         <v>41</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G481" s="5" t="s">
         <v>96</v>
@@ -19819,7 +19827,7 @@
     </row>
     <row r="482" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B482" s="2"/>
       <c r="C482" s="2" t="s">
@@ -19829,7 +19837,7 @@
         <v>14</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F482" s="2"/>
       <c r="G482" s="2" t="s">
@@ -19840,12 +19848,12 @@
         <v>543</v>
       </c>
       <c r="J482" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="483" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B483" s="5" t="s">
         <v>205</v>
@@ -19860,22 +19868,22 @@
         <v>41</v>
       </c>
       <c r="F483" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G483" s="5" t="s">
         <v>1291</v>
-      </c>
-      <c r="G483" s="5" t="s">
-        <v>1292</v>
       </c>
       <c r="H483" s="5"/>
       <c r="I483" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J483" s="5" t="s">
         <v>1293</v>
-      </c>
-      <c r="J483" s="5" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="484" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>109</v>
@@ -19903,7 +19911,7 @@
     </row>
     <row r="485" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>109</v>
@@ -19918,7 +19926,7 @@
         <v>41</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G485" s="3" t="s">
         <v>113</v>
@@ -19934,7 +19942,7 @@
     </row>
     <row r="486" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B486" s="3">
         <v>2.6</v>
@@ -19949,7 +19957,7 @@
         <v>41</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G486" s="3" t="s">
         <v>66</v>
@@ -19967,7 +19975,7 @@
     </row>
     <row r="487" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B487" s="3">
         <v>3.2</v>
@@ -19982,7 +19990,7 @@
         <v>41</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>66</v>
@@ -19998,12 +20006,12 @@
         <v>154</v>
       </c>
       <c r="L487" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="488" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>109</v>
@@ -20031,7 +20039,7 @@
     </row>
     <row r="489" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>109</v>
@@ -20046,7 +20054,7 @@
         <v>41</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G489" s="3" t="s">
         <v>113</v>
@@ -20062,7 +20070,7 @@
     </row>
     <row r="490" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>109</v>
@@ -20090,7 +20098,7 @@
     </row>
     <row r="491" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>109</v>
@@ -20105,7 +20113,7 @@
         <v>41</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G491" s="3" t="s">
         <v>113</v>
@@ -20121,7 +20129,7 @@
     </row>
     <row r="492" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B492" s="3">
         <v>5</v>
@@ -20136,7 +20144,7 @@
         <v>41</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G492" s="3" t="s">
         <v>66</v>
@@ -20152,12 +20160,12 @@
         <v>640</v>
       </c>
       <c r="L492" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="493" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>109</v>
@@ -20185,7 +20193,7 @@
     </row>
     <row r="494" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>109</v>
@@ -20200,7 +20208,7 @@
         <v>41</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>113</v>
@@ -20216,7 +20224,7 @@
     </row>
     <row r="495" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>109</v>
@@ -20244,7 +20252,7 @@
     </row>
     <row r="496" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>109</v>
@@ -20259,7 +20267,7 @@
         <v>41</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G496" s="3" t="s">
         <v>113</v>
@@ -20275,7 +20283,7 @@
     </row>
     <row r="497" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>109</v>
@@ -20303,7 +20311,7 @@
     </row>
     <row r="498" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>109</v>
@@ -20318,7 +20326,7 @@
         <v>41</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G498" s="3" t="s">
         <v>113</v>
@@ -20334,7 +20342,7 @@
     </row>
     <row r="499" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>109</v>
@@ -20362,7 +20370,7 @@
     </row>
     <row r="500" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>109</v>
@@ -20377,7 +20385,7 @@
         <v>41</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G500" s="3" t="s">
         <v>113</v>
@@ -20393,7 +20401,7 @@
     </row>
     <row r="501" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>109</v>
@@ -20421,7 +20429,7 @@
     </row>
     <row r="502" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>109</v>
@@ -20436,7 +20444,7 @@
         <v>41</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G502" s="3" t="s">
         <v>113</v>
@@ -20452,7 +20460,7 @@
     </row>
     <row r="503" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B503" s="2"/>
       <c r="C503" s="2" t="s">
@@ -20462,7 +20470,7 @@
         <v>14</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F503" s="2"/>
       <c r="G503" s="2" t="s">
@@ -20476,10 +20484,10 @@
     </row>
     <row r="504" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B504" s="5" t="s">
         <v>1320</v>
-      </c>
-      <c r="B504" s="5" t="s">
-        <v>1321</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>182</v>
@@ -20491,22 +20499,22 @@
         <v>41</v>
       </c>
       <c r="F504" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G504" s="5" t="s">
         <v>1322</v>
-      </c>
-      <c r="G504" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="H504" s="5"/>
       <c r="I504" s="5" t="s">
         <v>520</v>
       </c>
       <c r="J504" s="5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="505" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>109</v>
@@ -20534,7 +20542,7 @@
     </row>
     <row r="506" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>109</v>
@@ -20549,7 +20557,7 @@
         <v>41</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G506" s="3" t="s">
         <v>113</v>
@@ -20565,7 +20573,7 @@
     </row>
     <row r="507" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B507" s="2">
         <v>2.2999999999999998</v>
@@ -20577,7 +20585,7 @@
         <v>53</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>23</v>
@@ -20595,7 +20603,7 @@
     </row>
     <row r="508" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B508" s="3">
         <v>2.2999999999999998</v>
@@ -20610,7 +20618,7 @@
         <v>41</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G508" s="3" t="s">
         <v>542</v>
@@ -20628,7 +20636,7 @@
     </row>
     <row r="509" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>109</v>
@@ -20656,7 +20664,7 @@
     </row>
     <row r="510" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>109</v>
@@ -20671,7 +20679,7 @@
         <v>41</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G510" s="3" t="s">
         <v>113</v>
@@ -20687,10 +20695,10 @@
     </row>
     <row r="511" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B511" s="5" t="s">
         <v>1332</v>
-      </c>
-      <c r="B511" s="5" t="s">
-        <v>1333</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>182</v>
@@ -20702,10 +20710,10 @@
         <v>41</v>
       </c>
       <c r="F511" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G511" s="5" t="s">
         <v>1334</v>
-      </c>
-      <c r="G511" s="5" t="s">
-        <v>1335</v>
       </c>
       <c r="H511" s="5"/>
       <c r="I511" s="5" t="s">
@@ -20715,10 +20723,10 @@
     </row>
     <row r="512" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B512" s="3" t="s">
         <v>1332</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>1333</v>
       </c>
       <c r="C512" s="3" t="s">
         <v>182</v>
@@ -20730,10 +20738,10 @@
         <v>41</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H512" s="3"/>
       <c r="I512" s="3" t="s">
@@ -20746,10 +20754,10 @@
     </row>
     <row r="513" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B513" s="5" t="s">
         <v>1337</v>
-      </c>
-      <c r="B513" s="5" t="s">
-        <v>1338</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>13</v>
@@ -20761,10 +20769,10 @@
         <v>41</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G513" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H513" s="5"/>
       <c r="I513" s="5" t="s">
@@ -20774,7 +20782,7 @@
     </row>
     <row r="514" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B514" s="5"/>
       <c r="C514" s="5" t="s">
@@ -20787,10 +20795,10 @@
         <v>41</v>
       </c>
       <c r="F514" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G514" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H514" s="5"/>
       <c r="I514" s="5" t="s">
@@ -20800,10 +20808,10 @@
     </row>
     <row r="515" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B515" s="3" t="s">
         <v>1337</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>1338</v>
       </c>
       <c r="C515" s="3" t="s">
         <v>13</v>
@@ -20815,10 +20823,10 @@
         <v>41</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H515" s="3"/>
       <c r="I515" s="3" t="s">
@@ -20831,7 +20839,7 @@
     </row>
     <row r="516" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>109</v>
@@ -20859,7 +20867,7 @@
     </row>
     <row r="517" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>109</v>
@@ -20874,7 +20882,7 @@
         <v>41</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G517" s="3" t="s">
         <v>113</v>
@@ -20890,7 +20898,7 @@
     </row>
     <row r="518" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B518" s="2"/>
       <c r="C518" s="2" t="s">
@@ -20900,7 +20908,7 @@
         <v>14</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F518" s="2"/>
       <c r="G518" s="2" t="s">
@@ -20916,7 +20924,7 @@
     </row>
     <row r="519" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B519" s="3">
         <v>6</v>
@@ -20925,13 +20933,13 @@
         <v>13</v>
       </c>
       <c r="D519" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E519" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F519" s="3" t="s">
         <v>1346</v>
-      </c>
-      <c r="E519" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F519" s="3" t="s">
-        <v>1347</v>
       </c>
       <c r="G519" s="3" t="s">
         <v>66</v>
@@ -20949,7 +20957,7 @@
     </row>
     <row r="520" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B520" s="2"/>
       <c r="C520" s="2" t="s">
@@ -20959,7 +20967,7 @@
         <v>14</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F520" s="2"/>
       <c r="G520" s="2" t="s">
@@ -20975,7 +20983,7 @@
     </row>
     <row r="521" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B521" s="3">
         <v>1</v>
@@ -20990,7 +20998,7 @@
         <v>41</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G521" s="3" t="s">
         <v>49</v>
@@ -21004,15 +21012,15 @@
         <v>460</v>
       </c>
       <c r="L521" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="522" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B522" s="5" t="s">
         <v>1352</v>
-      </c>
-      <c r="B522" s="5" t="s">
-        <v>1353</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>13</v>
@@ -21024,7 +21032,7 @@
         <v>41</v>
       </c>
       <c r="F522" s="5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G522" s="5" t="s">
         <v>96</v>
@@ -21039,7 +21047,7 @@
     </row>
     <row r="523" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B523" s="5"/>
       <c r="C523" s="5" t="s">
@@ -21052,7 +21060,7 @@
         <v>41</v>
       </c>
       <c r="F523" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G523" s="5" t="s">
         <v>96</v>
@@ -21067,7 +21075,7 @@
     </row>
     <row r="524" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>211</v>
@@ -21098,7 +21106,7 @@
     </row>
     <row r="525" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>81</v>
@@ -21110,7 +21118,7 @@
         <v>14</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>23</v>
@@ -21128,7 +21136,7 @@
     </row>
     <row r="526" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B526" s="3">
         <v>1.1000000000000001</v>
@@ -21159,7 +21167,7 @@
     </row>
     <row r="527" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B527" s="5"/>
       <c r="C527" s="5" t="s">
@@ -21172,7 +21180,7 @@
         <v>41</v>
       </c>
       <c r="F527" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G527" s="5" t="s">
         <v>66</v>
@@ -21187,7 +21195,7 @@
     </row>
     <row r="528" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B528" s="3">
         <v>7.3</v>
@@ -21202,7 +21210,7 @@
         <v>41</v>
       </c>
       <c r="F528" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G528" s="3" t="s">
         <v>66</v>
@@ -21218,12 +21226,12 @@
         <v>640</v>
       </c>
       <c r="L528" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="529" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>498</v>
@@ -21251,7 +21259,7 @@
     </row>
     <row r="530" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>498</v>
@@ -21266,7 +21274,7 @@
         <v>41</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G530" s="3" t="s">
         <v>491</v>
@@ -21282,7 +21290,7 @@
     </row>
     <row r="531" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>498</v>
@@ -21310,7 +21318,7 @@
     </row>
     <row r="532" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>498</v>
@@ -21325,7 +21333,7 @@
         <v>41</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G532" s="3" t="s">
         <v>491</v>
@@ -21341,7 +21349,7 @@
     </row>
     <row r="533" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B533" s="5"/>
       <c r="C533" s="5" t="s">
@@ -21354,7 +21362,7 @@
         <v>41</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G533" s="5" t="s">
         <v>262</v>
@@ -21367,7 +21375,7 @@
     </row>
     <row r="534" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B534" s="5"/>
       <c r="C534" s="5" t="s">
@@ -21380,7 +21388,7 @@
         <v>41</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>96</v>
@@ -21395,10 +21403,10 @@
     </row>
     <row r="535" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>13</v>
@@ -21410,7 +21418,7 @@
         <v>41</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>96</v>
@@ -21425,7 +21433,7 @@
     </row>
     <row r="536" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B536" s="5"/>
       <c r="C536" s="5" t="s">
@@ -21438,7 +21446,7 @@
         <v>41</v>
       </c>
       <c r="F536" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>96</v>
@@ -21453,7 +21461,7 @@
     </row>
     <row r="537" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B537" s="5"/>
       <c r="C537" s="5" t="s">
@@ -21466,42 +21474,42 @@
         <v>41</v>
       </c>
       <c r="F537" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G537" s="5" t="s">
         <v>1378</v>
-      </c>
-      <c r="G537" s="5" t="s">
-        <v>1379</v>
       </c>
       <c r="H537" s="5"/>
       <c r="I537" s="5"/>
       <c r="J537" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="538" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B538" s="3" t="s">
         <v>1381</v>
-      </c>
-      <c r="B538" s="3" t="s">
-        <v>1382</v>
       </c>
       <c r="C538" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E538" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G538" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H538" s="3"/>
       <c r="I538" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J538" s="3"/>
       <c r="K538" s="3" t="s">
@@ -21510,7 +21518,7 @@
     </row>
     <row r="539" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B539" s="2"/>
       <c r="C539" s="2" t="s">
@@ -21520,21 +21528,21 @@
         <v>14</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F539" s="2"/>
       <c r="G539" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H539" s="6"/>
       <c r="I539" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J539" s="2"/>
     </row>
     <row r="540" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B540" s="2"/>
       <c r="C540" s="2" t="s">
@@ -21544,7 +21552,7 @@
         <v>14</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F540" s="2"/>
       <c r="G540" s="2" t="s">
@@ -21558,7 +21566,7 @@
     </row>
     <row r="541" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B541" s="3">
         <v>3.4</v>
@@ -21573,7 +21581,7 @@
         <v>41</v>
       </c>
       <c r="F541" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G541" s="3" t="s">
         <v>66</v>
@@ -21591,7 +21599,7 @@
     </row>
     <row r="542" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>109</v>
@@ -21619,7 +21627,7 @@
     </row>
     <row r="543" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>109</v>
@@ -21634,7 +21642,7 @@
         <v>41</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G543" s="3" t="s">
         <v>113</v>
@@ -21650,7 +21658,7 @@
     </row>
     <row r="544" spans="1:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B544" s="5"/>
       <c r="C544" s="5" t="s">
@@ -21663,20 +21671,20 @@
         <v>41</v>
       </c>
       <c r="F544" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>1390</v>
-      </c>
-      <c r="G544" s="5" t="s">
-        <v>1391</v>
       </c>
       <c r="H544" s="5"/>
       <c r="I544" s="5"/>
       <c r="J544" s="5" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="545" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B545" s="5"/>
       <c r="C545" s="5" t="s">
@@ -21689,48 +21697,48 @@
         <v>41</v>
       </c>
       <c r="F545" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>1393</v>
-      </c>
-      <c r="G545" s="5" t="s">
-        <v>1394</v>
       </c>
       <c r="H545" s="5"/>
       <c r="I545" s="5"/>
       <c r="J545" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="546" spans="1:12" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="14" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B546" s="14"/>
       <c r="C546" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D546" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E546" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F546" s="14" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G546" s="14" t="s">
         <v>1397</v>
-      </c>
-      <c r="G546" s="14" t="s">
-        <v>1398</v>
       </c>
       <c r="H546" s="14"/>
       <c r="I546" s="14" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J546" s="14" t="s">
         <v>1399</v>
-      </c>
-      <c r="J546" s="14" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="547" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B547" s="3">
         <v>6.1</v>
@@ -21739,13 +21747,13 @@
         <v>63</v>
       </c>
       <c r="D547" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E547" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F547" s="3" t="s">
         <v>1402</v>
-      </c>
-      <c r="E547" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F547" s="3" t="s">
-        <v>1403</v>
       </c>
       <c r="G547" s="3" t="s">
         <v>66</v>
@@ -21761,12 +21769,12 @@
         <v>154</v>
       </c>
       <c r="L547" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="548" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>192</v>
@@ -21798,7 +21806,7 @@
     </row>
     <row r="549" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>192</v>
@@ -21813,7 +21821,7 @@
         <v>41</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G549" s="3" t="s">
         <v>449</v>
@@ -21833,10 +21841,10 @@
     </row>
     <row r="550" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B550" s="2" t="s">
         <v>1407</v>
-      </c>
-      <c r="B550" s="2" t="s">
-        <v>1408</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>13</v>
@@ -21848,7 +21856,7 @@
         <v>396</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G550" s="2" t="s">
         <v>449</v>
@@ -21865,10 +21873,10 @@
     </row>
     <row r="551" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B551" s="3" t="s">
         <v>1407</v>
-      </c>
-      <c r="B551" s="3" t="s">
-        <v>1408</v>
       </c>
       <c r="C551" s="3" t="s">
         <v>13</v>
@@ -21900,10 +21908,10 @@
     </row>
     <row r="552" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>13</v>
@@ -21932,10 +21940,10 @@
     </row>
     <row r="553" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C553" s="3" t="s">
         <v>13</v>
@@ -21967,10 +21975,10 @@
     </row>
     <row r="554" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B554" s="2" t="s">
         <v>1411</v>
-      </c>
-      <c r="B554" s="2" t="s">
-        <v>1412</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>63</v>
@@ -21999,10 +22007,10 @@
     </row>
     <row r="555" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B555" s="3" t="s">
         <v>1411</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>1412</v>
       </c>
       <c r="C555" s="3" t="s">
         <v>63</v>
@@ -22014,7 +22022,7 @@
         <v>41</v>
       </c>
       <c r="F555" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G555" s="3" t="s">
         <v>449</v>
@@ -22034,10 +22042,10 @@
     </row>
     <row r="556" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>63</v>
@@ -22052,7 +22060,7 @@
         <v>397</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H556" s="2" t="s">
         <v>399</v>
@@ -22066,10 +22074,10 @@
     </row>
     <row r="557" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C557" s="3" t="s">
         <v>63</v>
@@ -22081,7 +22089,7 @@
         <v>41</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G557" s="3" t="s">
         <v>449</v>
@@ -22101,10 +22109,10 @@
     </row>
     <row r="558" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B558" s="2" t="s">
         <v>1416</v>
-      </c>
-      <c r="B558" s="2" t="s">
-        <v>1417</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>13</v>
@@ -22133,10 +22141,10 @@
     </row>
     <row r="559" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B559" s="3" t="s">
         <v>1416</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>1417</v>
       </c>
       <c r="C559" s="3" t="s">
         <v>13</v>
@@ -22148,7 +22156,7 @@
         <v>41</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G559" s="3" t="s">
         <v>449</v>
@@ -22168,10 +22176,10 @@
     </row>
     <row r="560" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>13</v>
@@ -22200,10 +22208,10 @@
     </row>
     <row r="561" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C561" s="3" t="s">
         <v>13</v>
@@ -22215,7 +22223,7 @@
         <v>41</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G561" s="3" t="s">
         <v>449</v>
@@ -22235,7 +22243,7 @@
     </row>
     <row r="562" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B562" s="5"/>
       <c r="C562" s="5" t="s">
@@ -22248,7 +22256,7 @@
         <v>41</v>
       </c>
       <c r="F562" s="5" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G562" s="5" t="s">
         <v>184</v>
@@ -22261,10 +22269,10 @@
     </row>
     <row r="563" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B563" s="2" t="s">
         <v>1423</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>1424</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>13</v>
@@ -22273,26 +22281,26 @@
         <v>14</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H563" s="2"/>
       <c r="I563" s="2"/>
       <c r="J563" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="564" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>1423</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>1424</v>
       </c>
       <c r="C564" s="3" t="s">
         <v>13</v>
@@ -22304,15 +22312,15 @@
         <v>41</v>
       </c>
       <c r="F564" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G564" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H564" s="3"/>
       <c r="I564" s="3"/>
       <c r="J564" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K564" s="3" t="s">
         <v>44</v>
@@ -22320,7 +22328,7 @@
     </row>
     <row r="565" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B565" s="2" t="s">
         <v>109</v>
@@ -22348,7 +22356,7 @@
     </row>
     <row r="566" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>109</v>
@@ -22363,7 +22371,7 @@
         <v>41</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G566" s="3" t="s">
         <v>113</v>
@@ -22379,7 +22387,7 @@
     </row>
     <row r="567" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B567" s="3">
         <v>7</v>
@@ -22394,7 +22402,7 @@
         <v>41</v>
       </c>
       <c r="F567" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G567" s="3" t="s">
         <v>66</v>
@@ -22412,7 +22420,7 @@
     </row>
     <row r="568" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B568" s="5"/>
       <c r="C568" s="5" t="s">
@@ -22425,7 +22433,7 @@
         <v>41</v>
       </c>
       <c r="F568" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G568" s="5" t="s">
         <v>184</v>
@@ -22438,7 +22446,7 @@
     </row>
     <row r="569" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>109</v>
@@ -22466,7 +22474,7 @@
     </row>
     <row r="570" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>109</v>
@@ -22481,7 +22489,7 @@
         <v>41</v>
       </c>
       <c r="F570" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G570" s="3" t="s">
         <v>113</v>
@@ -22497,7 +22505,7 @@
     </row>
     <row r="571" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B571" s="5"/>
       <c r="C571" s="5" t="s">
@@ -22510,22 +22518,22 @@
         <v>41</v>
       </c>
       <c r="F571" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G571" s="5" t="s">
         <v>1438</v>
-      </c>
-      <c r="G571" s="5" t="s">
-        <v>1439</v>
       </c>
       <c r="H571" s="5"/>
       <c r="I571" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J571" s="5" t="s">
         <v>1440</v>
-      </c>
-      <c r="J571" s="5" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="572" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>109</v>
@@ -22553,7 +22561,7 @@
     </row>
     <row r="573" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>109</v>
@@ -22568,7 +22576,7 @@
         <v>41</v>
       </c>
       <c r="F573" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G573" s="3" t="s">
         <v>113</v>
@@ -22584,10 +22592,10 @@
     </row>
     <row r="574" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B574" s="2" t="s">
         <v>1444</v>
-      </c>
-      <c r="B574" s="2" t="s">
-        <v>1445</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>13</v>
@@ -22596,7 +22604,7 @@
         <v>14</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F574" s="2" t="s">
         <v>800</v>
@@ -22612,7 +22620,7 @@
     </row>
     <row r="575" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>804</v>
@@ -22624,7 +22632,7 @@
         <v>14</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>800</v>
@@ -22640,10 +22648,10 @@
     </row>
     <row r="576" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B576" s="3" t="s">
         <v>1447</v>
-      </c>
-      <c r="B576" s="3" t="s">
-        <v>1448</v>
       </c>
       <c r="C576" s="3" t="s">
         <v>13</v>
@@ -22655,7 +22663,7 @@
         <v>41</v>
       </c>
       <c r="F576" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G576" s="3" t="s">
         <v>253</v>
@@ -22671,10 +22679,10 @@
     </row>
     <row r="577" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B577" s="2" t="s">
         <v>1450</v>
-      </c>
-      <c r="B577" s="2" t="s">
-        <v>1451</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>13</v>
@@ -22683,7 +22691,7 @@
         <v>14</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F577" s="2" t="s">
         <v>800</v>
@@ -22699,7 +22707,7 @@
     </row>
     <row r="578" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B578" s="3">
         <v>1</v>
@@ -22714,7 +22722,7 @@
         <v>41</v>
       </c>
       <c r="F578" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G578" s="3" t="s">
         <v>253</v>
@@ -22730,7 +22738,7 @@
     </row>
     <row r="579" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B579" s="5"/>
       <c r="C579" s="5" t="s">
@@ -22743,7 +22751,7 @@
         <v>41</v>
       </c>
       <c r="F579" s="5" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G579" s="5" t="s">
         <v>599</v>
@@ -22756,10 +22764,10 @@
     </row>
     <row r="580" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B580" s="5" t="s">
         <v>1456</v>
-      </c>
-      <c r="B580" s="5" t="s">
-        <v>1457</v>
       </c>
       <c r="C580" s="5" t="s">
         <v>182</v>
@@ -22771,22 +22779,22 @@
         <v>41</v>
       </c>
       <c r="F580" s="5" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G580" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H580" s="5"/>
       <c r="I580" s="5" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J580" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="581" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B581" s="2"/>
       <c r="C581" s="2" t="s">
@@ -22796,7 +22804,7 @@
         <v>14</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F581" s="2"/>
       <c r="G581" s="2" t="s">
@@ -22810,10 +22818,10 @@
     </row>
     <row r="582" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="15" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B582" s="15" t="s">
         <v>1461</v>
-      </c>
-      <c r="B582" s="15" t="s">
-        <v>1462</v>
       </c>
       <c r="C582" s="15" t="s">
         <v>13</v>
@@ -22839,45 +22847,45 @@
     </row>
     <row r="583" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B583" s="3" t="s">
         <v>1463</v>
       </c>
-      <c r="B583" s="3" t="s">
+      <c r="C583" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D583" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="C583" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D583" s="3" t="s">
+      <c r="E583" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F583" s="3" t="s">
         <v>1465</v>
       </c>
-      <c r="E583" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F583" s="3" t="s">
+      <c r="G583" s="3" t="s">
         <v>1466</v>
-      </c>
-      <c r="G583" s="3" t="s">
-        <v>1467</v>
       </c>
       <c r="H583" s="3" t="s">
         <v>399</v>
       </c>
       <c r="I583" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="J583" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K583" s="3" t="s">
         <v>1468</v>
       </c>
-      <c r="K583" s="3" t="s">
+      <c r="L583" s="3" t="s">
         <v>1469</v>
-      </c>
-      <c r="L583" s="3" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="584" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B584" s="2"/>
       <c r="C584" s="2" t="s">
@@ -22887,40 +22895,40 @@
         <v>14</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F584" s="2"/>
       <c r="G584" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H584" s="6" t="s">
         <v>399</v>
       </c>
       <c r="I584" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="J584" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="585" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B585" s="3" t="s">
         <v>1472</v>
-      </c>
-      <c r="B585" s="3" t="s">
-        <v>1473</v>
       </c>
       <c r="C585" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D585" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E585" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F585" s="3" t="s">
         <v>1474</v>
-      </c>
-      <c r="E585" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F585" s="3" t="s">
-        <v>1475</v>
       </c>
       <c r="G585" s="3" t="s">
         <v>66</v>
@@ -22936,12 +22944,12 @@
         <v>460</v>
       </c>
       <c r="L585" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="586" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B586" s="3">
         <v>6</v>
@@ -22950,13 +22958,13 @@
         <v>182</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E586" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F586" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G586" s="3" t="s">
         <v>66</v>
@@ -22972,12 +22980,12 @@
         <v>460</v>
       </c>
       <c r="L586" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="587" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B587" s="3">
         <v>6.2</v>
@@ -22986,13 +22994,13 @@
         <v>182</v>
       </c>
       <c r="D587" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E587" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F587" s="3" t="s">
         <v>1481</v>
-      </c>
-      <c r="E587" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F587" s="3" t="s">
-        <v>1482</v>
       </c>
       <c r="G587" s="3" t="s">
         <v>66</v>
@@ -23008,15 +23016,15 @@
         <v>460</v>
       </c>
       <c r="L587" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="588" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B588" s="3" t="s">
         <v>1484</v>
-      </c>
-      <c r="B588" s="3" t="s">
-        <v>1485</v>
       </c>
       <c r="C588" s="3" t="s">
         <v>13</v>
@@ -23028,17 +23036,17 @@
         <v>41</v>
       </c>
       <c r="F588" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G588" s="3" t="s">
         <v>1486</v>
-      </c>
-      <c r="G588" s="3" t="s">
-        <v>1487</v>
       </c>
       <c r="H588" s="3" t="s">
         <v>399</v>
       </c>
       <c r="I588" s="3"/>
       <c r="J588" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="K588" s="3" t="s">
         <v>44</v>
@@ -23046,7 +23054,7 @@
     </row>
     <row r="589" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B589" s="2"/>
       <c r="C589" s="2" t="s">
@@ -23056,7 +23064,7 @@
         <v>14</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F589" s="2"/>
       <c r="G589" s="2" t="s">
@@ -23070,7 +23078,7 @@
     </row>
     <row r="590" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B590" s="5"/>
       <c r="C590" s="5" t="s">
@@ -23083,22 +23091,22 @@
         <v>41</v>
       </c>
       <c r="F590" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G590" s="5" t="s">
         <v>1491</v>
-      </c>
-      <c r="G590" s="5" t="s">
-        <v>1492</v>
       </c>
       <c r="H590" s="5"/>
       <c r="I590" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J590" s="5" t="s">
         <v>1493</v>
-      </c>
-      <c r="J590" s="5" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="591" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B591" s="5"/>
       <c r="C591" s="5" t="s">
@@ -23111,24 +23119,24 @@
         <v>41</v>
       </c>
       <c r="F591" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G591" s="5" t="s">
         <v>1496</v>
-      </c>
-      <c r="G591" s="5" t="s">
-        <v>1497</v>
       </c>
       <c r="H591" s="5"/>
       <c r="I591" s="5"/>
       <c r="J591" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="592" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B592" s="5"/>
       <c r="C592" s="5" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D592" s="5" t="s">
         <v>64</v>
@@ -23137,20 +23145,22 @@
         <v>41</v>
       </c>
       <c r="F592" s="5" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="G592" s="5" t="s">
-        <v>1501</v>
+        <v>1791</v>
       </c>
       <c r="H592" s="5"/>
-      <c r="I592" s="5"/>
+      <c r="I592" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J592" s="5" t="s">
-        <v>1502</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="593" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B593" s="3">
         <v>4.4000000000000004</v>
@@ -23165,7 +23175,7 @@
         <v>41</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="G593" s="3" t="s">
         <v>66</v>
@@ -23183,7 +23193,7 @@
     </row>
     <row r="594" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B594" s="2">
         <v>5.0999999999999996</v>
@@ -23195,10 +23205,10 @@
         <v>368</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="G594" s="2" t="s">
         <v>66</v>
@@ -23211,10 +23221,10 @@
     </row>
     <row r="595" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="C595" s="5" t="s">
         <v>13</v>
@@ -23226,22 +23236,22 @@
         <v>41</v>
       </c>
       <c r="F595" s="5" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="G595" s="5" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="H595" s="5"/>
       <c r="I595" s="5" t="s">
         <v>254</v>
       </c>
       <c r="J595" s="5" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="596" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B596" s="3">
         <v>1</v>
@@ -23256,7 +23266,7 @@
         <v>41</v>
       </c>
       <c r="F596" s="3" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G596" s="3" t="s">
         <v>599</v>
@@ -23270,12 +23280,12 @@
         <v>640</v>
       </c>
       <c r="L596" s="3" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="597" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B597" s="5"/>
       <c r="C597" s="5" t="s">
@@ -23288,7 +23298,7 @@
         <v>41</v>
       </c>
       <c r="F597" s="5" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="G597" s="5" t="s">
         <v>599</v>
@@ -23301,7 +23311,7 @@
     </row>
     <row r="598" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B598" s="2" t="s">
         <v>804</v>
@@ -23313,7 +23323,7 @@
         <v>14</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="F598" s="2" t="s">
         <v>800</v>
@@ -23329,7 +23339,7 @@
     </row>
     <row r="599" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="B599" s="2" t="s">
         <v>109</v>
@@ -23357,7 +23367,7 @@
     </row>
     <row r="600" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>109</v>
@@ -23372,7 +23382,7 @@
         <v>41</v>
       </c>
       <c r="F600" s="3" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="G600" s="3" t="s">
         <v>113</v>
@@ -23388,10 +23398,10 @@
     </row>
     <row r="601" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>13</v>
@@ -23400,10 +23410,10 @@
         <v>14</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="G601" s="2" t="s">
         <v>17</v>
@@ -23418,7 +23428,7 @@
     </row>
     <row r="602" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="B602" s="3">
         <v>11</v>
@@ -23427,7 +23437,7 @@
         <v>13</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E602" s="4" t="s">
         <v>41</v>
@@ -23451,7 +23461,7 @@
     </row>
     <row r="603" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B603" s="2"/>
       <c r="C603" s="2" t="s">
@@ -23461,7 +23471,7 @@
         <v>14</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="F603" s="2"/>
       <c r="G603" s="2" t="s">
@@ -23475,7 +23485,7 @@
     </row>
     <row r="604" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B604" s="2"/>
       <c r="C604" s="2" t="s">
@@ -23485,7 +23495,7 @@
         <v>14</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="F604" s="2"/>
       <c r="G604" s="2" t="s">
@@ -23499,7 +23509,7 @@
     </row>
     <row r="605" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B605" s="2"/>
       <c r="C605" s="2" t="s">
@@ -23509,7 +23519,7 @@
         <v>14</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="F605" s="2"/>
       <c r="G605" s="2" t="s">
@@ -23523,7 +23533,7 @@
     </row>
     <row r="606" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B606" s="2"/>
       <c r="C606" s="2" t="s">
@@ -23533,7 +23543,7 @@
         <v>14</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="F606" s="2"/>
       <c r="G606" s="2" t="s">
@@ -23547,7 +23557,7 @@
     </row>
     <row r="607" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>424</v>
@@ -23556,7 +23566,7 @@
         <v>13</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="E607" s="4" t="s">
         <v>41</v>
@@ -23576,15 +23586,15 @@
         <v>640</v>
       </c>
       <c r="L607" s="3" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="608" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C608" s="3" t="s">
         <v>13</v>
@@ -23596,7 +23606,7 @@
         <v>41</v>
       </c>
       <c r="F608" s="3" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="G608" s="3" t="s">
         <v>66</v>
@@ -23612,15 +23622,15 @@
         <v>640</v>
       </c>
       <c r="L608" s="3" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="609" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>13</v>
@@ -23629,7 +23639,7 @@
         <v>14</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="F609" s="2" t="s">
         <v>23</v>
@@ -23647,10 +23657,10 @@
     </row>
     <row r="610" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C610" s="3" t="s">
         <v>13</v>
@@ -23662,7 +23672,7 @@
         <v>41</v>
       </c>
       <c r="F610" s="3" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="G610" s="3" t="s">
         <v>542</v>
@@ -23680,7 +23690,7 @@
     </row>
     <row r="611" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="B611" s="3">
         <v>4</v>
@@ -23695,7 +23705,7 @@
         <v>41</v>
       </c>
       <c r="F611" s="3" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="G611" s="3" t="s">
         <v>418</v>
@@ -23711,7 +23721,7 @@
     </row>
     <row r="612" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="B612" s="3">
         <v>3.1</v>
@@ -23726,7 +23736,7 @@
         <v>41</v>
       </c>
       <c r="F612" s="3" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="G612" s="3" t="s">
         <v>49</v>
@@ -23742,7 +23752,7 @@
     </row>
     <row r="613" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="B613" s="5"/>
       <c r="C613" s="5" t="s">
@@ -23755,7 +23765,7 @@
         <v>41</v>
       </c>
       <c r="F613" s="5" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="G613" s="5" t="s">
         <v>599</v>
@@ -23768,7 +23778,7 @@
     </row>
     <row r="614" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B614" s="3">
         <v>6.2</v>
@@ -23783,7 +23793,7 @@
         <v>41</v>
       </c>
       <c r="F614" s="3" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="G614" s="3" t="s">
         <v>66</v>
@@ -23801,7 +23811,7 @@
     </row>
     <row r="615" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="B615" s="3">
         <v>3.3</v>
@@ -23816,7 +23826,7 @@
         <v>41</v>
       </c>
       <c r="F615" s="3" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="G615" s="3" t="s">
         <v>49</v>
@@ -23832,7 +23842,7 @@
     </row>
     <row r="616" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="B616" s="2"/>
       <c r="C616" s="2" t="s">
@@ -23842,7 +23852,7 @@
         <v>14</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="F616" s="2"/>
       <c r="G616" s="2" t="s">
@@ -23856,7 +23866,7 @@
     </row>
     <row r="617" spans="1:12" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="B617" s="3">
         <v>3.2</v>
@@ -23865,13 +23875,13 @@
         <v>13</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E617" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F617" s="3" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="G617" s="3" t="s">
         <v>66</v>
@@ -23887,12 +23897,12 @@
         <v>460</v>
       </c>
       <c r="L617" s="3" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="618" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="B618" s="5"/>
       <c r="C618" s="5" t="s">
@@ -23905,20 +23915,20 @@
         <v>41</v>
       </c>
       <c r="F618" s="5" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="G618" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H618" s="5"/>
       <c r="I618" s="5"/>
       <c r="J618" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="619" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="B619" s="5"/>
       <c r="C619" s="5" t="s">
@@ -23931,20 +23941,20 @@
         <v>41</v>
       </c>
       <c r="F619" s="5" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="G619" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H619" s="5"/>
       <c r="I619" s="5"/>
       <c r="J619" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="620" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="B620" s="5"/>
       <c r="C620" s="5" t="s">
@@ -23957,20 +23967,20 @@
         <v>41</v>
       </c>
       <c r="F620" s="5" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="G620" s="5" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H620" s="5"/>
       <c r="I620" s="5"/>
       <c r="J620" s="5" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="621" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B621" s="5"/>
       <c r="C621" s="5" t="s">
@@ -23983,20 +23993,20 @@
         <v>41</v>
       </c>
       <c r="F621" s="5" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="G621" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H621" s="5"/>
       <c r="I621" s="5"/>
       <c r="J621" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="622" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B622" s="5"/>
       <c r="C622" s="5" t="s">
@@ -24009,20 +24019,20 @@
         <v>41</v>
       </c>
       <c r="F622" s="5" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="G622" s="5" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H622" s="5"/>
       <c r="I622" s="5"/>
       <c r="J622" s="5" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="623" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B623" s="5"/>
       <c r="C623" s="5" t="s">
@@ -24035,20 +24045,20 @@
         <v>41</v>
       </c>
       <c r="F623" s="5" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="G623" s="5" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="H623" s="5"/>
       <c r="I623" s="5"/>
       <c r="J623" s="5" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="624" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="B624" s="5"/>
       <c r="C624" s="5" t="s">
@@ -24061,20 +24071,20 @@
         <v>41</v>
       </c>
       <c r="F624" s="5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="G624" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H624" s="5"/>
       <c r="I624" s="5"/>
       <c r="J624" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="625" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B625" s="5"/>
       <c r="C625" s="5" t="s">
@@ -24087,20 +24097,20 @@
         <v>41</v>
       </c>
       <c r="F625" s="5" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="G625" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H625" s="5"/>
       <c r="I625" s="5"/>
       <c r="J625" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="626" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="B626" s="5"/>
       <c r="C626" s="5" t="s">
@@ -24113,20 +24123,20 @@
         <v>41</v>
       </c>
       <c r="F626" s="5" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="G626" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H626" s="5"/>
       <c r="I626" s="5"/>
       <c r="J626" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="627" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B627" s="5"/>
       <c r="C627" s="5" t="s">
@@ -24139,20 +24149,20 @@
         <v>41</v>
       </c>
       <c r="F627" s="5" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="G627" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H627" s="5"/>
       <c r="I627" s="5"/>
       <c r="J627" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="628" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B628" s="5"/>
       <c r="C628" s="5" t="s">
@@ -24165,20 +24175,20 @@
         <v>41</v>
       </c>
       <c r="F628" s="5" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="G628" s="5" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="H628" s="5"/>
       <c r="I628" s="5"/>
       <c r="J628" s="5" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="629" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B629" s="5"/>
       <c r="C629" s="5" t="s">
@@ -24191,20 +24201,20 @@
         <v>41</v>
       </c>
       <c r="F629" s="5" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="G629" s="5" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="H629" s="5"/>
       <c r="I629" s="5"/>
       <c r="J629" s="5" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="630" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="15" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B630" s="15">
         <v>11.2</v>
@@ -24228,12 +24238,12 @@
         <v>454</v>
       </c>
       <c r="K630" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="631" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="B631" s="5"/>
       <c r="C631" s="5" t="s">
@@ -24246,7 +24256,7 @@
         <v>41</v>
       </c>
       <c r="F631" s="5" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="G631" s="5" t="s">
         <v>96</v>
@@ -24261,10 +24271,10 @@
     </row>
     <row r="632" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C632" s="5" t="s">
         <v>13</v>
@@ -24276,7 +24286,7 @@
         <v>41</v>
       </c>
       <c r="F632" s="5" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="G632" s="5" t="s">
         <v>219</v>
@@ -24291,7 +24301,7 @@
     </row>
     <row r="633" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B633" s="2" t="s">
         <v>109</v>
@@ -24319,7 +24329,7 @@
     </row>
     <row r="634" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>109</v>
@@ -24334,7 +24344,7 @@
         <v>41</v>
       </c>
       <c r="F634" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="G634" s="3" t="s">
         <v>113</v>
@@ -24350,7 +24360,7 @@
     </row>
     <row r="635" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B635" s="2" t="s">
         <v>109</v>
@@ -24378,7 +24388,7 @@
     </row>
     <row r="636" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>109</v>
@@ -24393,7 +24403,7 @@
         <v>41</v>
       </c>
       <c r="F636" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="G636" s="3" t="s">
         <v>113</v>
@@ -24409,7 +24419,7 @@
     </row>
     <row r="637" spans="1:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B637" s="2" t="s">
         <v>109</v>
@@ -24437,7 +24447,7 @@
     </row>
     <row r="638" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>109</v>
@@ -24452,7 +24462,7 @@
         <v>41</v>
       </c>
       <c r="F638" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="G638" s="3" t="s">
         <v>113</v>
@@ -24468,10 +24478,10 @@
     </row>
     <row r="639" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C639" s="3" t="s">
         <v>13</v>
@@ -24497,45 +24507,45 @@
         <v>640</v>
       </c>
       <c r="L639" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="640" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E640" s="2" t="s">
         <v>1609</v>
-      </c>
-      <c r="B640" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C640" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D640" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E640" s="2" t="s">
-        <v>1612</v>
       </c>
       <c r="F640" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G640" s="2" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="H640" s="2"/>
       <c r="I640" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="J640" s="2" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="641" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>13</v>
@@ -24547,25 +24557,25 @@
         <v>41</v>
       </c>
       <c r="F641" s="5" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="G641" s="5" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="H641" s="5"/>
       <c r="I641" s="5" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="J641" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="642" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C642" s="5" t="s">
         <v>13</v>
@@ -24577,22 +24587,22 @@
         <v>41</v>
       </c>
       <c r="F642" s="5" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="G642" s="5" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="H642" s="5"/>
       <c r="I642" s="5" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="J642" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="643" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="B643" s="5"/>
       <c r="C643" s="5" t="s">
@@ -24605,25 +24615,25 @@
         <v>41</v>
       </c>
       <c r="F643" s="5" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="G643" s="5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H643" s="5"/>
       <c r="I643" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J643" s="5" t="s">
         <v>1440</v>
-      </c>
-      <c r="J643" s="5" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="644" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>13</v>
@@ -24632,7 +24642,7 @@
         <v>14</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="F644" s="2" t="s">
         <v>800</v>
@@ -24648,10 +24658,10 @@
     </row>
     <row r="645" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>13</v>
@@ -24660,7 +24670,7 @@
         <v>14</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="F645" s="2" t="s">
         <v>800</v>
@@ -24676,7 +24686,7 @@
     </row>
     <row r="646" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B646" s="2" t="s">
         <v>681</v>
@@ -24688,7 +24698,7 @@
         <v>14</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="F646" s="2" t="s">
         <v>23</v>
@@ -24704,10 +24714,10 @@
     </row>
     <row r="647" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C647" s="3" t="s">
         <v>13</v>
@@ -24719,26 +24729,26 @@
         <v>41</v>
       </c>
       <c r="F647" s="3" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="G647" s="3" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="H647" s="3"/>
       <c r="I647" s="3"/>
       <c r="J647" s="3" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="K647" s="3" t="s">
         <v>640</v>
       </c>
       <c r="L647" s="3" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="648" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="B648" s="3">
         <v>15</v>
@@ -24753,7 +24763,7 @@
         <v>41</v>
       </c>
       <c r="F648" s="3" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="G648" s="3" t="s">
         <v>66</v>
@@ -24771,22 +24781,22 @@
     </row>
     <row r="649" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="C649" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D649" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E649" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F649" s="3" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="G649" s="3" t="s">
         <v>66</v>
@@ -24804,10 +24814,10 @@
     </row>
     <row r="650" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C650" s="3" t="s">
         <v>13</v>
@@ -24819,7 +24829,7 @@
         <v>41</v>
       </c>
       <c r="F650" s="3" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="G650" s="3" t="s">
         <v>66</v>
@@ -24837,7 +24847,7 @@
     </row>
     <row r="651" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="B651" s="3">
         <v>4</v>
@@ -24852,7 +24862,7 @@
         <v>41</v>
       </c>
       <c r="F651" s="3" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="G651" s="3" t="s">
         <v>66</v>
@@ -24870,10 +24880,10 @@
     </row>
     <row r="652" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C652" s="3" t="s">
         <v>13</v>
@@ -24885,7 +24895,7 @@
         <v>41</v>
       </c>
       <c r="F652" s="3" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="G652" s="3" t="s">
         <v>66</v>
@@ -24903,7 +24913,7 @@
     </row>
     <row r="653" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="B653" s="3">
         <v>1</v>
@@ -24918,7 +24928,7 @@
         <v>41</v>
       </c>
       <c r="F653" s="3" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="G653" s="3" t="s">
         <v>66</v>
@@ -24936,7 +24946,7 @@
     </row>
     <row r="654" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B654" s="3">
         <v>16.100000000000001</v>
@@ -24951,7 +24961,7 @@
         <v>41</v>
       </c>
       <c r="F654" s="3" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="G654" s="3" t="s">
         <v>66</v>
@@ -24969,7 +24979,7 @@
     </row>
     <row r="655" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="B655" s="3">
         <v>4</v>
@@ -24978,13 +24988,13 @@
         <v>13</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E655" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F655" s="3" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="G655" s="3" t="s">
         <v>66</v>
@@ -25002,7 +25012,7 @@
     </row>
     <row r="656" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="B656" s="3">
         <v>12</v>
@@ -25011,13 +25021,13 @@
         <v>13</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E656" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F656" s="3" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="G656" s="3" t="s">
         <v>66</v>
@@ -25035,7 +25045,7 @@
     </row>
     <row r="657" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="B657" s="3">
         <v>1.5</v>
@@ -25050,7 +25060,7 @@
         <v>41</v>
       </c>
       <c r="F657" s="3" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="G657" s="3" t="s">
         <v>66</v>
@@ -25068,10 +25078,10 @@
     </row>
     <row r="658" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C658" s="3" t="s">
         <v>63</v>
@@ -25083,7 +25093,7 @@
         <v>41</v>
       </c>
       <c r="F658" s="3" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="G658" s="3" t="s">
         <v>66</v>
@@ -25101,10 +25111,10 @@
     </row>
     <row r="659" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="C659" s="3" t="s">
         <v>13</v>
@@ -25116,7 +25126,7 @@
         <v>41</v>
       </c>
       <c r="F659" s="3" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="G659" s="3" t="s">
         <v>66</v>
@@ -25134,10 +25144,10 @@
     </row>
     <row r="660" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="C660" s="5" t="s">
         <v>13</v>
@@ -25149,25 +25159,25 @@
         <v>41</v>
       </c>
       <c r="F660" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G660" s="5" t="s">
         <v>1291</v>
-      </c>
-      <c r="G660" s="5" t="s">
-        <v>1292</v>
       </c>
       <c r="H660" s="5"/>
       <c r="I660" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J660" s="5" t="s">
         <v>1293</v>
-      </c>
-      <c r="J660" s="5" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="661" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C661" s="3" t="s">
         <v>13</v>
@@ -25193,15 +25203,15 @@
         <v>640</v>
       </c>
       <c r="L661" s="3" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="662" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C662" s="3" t="s">
         <v>13</v>
@@ -25227,15 +25237,15 @@
         <v>640</v>
       </c>
       <c r="L662" s="3" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="663" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="C663" s="3" t="s">
         <v>13</v>
@@ -25261,15 +25271,15 @@
         <v>640</v>
       </c>
       <c r="L663" s="3" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="664" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C664" s="3" t="s">
         <v>13</v>
@@ -25295,15 +25305,15 @@
         <v>640</v>
       </c>
       <c r="L664" s="3" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="665" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="C665" s="3" t="s">
         <v>13</v>
@@ -25329,15 +25339,15 @@
         <v>640</v>
       </c>
       <c r="L665" s="3" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="666" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C666" s="3" t="s">
         <v>13</v>
@@ -25363,15 +25373,15 @@
         <v>640</v>
       </c>
       <c r="L666" s="3" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="667" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="C667" s="3" t="s">
         <v>13</v>
@@ -25397,15 +25407,15 @@
         <v>640</v>
       </c>
       <c r="L667" s="3" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="668" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C668" s="3" t="s">
         <v>13</v>
@@ -25431,15 +25441,15 @@
         <v>640</v>
       </c>
       <c r="L668" s="3" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="669" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="C669" s="3" t="s">
         <v>13</v>
@@ -25465,15 +25475,15 @@
         <v>640</v>
       </c>
       <c r="L669" s="3" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="670" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C670" s="3" t="s">
         <v>13</v>
@@ -25499,15 +25509,15 @@
         <v>640</v>
       </c>
       <c r="L670" s="3" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="671" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="C671" s="3" t="s">
         <v>13</v>
@@ -25533,15 +25543,15 @@
         <v>640</v>
       </c>
       <c r="L671" s="3" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="672" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="C672" s="3" t="s">
         <v>13</v>
@@ -25567,12 +25577,12 @@
         <v>640</v>
       </c>
       <c r="L672" s="3" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="673" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="B673" s="5"/>
       <c r="C673" s="5" t="s">
@@ -25585,7 +25595,7 @@
         <v>41</v>
       </c>
       <c r="F673" s="5" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="G673" s="5" t="s">
         <v>418</v>
@@ -25598,10 +25608,10 @@
     </row>
     <row r="674" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C674" s="3" t="s">
         <v>182</v>
@@ -25616,7 +25626,7 @@
         <v>751</v>
       </c>
       <c r="G674" s="3" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="H674" s="3"/>
       <c r="I674" s="3" t="s">
@@ -25627,15 +25637,15 @@
         <v>640</v>
       </c>
       <c r="L674" s="3" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="675" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C675" s="3" t="s">
         <v>182</v>
@@ -25647,7 +25657,7 @@
         <v>41</v>
       </c>
       <c r="F675" s="3" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="G675" s="3" t="s">
         <v>66</v>
@@ -25665,22 +25675,22 @@
     </row>
     <row r="676" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C676" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D676" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E676" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F676" s="3" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="G676" s="3" t="s">
         <v>75</v>
@@ -25696,10 +25706,10 @@
     </row>
     <row r="677" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="C677" s="3" t="s">
         <v>13</v>
@@ -25725,15 +25735,15 @@
         <v>413</v>
       </c>
       <c r="L677" s="3" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="678" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C678" s="3" t="s">
         <v>13</v>
@@ -25745,7 +25755,7 @@
         <v>41</v>
       </c>
       <c r="F678" s="3" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="G678" s="3" t="s">
         <v>66</v>
@@ -25761,15 +25771,15 @@
         <v>413</v>
       </c>
       <c r="L678" s="13" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="679" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="C679" s="3" t="s">
         <v>13</v>
@@ -25781,7 +25791,7 @@
         <v>41</v>
       </c>
       <c r="F679" s="3" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="G679" s="3" t="s">
         <v>66</v>
@@ -25799,10 +25809,10 @@
     </row>
     <row r="680" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C680" s="3" t="s">
         <v>13</v>
@@ -25814,7 +25824,7 @@
         <v>41</v>
       </c>
       <c r="F680" s="3" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="G680" s="3" t="s">
         <v>66</v>
@@ -25830,15 +25840,15 @@
         <v>413</v>
       </c>
       <c r="L680" s="3" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="681" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>13</v>
@@ -25847,7 +25857,7 @@
         <v>14</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="F681" s="2"/>
       <c r="G681" s="2" t="s">
@@ -25863,22 +25873,22 @@
     </row>
     <row r="682" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D682" s="3" t="s">
         <v>1727</v>
       </c>
-      <c r="B682" s="3" t="s">
+      <c r="E682" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F682" s="3" t="s">
         <v>1728</v>
-      </c>
-      <c r="C682" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D682" s="3" t="s">
-        <v>1730</v>
-      </c>
-      <c r="E682" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F682" s="3" t="s">
-        <v>1731</v>
       </c>
       <c r="G682" s="3" t="s">
         <v>17</v>
@@ -25897,7 +25907,7 @@
     </row>
     <row r="683" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="B683" s="3">
         <v>3.3</v>
@@ -25912,7 +25922,7 @@
         <v>41</v>
       </c>
       <c r="F683" s="3" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="G683" s="3" t="s">
         <v>418</v>
@@ -25926,15 +25936,15 @@
         <v>640</v>
       </c>
       <c r="L683" s="3" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="684" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="C684" s="5" t="s">
         <v>110</v>
@@ -25946,7 +25956,7 @@
         <v>41</v>
       </c>
       <c r="F684" s="5" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="G684" s="5" t="s">
         <v>317</v>
@@ -25961,7 +25971,7 @@
     </row>
     <row r="685" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="B685" s="2"/>
       <c r="C685" s="2" t="s">
@@ -25971,7 +25981,7 @@
         <v>14</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="F685" s="2"/>
       <c r="G685" s="2" t="s">
@@ -25985,7 +25995,7 @@
     </row>
     <row r="686" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="B686" s="5"/>
       <c r="C686" s="5" t="s">
@@ -25998,7 +26008,7 @@
         <v>41</v>
       </c>
       <c r="F686" s="5" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="G686" s="5" t="s">
         <v>405</v>
@@ -26008,12 +26018,12 @@
         <v>168</v>
       </c>
       <c r="J686" s="5" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="687" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="B687" s="5"/>
       <c r="C687" s="5" t="s">
@@ -26026,7 +26036,7 @@
         <v>41</v>
       </c>
       <c r="F687" s="5" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="G687" s="5" t="s">
         <v>539</v>
@@ -26039,10 +26049,10 @@
     </row>
     <row r="688" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="C688" s="3" t="s">
         <v>110</v>
@@ -26054,7 +26064,7 @@
         <v>41</v>
       </c>
       <c r="F688" s="3" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="G688" s="3" t="s">
         <v>113</v>
@@ -26070,10 +26080,10 @@
     </row>
     <row r="689" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="C689" s="5" t="s">
         <v>13</v>
@@ -26085,25 +26095,25 @@
         <v>41</v>
       </c>
       <c r="F689" s="5" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="G689" s="5" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="H689" s="5"/>
       <c r="I689" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J689" s="5" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="690" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>13</v>
@@ -26112,26 +26122,26 @@
         <v>14</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="F690" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="H690" s="2"/>
       <c r="I690" s="2"/>
       <c r="J690" s="2" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="691" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C691" s="3" t="s">
         <v>13</v>
@@ -26143,15 +26153,15 @@
         <v>41</v>
       </c>
       <c r="F691" s="3" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="G691" s="3" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="H691" s="3"/>
       <c r="I691" s="3"/>
       <c r="J691" s="3" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="K691" s="3" t="s">
         <v>44</v>
@@ -26159,7 +26169,7 @@
     </row>
     <row r="692" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B692" s="3">
         <v>2.4</v>
@@ -26174,15 +26184,15 @@
         <v>41</v>
       </c>
       <c r="F692" s="3" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="G692" s="3" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="H692" s="3"/>
       <c r="I692" s="3"/>
       <c r="J692" s="3" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="K692" s="3" t="s">
         <v>44</v>
@@ -26190,7 +26200,7 @@
     </row>
     <row r="693" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="B693" s="2">
         <v>3.1</v>
@@ -26202,25 +26212,25 @@
         <v>14</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="F693" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G693" s="2" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="H693" s="2"/>
       <c r="I693" s="2" t="s">
         <v>318</v>
       </c>
       <c r="J693" s="2" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="694" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>837</v>
@@ -26235,7 +26245,7 @@
         <v>41</v>
       </c>
       <c r="F694" s="3" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="G694" s="3" t="s">
         <v>113</v>
@@ -26251,7 +26261,7 @@
     </row>
     <row r="695" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="B695" s="2" t="s">
         <v>109</v>
@@ -26279,7 +26289,7 @@
     </row>
     <row r="696" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>109</v>
@@ -26294,7 +26304,7 @@
         <v>41</v>
       </c>
       <c r="F696" s="3" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="G696" s="3" t="s">
         <v>113</v>
@@ -26310,10 +26320,10 @@
     </row>
     <row r="697" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C697" s="3" t="s">
         <v>13</v>
@@ -26325,7 +26335,7 @@
         <v>41</v>
       </c>
       <c r="F697" s="3" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="G697" s="3" t="s">
         <v>66</v>
@@ -26341,12 +26351,12 @@
         <v>640</v>
       </c>
       <c r="L697" s="3" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="698" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="B698" s="2"/>
       <c r="C698" s="2" t="s">
@@ -26356,7 +26366,7 @@
         <v>14</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="F698" s="2"/>
       <c r="G698" s="2" t="s">
@@ -26370,10 +26380,10 @@
     </row>
     <row r="699" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="C699" s="3" t="s">
         <v>110</v>
@@ -26385,17 +26395,17 @@
         <v>41</v>
       </c>
       <c r="F699" s="3" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="G699" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H699" s="3" t="s">
         <v>399</v>
       </c>
       <c r="I699" s="3"/>
       <c r="J699" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="K699" s="3" t="s">
         <v>44</v>
@@ -26403,7 +26413,7 @@
     </row>
     <row r="700" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="B700" s="5" t="s">
         <v>20</v>
@@ -26418,7 +26428,7 @@
         <v>41</v>
       </c>
       <c r="F700" s="5" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="G700" s="5" t="s">
         <v>24</v>
@@ -26433,7 +26443,7 @@
     </row>
     <row r="701" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="B701" s="5"/>
       <c r="C701" s="5" t="s">
@@ -26446,20 +26456,20 @@
         <v>41</v>
       </c>
       <c r="F701" s="5" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="G701" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H701" s="5"/>
       <c r="I701" s="5"/>
       <c r="J701" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="702" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="B702" s="5"/>
       <c r="C702" s="5" t="s">
@@ -26470,7 +26480,7 @@
       </c>
       <c r="E702" s="5"/>
       <c r="F702" s="5" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="G702" s="5" t="s">
         <v>569</v>
@@ -26483,10 +26493,10 @@
     </row>
     <row r="703" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="C703" s="5" t="s">
         <v>13</v>
@@ -26501,7 +26511,7 @@
         <v>930</v>
       </c>
       <c r="G703" s="5" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="H703" s="5"/>
       <c r="I703" s="5" t="s">
@@ -26513,7 +26523,7 @@
     </row>
     <row r="704" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="B704" s="5"/>
       <c r="C704" s="5" t="s">
@@ -26524,7 +26534,7 @@
       </c>
       <c r="E704" s="5"/>
       <c r="F704" s="5" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="G704" s="5" t="s">
         <v>75</v>
@@ -26537,7 +26547,7 @@
     </row>
     <row r="705" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="B705" s="5"/>
       <c r="C705" s="5" t="s">
@@ -26550,7 +26560,7 @@
         <v>41</v>
       </c>
       <c r="F705" s="5" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="G705" s="5" t="s">
         <v>253</v>
@@ -26563,7 +26573,7 @@
     </row>
     <row r="706" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B706" s="5"/>
       <c r="C706" s="5" t="s">
@@ -26576,7 +26586,7 @@
         <v>41</v>
       </c>
       <c r="F706" s="5" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="G706" s="5" t="s">
         <v>317</v>
@@ -26591,7 +26601,7 @@
     </row>
     <row r="707" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="B707" s="5"/>
       <c r="C707" s="5" t="s">
@@ -26604,15 +26614,15 @@
         <v>41</v>
       </c>
       <c r="F707" s="5" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="G707" s="5" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="H707" s="5"/>
       <c r="I707" s="5"/>
       <c r="J707" s="5" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
   </sheetData>
@@ -26909,17 +26919,17 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
-    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -7693,7 +7693,7 @@
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>64</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>64</v>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>64</v>
@@ -26685,50 +26685,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Order0 xmlns="afd34d76-bd0a-4401-a24d-7f289c41d043">1</Order0>
-    <SharedWithUsers xmlns="caa4e187-f897-484e-8238-9cf00fcb7318">
-      <UserInfo>
-        <DisplayName>Costello, Debra L</DisplayName>
-        <AccountId>8430</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bigornia Jr, Agustin</DisplayName>
-        <AccountId>11541</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Armstrong, Francis J</DisplayName>
-        <AccountId>9317</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Morales, John</DisplayName>
-        <AccountId>316</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Beriau, Bernie R</DisplayName>
-        <AccountId>4457</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0E9129E47F7CB438C96AC380E87590A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39995d888827efcf204ab0c3dc3774cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="caa4e187-f897-484e-8238-9cf00fcb7318" xmlns:ns3="afd34d76-bd0a-4401-a24d-7f289c41d043" xmlns:ns4="a875d3b0-e276-4560-a424-4019c376e5e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89b1f1d2fccfd2d7e23e03ab43ea116e" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="caa4e187-f897-484e-8238-9cf00fcb7318"/>
@@ -26918,7 +26874,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -26968,33 +26924,51 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F157CC7-0BC4-4431-8527-4D48F8B34954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Order0 xmlns="afd34d76-bd0a-4401-a24d-7f289c41d043">1</Order0>
+    <SharedWithUsers xmlns="caa4e187-f897-484e-8238-9cf00fcb7318">
+      <UserInfo>
+        <DisplayName>Costello, Debra L</DisplayName>
+        <AccountId>8430</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bigornia Jr, Agustin</DisplayName>
+        <AccountId>11541</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Armstrong, Francis J</DisplayName>
+        <AccountId>9317</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Morales, John</DisplayName>
+        <AccountId>316</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Beriau, Bernie R</DisplayName>
+        <AccountId>4457</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7400E32-D5BC-41E6-B73C-359CF80FD9CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27014,10 +26988,36 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8654B897-6565-4D9A-AEDC-2108E98326EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F157CC7-0BC4-4431-8527-4D48F8B34954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
+    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5904" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5904" uniqueCount="1802">
   <si>
     <t>PROD_NAME</t>
   </si>
@@ -3080,15 +3080,9 @@
     <t>JMO</t>
   </si>
   <si>
-    <t>11.x</t>
-  </si>
-  <si>
     <t>CSCR907;CSCR912</t>
   </si>
   <si>
-    <t>[{"PMFKEY":"srigi02","APPROVEStamp":"none"}]</t>
-  </si>
-  <si>
     <t>srigi02</t>
   </si>
   <si>
@@ -5427,6 +5421,18 @@
   </si>
   <si>
     <t>CSCR1101/Core_AccountConnect,core_aws_</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"parkr02"}]</t>
+  </si>
+  <si>
+    <t>parkr02</t>
+  </si>
+  <si>
+    <t>[{"PMFKEY":"prape01"}]</t>
+  </si>
+  <si>
+    <t>prape01</t>
   </si>
 </sst>
 </file>
@@ -5892,9 +5898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L710"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6186,7 +6192,7 @@
     </row>
     <row r="10" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -6199,17 +6205,17 @@
         <v>41</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7562,7 +7568,7 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>64</v>
@@ -7574,14 +7580,14 @@
         <v>211</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>212</v>
+        <v>1800</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>213</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5" t="s">
-        <v>214</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14560,12 +14566,12 @@
         <v>840</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="300" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14674,7 +14680,7 @@
     </row>
     <row r="304" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B304" s="5"/>
       <c r="C304" s="5" t="s">
@@ -14687,7 +14693,7 @@
         <v>41</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="G304" s="5" t="s">
         <v>853</v>
@@ -16313,11 +16319,9 @@
       <c r="A362" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="B362" s="5" t="s">
-        <v>1017</v>
-      </c>
+      <c r="B362" s="5"/>
       <c r="C362" s="5" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>64</v>
@@ -16326,20 +16330,22 @@
         <v>41</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1019</v>
+        <v>1798</v>
       </c>
       <c r="H362" s="5"/>
-      <c r="I362" s="5"/>
+      <c r="I362" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="J362" s="5" t="s">
-        <v>1020</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="363" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" s="2" t="s">
@@ -16349,7 +16355,7 @@
         <v>14</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="2" t="s">
@@ -16365,7 +16371,7 @@
     </row>
     <row r="364" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B364" s="3">
         <v>4.5999999999999996</v>
@@ -16380,7 +16386,7 @@
         <v>41</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G364" s="3" t="s">
         <v>66</v>
@@ -16398,10 +16404,10 @@
     </row>
     <row r="365" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C365" s="15" t="s">
         <v>13</v>
@@ -16422,12 +16428,12 @@
         <v>450</v>
       </c>
       <c r="K365" s="15" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="366" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>81</v>
@@ -16439,7 +16445,7 @@
         <v>14</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>23</v>
@@ -16460,19 +16466,19 @@
         <v>119</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D367" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F367" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="E367" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F367" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="G367" s="2" t="s">
         <v>130</v>
@@ -16485,7 +16491,7 @@
     </row>
     <row r="368" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B368" s="5"/>
       <c r="C368" s="5" t="s">
@@ -16498,20 +16504,20 @@
         <v>41</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
       <c r="J368" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="369" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B369" s="5"/>
       <c r="C369" s="5" t="s">
@@ -16524,20 +16530,20 @@
         <v>41</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="370" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>109</v>
@@ -16565,7 +16571,7 @@
     </row>
     <row r="371" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>109</v>
@@ -16580,7 +16586,7 @@
         <v>41</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>113</v>
@@ -16596,7 +16602,7 @@
     </row>
     <row r="372" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>109</v>
@@ -16624,7 +16630,7 @@
     </row>
     <row r="373" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>109</v>
@@ -16639,7 +16645,7 @@
         <v>41</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G373" s="3" t="s">
         <v>113</v>
@@ -16655,7 +16661,7 @@
     </row>
     <row r="374" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>961</v>
@@ -16670,7 +16676,7 @@
         <v>41</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>113</v>
@@ -16686,10 +16692,10 @@
     </row>
     <row r="375" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>13</v>
@@ -16698,26 +16704,26 @@
         <v>14</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
       <c r="J375" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="376" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>13</v>
@@ -16729,15 +16735,15 @@
         <v>41</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K376" s="3" t="s">
         <v>44</v>
@@ -16745,10 +16751,10 @@
     </row>
     <row r="377" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>13</v>
@@ -16757,7 +16763,7 @@
         <v>53</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>393</v>
@@ -16775,10 +16781,10 @@
     </row>
     <row r="378" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>13</v>
@@ -16790,7 +16796,7 @@
         <v>41</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>29</v>
@@ -16808,7 +16814,7 @@
     </row>
     <row r="379" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" s="2" t="s">
@@ -16818,7 +16824,7 @@
         <v>14</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="2" t="s">
@@ -16832,7 +16838,7 @@
     </row>
     <row r="380" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" s="2" t="s">
@@ -16842,7 +16848,7 @@
         <v>14</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" s="2" t="s">
@@ -16856,10 +16862,10 @@
     </row>
     <row r="381" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>13</v>
@@ -16868,7 +16874,7 @@
         <v>14</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>796</v>
@@ -16884,7 +16890,7 @@
     </row>
     <row r="382" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B382" s="5"/>
       <c r="C382" s="5" t="s">
@@ -16897,7 +16903,7 @@
         <v>41</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>250</v>
@@ -16910,7 +16916,7 @@
     </row>
     <row r="383" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>912</v>
@@ -16942,7 +16948,7 @@
     </row>
     <row r="384" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>912</v>
@@ -16957,7 +16963,7 @@
         <v>41</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>445</v>
@@ -16977,67 +16983,67 @@
     </row>
     <row r="385" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D385" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="E385" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D385" s="2" t="s">
+      <c r="F385" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="E385" s="2" t="s">
+      <c r="G385" s="2" t="s">
         <v>1067</v>
-      </c>
-      <c r="F385" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G385" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="H385" s="2"/>
       <c r="I385" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J385" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="386" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C386" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E386" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G386" s="14" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H386" s="14"/>
       <c r="I386" s="14" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J386" s="14" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="387" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B387" s="3">
         <v>4.3</v>
@@ -17052,7 +17058,7 @@
         <v>41</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>179</v>
@@ -17068,10 +17074,10 @@
     </row>
     <row r="388" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>13</v>
@@ -17083,7 +17089,7 @@
         <v>41</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>66</v>
@@ -17099,12 +17105,12 @@
         <v>409</v>
       </c>
       <c r="L388" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="389" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" s="2" t="s">
@@ -17114,23 +17120,23 @@
         <v>14</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F389" s="2"/>
       <c r="G389" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H389" s="2"/>
       <c r="I389" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J389" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="390" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B390" s="3">
         <v>3.4</v>
@@ -17145,7 +17151,7 @@
         <v>41</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>250</v>
@@ -17161,7 +17167,7 @@
     </row>
     <row r="391" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>109</v>
@@ -17189,7 +17195,7 @@
     </row>
     <row r="392" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>109</v>
@@ -17204,7 +17210,7 @@
         <v>41</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>113</v>
@@ -17220,7 +17226,7 @@
     </row>
     <row r="393" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B393" s="3">
         <v>1.1000000000000001</v>
@@ -17235,15 +17241,15 @@
         <v>41</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="K393" s="3" t="s">
         <v>44</v>
@@ -17251,7 +17257,7 @@
     </row>
     <row r="394" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" s="2" t="s">
@@ -17261,21 +17267,21 @@
         <v>14</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
       <c r="J394" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="395" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B395" s="5"/>
       <c r="C395" s="5" t="s">
@@ -17288,10 +17294,10 @@
         <v>41</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H395" s="5"/>
       <c r="I395" s="5" t="s">
@@ -17303,7 +17309,7 @@
     </row>
     <row r="396" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" s="2" t="s">
@@ -17313,7 +17319,7 @@
         <v>14</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F396" s="2"/>
       <c r="G396" s="2" t="s">
@@ -17329,7 +17335,7 @@
     </row>
     <row r="397" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B397" s="5"/>
       <c r="C397" s="5" t="s">
@@ -17342,14 +17348,14 @@
         <v>41</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="G397" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H397" s="5"/>
       <c r="I397" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="J397" s="5" t="s">
         <v>255</v>
@@ -17357,7 +17363,7 @@
     </row>
     <row r="398" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B398" s="5"/>
       <c r="C398" s="5" t="s">
@@ -17370,10 +17376,10 @@
         <v>41</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G398" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
@@ -17383,10 +17389,10 @@
     </row>
     <row r="399" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>13</v>
@@ -17398,17 +17404,17 @@
         <v>41</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H399" s="3"/>
       <c r="I399" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="K399" s="3" t="s">
         <v>44</v>
@@ -17416,10 +17422,10 @@
     </row>
     <row r="400" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>73</v>
@@ -17431,22 +17437,22 @@
         <v>41</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H400" s="5"/>
       <c r="I400" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="401" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B401" s="3">
         <v>2</v>
@@ -17461,7 +17467,7 @@
         <v>41</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G401" s="3" t="s">
         <v>179</v>
@@ -17477,10 +17483,10 @@
     </row>
     <row r="402" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>13</v>
@@ -17489,7 +17495,7 @@
         <v>53</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>393</v>
@@ -17507,10 +17513,10 @@
     </row>
     <row r="403" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>13</v>
@@ -17522,7 +17528,7 @@
         <v>41</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="G403" s="3" t="s">
         <v>29</v>
@@ -17540,10 +17546,10 @@
     </row>
     <row r="404" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>63</v>
@@ -17555,7 +17561,7 @@
         <v>41</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>66</v>
@@ -17570,7 +17576,7 @@
     </row>
     <row r="405" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B405" s="5"/>
       <c r="C405" s="5" t="s">
@@ -17583,15 +17589,15 @@
         <v>41</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
       <c r="J405" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="406" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17608,21 +17614,21 @@
         <v>14</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
       <c r="J406" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="407" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B407" s="5"/>
       <c r="C407" s="5" t="s">
@@ -17635,10 +17641,10 @@
         <v>41</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H407" s="5"/>
       <c r="I407" s="5" t="s">
@@ -17648,7 +17654,7 @@
     </row>
     <row r="408" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B408" s="3">
         <v>4.9000000000000004</v>
@@ -17663,7 +17669,7 @@
         <v>41</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>49</v>
@@ -17679,10 +17685,10 @@
     </row>
     <row r="409" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>13</v>
@@ -17702,15 +17708,15 @@
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
       <c r="J409" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>13</v>
@@ -17722,7 +17728,7 @@
         <v>41</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>394</v>
@@ -17730,7 +17736,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="K410" s="3" t="s">
         <v>44</v>
@@ -17738,10 +17744,10 @@
     </row>
     <row r="411" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>13</v>
@@ -17756,7 +17762,7 @@
         <v>393</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>395</v>
@@ -17770,10 +17776,10 @@
     </row>
     <row r="412" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>13</v>
@@ -17788,7 +17794,7 @@
         <v>398</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H412" s="3" t="s">
         <v>395</v>
@@ -17805,10 +17811,10 @@
     </row>
     <row r="413" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>13</v>
@@ -17823,7 +17829,7 @@
         <v>393</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>395</v>
@@ -17837,10 +17843,10 @@
     </row>
     <row r="414" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>13</v>
@@ -17855,7 +17861,7 @@
         <v>398</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H414" s="3" t="s">
         <v>395</v>
@@ -17872,10 +17878,10 @@
     </row>
     <row r="415" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>13</v>
@@ -17890,7 +17896,7 @@
         <v>393</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H415" s="2" t="s">
         <v>395</v>
@@ -17904,10 +17910,10 @@
     </row>
     <row r="416" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>13</v>
@@ -17922,7 +17928,7 @@
         <v>398</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H416" s="3" t="s">
         <v>395</v>
@@ -17939,10 +17945,10 @@
     </row>
     <row r="417" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>13</v>
@@ -17957,7 +17963,7 @@
         <v>393</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H417" s="2" t="s">
         <v>395</v>
@@ -17971,10 +17977,10 @@
     </row>
     <row r="418" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>13</v>
@@ -17989,7 +17995,7 @@
         <v>398</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H418" s="3" t="s">
         <v>395</v>
@@ -18006,10 +18012,10 @@
     </row>
     <row r="419" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>63</v>
@@ -18024,7 +18030,7 @@
         <v>393</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H419" s="2" t="s">
         <v>395</v>
@@ -18038,10 +18044,10 @@
     </row>
     <row r="420" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>63</v>
@@ -18053,10 +18059,10 @@
         <v>41</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H420" s="3" t="s">
         <v>395</v>
@@ -18073,10 +18079,10 @@
     </row>
     <row r="421" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>13</v>
@@ -18105,10 +18111,10 @@
     </row>
     <row r="422" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>13</v>
@@ -18123,7 +18129,7 @@
         <v>398</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H422" s="3" t="s">
         <v>395</v>
@@ -18140,7 +18146,7 @@
     </row>
     <row r="423" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" s="2" t="s">
@@ -18150,7 +18156,7 @@
         <v>14</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F423" s="2"/>
       <c r="G423" s="2" t="s">
@@ -18159,12 +18165,12 @@
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
       <c r="J423" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="424" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>961</v>
@@ -18179,7 +18185,7 @@
         <v>41</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G424" s="3" t="s">
         <v>113</v>
@@ -18195,10 +18201,10 @@
     </row>
     <row r="425" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="15" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C425" s="15" t="s">
         <v>13</v>
@@ -18219,12 +18225,12 @@
         <v>450</v>
       </c>
       <c r="K425" s="15" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="426" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B426" s="5"/>
       <c r="C426" s="5" t="s">
@@ -18237,20 +18243,20 @@
         <v>41</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G426" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H426" s="5"/>
       <c r="I426" s="5"/>
       <c r="J426" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="427" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B427" s="5"/>
       <c r="C427" s="5" t="s">
@@ -18263,20 +18269,20 @@
         <v>41</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G427" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="H427" s="5"/>
       <c r="I427" s="5"/>
       <c r="J427" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="428" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B428" s="5"/>
       <c r="C428" s="5" t="s">
@@ -18289,23 +18295,23 @@
         <v>41</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="G428" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H428" s="5"/>
       <c r="I428" s="5"/>
       <c r="J428" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="429" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>13</v>
@@ -18317,7 +18323,7 @@
         <v>41</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G429" s="5" t="s">
         <v>644</v>
@@ -18330,10 +18336,10 @@
     </row>
     <row r="430" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>13</v>
@@ -18345,7 +18351,7 @@
         <v>41</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G430" s="5" t="s">
         <v>644</v>
@@ -18358,10 +18364,10 @@
     </row>
     <row r="431" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>13</v>
@@ -18373,7 +18379,7 @@
         <v>41</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G431" s="5" t="s">
         <v>644</v>
@@ -18386,7 +18392,7 @@
     </row>
     <row r="432" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B432" s="5" t="s">
         <v>205</v>
@@ -18401,7 +18407,7 @@
         <v>41</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G432" s="5" t="s">
         <v>644</v>
@@ -18414,10 +18420,10 @@
     </row>
     <row r="433" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>13</v>
@@ -18429,7 +18435,7 @@
         <v>41</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="G433" s="5" t="s">
         <v>644</v>
@@ -18442,10 +18448,10 @@
     </row>
     <row r="434" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>13</v>
@@ -18457,7 +18463,7 @@
         <v>41</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G434" s="5" t="s">
         <v>644</v>
@@ -18470,7 +18476,7 @@
     </row>
     <row r="435" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B435" s="5" t="s">
         <v>118</v>
@@ -18485,7 +18491,7 @@
         <v>41</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G435" s="5" t="s">
         <v>644</v>
@@ -18498,10 +18504,10 @@
     </row>
     <row r="436" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>13</v>
@@ -18513,7 +18519,7 @@
         <v>41</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="G436" s="5" t="s">
         <v>644</v>
@@ -18526,7 +18532,7 @@
     </row>
     <row r="437" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B437" s="5" t="s">
         <v>205</v>
@@ -18541,7 +18547,7 @@
         <v>41</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="G437" s="5" t="s">
         <v>644</v>
@@ -18554,7 +18560,7 @@
     </row>
     <row r="438" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B438" s="5" t="s">
         <v>473</v>
@@ -18569,7 +18575,7 @@
         <v>41</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="G438" s="5" t="s">
         <v>644</v>
@@ -18582,10 +18588,10 @@
     </row>
     <row r="439" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>13</v>
@@ -18597,7 +18603,7 @@
         <v>41</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G439" s="5" t="s">
         <v>644</v>
@@ -18610,7 +18616,7 @@
     </row>
     <row r="440" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B440" s="5" t="s">
         <v>205</v>
@@ -18625,7 +18631,7 @@
         <v>41</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G440" s="5" t="s">
         <v>644</v>
@@ -18638,7 +18644,7 @@
     </row>
     <row r="441" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" s="2" t="s">
@@ -18648,7 +18654,7 @@
         <v>14</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F441" s="2"/>
       <c r="G441" s="2" t="s">
@@ -18662,7 +18668,7 @@
     </row>
     <row r="442" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B442" s="5"/>
       <c r="C442" s="5" t="s">
@@ -18675,10 +18681,10 @@
         <v>41</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H442" s="5"/>
       <c r="I442" s="5" t="s">
@@ -18690,10 +18696,10 @@
     </row>
     <row r="443" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>110</v>
@@ -18722,7 +18728,7 @@
     </row>
     <row r="444" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>109</v>
@@ -18737,7 +18743,7 @@
         <v>111</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G444" s="2" t="s">
         <v>113</v>
@@ -18750,7 +18756,7 @@
     </row>
     <row r="445" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>109</v>
@@ -18765,7 +18771,7 @@
         <v>41</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="G445" s="3" t="s">
         <v>113</v>
@@ -18781,7 +18787,7 @@
     </row>
     <row r="446" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B446" s="3">
         <v>3.1</v>
@@ -18814,19 +18820,19 @@
     </row>
     <row r="447" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D447" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="E447" s="2" t="s">
         <v>1204</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>1206</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>393</v>
@@ -18844,7 +18850,7 @@
     </row>
     <row r="448" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B448" s="3">
         <v>7</v>
@@ -18859,7 +18865,7 @@
         <v>41</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>49</v>
@@ -18873,12 +18879,12 @@
         <v>409</v>
       </c>
       <c r="L448" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="449" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B449" s="3">
         <v>6</v>
@@ -18893,7 +18899,7 @@
         <v>41</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G449" s="3" t="s">
         <v>49</v>
@@ -18907,12 +18913,12 @@
         <v>409</v>
       </c>
       <c r="L449" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="450" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B450" s="3">
         <v>7</v>
@@ -18927,7 +18933,7 @@
         <v>41</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G450" s="3" t="s">
         <v>49</v>
@@ -18943,7 +18949,7 @@
     </row>
     <row r="451" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B451" s="3">
         <v>2</v>
@@ -18958,7 +18964,7 @@
         <v>41</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G451" s="3" t="s">
         <v>49</v>
@@ -18972,15 +18978,15 @@
         <v>636</v>
       </c>
       <c r="L451" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="452" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>63</v>
@@ -18992,7 +18998,7 @@
         <v>41</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G452" s="5" t="s">
         <v>313</v>
@@ -19007,22 +19013,22 @@
     </row>
     <row r="453" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D453" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="E453" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F453" s="3" t="s">
         <v>1222</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D453" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E453" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F453" s="3" t="s">
-        <v>1224</v>
       </c>
       <c r="G453" s="3" t="s">
         <v>667</v>
@@ -19030,7 +19036,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="K453" s="3" t="s">
         <v>44</v>
@@ -19038,10 +19044,10 @@
     </row>
     <row r="454" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>13</v>
@@ -19053,7 +19059,7 @@
         <v>41</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G454" s="3" t="s">
         <v>667</v>
@@ -19061,7 +19067,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="K454" s="3" t="s">
         <v>44</v>
@@ -19069,22 +19075,22 @@
     </row>
     <row r="455" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E455" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>75</v>
@@ -19100,7 +19106,7 @@
     </row>
     <row r="456" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" s="2" t="s">
@@ -19110,7 +19116,7 @@
         <v>14</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F456" s="2"/>
       <c r="G456" s="2" t="s">
@@ -19124,7 +19130,7 @@
     </row>
     <row r="457" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B457" s="3">
         <v>5.3</v>
@@ -19133,13 +19139,13 @@
         <v>63</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G457" s="3" t="s">
         <v>75</v>
@@ -19155,7 +19161,7 @@
     </row>
     <row r="458" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B458" s="2"/>
       <c r="C458" s="2" t="s">
@@ -19165,7 +19171,7 @@
         <v>14</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F458" s="2"/>
       <c r="G458" s="2" t="s">
@@ -19179,7 +19185,7 @@
     </row>
     <row r="459" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B459" s="2"/>
       <c r="C459" s="2" t="s">
@@ -19189,7 +19195,7 @@
         <v>14</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" s="2" t="s">
@@ -19203,7 +19209,7 @@
     </row>
     <row r="460" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>961</v>
@@ -19218,7 +19224,7 @@
         <v>41</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="G460" s="3" t="s">
         <v>113</v>
@@ -19234,7 +19240,7 @@
     </row>
     <row r="461" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B461" s="2"/>
       <c r="C461" s="2" t="s">
@@ -19244,7 +19250,7 @@
         <v>14</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F461" s="2"/>
       <c r="G461" s="2" t="s">
@@ -19258,10 +19264,10 @@
     </row>
     <row r="462" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>13</v>
@@ -19270,10 +19276,10 @@
         <v>53</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G462" s="2" t="s">
         <v>539</v>
@@ -19288,10 +19294,10 @@
     </row>
     <row r="463" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>13</v>
@@ -19303,7 +19309,7 @@
         <v>41</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G463" s="3" t="s">
         <v>539</v>
@@ -19321,10 +19327,10 @@
     </row>
     <row r="464" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>73</v>
@@ -19336,7 +19342,7 @@
         <v>41</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="G464" s="5" t="s">
         <v>927</v>
@@ -19349,10 +19355,10 @@
     </row>
     <row r="465" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="15" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B465" s="15" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C465" s="15" t="s">
         <v>13</v>
@@ -19373,12 +19379,12 @@
         <v>450</v>
       </c>
       <c r="K465" s="20" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="466" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>109</v>
@@ -19406,7 +19412,7 @@
     </row>
     <row r="467" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>109</v>
@@ -19421,7 +19427,7 @@
         <v>41</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G467" s="3" t="s">
         <v>113</v>
@@ -19437,7 +19443,7 @@
     </row>
     <row r="468" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>109</v>
@@ -19465,7 +19471,7 @@
     </row>
     <row r="469" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>109</v>
@@ -19480,7 +19486,7 @@
         <v>41</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G469" s="3" t="s">
         <v>113</v>
@@ -19496,10 +19502,10 @@
     </row>
     <row r="470" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>13</v>
@@ -19511,25 +19517,25 @@
         <v>41</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G470" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H470" s="5"/>
       <c r="I470" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="J470" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="471" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>13</v>
@@ -19541,7 +19547,7 @@
         <v>41</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G471" s="3" t="s">
         <v>66</v>
@@ -19559,7 +19565,7 @@
     </row>
     <row r="472" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" s="2" t="s">
@@ -19569,24 +19575,24 @@
         <v>14</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F472" s="2"/>
       <c r="G472" s="6" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H472" s="6"/>
       <c r="I472" s="6" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="J472" s="2"/>
     </row>
     <row r="473" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>13</v>
@@ -19595,10 +19601,10 @@
         <v>53</v>
       </c>
       <c r="E473" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F473" s="2" t="s">
         <v>1266</v>
-      </c>
-      <c r="F473" s="2" t="s">
-        <v>1268</v>
       </c>
       <c r="G473" s="2" t="s">
         <v>539</v>
@@ -19613,10 +19619,10 @@
     </row>
     <row r="474" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>13</v>
@@ -19628,7 +19634,7 @@
         <v>41</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G474" s="3" t="s">
         <v>539</v>
@@ -19646,7 +19652,7 @@
     </row>
     <row r="475" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>109</v>
@@ -19674,7 +19680,7 @@
     </row>
     <row r="476" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>109</v>
@@ -19689,7 +19695,7 @@
         <v>41</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G476" s="3" t="s">
         <v>113</v>
@@ -19705,7 +19711,7 @@
     </row>
     <row r="477" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B477" s="2"/>
       <c r="C477" s="2" t="s">
@@ -19715,27 +19721,27 @@
         <v>14</v>
       </c>
       <c r="E477" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G477" s="2" t="s">
         <v>1271</v>
-      </c>
-      <c r="F477" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G477" s="2" t="s">
-        <v>1273</v>
       </c>
       <c r="H477" s="2" t="s">
         <v>395</v>
       </c>
       <c r="I477" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="J477" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="478" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B478" s="5"/>
       <c r="C478" s="5" t="s">
@@ -19748,7 +19754,7 @@
         <v>41</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G478" s="5" t="s">
         <v>138</v>
@@ -19761,7 +19767,7 @@
     </row>
     <row r="479" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>495</v>
@@ -19789,7 +19795,7 @@
     </row>
     <row r="480" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>495</v>
@@ -19804,7 +19810,7 @@
         <v>41</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G480" s="3" t="s">
         <v>488</v>
@@ -19820,7 +19826,7 @@
     </row>
     <row r="481" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B481" s="2"/>
       <c r="C481" s="2" t="s">
@@ -19830,7 +19836,7 @@
         <v>14</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F481" s="2"/>
       <c r="G481" s="2" t="s">
@@ -19844,7 +19850,7 @@
     </row>
     <row r="482" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B482" s="2"/>
       <c r="C482" s="2" t="s">
@@ -19854,7 +19860,7 @@
         <v>14</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F482" s="2"/>
       <c r="G482" s="2" t="s">
@@ -19868,7 +19874,7 @@
     </row>
     <row r="483" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B483" s="5"/>
       <c r="C483" s="5" t="s">
@@ -19881,7 +19887,7 @@
         <v>41</v>
       </c>
       <c r="F483" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="G483" s="5" t="s">
         <v>96</v>
@@ -19896,7 +19902,7 @@
     </row>
     <row r="484" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B484" s="2"/>
       <c r="C484" s="2" t="s">
@@ -19906,7 +19912,7 @@
         <v>14</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F484" s="2"/>
       <c r="G484" s="2" t="s">
@@ -19917,12 +19923,12 @@
         <v>540</v>
       </c>
       <c r="J484" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="485" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B485" s="5" t="s">
         <v>205</v>
@@ -19937,22 +19943,22 @@
         <v>41</v>
       </c>
       <c r="F485" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G485" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="H485" s="5"/>
       <c r="I485" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="J485" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="486" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>109</v>
@@ -19980,7 +19986,7 @@
     </row>
     <row r="487" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>109</v>
@@ -19995,7 +20001,7 @@
         <v>41</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>113</v>
@@ -20011,7 +20017,7 @@
     </row>
     <row r="488" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B488" s="3">
         <v>2.6</v>
@@ -20026,7 +20032,7 @@
         <v>41</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G488" s="3" t="s">
         <v>66</v>
@@ -20044,7 +20050,7 @@
     </row>
     <row r="489" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B489" s="3">
         <v>3.2</v>
@@ -20059,7 +20065,7 @@
         <v>41</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G489" s="3" t="s">
         <v>66</v>
@@ -20075,12 +20081,12 @@
         <v>154</v>
       </c>
       <c r="L489" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="490" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>109</v>
@@ -20108,7 +20114,7 @@
     </row>
     <row r="491" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>109</v>
@@ -20123,7 +20129,7 @@
         <v>41</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G491" s="3" t="s">
         <v>113</v>
@@ -20139,7 +20145,7 @@
     </row>
     <row r="492" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>109</v>
@@ -20167,7 +20173,7 @@
     </row>
     <row r="493" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>109</v>
@@ -20182,7 +20188,7 @@
         <v>41</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="G493" s="3" t="s">
         <v>113</v>
@@ -20198,7 +20204,7 @@
     </row>
     <row r="494" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B494" s="3">
         <v>5</v>
@@ -20213,7 +20219,7 @@
         <v>41</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>66</v>
@@ -20229,12 +20235,12 @@
         <v>636</v>
       </c>
       <c r="L494" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="495" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>109</v>
@@ -20262,7 +20268,7 @@
     </row>
     <row r="496" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>109</v>
@@ -20277,7 +20283,7 @@
         <v>41</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G496" s="3" t="s">
         <v>113</v>
@@ -20293,7 +20299,7 @@
     </row>
     <row r="497" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>109</v>
@@ -20321,7 +20327,7 @@
     </row>
     <row r="498" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>109</v>
@@ -20336,7 +20342,7 @@
         <v>41</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G498" s="3" t="s">
         <v>113</v>
@@ -20352,7 +20358,7 @@
     </row>
     <row r="499" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>109</v>
@@ -20380,7 +20386,7 @@
     </row>
     <row r="500" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>109</v>
@@ -20395,7 +20401,7 @@
         <v>41</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G500" s="3" t="s">
         <v>113</v>
@@ -20411,7 +20417,7 @@
     </row>
     <row r="501" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>109</v>
@@ -20439,7 +20445,7 @@
     </row>
     <row r="502" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>109</v>
@@ -20454,7 +20460,7 @@
         <v>41</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="G502" s="3" t="s">
         <v>113</v>
@@ -20470,7 +20476,7 @@
     </row>
     <row r="503" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>109</v>
@@ -20498,7 +20504,7 @@
     </row>
     <row r="504" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>109</v>
@@ -20513,7 +20519,7 @@
         <v>41</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G504" s="3" t="s">
         <v>113</v>
@@ -20529,7 +20535,7 @@
     </row>
     <row r="505" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B505" s="2"/>
       <c r="C505" s="2" t="s">
@@ -20539,7 +20545,7 @@
         <v>14</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F505" s="2"/>
       <c r="G505" s="2" t="s">
@@ -20553,10 +20559,10 @@
     </row>
     <row r="506" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>182</v>
@@ -20568,22 +20574,22 @@
         <v>41</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H506" s="5"/>
       <c r="I506" s="5" t="s">
         <v>517</v>
       </c>
       <c r="J506" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="507" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>109</v>
@@ -20611,7 +20617,7 @@
     </row>
     <row r="508" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>109</v>
@@ -20626,7 +20632,7 @@
         <v>41</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G508" s="3" t="s">
         <v>113</v>
@@ -20642,7 +20648,7 @@
     </row>
     <row r="509" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B509" s="2">
         <v>2.2999999999999998</v>
@@ -20654,7 +20660,7 @@
         <v>53</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>23</v>
@@ -20672,7 +20678,7 @@
     </row>
     <row r="510" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B510" s="3">
         <v>2.2999999999999998</v>
@@ -20687,7 +20693,7 @@
         <v>41</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="G510" s="3" t="s">
         <v>539</v>
@@ -20705,7 +20711,7 @@
     </row>
     <row r="511" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>109</v>
@@ -20733,7 +20739,7 @@
     </row>
     <row r="512" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>109</v>
@@ -20748,7 +20754,7 @@
         <v>41</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="G512" s="3" t="s">
         <v>113</v>
@@ -20764,10 +20770,10 @@
     </row>
     <row r="513" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C513" s="5" t="s">
         <v>182</v>
@@ -20779,10 +20785,10 @@
         <v>41</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G513" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="H513" s="5"/>
       <c r="I513" s="5" t="s">
@@ -20792,10 +20798,10 @@
     </row>
     <row r="514" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C514" s="3" t="s">
         <v>182</v>
@@ -20807,10 +20813,10 @@
         <v>41</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="H514" s="3"/>
       <c r="I514" s="3" t="s">
@@ -20823,10 +20829,10 @@
     </row>
     <row r="515" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>13</v>
@@ -20838,10 +20844,10 @@
         <v>41</v>
       </c>
       <c r="F515" s="5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="H515" s="5"/>
       <c r="I515" s="5" t="s">
@@ -20851,7 +20857,7 @@
     </row>
     <row r="516" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B516" s="5"/>
       <c r="C516" s="5" t="s">
@@ -20864,10 +20870,10 @@
         <v>41</v>
       </c>
       <c r="F516" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="H516" s="5"/>
       <c r="I516" s="5" t="s">
@@ -20877,10 +20883,10 @@
     </row>
     <row r="517" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C517" s="3" t="s">
         <v>13</v>
@@ -20892,10 +20898,10 @@
         <v>41</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="H517" s="3"/>
       <c r="I517" s="3" t="s">
@@ -20908,7 +20914,7 @@
     </row>
     <row r="518" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>109</v>
@@ -20936,7 +20942,7 @@
     </row>
     <row r="519" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>109</v>
@@ -20951,7 +20957,7 @@
         <v>41</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="G519" s="3" t="s">
         <v>113</v>
@@ -20967,7 +20973,7 @@
     </row>
     <row r="520" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B520" s="2"/>
       <c r="C520" s="2" t="s">
@@ -20977,7 +20983,7 @@
         <v>14</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F520" s="2"/>
       <c r="G520" s="2" t="s">
@@ -20993,7 +20999,7 @@
     </row>
     <row r="521" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B521" s="3">
         <v>6</v>
@@ -21002,13 +21008,13 @@
         <v>13</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E521" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G521" s="3" t="s">
         <v>66</v>
@@ -21026,7 +21032,7 @@
     </row>
     <row r="522" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B522" s="2"/>
       <c r="C522" s="2" t="s">
@@ -21036,7 +21042,7 @@
         <v>14</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F522" s="2"/>
       <c r="G522" s="2" t="s">
@@ -21052,7 +21058,7 @@
     </row>
     <row r="523" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B523" s="3">
         <v>1</v>
@@ -21067,7 +21073,7 @@
         <v>41</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G523" s="3" t="s">
         <v>49</v>
@@ -21081,15 +21087,15 @@
         <v>456</v>
       </c>
       <c r="L523" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="524" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>13</v>
@@ -21101,7 +21107,7 @@
         <v>41</v>
       </c>
       <c r="F524" s="5" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G524" s="5" t="s">
         <v>96</v>
@@ -21116,7 +21122,7 @@
     </row>
     <row r="525" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B525" s="5"/>
       <c r="C525" s="5" t="s">
@@ -21129,7 +21135,7 @@
         <v>41</v>
       </c>
       <c r="F525" s="5" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G525" s="5" t="s">
         <v>96</v>
@@ -21144,7 +21150,7 @@
     </row>
     <row r="526" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>459</v>
@@ -21175,7 +21181,7 @@
     </row>
     <row r="527" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>81</v>
@@ -21187,7 +21193,7 @@
         <v>14</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>23</v>
@@ -21205,7 +21211,7 @@
     </row>
     <row r="528" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B528" s="3">
         <v>1.1000000000000001</v>
@@ -21236,7 +21242,7 @@
     </row>
     <row r="529" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B529" s="5"/>
       <c r="C529" s="5" t="s">
@@ -21249,7 +21255,7 @@
         <v>41</v>
       </c>
       <c r="F529" s="5" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G529" s="5" t="s">
         <v>66</v>
@@ -21264,7 +21270,7 @@
     </row>
     <row r="530" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B530" s="3">
         <v>7.3</v>
@@ -21279,7 +21285,7 @@
         <v>41</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G530" s="3" t="s">
         <v>66</v>
@@ -21295,12 +21301,12 @@
         <v>636</v>
       </c>
       <c r="L530" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="531" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>495</v>
@@ -21328,7 +21334,7 @@
     </row>
     <row r="532" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>495</v>
@@ -21343,7 +21349,7 @@
         <v>41</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G532" s="3" t="s">
         <v>488</v>
@@ -21359,7 +21365,7 @@
     </row>
     <row r="533" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>495</v>
@@ -21387,7 +21393,7 @@
     </row>
     <row r="534" spans="1:12" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>495</v>
@@ -21402,7 +21408,7 @@
         <v>41</v>
       </c>
       <c r="F534" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G534" s="3" t="s">
         <v>488</v>
@@ -21418,7 +21424,7 @@
     </row>
     <row r="535" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B535" s="5"/>
       <c r="C535" s="5" t="s">
@@ -21431,7 +21437,7 @@
         <v>41</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>258</v>
@@ -21444,7 +21450,7 @@
     </row>
     <row r="536" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B536" s="5"/>
       <c r="C536" s="5" t="s">
@@ -21457,7 +21463,7 @@
         <v>41</v>
       </c>
       <c r="F536" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>96</v>
@@ -21472,10 +21478,10 @@
     </row>
     <row r="537" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B537" s="5" t="s">
         <v>1367</v>
-      </c>
-      <c r="B537" s="5" t="s">
-        <v>1369</v>
       </c>
       <c r="C537" s="5" t="s">
         <v>13</v>
@@ -21487,7 +21493,7 @@
         <v>41</v>
       </c>
       <c r="F537" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G537" s="5" t="s">
         <v>96</v>
@@ -21502,7 +21508,7 @@
     </row>
     <row r="538" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B538" s="5"/>
       <c r="C538" s="5" t="s">
@@ -21515,7 +21521,7 @@
         <v>41</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G538" s="5" t="s">
         <v>96</v>
@@ -21530,7 +21536,7 @@
     </row>
     <row r="539" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B539" s="5"/>
       <c r="C539" s="5" t="s">
@@ -21543,23 +21549,23 @@
         <v>41</v>
       </c>
       <c r="F539" s="5" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H539" s="5"/>
       <c r="I539" s="5"/>
       <c r="J539" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="540" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C540" s="3" t="s">
         <v>73</v>
@@ -21571,14 +21577,14 @@
         <v>41</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G540" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H540" s="3"/>
       <c r="I540" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="J540" s="3"/>
       <c r="K540" s="3" t="s">
@@ -21587,7 +21593,7 @@
     </row>
     <row r="541" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B541" s="2"/>
       <c r="C541" s="2" t="s">
@@ -21597,21 +21603,21 @@
         <v>14</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F541" s="2"/>
       <c r="G541" s="6" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H541" s="6"/>
       <c r="I541" s="6" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="J541" s="2"/>
     </row>
     <row r="542" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B542" s="2"/>
       <c r="C542" s="2" t="s">
@@ -21621,7 +21627,7 @@
         <v>14</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" s="2" t="s">
@@ -21635,7 +21641,7 @@
     </row>
     <row r="543" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B543" s="3">
         <v>3.4</v>
@@ -21650,7 +21656,7 @@
         <v>41</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G543" s="3" t="s">
         <v>66</v>
@@ -21668,7 +21674,7 @@
     </row>
     <row r="544" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>109</v>
@@ -21696,7 +21702,7 @@
     </row>
     <row r="545" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>109</v>
@@ -21711,7 +21717,7 @@
         <v>41</v>
       </c>
       <c r="F545" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G545" s="3" t="s">
         <v>113</v>
@@ -21727,7 +21733,7 @@
     </row>
     <row r="546" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B546" s="5"/>
       <c r="C546" s="5" t="s">
@@ -21740,20 +21746,20 @@
         <v>41</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G546" s="5" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="H546" s="5"/>
       <c r="I546" s="5"/>
       <c r="J546" s="5" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="547" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B547" s="5"/>
       <c r="C547" s="5" t="s">
@@ -21766,48 +21772,48 @@
         <v>41</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="G547" s="5" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H547" s="5"/>
       <c r="I547" s="5"/>
       <c r="J547" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="548" spans="1:12" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="14" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B548" s="14"/>
       <c r="C548" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D548" s="14" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E548" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F548" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="G548" s="14" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H548" s="14"/>
       <c r="I548" s="14" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="J548" s="14" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="549" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B549" s="3">
         <v>6.1</v>
@@ -21816,13 +21822,13 @@
         <v>63</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E549" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G549" s="3" t="s">
         <v>66</v>
@@ -21838,12 +21844,12 @@
         <v>154</v>
       </c>
       <c r="L549" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="550" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>192</v>
@@ -21875,7 +21881,7 @@
     </row>
     <row r="551" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>192</v>
@@ -21890,7 +21896,7 @@
         <v>41</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="G551" s="3" t="s">
         <v>445</v>
@@ -21910,10 +21916,10 @@
     </row>
     <row r="552" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>13</v>
@@ -21925,7 +21931,7 @@
         <v>392</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="G552" s="2" t="s">
         <v>445</v>
@@ -21942,10 +21948,10 @@
     </row>
     <row r="553" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C553" s="3" t="s">
         <v>13</v>
@@ -21977,10 +21983,10 @@
     </row>
     <row r="554" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>13</v>
@@ -22009,10 +22015,10 @@
     </row>
     <row r="555" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C555" s="3" t="s">
         <v>13</v>
@@ -22044,10 +22050,10 @@
     </row>
     <row r="556" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>63</v>
@@ -22076,10 +22082,10 @@
     </row>
     <row r="557" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C557" s="3" t="s">
         <v>63</v>
@@ -22091,7 +22097,7 @@
         <v>41</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="G557" s="3" t="s">
         <v>445</v>
@@ -22111,10 +22117,10 @@
     </row>
     <row r="558" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>63</v>
@@ -22129,7 +22135,7 @@
         <v>393</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H558" s="2" t="s">
         <v>395</v>
@@ -22143,10 +22149,10 @@
     </row>
     <row r="559" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C559" s="3" t="s">
         <v>63</v>
@@ -22158,7 +22164,7 @@
         <v>41</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="G559" s="3" t="s">
         <v>445</v>
@@ -22178,10 +22184,10 @@
     </row>
     <row r="560" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>13</v>
@@ -22210,10 +22216,10 @@
     </row>
     <row r="561" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C561" s="3" t="s">
         <v>13</v>
@@ -22225,7 +22231,7 @@
         <v>41</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G561" s="3" t="s">
         <v>445</v>
@@ -22245,10 +22251,10 @@
     </row>
     <row r="562" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>13</v>
@@ -22277,10 +22283,10 @@
     </row>
     <row r="563" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C563" s="3" t="s">
         <v>13</v>
@@ -22292,7 +22298,7 @@
         <v>41</v>
       </c>
       <c r="F563" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G563" s="3" t="s">
         <v>445</v>
@@ -22312,7 +22318,7 @@
     </row>
     <row r="564" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B564" s="5"/>
       <c r="C564" s="5" t="s">
@@ -22325,7 +22331,7 @@
         <v>41</v>
       </c>
       <c r="F564" s="5" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G564" s="5" t="s">
         <v>184</v>
@@ -22338,10 +22344,10 @@
     </row>
     <row r="565" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>13</v>
@@ -22350,26 +22356,26 @@
         <v>14</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F565" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="H565" s="2"/>
       <c r="I565" s="2"/>
       <c r="J565" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="566" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C566" s="3" t="s">
         <v>13</v>
@@ -22381,15 +22387,15 @@
         <v>41</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G566" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="H566" s="3"/>
       <c r="I566" s="3"/>
       <c r="J566" s="3" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="K566" s="3" t="s">
         <v>44</v>
@@ -22397,7 +22403,7 @@
     </row>
     <row r="567" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>109</v>
@@ -22425,7 +22431,7 @@
     </row>
     <row r="568" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>109</v>
@@ -22440,7 +22446,7 @@
         <v>41</v>
       </c>
       <c r="F568" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G568" s="3" t="s">
         <v>113</v>
@@ -22456,7 +22462,7 @@
     </row>
     <row r="569" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B569" s="3">
         <v>7</v>
@@ -22471,7 +22477,7 @@
         <v>41</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G569" s="3" t="s">
         <v>66</v>
@@ -22489,7 +22495,7 @@
     </row>
     <row r="570" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B570" s="5"/>
       <c r="C570" s="5" t="s">
@@ -22502,7 +22508,7 @@
         <v>41</v>
       </c>
       <c r="F570" s="5" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G570" s="5" t="s">
         <v>184</v>
@@ -22515,7 +22521,7 @@
     </row>
     <row r="571" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>109</v>
@@ -22543,7 +22549,7 @@
     </row>
     <row r="572" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>109</v>
@@ -22558,7 +22564,7 @@
         <v>41</v>
       </c>
       <c r="F572" s="3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G572" s="3" t="s">
         <v>113</v>
@@ -22574,7 +22580,7 @@
     </row>
     <row r="573" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B573" s="5"/>
       <c r="C573" s="5" t="s">
@@ -22587,22 +22593,22 @@
         <v>41</v>
       </c>
       <c r="F573" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G573" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="H573" s="5"/>
       <c r="I573" s="5" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="J573" s="5" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="574" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>109</v>
@@ -22630,7 +22636,7 @@
     </row>
     <row r="575" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>109</v>
@@ -22645,7 +22651,7 @@
         <v>41</v>
       </c>
       <c r="F575" s="3" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G575" s="3" t="s">
         <v>113</v>
@@ -22661,10 +22667,10 @@
     </row>
     <row r="576" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>13</v>
@@ -22673,7 +22679,7 @@
         <v>14</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>796</v>
@@ -22689,7 +22695,7 @@
     </row>
     <row r="577" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>800</v>
@@ -22701,7 +22707,7 @@
         <v>14</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F577" s="2" t="s">
         <v>796</v>
@@ -22717,10 +22723,10 @@
     </row>
     <row r="578" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C578" s="3" t="s">
         <v>13</v>
@@ -22732,7 +22738,7 @@
         <v>41</v>
       </c>
       <c r="F578" s="3" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G578" s="3" t="s">
         <v>250</v>
@@ -22748,10 +22754,10 @@
     </row>
     <row r="579" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>13</v>
@@ -22760,7 +22766,7 @@
         <v>14</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="F579" s="2" t="s">
         <v>796</v>
@@ -22776,7 +22782,7 @@
     </row>
     <row r="580" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B580" s="3">
         <v>1</v>
@@ -22791,7 +22797,7 @@
         <v>41</v>
       </c>
       <c r="F580" s="3" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="G580" s="3" t="s">
         <v>250</v>
@@ -22807,7 +22813,7 @@
     </row>
     <row r="581" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B581" s="5"/>
       <c r="C581" s="5" t="s">
@@ -22820,7 +22826,7 @@
         <v>41</v>
       </c>
       <c r="F581" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="G581" s="5" t="s">
         <v>596</v>
@@ -22833,10 +22839,10 @@
     </row>
     <row r="582" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C582" s="5" t="s">
         <v>182</v>
@@ -22848,22 +22854,22 @@
         <v>41</v>
       </c>
       <c r="F582" s="5" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="G582" s="5" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H582" s="5"/>
       <c r="I582" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="J582" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="583" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B583" s="2"/>
       <c r="C583" s="2" t="s">
@@ -22873,7 +22879,7 @@
         <v>14</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="F583" s="2"/>
       <c r="G583" s="2" t="s">
@@ -22887,10 +22893,10 @@
     </row>
     <row r="584" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="15" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B584" s="15" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C584" s="15" t="s">
         <v>13</v>
@@ -22916,45 +22922,45 @@
     </row>
     <row r="585" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D585" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="B585" s="3" t="s">
+      <c r="E585" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F585" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="C585" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D585" s="3" t="s">
+      <c r="G585" s="3" t="s">
         <v>1461</v>
-      </c>
-      <c r="E585" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F585" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G585" s="3" t="s">
-        <v>1463</v>
       </c>
       <c r="H585" s="3" t="s">
         <v>395</v>
       </c>
       <c r="I585" s="3" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="J585" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K585" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L585" s="3" t="s">
         <v>1464</v>
-      </c>
-      <c r="K585" s="3" t="s">
-        <v>1465</v>
-      </c>
-      <c r="L585" s="3" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="586" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B586" s="2"/>
       <c r="C586" s="2" t="s">
@@ -22964,40 +22970,40 @@
         <v>14</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="F586" s="2"/>
       <c r="G586" s="6" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="H586" s="6" t="s">
         <v>395</v>
       </c>
       <c r="I586" s="6" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="J586" s="6" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="587" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C587" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E587" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F587" s="3" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="G587" s="3" t="s">
         <v>66</v>
@@ -23013,12 +23019,12 @@
         <v>456</v>
       </c>
       <c r="L587" s="3" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="588" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B588" s="3">
         <v>6</v>
@@ -23027,13 +23033,13 @@
         <v>182</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E588" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F588" s="3" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="G588" s="3" t="s">
         <v>66</v>
@@ -23049,12 +23055,12 @@
         <v>456</v>
       </c>
       <c r="L588" s="3" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="589" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B589" s="3">
         <v>6.2</v>
@@ -23063,13 +23069,13 @@
         <v>182</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E589" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F589" s="3" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="G589" s="3" t="s">
         <v>66</v>
@@ -23085,15 +23091,15 @@
         <v>456</v>
       </c>
       <c r="L589" s="3" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="590" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C590" s="3" t="s">
         <v>13</v>
@@ -23105,17 +23111,17 @@
         <v>41</v>
       </c>
       <c r="F590" s="3" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G590" s="3" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H590" s="3" t="s">
         <v>395</v>
       </c>
       <c r="I590" s="3"/>
       <c r="J590" s="3" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="K590" s="3" t="s">
         <v>44</v>
@@ -23123,7 +23129,7 @@
     </row>
     <row r="591" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B591" s="2"/>
       <c r="C591" s="2" t="s">
@@ -23133,7 +23139,7 @@
         <v>14</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="F591" s="2"/>
       <c r="G591" s="2" t="s">
@@ -23147,7 +23153,7 @@
     </row>
     <row r="592" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B592" s="5"/>
       <c r="C592" s="5" t="s">
@@ -23160,22 +23166,22 @@
         <v>41</v>
       </c>
       <c r="F592" s="5" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="G592" s="5" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H592" s="5"/>
       <c r="I592" s="5" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="J592" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="593" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B593" s="5"/>
       <c r="C593" s="5" t="s">
@@ -23188,20 +23194,20 @@
         <v>41</v>
       </c>
       <c r="F593" s="5" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="G593" s="5" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="H593" s="5"/>
       <c r="I593" s="5"/>
       <c r="J593" s="5" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="594" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B594" s="5"/>
       <c r="C594" s="5" t="s">
@@ -23214,7 +23220,7 @@
         <v>41</v>
       </c>
       <c r="F594" s="5" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="G594" s="5" t="s">
         <v>258</v>
@@ -23229,7 +23235,7 @@
     </row>
     <row r="595" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B595" s="3">
         <v>4.4000000000000004</v>
@@ -23244,7 +23250,7 @@
         <v>41</v>
       </c>
       <c r="F595" s="3" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="G595" s="3" t="s">
         <v>66</v>
@@ -23262,7 +23268,7 @@
     </row>
     <row r="596" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B596" s="2">
         <v>5.0999999999999996</v>
@@ -23274,10 +23280,10 @@
         <v>364</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="G596" s="2" t="s">
         <v>66</v>
@@ -23290,10 +23296,10 @@
     </row>
     <row r="597" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C597" s="5" t="s">
         <v>13</v>
@@ -23305,22 +23311,22 @@
         <v>41</v>
       </c>
       <c r="F597" s="5" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="G597" s="5" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H597" s="5"/>
       <c r="I597" s="5" t="s">
         <v>213</v>
       </c>
       <c r="J597" s="5" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="598" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B598" s="3">
         <v>1</v>
@@ -23335,7 +23341,7 @@
         <v>41</v>
       </c>
       <c r="F598" s="3" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="G598" s="3" t="s">
         <v>596</v>
@@ -23349,12 +23355,12 @@
         <v>636</v>
       </c>
       <c r="L598" s="3" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="599" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B599" s="5"/>
       <c r="C599" s="5" t="s">
@@ -23367,7 +23373,7 @@
         <v>41</v>
       </c>
       <c r="F599" s="5" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="G599" s="5" t="s">
         <v>596</v>
@@ -23380,7 +23386,7 @@
     </row>
     <row r="600" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>800</v>
@@ -23392,7 +23398,7 @@
         <v>14</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F600" s="2" t="s">
         <v>796</v>
@@ -23408,7 +23414,7 @@
     </row>
     <row r="601" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B601" s="2" t="s">
         <v>109</v>
@@ -23436,7 +23442,7 @@
     </row>
     <row r="602" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>109</v>
@@ -23451,7 +23457,7 @@
         <v>41</v>
       </c>
       <c r="F602" s="3" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="G602" s="3" t="s">
         <v>113</v>
@@ -23467,10 +23473,10 @@
     </row>
     <row r="603" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>13</v>
@@ -23479,10 +23485,10 @@
         <v>14</v>
       </c>
       <c r="E603" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F603" s="2" t="s">
         <v>1516</v>
-      </c>
-      <c r="F603" s="2" t="s">
-        <v>1518</v>
       </c>
       <c r="G603" s="2" t="s">
         <v>17</v>
@@ -23497,7 +23503,7 @@
     </row>
     <row r="604" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B604" s="3">
         <v>11</v>
@@ -23506,7 +23512,7 @@
         <v>13</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E604" s="4" t="s">
         <v>41</v>
@@ -23530,7 +23536,7 @@
     </row>
     <row r="605" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B605" s="2"/>
       <c r="C605" s="2" t="s">
@@ -23540,7 +23546,7 @@
         <v>14</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="F605" s="2"/>
       <c r="G605" s="2" t="s">
@@ -23554,7 +23560,7 @@
     </row>
     <row r="606" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B606" s="2"/>
       <c r="C606" s="2" t="s">
@@ -23564,7 +23570,7 @@
         <v>14</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="F606" s="2"/>
       <c r="G606" s="2" t="s">
@@ -23578,7 +23584,7 @@
     </row>
     <row r="607" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B607" s="2"/>
       <c r="C607" s="2" t="s">
@@ -23588,7 +23594,7 @@
         <v>14</v>
       </c>
       <c r="E607" s="2" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" s="2" t="s">
@@ -23602,7 +23608,7 @@
     </row>
     <row r="608" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B608" s="2"/>
       <c r="C608" s="2" t="s">
@@ -23612,7 +23618,7 @@
         <v>14</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="F608" s="2"/>
       <c r="G608" s="2" t="s">
@@ -23626,7 +23632,7 @@
     </row>
     <row r="609" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>420</v>
@@ -23635,7 +23641,7 @@
         <v>13</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E609" s="4" t="s">
         <v>41</v>
@@ -23655,15 +23661,15 @@
         <v>636</v>
       </c>
       <c r="L609" s="3" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="610" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C610" s="3" t="s">
         <v>13</v>
@@ -23675,7 +23681,7 @@
         <v>41</v>
       </c>
       <c r="F610" s="3" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="G610" s="3" t="s">
         <v>66</v>
@@ -23691,15 +23697,15 @@
         <v>636</v>
       </c>
       <c r="L610" s="3" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="611" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>13</v>
@@ -23708,7 +23714,7 @@
         <v>14</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="F611" s="2" t="s">
         <v>23</v>
@@ -23726,10 +23732,10 @@
     </row>
     <row r="612" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C612" s="3" t="s">
         <v>13</v>
@@ -23741,7 +23747,7 @@
         <v>41</v>
       </c>
       <c r="F612" s="3" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="G612" s="3" t="s">
         <v>539</v>
@@ -23759,7 +23765,7 @@
     </row>
     <row r="613" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B613" s="3">
         <v>4</v>
@@ -23774,7 +23780,7 @@
         <v>41</v>
       </c>
       <c r="F613" s="3" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="G613" s="3" t="s">
         <v>414</v>
@@ -23790,7 +23796,7 @@
     </row>
     <row r="614" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B614" s="3">
         <v>3.1</v>
@@ -23805,7 +23811,7 @@
         <v>41</v>
       </c>
       <c r="F614" s="3" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="G614" s="3" t="s">
         <v>49</v>
@@ -23821,7 +23827,7 @@
     </row>
     <row r="615" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B615" s="5"/>
       <c r="C615" s="5" t="s">
@@ -23834,20 +23840,20 @@
         <v>41</v>
       </c>
       <c r="F615" s="5" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="G615" s="5" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H615" s="5"/>
       <c r="I615" s="5"/>
       <c r="J615" s="5" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="616" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B616" s="5"/>
       <c r="C616" s="5" t="s">
@@ -23860,7 +23866,7 @@
         <v>41</v>
       </c>
       <c r="F616" s="5" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="G616" s="5" t="s">
         <v>596</v>
@@ -23873,7 +23879,7 @@
     </row>
     <row r="617" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B617" s="3">
         <v>6.2</v>
@@ -23888,7 +23894,7 @@
         <v>41</v>
       </c>
       <c r="F617" s="3" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="G617" s="3" t="s">
         <v>66</v>
@@ -23906,7 +23912,7 @@
     </row>
     <row r="618" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B618" s="3">
         <v>3.3</v>
@@ -23921,7 +23927,7 @@
         <v>41</v>
       </c>
       <c r="F618" s="3" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="G618" s="3" t="s">
         <v>49</v>
@@ -23937,7 +23943,7 @@
     </row>
     <row r="619" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B619" s="2"/>
       <c r="C619" s="2" t="s">
@@ -23947,7 +23953,7 @@
         <v>14</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F619" s="2"/>
       <c r="G619" s="2" t="s">
@@ -23961,7 +23967,7 @@
     </row>
     <row r="620" spans="1:12" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B620" s="3">
         <v>3.2</v>
@@ -23970,13 +23976,13 @@
         <v>13</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E620" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F620" s="3" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="G620" s="3" t="s">
         <v>66</v>
@@ -23992,12 +23998,12 @@
         <v>456</v>
       </c>
       <c r="L620" s="3" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="621" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B621" s="5"/>
       <c r="C621" s="5" t="s">
@@ -24010,20 +24016,20 @@
         <v>41</v>
       </c>
       <c r="F621" s="5" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="G621" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H621" s="5"/>
       <c r="I621" s="5"/>
       <c r="J621" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="622" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B622" s="5"/>
       <c r="C622" s="5" t="s">
@@ -24036,10 +24042,10 @@
         <v>41</v>
       </c>
       <c r="F622" s="5" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="G622" s="5" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H622" s="5"/>
       <c r="I622" s="5"/>
@@ -24049,7 +24055,7 @@
     </row>
     <row r="623" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B623" s="5"/>
       <c r="C623" s="5" t="s">
@@ -24062,20 +24068,20 @@
         <v>41</v>
       </c>
       <c r="F623" s="5" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="G623" s="5" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="H623" s="5"/>
       <c r="I623" s="5"/>
       <c r="J623" s="5" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="624" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B624" s="5"/>
       <c r="C624" s="5" t="s">
@@ -24088,20 +24094,20 @@
         <v>41</v>
       </c>
       <c r="F624" s="5" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="G624" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H624" s="5"/>
       <c r="I624" s="5"/>
       <c r="J624" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="625" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B625" s="5"/>
       <c r="C625" s="5" t="s">
@@ -24114,20 +24120,20 @@
         <v>41</v>
       </c>
       <c r="F625" s="5" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="G625" s="5" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="H625" s="5"/>
       <c r="I625" s="5"/>
       <c r="J625" s="5" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="626" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B626" s="5"/>
       <c r="C626" s="5" t="s">
@@ -24140,20 +24146,20 @@
         <v>41</v>
       </c>
       <c r="F626" s="5" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="G626" s="5" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="H626" s="5"/>
       <c r="I626" s="5"/>
       <c r="J626" s="5" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="627" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B627" s="5"/>
       <c r="C627" s="5" t="s">
@@ -24166,20 +24172,20 @@
         <v>41</v>
       </c>
       <c r="F627" s="5" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="G627" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H627" s="5"/>
       <c r="I627" s="5"/>
       <c r="J627" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="628" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B628" s="5"/>
       <c r="C628" s="5" t="s">
@@ -24192,20 +24198,20 @@
         <v>41</v>
       </c>
       <c r="F628" s="5" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="G628" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H628" s="5"/>
       <c r="I628" s="5"/>
       <c r="J628" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="629" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B629" s="5"/>
       <c r="C629" s="5" t="s">
@@ -24218,20 +24224,20 @@
         <v>41</v>
       </c>
       <c r="F629" s="5" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G629" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H629" s="5"/>
       <c r="I629" s="5"/>
       <c r="J629" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="630" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B630" s="5"/>
       <c r="C630" s="5" t="s">
@@ -24244,20 +24250,20 @@
         <v>41</v>
       </c>
       <c r="F630" s="5" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G630" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H630" s="5"/>
       <c r="I630" s="5"/>
       <c r="J630" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="631" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B631" s="5"/>
       <c r="C631" s="5" t="s">
@@ -24270,20 +24276,20 @@
         <v>41</v>
       </c>
       <c r="F631" s="5" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="G631" s="5" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="H631" s="5"/>
       <c r="I631" s="5"/>
       <c r="J631" s="5" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="632" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B632" s="5"/>
       <c r="C632" s="5" t="s">
@@ -24296,20 +24302,20 @@
         <v>41</v>
       </c>
       <c r="F632" s="5" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="G632" s="5" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H632" s="5"/>
       <c r="I632" s="5"/>
       <c r="J632" s="5" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="633" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="15" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B633" s="15">
         <v>11.2</v>
@@ -24333,12 +24339,12 @@
         <v>450</v>
       </c>
       <c r="K633" s="19" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="634" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B634" s="5"/>
       <c r="C634" s="5" t="s">
@@ -24351,7 +24357,7 @@
         <v>41</v>
       </c>
       <c r="F634" s="5" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="G634" s="5" t="s">
         <v>96</v>
@@ -24366,10 +24372,10 @@
     </row>
     <row r="635" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C635" s="5" t="s">
         <v>13</v>
@@ -24381,7 +24387,7 @@
         <v>41</v>
       </c>
       <c r="F635" s="5" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="G635" s="5" t="s">
         <v>220</v>
@@ -24396,7 +24402,7 @@
     </row>
     <row r="636" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B636" s="2" t="s">
         <v>109</v>
@@ -24424,7 +24430,7 @@
     </row>
     <row r="637" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>109</v>
@@ -24439,7 +24445,7 @@
         <v>41</v>
       </c>
       <c r="F637" s="3" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="G637" s="3" t="s">
         <v>113</v>
@@ -24455,7 +24461,7 @@
     </row>
     <row r="638" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B638" s="2" t="s">
         <v>109</v>
@@ -24483,7 +24489,7 @@
     </row>
     <row r="639" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>109</v>
@@ -24498,7 +24504,7 @@
         <v>41</v>
       </c>
       <c r="F639" s="3" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="G639" s="3" t="s">
         <v>113</v>
@@ -24514,7 +24520,7 @@
     </row>
     <row r="640" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B640" s="2" t="s">
         <v>109</v>
@@ -24542,7 +24548,7 @@
     </row>
     <row r="641" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>109</v>
@@ -24557,7 +24563,7 @@
         <v>41</v>
       </c>
       <c r="F641" s="3" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="G641" s="3" t="s">
         <v>113</v>
@@ -24573,10 +24579,10 @@
     </row>
     <row r="642" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C642" s="3" t="s">
         <v>13</v>
@@ -24602,15 +24608,15 @@
         <v>636</v>
       </c>
       <c r="L642" s="3" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="643" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>13</v>
@@ -24619,28 +24625,28 @@
         <v>14</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G643" s="2" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="H643" s="2"/>
       <c r="I643" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="J643" s="2" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="644" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C644" s="5" t="s">
         <v>13</v>
@@ -24652,25 +24658,25 @@
         <v>41</v>
       </c>
       <c r="F644" s="5" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="G644" s="5" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="H644" s="5"/>
       <c r="I644" s="5" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="J644" s="5" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="645" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C645" s="5" t="s">
         <v>13</v>
@@ -24682,22 +24688,22 @@
         <v>41</v>
       </c>
       <c r="F645" s="5" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="G645" s="5" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="H645" s="5"/>
       <c r="I645" s="5" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="J645" s="5" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="646" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B646" s="5"/>
       <c r="C646" s="5" t="s">
@@ -24710,25 +24716,25 @@
         <v>41</v>
       </c>
       <c r="F646" s="5" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="G646" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="H646" s="5"/>
       <c r="I646" s="5" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="J646" s="5" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="647" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>13</v>
@@ -24737,7 +24743,7 @@
         <v>14</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F647" s="2" t="s">
         <v>796</v>
@@ -24753,10 +24759,10 @@
     </row>
     <row r="648" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>13</v>
@@ -24765,7 +24771,7 @@
         <v>14</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F648" s="2" t="s">
         <v>796</v>
@@ -24781,7 +24787,7 @@
     </row>
     <row r="649" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B649" s="2" t="s">
         <v>677</v>
@@ -24793,7 +24799,7 @@
         <v>14</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="F649" s="2" t="s">
         <v>23</v>
@@ -24809,10 +24815,10 @@
     </row>
     <row r="650" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C650" s="3" t="s">
         <v>13</v>
@@ -24824,26 +24830,26 @@
         <v>41</v>
       </c>
       <c r="F650" s="3" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="G650" s="3" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="H650" s="3"/>
       <c r="I650" s="3"/>
       <c r="J650" s="3" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K650" s="3" t="s">
         <v>636</v>
       </c>
       <c r="L650" s="3" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="651" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B651" s="3">
         <v>15</v>
@@ -24858,7 +24864,7 @@
         <v>41</v>
       </c>
       <c r="F651" s="3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="G651" s="3" t="s">
         <v>66</v>
@@ -24876,22 +24882,22 @@
     </row>
     <row r="652" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E652" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F652" s="3" t="s">
         <v>1637</v>
-      </c>
-      <c r="B652" s="3" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C652" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D652" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E652" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F652" s="3" t="s">
-        <v>1639</v>
       </c>
       <c r="G652" s="3" t="s">
         <v>66</v>
@@ -24909,10 +24915,10 @@
     </row>
     <row r="653" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C653" s="3" t="s">
         <v>13</v>
@@ -24924,7 +24930,7 @@
         <v>41</v>
       </c>
       <c r="F653" s="3" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="G653" s="3" t="s">
         <v>66</v>
@@ -24942,7 +24948,7 @@
     </row>
     <row r="654" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B654" s="3">
         <v>4</v>
@@ -24957,7 +24963,7 @@
         <v>41</v>
       </c>
       <c r="F654" s="3" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="G654" s="3" t="s">
         <v>66</v>
@@ -24975,10 +24981,10 @@
     </row>
     <row r="655" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C655" s="3" t="s">
         <v>13</v>
@@ -24990,7 +24996,7 @@
         <v>41</v>
       </c>
       <c r="F655" s="3" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="G655" s="3" t="s">
         <v>66</v>
@@ -25008,7 +25014,7 @@
     </row>
     <row r="656" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B656" s="3">
         <v>1</v>
@@ -25023,7 +25029,7 @@
         <v>41</v>
       </c>
       <c r="F656" s="3" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="G656" s="3" t="s">
         <v>66</v>
@@ -25041,7 +25047,7 @@
     </row>
     <row r="657" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B657" s="3">
         <v>16.100000000000001</v>
@@ -25056,7 +25062,7 @@
         <v>41</v>
       </c>
       <c r="F657" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="G657" s="3" t="s">
         <v>66</v>
@@ -25074,7 +25080,7 @@
     </row>
     <row r="658" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B658" s="3">
         <v>4</v>
@@ -25083,13 +25089,13 @@
         <v>13</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E658" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F658" s="3" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="G658" s="3" t="s">
         <v>66</v>
@@ -25107,7 +25113,7 @@
     </row>
     <row r="659" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B659" s="3">
         <v>12</v>
@@ -25116,13 +25122,13 @@
         <v>13</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E659" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F659" s="3" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="G659" s="3" t="s">
         <v>66</v>
@@ -25140,7 +25146,7 @@
     </row>
     <row r="660" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B660" s="3">
         <v>1.5</v>
@@ -25155,7 +25161,7 @@
         <v>41</v>
       </c>
       <c r="F660" s="3" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="G660" s="3" t="s">
         <v>66</v>
@@ -25173,10 +25179,10 @@
     </row>
     <row r="661" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C661" s="3" t="s">
         <v>63</v>
@@ -25188,7 +25194,7 @@
         <v>41</v>
       </c>
       <c r="F661" s="3" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="G661" s="3" t="s">
         <v>66</v>
@@ -25206,10 +25212,10 @@
     </row>
     <row r="662" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C662" s="3" t="s">
         <v>13</v>
@@ -25221,7 +25227,7 @@
         <v>41</v>
       </c>
       <c r="F662" s="3" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="G662" s="3" t="s">
         <v>66</v>
@@ -25239,10 +25245,10 @@
     </row>
     <row r="663" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C663" s="5" t="s">
         <v>13</v>
@@ -25254,25 +25260,25 @@
         <v>41</v>
       </c>
       <c r="F663" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G663" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="H663" s="5"/>
       <c r="I663" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="J663" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="664" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C664" s="3" t="s">
         <v>13</v>
@@ -25298,15 +25304,15 @@
         <v>636</v>
       </c>
       <c r="L664" s="3" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="665" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C665" s="3" t="s">
         <v>13</v>
@@ -25332,15 +25338,15 @@
         <v>636</v>
       </c>
       <c r="L665" s="3" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="666" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C666" s="3" t="s">
         <v>13</v>
@@ -25366,15 +25372,15 @@
         <v>636</v>
       </c>
       <c r="L666" s="3" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="667" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C667" s="3" t="s">
         <v>13</v>
@@ -25400,15 +25406,15 @@
         <v>636</v>
       </c>
       <c r="L667" s="3" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="668" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C668" s="3" t="s">
         <v>13</v>
@@ -25434,15 +25440,15 @@
         <v>636</v>
       </c>
       <c r="L668" s="3" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="669" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C669" s="3" t="s">
         <v>13</v>
@@ -25468,15 +25474,15 @@
         <v>636</v>
       </c>
       <c r="L669" s="3" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="670" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C670" s="3" t="s">
         <v>13</v>
@@ -25502,15 +25508,15 @@
         <v>636</v>
       </c>
       <c r="L670" s="3" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="671" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C671" s="3" t="s">
         <v>13</v>
@@ -25536,15 +25542,15 @@
         <v>636</v>
       </c>
       <c r="L671" s="3" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="672" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C672" s="3" t="s">
         <v>13</v>
@@ -25570,15 +25576,15 @@
         <v>636</v>
       </c>
       <c r="L672" s="3" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="673" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C673" s="3" t="s">
         <v>13</v>
@@ -25604,15 +25610,15 @@
         <v>636</v>
       </c>
       <c r="L673" s="3" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="674" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C674" s="3" t="s">
         <v>13</v>
@@ -25638,15 +25644,15 @@
         <v>636</v>
       </c>
       <c r="L674" s="3" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="675" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="C675" s="3" t="s">
         <v>13</v>
@@ -25672,12 +25678,12 @@
         <v>636</v>
       </c>
       <c r="L675" s="3" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="676" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B676" s="5"/>
       <c r="C676" s="5" t="s">
@@ -25690,7 +25696,7 @@
         <v>41</v>
       </c>
       <c r="F676" s="5" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G676" s="5" t="s">
         <v>414</v>
@@ -25703,10 +25709,10 @@
     </row>
     <row r="677" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C677" s="3" t="s">
         <v>182</v>
@@ -25721,7 +25727,7 @@
         <v>747</v>
       </c>
       <c r="G677" s="3" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="H677" s="3"/>
       <c r="I677" s="3" t="s">
@@ -25732,15 +25738,15 @@
         <v>636</v>
       </c>
       <c r="L677" s="3" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="678" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C678" s="3" t="s">
         <v>182</v>
@@ -25752,7 +25758,7 @@
         <v>41</v>
       </c>
       <c r="F678" s="3" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="G678" s="3" t="s">
         <v>66</v>
@@ -25770,22 +25776,22 @@
     </row>
     <row r="679" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C679" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D679" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E679" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F679" s="3" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="G679" s="3" t="s">
         <v>75</v>
@@ -25801,10 +25807,10 @@
     </row>
     <row r="680" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C680" s="3" t="s">
         <v>13</v>
@@ -25830,15 +25836,15 @@
         <v>409</v>
       </c>
       <c r="L680" s="3" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="681" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C681" s="3" t="s">
         <v>13</v>
@@ -25850,7 +25856,7 @@
         <v>41</v>
       </c>
       <c r="F681" s="3" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="G681" s="3" t="s">
         <v>66</v>
@@ -25866,15 +25872,15 @@
         <v>409</v>
       </c>
       <c r="L681" s="13" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="682" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="C682" s="3" t="s">
         <v>13</v>
@@ -25886,7 +25892,7 @@
         <v>41</v>
       </c>
       <c r="F682" s="3" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="G682" s="3" t="s">
         <v>66</v>
@@ -25904,10 +25910,10 @@
     </row>
     <row r="683" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C683" s="3" t="s">
         <v>13</v>
@@ -25919,7 +25925,7 @@
         <v>41</v>
       </c>
       <c r="F683" s="3" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="G683" s="3" t="s">
         <v>66</v>
@@ -25935,15 +25941,15 @@
         <v>409</v>
       </c>
       <c r="L683" s="3" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="684" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>13</v>
@@ -25952,7 +25958,7 @@
         <v>14</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F684" s="2"/>
       <c r="G684" s="2" t="s">
@@ -25968,22 +25974,22 @@
     </row>
     <row r="685" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B685" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D685" s="3" t="s">
         <v>1726</v>
       </c>
-      <c r="C685" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D685" s="3" t="s">
-        <v>1728</v>
-      </c>
       <c r="E685" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F685" s="3" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="G685" s="3" t="s">
         <v>17</v>
@@ -26002,7 +26008,7 @@
     </row>
     <row r="686" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B686" s="3">
         <v>3.3</v>
@@ -26017,7 +26023,7 @@
         <v>41</v>
       </c>
       <c r="F686" s="3" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="G686" s="3" t="s">
         <v>414</v>
@@ -26031,15 +26037,15 @@
         <v>636</v>
       </c>
       <c r="L686" s="3" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="687" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C687" s="5" t="s">
         <v>110</v>
@@ -26051,7 +26057,7 @@
         <v>41</v>
       </c>
       <c r="F687" s="5" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="G687" s="5" t="s">
         <v>313</v>
@@ -26066,7 +26072,7 @@
     </row>
     <row r="688" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="B688" s="2"/>
       <c r="C688" s="2" t="s">
@@ -26076,7 +26082,7 @@
         <v>14</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="F688" s="2"/>
       <c r="G688" s="2" t="s">
@@ -26090,7 +26096,7 @@
     </row>
     <row r="689" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B689" s="5"/>
       <c r="C689" s="5" t="s">
@@ -26103,7 +26109,7 @@
         <v>41</v>
       </c>
       <c r="F689" s="5" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="G689" s="5" t="s">
         <v>401</v>
@@ -26113,12 +26119,12 @@
         <v>168</v>
       </c>
       <c r="J689" s="5" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="690" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B690" s="5"/>
       <c r="C690" s="5" t="s">
@@ -26131,7 +26137,7 @@
         <v>41</v>
       </c>
       <c r="F690" s="5" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="G690" s="5" t="s">
         <v>536</v>
@@ -26144,10 +26150,10 @@
     </row>
     <row r="691" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C691" s="3" t="s">
         <v>110</v>
@@ -26159,7 +26165,7 @@
         <v>41</v>
       </c>
       <c r="F691" s="3" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G691" s="3" t="s">
         <v>113</v>
@@ -26175,10 +26181,10 @@
     </row>
     <row r="692" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C692" s="5" t="s">
         <v>13</v>
@@ -26190,25 +26196,25 @@
         <v>41</v>
       </c>
       <c r="F692" s="5" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="G692" s="5" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="H692" s="5"/>
       <c r="I692" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J692" s="5" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="693" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>13</v>
@@ -26217,26 +26223,26 @@
         <v>14</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F693" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G693" s="2" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="H693" s="2"/>
       <c r="I693" s="2"/>
       <c r="J693" s="2" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="694" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C694" s="3" t="s">
         <v>13</v>
@@ -26248,15 +26254,15 @@
         <v>41</v>
       </c>
       <c r="F694" s="3" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G694" s="3" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="H694" s="3"/>
       <c r="I694" s="3"/>
       <c r="J694" s="3" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="K694" s="3" t="s">
         <v>44</v>
@@ -26264,7 +26270,7 @@
     </row>
     <row r="695" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B695" s="3">
         <v>2.4</v>
@@ -26279,15 +26285,15 @@
         <v>41</v>
       </c>
       <c r="F695" s="3" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="G695" s="3" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="H695" s="3"/>
       <c r="I695" s="3"/>
       <c r="J695" s="3" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="K695" s="3" t="s">
         <v>44</v>
@@ -26295,7 +26301,7 @@
     </row>
     <row r="696" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B696" s="2">
         <v>3.1</v>
@@ -26307,25 +26313,25 @@
         <v>14</v>
       </c>
       <c r="E696" s="2" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F696" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G696" s="2" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="H696" s="2"/>
       <c r="I696" s="2" t="s">
         <v>314</v>
       </c>
       <c r="J696" s="2" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="697" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>833</v>
@@ -26340,7 +26346,7 @@
         <v>41</v>
       </c>
       <c r="F697" s="3" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="G697" s="3" t="s">
         <v>113</v>
@@ -26356,7 +26362,7 @@
     </row>
     <row r="698" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B698" s="2" t="s">
         <v>109</v>
@@ -26384,7 +26390,7 @@
     </row>
     <row r="699" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>109</v>
@@ -26399,7 +26405,7 @@
         <v>41</v>
       </c>
       <c r="F699" s="3" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="G699" s="3" t="s">
         <v>113</v>
@@ -26415,10 +26421,10 @@
     </row>
     <row r="700" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C700" s="3" t="s">
         <v>13</v>
@@ -26430,7 +26436,7 @@
         <v>41</v>
       </c>
       <c r="F700" s="3" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="G700" s="3" t="s">
         <v>66</v>
@@ -26446,12 +26452,12 @@
         <v>636</v>
       </c>
       <c r="L700" s="3" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="701" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B701" s="2"/>
       <c r="C701" s="2" t="s">
@@ -26461,7 +26467,7 @@
         <v>14</v>
       </c>
       <c r="E701" s="2" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="F701" s="2"/>
       <c r="G701" s="2" t="s">
@@ -26475,10 +26481,10 @@
     </row>
     <row r="702" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="C702" s="3" t="s">
         <v>110</v>
@@ -26490,17 +26496,17 @@
         <v>41</v>
       </c>
       <c r="F702" s="3" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="G702" s="3" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H702" s="3" t="s">
         <v>395</v>
       </c>
       <c r="I702" s="3"/>
       <c r="J702" s="3" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="K702" s="3" t="s">
         <v>44</v>
@@ -26508,7 +26514,7 @@
     </row>
     <row r="703" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B703" s="5" t="s">
         <v>20</v>
@@ -26523,7 +26529,7 @@
         <v>41</v>
       </c>
       <c r="F703" s="5" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="G703" s="5" t="s">
         <v>24</v>
@@ -26538,7 +26544,7 @@
     </row>
     <row r="704" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B704" s="5"/>
       <c r="C704" s="5" t="s">
@@ -26551,20 +26557,20 @@
         <v>41</v>
       </c>
       <c r="F704" s="5" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="G704" s="5" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H704" s="5"/>
       <c r="I704" s="5"/>
       <c r="J704" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="705" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B705" s="5"/>
       <c r="C705" s="5" t="s">
@@ -26575,7 +26581,7 @@
       </c>
       <c r="E705" s="5"/>
       <c r="F705" s="5" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="G705" s="5" t="s">
         <v>566</v>
@@ -26588,10 +26594,10 @@
     </row>
     <row r="706" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>13</v>
@@ -26606,7 +26612,7 @@
         <v>920</v>
       </c>
       <c r="G706" s="5" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="H706" s="5"/>
       <c r="I706" s="5" t="s">
@@ -26618,7 +26624,7 @@
     </row>
     <row r="707" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B707" s="5"/>
       <c r="C707" s="5" t="s">
@@ -26629,7 +26635,7 @@
       </c>
       <c r="E707" s="5"/>
       <c r="F707" s="5" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="G707" s="5" t="s">
         <v>75</v>
@@ -26642,7 +26648,7 @@
     </row>
     <row r="708" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B708" s="5"/>
       <c r="C708" s="5" t="s">
@@ -26655,7 +26661,7 @@
         <v>41</v>
       </c>
       <c r="F708" s="5" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="G708" s="5" t="s">
         <v>250</v>
@@ -26668,7 +26674,7 @@
     </row>
     <row r="709" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B709" s="5"/>
       <c r="C709" s="5" t="s">
@@ -26681,7 +26687,7 @@
         <v>41</v>
       </c>
       <c r="F709" s="5" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="G709" s="5" t="s">
         <v>313</v>
@@ -26696,7 +26702,7 @@
     </row>
     <row r="710" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B710" s="5"/>
       <c r="C710" s="5" t="s">
@@ -26709,15 +26715,15 @@
         <v>41</v>
       </c>
       <c r="F710" s="5" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="G710" s="5" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="H710" s="5"/>
       <c r="I710" s="5"/>
       <c r="J710" s="5" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
   </sheetData>
@@ -27042,15 +27048,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
     <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
     <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>

--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Contact Matrix'!$A$1:$L$717</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3077,6 +3077,12 @@
     <t>CSCR801/InterTest</t>
   </si>
   <si>
+    <t>[{"PMFKEY":"dvoin01"}]</t>
+  </si>
+  <si>
+    <t>dvoin01;morma37</t>
+  </si>
+  <si>
     <t>InterTest for CICS</t>
   </si>
   <si>
@@ -3575,6 +3581,12 @@
     <t>srigi02</t>
   </si>
   <si>
+    <t>NSM R11.2_HAS</t>
+  </si>
+  <si>
+    <t>CSCR905/NSM R11.2</t>
+  </si>
+  <si>
     <t>Oblicore</t>
   </si>
   <si>
@@ -5490,18 +5502,6 @@
   </si>
   <si>
     <t>varsr03</t>
-  </si>
-  <si>
-    <t>NSM R11.2_HAS</t>
-  </si>
-  <si>
-    <t>[{"PMFKEY":"dvoin01"}]</t>
-  </si>
-  <si>
-    <t>dvoin01;morma37</t>
-  </si>
-  <si>
-    <t>CSCR905/NSM R11.2</t>
   </si>
 </sst>
 </file>
@@ -16228,22 +16228,22 @@
         <v>1015</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1822</v>
+        <v>1016</v>
       </c>
       <c r="H356" s="5"/>
       <c r="I356" s="5" t="s">
         <v>229</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1823</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="357" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>13</v>
@@ -16252,7 +16252,7 @@
         <v>14</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>823</v>
@@ -16265,15 +16265,15 @@
         <v>545</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="358" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>13</v>
@@ -16285,7 +16285,7 @@
         <v>41</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>55</v>
@@ -16301,7 +16301,7 @@
     </row>
     <row r="359" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" s="2" t="s">
@@ -16311,7 +16311,7 @@
         <v>14</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="2" t="s">
@@ -16327,7 +16327,7 @@
     </row>
     <row r="360" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B360" s="5"/>
       <c r="C360" s="5" t="s">
@@ -16340,20 +16340,20 @@
         <v>41</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="361" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B361" s="5"/>
       <c r="C361" s="5" t="s">
@@ -16366,22 +16366,22 @@
         <v>41</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="H361" s="5"/>
       <c r="I361" s="5" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="362" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B362" s="5"/>
       <c r="C362" s="5" t="s">
@@ -16394,22 +16394,22 @@
         <v>41</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="H362" s="5"/>
       <c r="I362" s="5" t="s">
         <v>102</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="363" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" s="2" t="s">
@@ -16419,7 +16419,7 @@
         <v>14</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="2" t="s">
@@ -16435,7 +16435,7 @@
     </row>
     <row r="364" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B364" s="3">
         <v>6.2</v>
@@ -16444,13 +16444,13 @@
         <v>69</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E364" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="G364" s="3" t="s">
         <v>71</v>
@@ -16468,10 +16468,10 @@
     </row>
     <row r="365" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>13</v>
@@ -16483,7 +16483,7 @@
         <v>41</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="G365" s="3" t="s">
         <v>71</v>
@@ -16499,15 +16499,15 @@
         <v>664</v>
       </c>
       <c r="L365" s="3" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="366" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>13</v>
@@ -16516,7 +16516,7 @@
         <v>14</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>23</v>
@@ -16534,7 +16534,7 @@
     </row>
     <row r="367" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B367" s="5"/>
       <c r="C367" s="5" t="s">
@@ -16547,22 +16547,22 @@
         <v>41</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H367" s="5"/>
       <c r="I367" s="5" t="s">
         <v>184</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="368" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" s="2" t="s">
@@ -16572,7 +16572,7 @@
         <v>14</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2" t="s">
@@ -16588,7 +16588,7 @@
     </row>
     <row r="369" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B369" s="3">
         <v>4.5999999999999996</v>
@@ -16603,7 +16603,7 @@
         <v>41</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>71</v>
@@ -16621,10 +16621,10 @@
     </row>
     <row r="370" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="15" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C370" s="15" t="s">
         <v>13</v>
@@ -16645,12 +16645,12 @@
         <v>478</v>
       </c>
       <c r="K370" s="15" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="371" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>86</v>
@@ -16662,7 +16662,7 @@
         <v>14</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>23</v>
@@ -16683,19 +16683,19 @@
         <v>124</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G372" s="2" t="s">
         <v>141</v>
@@ -16708,7 +16708,7 @@
     </row>
     <row r="373" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B373" s="5"/>
       <c r="C373" s="5" t="s">
@@ -16721,7 +16721,7 @@
         <v>41</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>237</v>
@@ -16734,7 +16734,7 @@
     </row>
     <row r="374" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B374" s="5"/>
       <c r="C374" s="5" t="s">
@@ -16747,20 +16747,20 @@
         <v>41</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
       <c r="J374" s="5" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="375" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>114</v>
@@ -16788,7 +16788,7 @@
     </row>
     <row r="376" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>114</v>
@@ -16803,7 +16803,7 @@
         <v>41</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>118</v>
@@ -16819,7 +16819,7 @@
     </row>
     <row r="377" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>114</v>
@@ -16847,7 +16847,7 @@
     </row>
     <row r="378" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>114</v>
@@ -16862,7 +16862,7 @@
         <v>41</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>118</v>
@@ -16878,7 +16878,7 @@
     </row>
     <row r="379" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>993</v>
@@ -16893,7 +16893,7 @@
         <v>41</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="G379" s="3" t="s">
         <v>118</v>
@@ -16909,10 +16909,10 @@
     </row>
     <row r="380" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>13</v>
@@ -16921,26 +16921,26 @@
         <v>14</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
       <c r="J380" s="2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="381" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>13</v>
@@ -16952,15 +16952,15 @@
         <v>41</v>
       </c>
       <c r="F381" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G381" s="3" t="s">
         <v>1080</v>
-      </c>
-      <c r="G381" s="3" t="s">
-        <v>1078</v>
       </c>
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="K381" s="3" t="s">
         <v>44</v>
@@ -16968,10 +16968,10 @@
     </row>
     <row r="382" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>13</v>
@@ -16980,7 +16980,7 @@
         <v>59</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>421</v>
@@ -16998,10 +16998,10 @@
     </row>
     <row r="383" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>13</v>
@@ -17013,7 +17013,7 @@
         <v>41</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>29</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="384" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" s="2" t="s">
@@ -17041,7 +17041,7 @@
         <v>14</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" s="2" t="s">
@@ -17055,7 +17055,7 @@
     </row>
     <row r="385" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" s="2" t="s">
@@ -17065,7 +17065,7 @@
         <v>14</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" s="2" t="s">
@@ -17079,10 +17079,10 @@
     </row>
     <row r="386" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>13</v>
@@ -17091,7 +17091,7 @@
         <v>14</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>823</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="387" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B387" s="5"/>
       <c r="C387" s="5" t="s">
@@ -17120,7 +17120,7 @@
         <v>41</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G387" s="5" t="s">
         <v>273</v>
@@ -17133,7 +17133,7 @@
     </row>
     <row r="388" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>944</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="389" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>944</v>
@@ -17180,7 +17180,7 @@
         <v>41</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>473</v>
@@ -17200,40 +17200,40 @@
     </row>
     <row r="390" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="H390" s="2"/>
       <c r="I390" s="2" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="J390" s="2" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="391" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C391" s="14" t="s">
         <v>13</v>
@@ -17245,22 +17245,22 @@
         <v>41</v>
       </c>
       <c r="F391" s="14" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="G391" s="14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="H391" s="14"/>
       <c r="I391" s="14" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="J391" s="14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="392" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B392" s="3">
         <v>4.3</v>
@@ -17275,7 +17275,7 @@
         <v>41</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>195</v>
@@ -17291,10 +17291,10 @@
     </row>
     <row r="393" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>13</v>
@@ -17306,7 +17306,7 @@
         <v>41</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G393" s="3" t="s">
         <v>71</v>
@@ -17322,12 +17322,12 @@
         <v>437</v>
       </c>
       <c r="L393" s="3" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="394" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" s="2" t="s">
@@ -17337,23 +17337,23 @@
         <v>14</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="H394" s="2"/>
       <c r="I394" s="2" t="s">
         <v>111</v>
       </c>
       <c r="J394" s="2" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="395" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B395" s="3">
         <v>3.4</v>
@@ -17368,7 +17368,7 @@
         <v>41</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="G395" s="3" t="s">
         <v>273</v>
@@ -17384,7 +17384,7 @@
     </row>
     <row r="396" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>114</v>
@@ -17412,7 +17412,7 @@
     </row>
     <row r="397" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>114</v>
@@ -17427,7 +17427,7 @@
         <v>41</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="G397" s="3" t="s">
         <v>118</v>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="398" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B398" s="3">
         <v>1.1000000000000001</v>
@@ -17458,15 +17458,15 @@
         <v>41</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="K398" s="3" t="s">
         <v>44</v>
@@ -17474,7 +17474,7 @@
     </row>
     <row r="399" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" s="2" t="s">
@@ -17484,21 +17484,21 @@
         <v>14</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="2" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
       <c r="J399" s="2" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="400" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B400" s="5"/>
       <c r="C400" s="5" t="s">
@@ -17511,10 +17511,10 @@
         <v>41</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H400" s="5"/>
       <c r="I400" s="5" t="s">
@@ -17526,7 +17526,7 @@
     </row>
     <row r="401" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" s="2" t="s">
@@ -17536,7 +17536,7 @@
         <v>14</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2" t="s">
@@ -17552,7 +17552,7 @@
     </row>
     <row r="402" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B402" s="5"/>
       <c r="C402" s="5" t="s">
@@ -17565,14 +17565,14 @@
         <v>41</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="H402" s="5"/>
       <c r="I402" s="5" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="J402" s="5" t="s">
         <v>278</v>
@@ -17580,7 +17580,7 @@
     </row>
     <row r="403" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B403" s="5"/>
       <c r="C403" s="5" t="s">
@@ -17593,10 +17593,10 @@
         <v>41</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
@@ -17606,10 +17606,10 @@
     </row>
     <row r="404" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>13</v>
@@ -17621,17 +17621,17 @@
         <v>41</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H404" s="3"/>
       <c r="I404" s="3" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="K404" s="3" t="s">
         <v>44</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="405" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B405" s="5"/>
       <c r="C405" s="5" t="s">
@@ -17652,22 +17652,22 @@
         <v>41</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H405" s="5"/>
       <c r="I405" s="5" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="406" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B406" s="3">
         <v>2</v>
@@ -17682,7 +17682,7 @@
         <v>41</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G406" s="3" t="s">
         <v>195</v>
@@ -17698,10 +17698,10 @@
     </row>
     <row r="407" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>13</v>
@@ -17710,7 +17710,7 @@
         <v>59</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>421</v>
@@ -17728,10 +17728,10 @@
     </row>
     <row r="408" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>13</v>
@@ -17743,7 +17743,7 @@
         <v>41</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>29</v>
@@ -17761,10 +17761,10 @@
     </row>
     <row r="409" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>69</v>
@@ -17776,7 +17776,7 @@
         <v>41</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G409" s="5" t="s">
         <v>71</v>
@@ -17791,7 +17791,7 @@
     </row>
     <row r="410" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B410" s="5"/>
       <c r="C410" s="5" t="s">
@@ -17804,15 +17804,15 @@
         <v>41</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
       <c r="J410" s="5" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="411" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17829,21 +17829,21 @@
         <v>14</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F411" s="2"/>
       <c r="G411" s="2" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
       <c r="J411" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="412" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B412" s="5"/>
       <c r="C412" s="5" t="s">
@@ -17856,10 +17856,10 @@
         <v>41</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H412" s="5"/>
       <c r="I412" s="5" t="s">
@@ -17869,7 +17869,7 @@
     </row>
     <row r="413" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B413" s="3">
         <v>4.9000000000000004</v>
@@ -17884,7 +17884,7 @@
         <v>41</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G413" s="3" t="s">
         <v>55</v>
@@ -17900,10 +17900,10 @@
     </row>
     <row r="414" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>13</v>
@@ -17923,15 +17923,15 @@
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
       <c r="J414" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="415" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>13</v>
@@ -17943,7 +17943,7 @@
         <v>41</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="G415" s="3" t="s">
         <v>422</v>
@@ -17951,7 +17951,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="K415" s="3" t="s">
         <v>44</v>
@@ -17959,10 +17959,10 @@
     </row>
     <row r="416" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>13</v>
@@ -17977,7 +17977,7 @@
         <v>421</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H416" s="2" t="s">
         <v>423</v>
@@ -17991,10 +17991,10 @@
     </row>
     <row r="417" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>13</v>
@@ -18009,7 +18009,7 @@
         <v>426</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H417" s="3" t="s">
         <v>423</v>
@@ -18026,10 +18026,10 @@
     </row>
     <row r="418" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>1164</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>1162</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>13</v>
@@ -18044,7 +18044,7 @@
         <v>421</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H418" s="2" t="s">
         <v>423</v>
@@ -18058,10 +18058,10 @@
     </row>
     <row r="419" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B419" s="3" t="s">
         <v>1164</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>1162</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>13</v>
@@ -18076,7 +18076,7 @@
         <v>426</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H419" s="3" t="s">
         <v>423</v>
@@ -18093,10 +18093,10 @@
     </row>
     <row r="420" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>13</v>
@@ -18111,7 +18111,7 @@
         <v>421</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H420" s="2" t="s">
         <v>423</v>
@@ -18125,10 +18125,10 @@
     </row>
     <row r="421" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>13</v>
@@ -18143,7 +18143,7 @@
         <v>426</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H421" s="3" t="s">
         <v>423</v>
@@ -18160,10 +18160,10 @@
     </row>
     <row r="422" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>13</v>
@@ -18178,7 +18178,7 @@
         <v>421</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H422" s="2" t="s">
         <v>423</v>
@@ -18192,10 +18192,10 @@
     </row>
     <row r="423" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>13</v>
@@ -18210,7 +18210,7 @@
         <v>426</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H423" s="3" t="s">
         <v>423</v>
@@ -18227,10 +18227,10 @@
     </row>
     <row r="424" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>69</v>
@@ -18245,7 +18245,7 @@
         <v>421</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H424" s="2" t="s">
         <v>423</v>
@@ -18259,10 +18259,10 @@
     </row>
     <row r="425" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>69</v>
@@ -18274,10 +18274,10 @@
         <v>41</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H425" s="3" t="s">
         <v>423</v>
@@ -18294,10 +18294,10 @@
     </row>
     <row r="426" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>13</v>
@@ -18326,10 +18326,10 @@
     </row>
     <row r="427" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>13</v>
@@ -18344,7 +18344,7 @@
         <v>426</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H427" s="3" t="s">
         <v>423</v>
@@ -18361,7 +18361,7 @@
     </row>
     <row r="428" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" s="2" t="s">
@@ -18371,7 +18371,7 @@
         <v>14</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="F428" s="2"/>
       <c r="G428" s="2" t="s">
@@ -18380,12 +18380,12 @@
       <c r="H428" s="2"/>
       <c r="I428" s="2"/>
       <c r="J428" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="429" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>993</v>
@@ -18400,7 +18400,7 @@
         <v>41</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>118</v>
@@ -18416,10 +18416,10 @@
     </row>
     <row r="430" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="15" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C430" s="15" t="s">
         <v>13</v>
@@ -18440,12 +18440,12 @@
         <v>478</v>
       </c>
       <c r="K430" s="15" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="431" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B431" s="5"/>
       <c r="C431" s="5" t="s">
@@ -18458,20 +18458,20 @@
         <v>41</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="G431" s="5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
       <c r="J431" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="432" spans="1:11" s="24" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="23" t="s">
-        <v>1821</v>
+        <v>1184</v>
       </c>
       <c r="B432" s="23"/>
       <c r="C432" s="23" t="s">
@@ -18484,20 +18484,20 @@
         <v>41</v>
       </c>
       <c r="F432" s="23" t="s">
-        <v>1824</v>
+        <v>1185</v>
       </c>
       <c r="G432" s="23" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H432" s="23"/>
       <c r="I432" s="23"/>
       <c r="J432" s="23" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="433" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="B433" s="5"/>
       <c r="C433" s="5" t="s">
@@ -18510,20 +18510,20 @@
         <v>41</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="G433" s="5" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="H433" s="5"/>
       <c r="I433" s="5"/>
       <c r="J433" s="5" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="434" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B434" s="5"/>
       <c r="C434" s="5" t="s">
@@ -18536,23 +18536,23 @@
         <v>41</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
       <c r="J434" s="5" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>13</v>
@@ -18564,7 +18564,7 @@
         <v>41</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="G435" s="5" t="s">
         <v>672</v>
@@ -18577,10 +18577,10 @@
     </row>
     <row r="436" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>13</v>
@@ -18592,7 +18592,7 @@
         <v>41</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="G436" s="5" t="s">
         <v>672</v>
@@ -18605,10 +18605,10 @@
     </row>
     <row r="437" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>13</v>
@@ -18620,7 +18620,7 @@
         <v>41</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="G437" s="5" t="s">
         <v>672</v>
@@ -18633,7 +18633,7 @@
     </row>
     <row r="438" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="B438" s="5" t="s">
         <v>221</v>
@@ -18648,7 +18648,7 @@
         <v>41</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="G438" s="5" t="s">
         <v>672</v>
@@ -18661,10 +18661,10 @@
     </row>
     <row r="439" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>13</v>
@@ -18676,7 +18676,7 @@
         <v>41</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="G439" s="5" t="s">
         <v>672</v>
@@ -18689,10 +18689,10 @@
     </row>
     <row r="440" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>13</v>
@@ -18704,7 +18704,7 @@
         <v>41</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="G440" s="5" t="s">
         <v>672</v>
@@ -18717,7 +18717,7 @@
     </row>
     <row r="441" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="B441" s="5" t="s">
         <v>123</v>
@@ -18732,7 +18732,7 @@
         <v>41</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="G441" s="5" t="s">
         <v>672</v>
@@ -18745,10 +18745,10 @@
     </row>
     <row r="442" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>13</v>
@@ -18760,7 +18760,7 @@
         <v>41</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="G442" s="5" t="s">
         <v>672</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="443" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="B443" s="5" t="s">
         <v>221</v>
@@ -18788,7 +18788,7 @@
         <v>41</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="G443" s="5" t="s">
         <v>672</v>
@@ -18801,7 +18801,7 @@
     </row>
     <row r="444" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="B444" s="5" t="s">
         <v>501</v>
@@ -18816,7 +18816,7 @@
         <v>41</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="G444" s="5" t="s">
         <v>672</v>
@@ -18829,10 +18829,10 @@
     </row>
     <row r="445" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>13</v>
@@ -18844,7 +18844,7 @@
         <v>41</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="G445" s="5" t="s">
         <v>672</v>
@@ -18857,7 +18857,7 @@
     </row>
     <row r="446" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="B446" s="5" t="s">
         <v>221</v>
@@ -18872,7 +18872,7 @@
         <v>41</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="G446" s="5" t="s">
         <v>672</v>
@@ -18885,7 +18885,7 @@
     </row>
     <row r="447" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" s="2" t="s">
@@ -18895,7 +18895,7 @@
         <v>14</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="F447" s="2"/>
       <c r="G447" s="2" t="s">
@@ -18909,7 +18909,7 @@
     </row>
     <row r="448" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B448" s="5"/>
       <c r="C448" s="5" t="s">
@@ -18922,10 +18922,10 @@
         <v>41</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="G448" s="5" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="H448" s="5"/>
       <c r="I448" s="5" t="s">
@@ -18937,10 +18937,10 @@
     </row>
     <row r="449" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>115</v>
@@ -18969,7 +18969,7 @@
     </row>
     <row r="450" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>114</v>
@@ -18984,7 +18984,7 @@
         <v>116</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="G450" s="2" t="s">
         <v>118</v>
@@ -18997,7 +18997,7 @@
     </row>
     <row r="451" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>114</v>
@@ -19012,7 +19012,7 @@
         <v>41</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="G451" s="3" t="s">
         <v>118</v>
@@ -19028,7 +19028,7 @@
     </row>
     <row r="452" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B452" s="3">
         <v>3.1</v>
@@ -19061,19 +19061,19 @@
     </row>
     <row r="453" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>421</v>
@@ -19091,7 +19091,7 @@
     </row>
     <row r="454" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="B454" s="3">
         <v>7</v>
@@ -19106,7 +19106,7 @@
         <v>41</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="G454" s="3" t="s">
         <v>55</v>
@@ -19120,12 +19120,12 @@
         <v>437</v>
       </c>
       <c r="L454" s="3" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="455" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="B455" s="3">
         <v>6</v>
@@ -19140,7 +19140,7 @@
         <v>41</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>55</v>
@@ -19154,12 +19154,12 @@
         <v>437</v>
       </c>
       <c r="L455" s="3" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="456" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="B456" s="3">
         <v>7</v>
@@ -19174,7 +19174,7 @@
         <v>41</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="G456" s="3" t="s">
         <v>55</v>
@@ -19190,7 +19190,7 @@
     </row>
     <row r="457" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="B457" s="3">
         <v>2</v>
@@ -19205,7 +19205,7 @@
         <v>41</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="G457" s="3" t="s">
         <v>55</v>
@@ -19219,15 +19219,15 @@
         <v>664</v>
       </c>
       <c r="L457" s="3" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="458" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>69</v>
@@ -19239,7 +19239,7 @@
         <v>41</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="G458" s="5" t="s">
         <v>336</v>
@@ -19254,22 +19254,22 @@
     </row>
     <row r="459" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="E459" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="G459" s="3" t="s">
         <v>695</v>
@@ -19277,7 +19277,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="K459" s="3" t="s">
         <v>44</v>
@@ -19285,10 +19285,10 @@
     </row>
     <row r="460" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>13</v>
@@ -19300,7 +19300,7 @@
         <v>41</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="G460" s="3" t="s">
         <v>695</v>
@@ -19308,7 +19308,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="K460" s="3" t="s">
         <v>44</v>
@@ -19316,22 +19316,22 @@
     </row>
     <row r="461" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="E461" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="G461" s="3" t="s">
         <v>80</v>
@@ -19347,7 +19347,7 @@
     </row>
     <row r="462" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="B462" s="2"/>
       <c r="C462" s="2" t="s">
@@ -19357,7 +19357,7 @@
         <v>14</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="F462" s="2"/>
       <c r="G462" s="2" t="s">
@@ -19371,7 +19371,7 @@
     </row>
     <row r="463" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="B463" s="3">
         <v>5.3</v>
@@ -19380,13 +19380,13 @@
         <v>69</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="E463" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="G463" s="3" t="s">
         <v>80</v>
@@ -19402,7 +19402,7 @@
     </row>
     <row r="464" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="B464" s="2"/>
       <c r="C464" s="2" t="s">
@@ -19412,7 +19412,7 @@
         <v>14</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="F464" s="2"/>
       <c r="G464" s="2" t="s">
@@ -19426,7 +19426,7 @@
     </row>
     <row r="465" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" s="2" t="s">
@@ -19436,7 +19436,7 @@
         <v>14</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" s="2" t="s">
@@ -19450,7 +19450,7 @@
     </row>
     <row r="466" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>993</v>
@@ -19465,7 +19465,7 @@
         <v>41</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="G466" s="3" t="s">
         <v>118</v>
@@ -19481,7 +19481,7 @@
     </row>
     <row r="467" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" s="2" t="s">
@@ -19491,7 +19491,7 @@
         <v>14</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="F467" s="2"/>
       <c r="G467" s="2" t="s">
@@ -19505,10 +19505,10 @@
     </row>
     <row r="468" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>13</v>
@@ -19517,10 +19517,10 @@
         <v>59</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="G468" s="2" t="s">
         <v>567</v>
@@ -19535,10 +19535,10 @@
     </row>
     <row r="469" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>13</v>
@@ -19550,7 +19550,7 @@
         <v>41</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="G469" s="3" t="s">
         <v>567</v>
@@ -19568,7 +19568,7 @@
     </row>
     <row r="470" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="B470" s="5"/>
       <c r="C470" s="5" t="s">
@@ -19581,25 +19581,25 @@
         <v>41</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="G470" s="5" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="H470" s="5"/>
       <c r="I470" s="5" t="s">
         <v>102</v>
       </c>
       <c r="J470" s="5" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="471" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="15" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="B471" s="15" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="C471" s="15" t="s">
         <v>13</v>
@@ -19620,12 +19620,12 @@
         <v>478</v>
       </c>
       <c r="K471" s="20" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="472" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>114</v>
@@ -19653,7 +19653,7 @@
     </row>
     <row r="473" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>114</v>
@@ -19668,7 +19668,7 @@
         <v>41</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="G473" s="3" t="s">
         <v>118</v>
@@ -19684,7 +19684,7 @@
     </row>
     <row r="474" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>114</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="475" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>114</v>
@@ -19727,7 +19727,7 @@
         <v>41</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="G475" s="3" t="s">
         <v>118</v>
@@ -19743,10 +19743,10 @@
     </row>
     <row r="476" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>13</v>
@@ -19758,37 +19758,37 @@
         <v>41</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="G476" s="5" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="H476" s="5"/>
       <c r="I476" s="5" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="J476" s="5" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="477" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E477" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="G477" s="3" t="s">
         <v>71</v>
@@ -19806,7 +19806,7 @@
     </row>
     <row r="478" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="B478" s="2"/>
       <c r="C478" s="2" t="s">
@@ -19816,24 +19816,24 @@
         <v>14</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="F478" s="2"/>
       <c r="G478" s="6" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="H478" s="6"/>
       <c r="I478" s="6" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="J478" s="2"/>
     </row>
     <row r="479" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>13</v>
@@ -19842,10 +19842,10 @@
         <v>59</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="G479" s="2" t="s">
         <v>567</v>
@@ -19860,10 +19860,10 @@
     </row>
     <row r="480" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>13</v>
@@ -19875,7 +19875,7 @@
         <v>41</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="G480" s="3" t="s">
         <v>567</v>
@@ -19893,7 +19893,7 @@
     </row>
     <row r="481" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>114</v>
@@ -19921,7 +19921,7 @@
     </row>
     <row r="482" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>114</v>
@@ -19936,7 +19936,7 @@
         <v>41</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="G482" s="3" t="s">
         <v>118</v>
@@ -19952,7 +19952,7 @@
     </row>
     <row r="483" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="B483" s="2"/>
       <c r="C483" s="2" t="s">
@@ -19962,27 +19962,27 @@
         <v>14</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="H483" s="2" t="s">
         <v>423</v>
       </c>
       <c r="I483" s="2" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="J483" s="2" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="484" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="B484" s="5"/>
       <c r="C484" s="5" t="s">
@@ -19995,7 +19995,7 @@
         <v>41</v>
       </c>
       <c r="F484" s="5" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="G484" s="5" t="s">
         <v>149</v>
@@ -20008,7 +20008,7 @@
     </row>
     <row r="485" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>523</v>
@@ -20036,7 +20036,7 @@
     </row>
     <row r="486" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>523</v>
@@ -20051,7 +20051,7 @@
         <v>41</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="G486" s="3" t="s">
         <v>516</v>
@@ -20067,7 +20067,7 @@
     </row>
     <row r="487" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="B487" s="2"/>
       <c r="C487" s="2" t="s">
@@ -20077,7 +20077,7 @@
         <v>14</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="F487" s="2"/>
       <c r="G487" s="2" t="s">
@@ -20091,7 +20091,7 @@
     </row>
     <row r="488" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="B488" s="2"/>
       <c r="C488" s="2" t="s">
@@ -20101,7 +20101,7 @@
         <v>14</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="F488" s="2"/>
       <c r="G488" s="2" t="s">
@@ -20115,7 +20115,7 @@
     </row>
     <row r="489" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="B489" s="5"/>
       <c r="C489" s="5" t="s">
@@ -20128,7 +20128,7 @@
         <v>41</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="G489" s="5" t="s">
         <v>101</v>
@@ -20143,7 +20143,7 @@
     </row>
     <row r="490" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="B490" s="2"/>
       <c r="C490" s="2" t="s">
@@ -20153,7 +20153,7 @@
         <v>14</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="F490" s="2"/>
       <c r="G490" s="2" t="s">
@@ -20164,12 +20164,12 @@
         <v>568</v>
       </c>
       <c r="J490" s="2" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="491" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="B491" s="5" t="s">
         <v>221</v>
@@ -20184,22 +20184,22 @@
         <v>41</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="G491" s="5" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="H491" s="5"/>
       <c r="I491" s="5" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="J491" s="5" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="492" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>114</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="493" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>114</v>
@@ -20242,7 +20242,7 @@
         <v>41</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="G493" s="3" t="s">
         <v>118</v>
@@ -20258,7 +20258,7 @@
     </row>
     <row r="494" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="B494" s="3">
         <v>2.6</v>
@@ -20273,7 +20273,7 @@
         <v>41</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>71</v>
@@ -20291,7 +20291,7 @@
     </row>
     <row r="495" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="B495" s="3">
         <v>3.2</v>
@@ -20306,7 +20306,7 @@
         <v>41</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="G495" s="3" t="s">
         <v>71</v>
@@ -20322,12 +20322,12 @@
         <v>170</v>
       </c>
       <c r="L495" s="3" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="496" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>114</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="497" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>114</v>
@@ -20370,7 +20370,7 @@
         <v>41</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>118</v>
@@ -20386,7 +20386,7 @@
     </row>
     <row r="498" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>114</v>
@@ -20414,7 +20414,7 @@
     </row>
     <row r="499" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>114</v>
@@ -20429,7 +20429,7 @@
         <v>41</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="G499" s="3" t="s">
         <v>118</v>
@@ -20445,7 +20445,7 @@
     </row>
     <row r="500" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="B500" s="3">
         <v>5</v>
@@ -20460,7 +20460,7 @@
         <v>41</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="G500" s="3" t="s">
         <v>71</v>
@@ -20476,12 +20476,12 @@
         <v>664</v>
       </c>
       <c r="L500" s="3" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="501" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>114</v>
@@ -20509,7 +20509,7 @@
     </row>
     <row r="502" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>114</v>
@@ -20524,7 +20524,7 @@
         <v>41</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="G502" s="3" t="s">
         <v>118</v>
@@ -20540,7 +20540,7 @@
     </row>
     <row r="503" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>114</v>
@@ -20568,7 +20568,7 @@
     </row>
     <row r="504" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>114</v>
@@ -20583,7 +20583,7 @@
         <v>41</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G504" s="3" t="s">
         <v>118</v>
@@ -20599,7 +20599,7 @@
     </row>
     <row r="505" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>114</v>
@@ -20627,7 +20627,7 @@
     </row>
     <row r="506" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>114</v>
@@ -20642,7 +20642,7 @@
         <v>41</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="G506" s="3" t="s">
         <v>118</v>
@@ -20658,7 +20658,7 @@
     </row>
     <row r="507" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>114</v>
@@ -20686,7 +20686,7 @@
     </row>
     <row r="508" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>114</v>
@@ -20701,7 +20701,7 @@
         <v>41</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="G508" s="3" t="s">
         <v>118</v>
@@ -20717,7 +20717,7 @@
     </row>
     <row r="509" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>114</v>
@@ -20745,7 +20745,7 @@
     </row>
     <row r="510" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>114</v>
@@ -20760,7 +20760,7 @@
         <v>41</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="G510" s="3" t="s">
         <v>118</v>
@@ -20776,7 +20776,7 @@
     </row>
     <row r="511" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="B511" s="2"/>
       <c r="C511" s="2" t="s">
@@ -20786,7 +20786,7 @@
         <v>14</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="F511" s="2"/>
       <c r="G511" s="2" t="s">
@@ -20800,10 +20800,10 @@
     </row>
     <row r="512" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>198</v>
@@ -20815,22 +20815,22 @@
         <v>41</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="G512" s="5" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="H512" s="5"/>
       <c r="I512" s="5" t="s">
         <v>545</v>
       </c>
       <c r="J512" s="5" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="513" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>114</v>
@@ -20858,7 +20858,7 @@
     </row>
     <row r="514" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>114</v>
@@ -20873,7 +20873,7 @@
         <v>41</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="G514" s="3" t="s">
         <v>118</v>
@@ -20889,7 +20889,7 @@
     </row>
     <row r="515" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="B515" s="2">
         <v>2.2999999999999998</v>
@@ -20901,7 +20901,7 @@
         <v>59</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>23</v>
@@ -20919,7 +20919,7 @@
     </row>
     <row r="516" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="B516" s="3">
         <v>2.2999999999999998</v>
@@ -20934,7 +20934,7 @@
         <v>41</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="G516" s="3" t="s">
         <v>567</v>
@@ -20952,7 +20952,7 @@
     </row>
     <row r="517" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>114</v>
@@ -20980,7 +20980,7 @@
     </row>
     <row r="518" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>114</v>
@@ -20995,7 +20995,7 @@
         <v>41</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="G518" s="3" t="s">
         <v>118</v>
@@ -21011,10 +21011,10 @@
     </row>
     <row r="519" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>198</v>
@@ -21026,10 +21026,10 @@
         <v>41</v>
       </c>
       <c r="F519" s="5" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="H519" s="5"/>
       <c r="I519" s="5" t="s">
@@ -21039,10 +21039,10 @@
     </row>
     <row r="520" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="C520" s="3" t="s">
         <v>198</v>
@@ -21054,10 +21054,10 @@
         <v>41</v>
       </c>
       <c r="F520" s="3" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="H520" s="3"/>
       <c r="I520" s="3" t="s">
@@ -21070,10 +21070,10 @@
     </row>
     <row r="521" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>13</v>
@@ -21085,10 +21085,10 @@
         <v>41</v>
       </c>
       <c r="F521" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G521" s="5" t="s">
         <v>1364</v>
-      </c>
-      <c r="G521" s="5" t="s">
-        <v>1360</v>
       </c>
       <c r="H521" s="5"/>
       <c r="I521" s="5" t="s">
@@ -21098,7 +21098,7 @@
     </row>
     <row r="522" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="B522" s="5"/>
       <c r="C522" s="5" t="s">
@@ -21111,10 +21111,10 @@
         <v>41</v>
       </c>
       <c r="F522" s="5" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="G522" s="5" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="H522" s="5"/>
       <c r="I522" s="5" t="s">
@@ -21124,10 +21124,10 @@
     </row>
     <row r="523" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="C523" s="3" t="s">
         <v>13</v>
@@ -21139,10 +21139,10 @@
         <v>41</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="H523" s="3"/>
       <c r="I523" s="3" t="s">
@@ -21155,7 +21155,7 @@
     </row>
     <row r="524" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>114</v>
@@ -21183,7 +21183,7 @@
     </row>
     <row r="525" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>114</v>
@@ -21198,7 +21198,7 @@
         <v>41</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="G525" s="3" t="s">
         <v>118</v>
@@ -21214,7 +21214,7 @@
     </row>
     <row r="526" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="B526" s="2"/>
       <c r="C526" s="2" t="s">
@@ -21224,7 +21224,7 @@
         <v>14</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="F526" s="2"/>
       <c r="G526" s="2" t="s">
@@ -21240,7 +21240,7 @@
     </row>
     <row r="527" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="B527" s="3">
         <v>6</v>
@@ -21249,13 +21249,13 @@
         <v>13</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="E527" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="G527" s="3" t="s">
         <v>71</v>
@@ -21273,7 +21273,7 @@
     </row>
     <row r="528" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" s="2" t="s">
@@ -21283,7 +21283,7 @@
         <v>14</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="F528" s="2"/>
       <c r="G528" s="2" t="s">
@@ -21299,7 +21299,7 @@
     </row>
     <row r="529" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="B529" s="3">
         <v>1</v>
@@ -21314,7 +21314,7 @@
         <v>41</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="G529" s="3" t="s">
         <v>55</v>
@@ -21328,15 +21328,15 @@
         <v>484</v>
       </c>
       <c r="L529" s="3" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="530" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>13</v>
@@ -21348,7 +21348,7 @@
         <v>41</v>
       </c>
       <c r="F530" s="5" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="G530" s="5" t="s">
         <v>101</v>
@@ -21363,7 +21363,7 @@
     </row>
     <row r="531" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="B531" s="5"/>
       <c r="C531" s="5" t="s">
@@ -21376,7 +21376,7 @@
         <v>41</v>
       </c>
       <c r="F531" s="5" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="G531" s="5" t="s">
         <v>101</v>
@@ -21391,7 +21391,7 @@
     </row>
     <row r="532" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>487</v>
@@ -21422,7 +21422,7 @@
     </row>
     <row r="533" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>86</v>
@@ -21434,7 +21434,7 @@
         <v>14</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>23</v>
@@ -21452,7 +21452,7 @@
     </row>
     <row r="534" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="B534" s="3">
         <v>1.1000000000000001</v>
@@ -21483,7 +21483,7 @@
     </row>
     <row r="535" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="B535" s="5"/>
       <c r="C535" s="5" t="s">
@@ -21496,7 +21496,7 @@
         <v>41</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>71</v>
@@ -21511,7 +21511,7 @@
     </row>
     <row r="536" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="B536" s="3">
         <v>7.3</v>
@@ -21526,7 +21526,7 @@
         <v>41</v>
       </c>
       <c r="F536" s="3" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="G536" s="3" t="s">
         <v>71</v>
@@ -21542,12 +21542,12 @@
         <v>664</v>
       </c>
       <c r="L536" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="537" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>523</v>
@@ -21575,7 +21575,7 @@
     </row>
     <row r="538" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>523</v>
@@ -21590,7 +21590,7 @@
         <v>41</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="G538" s="3" t="s">
         <v>516</v>
@@ -21606,7 +21606,7 @@
     </row>
     <row r="539" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>523</v>
@@ -21634,7 +21634,7 @@
     </row>
     <row r="540" spans="1:12" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>523</v>
@@ -21649,7 +21649,7 @@
         <v>41</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="G540" s="3" t="s">
         <v>516</v>
@@ -21665,7 +21665,7 @@
     </row>
     <row r="541" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="B541" s="5"/>
       <c r="C541" s="5" t="s">
@@ -21678,7 +21678,7 @@
         <v>41</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>281</v>
@@ -21691,7 +21691,7 @@
     </row>
     <row r="542" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="B542" s="5"/>
       <c r="C542" s="5" t="s">
@@ -21704,7 +21704,7 @@
         <v>41</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="G542" s="5" t="s">
         <v>101</v>
@@ -21719,10 +21719,10 @@
     </row>
     <row r="543" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="C543" s="5" t="s">
         <v>13</v>
@@ -21734,7 +21734,7 @@
         <v>41</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="G543" s="5" t="s">
         <v>101</v>
@@ -21749,7 +21749,7 @@
     </row>
     <row r="544" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="B544" s="5"/>
       <c r="C544" s="5" t="s">
@@ -21762,7 +21762,7 @@
         <v>41</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="G544" s="5" t="s">
         <v>101</v>
@@ -21777,7 +21777,7 @@
     </row>
     <row r="545" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="B545" s="5"/>
       <c r="C545" s="5" t="s">
@@ -21790,42 +21790,42 @@
         <v>41</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="G545" s="5" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="H545" s="5"/>
       <c r="I545" s="5"/>
       <c r="J545" s="5" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="546" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="C546" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E546" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="G546" s="3" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="H546" s="3"/>
       <c r="I546" s="3" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="J546" s="3"/>
       <c r="K546" s="3" t="s">
@@ -21834,7 +21834,7 @@
     </row>
     <row r="547" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="B547" s="2"/>
       <c r="C547" s="2" t="s">
@@ -21844,21 +21844,21 @@
         <v>14</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="F547" s="2"/>
       <c r="G547" s="6" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="H547" s="6"/>
       <c r="I547" s="6" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="J547" s="2"/>
     </row>
     <row r="548" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="B548" s="2"/>
       <c r="C548" s="2" t="s">
@@ -21868,7 +21868,7 @@
         <v>14</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="F548" s="2"/>
       <c r="G548" s="2" t="s">
@@ -21882,7 +21882,7 @@
     </row>
     <row r="549" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="B549" s="3">
         <v>3.4</v>
@@ -21897,7 +21897,7 @@
         <v>41</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="G549" s="3" t="s">
         <v>71</v>
@@ -21915,7 +21915,7 @@
     </row>
     <row r="550" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>114</v>
@@ -21943,7 +21943,7 @@
     </row>
     <row r="551" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>114</v>
@@ -21958,7 +21958,7 @@
         <v>41</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="G551" s="3" t="s">
         <v>118</v>
@@ -21974,7 +21974,7 @@
     </row>
     <row r="552" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="B552" s="5"/>
       <c r="C552" s="5" t="s">
@@ -21987,20 +21987,20 @@
         <v>41</v>
       </c>
       <c r="F552" s="5" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="G552" s="5" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="H552" s="5"/>
       <c r="I552" s="5"/>
       <c r="J552" s="5" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="553" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="B553" s="5"/>
       <c r="C553" s="5" t="s">
@@ -22013,20 +22013,20 @@
         <v>41</v>
       </c>
       <c r="F553" s="5" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="G553" s="5" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="H553" s="5"/>
       <c r="I553" s="5"/>
       <c r="J553" s="5" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="554" spans="1:12" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="14" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="B554" s="14"/>
       <c r="C554" s="14" t="s">
@@ -22039,22 +22039,22 @@
         <v>41</v>
       </c>
       <c r="F554" s="14" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="G554" s="14" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="H554" s="14"/>
       <c r="I554" s="14" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="J554" s="14" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="555" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="B555" s="3">
         <v>6.1</v>
@@ -22063,13 +22063,13 @@
         <v>69</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="E555" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F555" s="3" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="G555" s="3" t="s">
         <v>71</v>
@@ -22085,12 +22085,12 @@
         <v>170</v>
       </c>
       <c r="L555" s="3" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="556" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>208</v>
@@ -22122,7 +22122,7 @@
     </row>
     <row r="557" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>208</v>
@@ -22137,7 +22137,7 @@
         <v>41</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="G557" s="3" t="s">
         <v>473</v>
@@ -22157,10 +22157,10 @@
     </row>
     <row r="558" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>13</v>
@@ -22172,7 +22172,7 @@
         <v>420</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="G558" s="2" t="s">
         <v>473</v>
@@ -22189,10 +22189,10 @@
     </row>
     <row r="559" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="C559" s="3" t="s">
         <v>13</v>
@@ -22224,10 +22224,10 @@
     </row>
     <row r="560" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>13</v>
@@ -22256,10 +22256,10 @@
     </row>
     <row r="561" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C561" s="3" t="s">
         <v>13</v>
@@ -22291,10 +22291,10 @@
     </row>
     <row r="562" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>69</v>
@@ -22323,10 +22323,10 @@
     </row>
     <row r="563" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="C563" s="3" t="s">
         <v>69</v>
@@ -22338,7 +22338,7 @@
         <v>41</v>
       </c>
       <c r="F563" s="3" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="G563" s="3" t="s">
         <v>473</v>
@@ -22358,10 +22358,10 @@
     </row>
     <row r="564" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>69</v>
@@ -22376,7 +22376,7 @@
         <v>421</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H564" s="2" t="s">
         <v>423</v>
@@ -22390,10 +22390,10 @@
     </row>
     <row r="565" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="C565" s="3" t="s">
         <v>69</v>
@@ -22405,7 +22405,7 @@
         <v>41</v>
       </c>
       <c r="F565" s="3" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="G565" s="3" t="s">
         <v>473</v>
@@ -22425,10 +22425,10 @@
     </row>
     <row r="566" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>13</v>
@@ -22457,10 +22457,10 @@
     </row>
     <row r="567" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="C567" s="3" t="s">
         <v>13</v>
@@ -22472,7 +22472,7 @@
         <v>41</v>
       </c>
       <c r="F567" s="3" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="G567" s="3" t="s">
         <v>473</v>
@@ -22492,10 +22492,10 @@
     </row>
     <row r="568" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>13</v>
@@ -22524,10 +22524,10 @@
     </row>
     <row r="569" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="C569" s="3" t="s">
         <v>13</v>
@@ -22539,7 +22539,7 @@
         <v>41</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="G569" s="3" t="s">
         <v>473</v>
@@ -22559,7 +22559,7 @@
     </row>
     <row r="570" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="B570" s="5"/>
       <c r="C570" s="5" t="s">
@@ -22572,7 +22572,7 @@
         <v>41</v>
       </c>
       <c r="F570" s="5" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="G570" s="5" t="s">
         <v>200</v>
@@ -22585,10 +22585,10 @@
     </row>
     <row r="571" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>13</v>
@@ -22597,26 +22597,26 @@
         <v>14</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="F571" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="H571" s="2"/>
       <c r="I571" s="2"/>
       <c r="J571" s="2" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="572" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="C572" s="3" t="s">
         <v>13</v>
@@ -22628,15 +22628,15 @@
         <v>41</v>
       </c>
       <c r="F572" s="3" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="G572" s="3" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="H572" s="3"/>
       <c r="I572" s="3"/>
       <c r="J572" s="3" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="K572" s="3" t="s">
         <v>44</v>
@@ -22644,7 +22644,7 @@
     </row>
     <row r="573" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>114</v>
@@ -22672,7 +22672,7 @@
     </row>
     <row r="574" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>114</v>
@@ -22687,7 +22687,7 @@
         <v>41</v>
       </c>
       <c r="F574" s="3" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="G574" s="3" t="s">
         <v>118</v>
@@ -22703,7 +22703,7 @@
     </row>
     <row r="575" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="B575" s="3">
         <v>7</v>
@@ -22718,7 +22718,7 @@
         <v>41</v>
       </c>
       <c r="F575" s="3" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="G575" s="3" t="s">
         <v>71</v>
@@ -22736,7 +22736,7 @@
     </row>
     <row r="576" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="B576" s="5"/>
       <c r="C576" s="5" t="s">
@@ -22749,7 +22749,7 @@
         <v>41</v>
       </c>
       <c r="F576" s="5" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="G576" s="5" t="s">
         <v>200</v>
@@ -22762,7 +22762,7 @@
     </row>
     <row r="577" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>114</v>
@@ -22790,7 +22790,7 @@
     </row>
     <row r="578" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>114</v>
@@ -22805,7 +22805,7 @@
         <v>41</v>
       </c>
       <c r="F578" s="3" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="G578" s="3" t="s">
         <v>118</v>
@@ -22821,7 +22821,7 @@
     </row>
     <row r="579" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="B579" s="5"/>
       <c r="C579" s="5" t="s">
@@ -22834,22 +22834,22 @@
         <v>41</v>
       </c>
       <c r="F579" s="5" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="G579" s="5" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="H579" s="5"/>
       <c r="I579" s="5" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="J579" s="5" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="580" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>114</v>
@@ -22877,7 +22877,7 @@
     </row>
     <row r="581" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>114</v>
@@ -22892,7 +22892,7 @@
         <v>41</v>
       </c>
       <c r="F581" s="3" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="G581" s="3" t="s">
         <v>118</v>
@@ -22908,10 +22908,10 @@
     </row>
     <row r="582" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>13</v>
@@ -22920,7 +22920,7 @@
         <v>14</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="F582" s="2" t="s">
         <v>823</v>
@@ -22931,12 +22931,12 @@
       <c r="H582" s="2"/>
       <c r="I582" s="2"/>
       <c r="J582" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="583" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>827</v>
@@ -22948,7 +22948,7 @@
         <v>14</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="F583" s="2" t="s">
         <v>823</v>
@@ -22959,15 +22959,15 @@
       <c r="H583" s="2"/>
       <c r="I583" s="2"/>
       <c r="J583" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="584" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="C584" s="3" t="s">
         <v>13</v>
@@ -22979,7 +22979,7 @@
         <v>41</v>
       </c>
       <c r="F584" s="3" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="G584" s="3" t="s">
         <v>273</v>
@@ -22995,10 +22995,10 @@
     </row>
     <row r="585" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>13</v>
@@ -23007,7 +23007,7 @@
         <v>14</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="F585" s="2" t="s">
         <v>823</v>
@@ -23018,12 +23018,12 @@
       <c r="H585" s="2"/>
       <c r="I585" s="2"/>
       <c r="J585" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="586" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="B586" s="3">
         <v>1</v>
@@ -23038,7 +23038,7 @@
         <v>41</v>
       </c>
       <c r="F586" s="3" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="G586" s="3" t="s">
         <v>273</v>
@@ -23054,7 +23054,7 @@
     </row>
     <row r="587" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="B587" s="5"/>
       <c r="C587" s="5" t="s">
@@ -23067,7 +23067,7 @@
         <v>41</v>
       </c>
       <c r="F587" s="5" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="G587" s="5" t="s">
         <v>624</v>
@@ -23080,10 +23080,10 @@
     </row>
     <row r="588" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>198</v>
@@ -23095,22 +23095,22 @@
         <v>41</v>
       </c>
       <c r="F588" s="5" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="G588" s="5" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="H588" s="5"/>
       <c r="I588" s="5" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="J588" s="5" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="589" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="B589" s="2"/>
       <c r="C589" s="2" t="s">
@@ -23120,7 +23120,7 @@
         <v>14</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="F589" s="2"/>
       <c r="G589" s="2" t="s">
@@ -23134,10 +23134,10 @@
     </row>
     <row r="590" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="15" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="B590" s="15" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="C590" s="15" t="s">
         <v>13</v>
@@ -23163,45 +23163,45 @@
     </row>
     <row r="591" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="C591" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="E591" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F591" s="3" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="G591" s="3" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="H591" s="3" t="s">
         <v>423</v>
       </c>
       <c r="I591" s="3" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="J591" s="3" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="K591" s="3" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="L591" s="3" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="592" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="B592" s="2"/>
       <c r="C592" s="2" t="s">
@@ -23211,40 +23211,40 @@
         <v>14</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="F592" s="2"/>
       <c r="G592" s="6" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="H592" s="6" t="s">
         <v>423</v>
       </c>
       <c r="I592" s="6" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="J592" s="6" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="593" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="C593" s="3" t="s">
         <v>198</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="E593" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="G593" s="3" t="s">
         <v>71</v>
@@ -23260,12 +23260,12 @@
         <v>484</v>
       </c>
       <c r="L593" s="3" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="594" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="B594" s="3">
         <v>6</v>
@@ -23274,13 +23274,13 @@
         <v>198</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="E594" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F594" s="3" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="G594" s="3" t="s">
         <v>71</v>
@@ -23296,12 +23296,12 @@
         <v>484</v>
       </c>
       <c r="L594" s="3" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="595" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="B595" s="3">
         <v>6.2</v>
@@ -23310,13 +23310,13 @@
         <v>198</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="E595" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F595" s="3" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="G595" s="3" t="s">
         <v>71</v>
@@ -23332,15 +23332,15 @@
         <v>484</v>
       </c>
       <c r="L595" s="3" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="596" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="C596" s="3" t="s">
         <v>13</v>
@@ -23352,17 +23352,17 @@
         <v>41</v>
       </c>
       <c r="F596" s="3" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="G596" s="3" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="H596" s="3" t="s">
         <v>423</v>
       </c>
       <c r="I596" s="3"/>
       <c r="J596" s="3" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="K596" s="3" t="s">
         <v>44</v>
@@ -23370,7 +23370,7 @@
     </row>
     <row r="597" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="B597" s="2"/>
       <c r="C597" s="2" t="s">
@@ -23380,7 +23380,7 @@
         <v>14</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="F597" s="2"/>
       <c r="G597" s="2" t="s">
@@ -23394,7 +23394,7 @@
     </row>
     <row r="598" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="B598" s="5"/>
       <c r="C598" s="5" t="s">
@@ -23407,22 +23407,22 @@
         <v>41</v>
       </c>
       <c r="F598" s="5" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="G598" s="5" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="H598" s="5"/>
       <c r="I598" s="5" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="J598" s="5" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="599" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="B599" s="5"/>
       <c r="C599" s="5" t="s">
@@ -23435,20 +23435,20 @@
         <v>41</v>
       </c>
       <c r="F599" s="5" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="G599" s="5" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="H599" s="5"/>
       <c r="I599" s="5"/>
       <c r="J599" s="5" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="600" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="B600" s="5"/>
       <c r="C600" s="5" t="s">
@@ -23461,7 +23461,7 @@
         <v>41</v>
       </c>
       <c r="F600" s="5" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="G600" s="5" t="s">
         <v>281</v>
@@ -23476,7 +23476,7 @@
     </row>
     <row r="601" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="B601" s="3">
         <v>4.4000000000000004</v>
@@ -23491,7 +23491,7 @@
         <v>41</v>
       </c>
       <c r="F601" s="3" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="G601" s="3" t="s">
         <v>71</v>
@@ -23509,7 +23509,7 @@
     </row>
     <row r="602" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="B602" s="2">
         <v>5.0999999999999996</v>
@@ -23521,10 +23521,10 @@
         <v>392</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="G602" s="2" t="s">
         <v>71</v>
@@ -23537,10 +23537,10 @@
     </row>
     <row r="603" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="C603" s="5" t="s">
         <v>13</v>
@@ -23552,22 +23552,22 @@
         <v>41</v>
       </c>
       <c r="F603" s="5" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="G603" s="5" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="H603" s="5"/>
       <c r="I603" s="5" t="s">
         <v>229</v>
       </c>
       <c r="J603" s="5" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="604" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="B604" s="3">
         <v>1</v>
@@ -23582,7 +23582,7 @@
         <v>41</v>
       </c>
       <c r="F604" s="3" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="G604" s="3" t="s">
         <v>624</v>
@@ -23596,12 +23596,12 @@
         <v>664</v>
       </c>
       <c r="L604" s="3" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="605" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="B605" s="5"/>
       <c r="C605" s="5" t="s">
@@ -23614,7 +23614,7 @@
         <v>41</v>
       </c>
       <c r="F605" s="5" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="G605" s="5" t="s">
         <v>624</v>
@@ -23627,7 +23627,7 @@
     </row>
     <row r="606" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>827</v>
@@ -23639,7 +23639,7 @@
         <v>14</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="F606" s="2" t="s">
         <v>823</v>
@@ -23650,12 +23650,12 @@
       <c r="H606" s="2"/>
       <c r="I606" s="2"/>
       <c r="J606" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="607" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="B607" s="2" t="s">
         <v>114</v>
@@ -23683,7 +23683,7 @@
     </row>
     <row r="608" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>114</v>
@@ -23698,7 +23698,7 @@
         <v>41</v>
       </c>
       <c r="F608" s="3" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="G608" s="3" t="s">
         <v>118</v>
@@ -23714,10 +23714,10 @@
     </row>
     <row r="609" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>13</v>
@@ -23726,10 +23726,10 @@
         <v>14</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="G609" s="2" t="s">
         <v>17</v>
@@ -23744,7 +23744,7 @@
     </row>
     <row r="610" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="B610" s="3">
         <v>11</v>
@@ -23753,7 +23753,7 @@
         <v>13</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="E610" s="4" t="s">
         <v>41</v>
@@ -23777,7 +23777,7 @@
     </row>
     <row r="611" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="B611" s="2"/>
       <c r="C611" s="2" t="s">
@@ -23787,7 +23787,7 @@
         <v>14</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="F611" s="2"/>
       <c r="G611" s="2" t="s">
@@ -23801,7 +23801,7 @@
     </row>
     <row r="612" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="B612" s="2"/>
       <c r="C612" s="2" t="s">
@@ -23811,7 +23811,7 @@
         <v>14</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="F612" s="2"/>
       <c r="G612" s="2" t="s">
@@ -23825,7 +23825,7 @@
     </row>
     <row r="613" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="B613" s="2"/>
       <c r="C613" s="2" t="s">
@@ -23835,7 +23835,7 @@
         <v>14</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="F613" s="2"/>
       <c r="G613" s="2" t="s">
@@ -23849,7 +23849,7 @@
     </row>
     <row r="614" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="B614" s="2"/>
       <c r="C614" s="2" t="s">
@@ -23859,7 +23859,7 @@
         <v>14</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="F614" s="2"/>
       <c r="G614" s="2" t="s">
@@ -23873,7 +23873,7 @@
     </row>
     <row r="615" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>448</v>
@@ -23882,7 +23882,7 @@
         <v>13</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="E615" s="4" t="s">
         <v>41</v>
@@ -23902,15 +23902,15 @@
         <v>664</v>
       </c>
       <c r="L615" s="3" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="616" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="C616" s="3" t="s">
         <v>13</v>
@@ -23922,7 +23922,7 @@
         <v>41</v>
       </c>
       <c r="F616" s="3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="G616" s="3" t="s">
         <v>71</v>
@@ -23938,15 +23938,15 @@
         <v>664</v>
       </c>
       <c r="L616" s="3" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="617" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>13</v>
@@ -23955,7 +23955,7 @@
         <v>14</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="F617" s="2" t="s">
         <v>23</v>
@@ -23973,10 +23973,10 @@
     </row>
     <row r="618" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="C618" s="3" t="s">
         <v>13</v>
@@ -23988,7 +23988,7 @@
         <v>41</v>
       </c>
       <c r="F618" s="3" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="G618" s="3" t="s">
         <v>567</v>
@@ -24006,7 +24006,7 @@
     </row>
     <row r="619" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="B619" s="3">
         <v>4</v>
@@ -24021,7 +24021,7 @@
         <v>41</v>
       </c>
       <c r="F619" s="3" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="G619" s="3" t="s">
         <v>442</v>
@@ -24037,7 +24037,7 @@
     </row>
     <row r="620" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="B620" s="3">
         <v>3.1</v>
@@ -24052,7 +24052,7 @@
         <v>41</v>
       </c>
       <c r="F620" s="3" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="G620" s="3" t="s">
         <v>55</v>
@@ -24068,7 +24068,7 @@
     </row>
     <row r="621" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="B621" s="5"/>
       <c r="C621" s="5" t="s">
@@ -24081,20 +24081,20 @@
         <v>41</v>
       </c>
       <c r="F621" s="5" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="G621" s="5" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="H621" s="5"/>
       <c r="I621" s="5"/>
       <c r="J621" s="5" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="622" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="B622" s="5"/>
       <c r="C622" s="5" t="s">
@@ -24107,7 +24107,7 @@
         <v>41</v>
       </c>
       <c r="F622" s="5" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="G622" s="5" t="s">
         <v>624</v>
@@ -24120,7 +24120,7 @@
     </row>
     <row r="623" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="B623" s="3">
         <v>6.2</v>
@@ -24135,7 +24135,7 @@
         <v>41</v>
       </c>
       <c r="F623" s="3" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="G623" s="3" t="s">
         <v>71</v>
@@ -24153,7 +24153,7 @@
     </row>
     <row r="624" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="B624" s="3">
         <v>3.3</v>
@@ -24168,7 +24168,7 @@
         <v>41</v>
       </c>
       <c r="F624" s="3" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="G624" s="3" t="s">
         <v>55</v>
@@ -24184,7 +24184,7 @@
     </row>
     <row r="625" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="B625" s="2"/>
       <c r="C625" s="2" t="s">
@@ -24194,7 +24194,7 @@
         <v>14</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="F625" s="2"/>
       <c r="G625" s="2" t="s">
@@ -24208,7 +24208,7 @@
     </row>
     <row r="626" spans="1:12" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="B626" s="3">
         <v>3.2</v>
@@ -24217,13 +24217,13 @@
         <v>13</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="E626" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F626" s="3" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="G626" s="3" t="s">
         <v>71</v>
@@ -24239,12 +24239,12 @@
         <v>484</v>
       </c>
       <c r="L626" s="3" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="627" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="B627" s="5"/>
       <c r="C627" s="5" t="s">
@@ -24257,20 +24257,20 @@
         <v>41</v>
       </c>
       <c r="F627" s="5" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="G627" s="5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="H627" s="5"/>
       <c r="I627" s="5"/>
       <c r="J627" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="628" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="B628" s="5"/>
       <c r="C628" s="5" t="s">
@@ -24283,20 +24283,20 @@
         <v>41</v>
       </c>
       <c r="F628" s="5" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="G628" s="5" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="H628" s="5"/>
       <c r="I628" s="5"/>
       <c r="J628" s="5" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="629" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="B629" s="5"/>
       <c r="C629" s="5" t="s">
@@ -24309,20 +24309,20 @@
         <v>41</v>
       </c>
       <c r="F629" s="5" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="G629" s="5" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="H629" s="5"/>
       <c r="I629" s="5"/>
       <c r="J629" s="5" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="630" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="B630" s="5"/>
       <c r="C630" s="5" t="s">
@@ -24335,20 +24335,20 @@
         <v>41</v>
       </c>
       <c r="F630" s="5" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="G630" s="5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="H630" s="5"/>
       <c r="I630" s="5"/>
       <c r="J630" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="631" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="B631" s="5"/>
       <c r="C631" s="5" t="s">
@@ -24361,20 +24361,20 @@
         <v>41</v>
       </c>
       <c r="F631" s="5" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="G631" s="5" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="H631" s="5"/>
       <c r="I631" s="5"/>
       <c r="J631" s="5" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="632" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="B632" s="5"/>
       <c r="C632" s="5" t="s">
@@ -24387,20 +24387,20 @@
         <v>41</v>
       </c>
       <c r="F632" s="5" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="G632" s="5" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="H632" s="5"/>
       <c r="I632" s="5"/>
       <c r="J632" s="5" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="633" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="B633" s="5"/>
       <c r="C633" s="5" t="s">
@@ -24413,20 +24413,20 @@
         <v>41</v>
       </c>
       <c r="F633" s="5" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="G633" s="5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="H633" s="5"/>
       <c r="I633" s="5"/>
       <c r="J633" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="634" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="B634" s="5"/>
       <c r="C634" s="5" t="s">
@@ -24439,20 +24439,20 @@
         <v>41</v>
       </c>
       <c r="F634" s="5" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="G634" s="5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="H634" s="5"/>
       <c r="I634" s="5"/>
       <c r="J634" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="635" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="B635" s="5"/>
       <c r="C635" s="5" t="s">
@@ -24465,20 +24465,20 @@
         <v>41</v>
       </c>
       <c r="F635" s="5" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="G635" s="5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="H635" s="5"/>
       <c r="I635" s="5"/>
       <c r="J635" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="636" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="B636" s="5"/>
       <c r="C636" s="5" t="s">
@@ -24491,20 +24491,20 @@
         <v>41</v>
       </c>
       <c r="F636" s="5" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="G636" s="5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="H636" s="5"/>
       <c r="I636" s="5"/>
       <c r="J636" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="637" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="B637" s="5"/>
       <c r="C637" s="5" t="s">
@@ -24517,10 +24517,10 @@
         <v>41</v>
       </c>
       <c r="F637" s="5" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="G637" s="5" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="H637" s="5"/>
       <c r="I637" s="5"/>
@@ -24530,7 +24530,7 @@
     </row>
     <row r="638" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="B638" s="5"/>
       <c r="C638" s="5" t="s">
@@ -24543,20 +24543,20 @@
         <v>41</v>
       </c>
       <c r="F638" s="5" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="G638" s="5" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="H638" s="5"/>
       <c r="I638" s="5"/>
       <c r="J638" s="5" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="639" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="15" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="B639" s="15">
         <v>11.2</v>
@@ -24580,12 +24580,12 @@
         <v>478</v>
       </c>
       <c r="K639" s="19" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="640" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="B640" s="5"/>
       <c r="C640" s="5" t="s">
@@ -24598,7 +24598,7 @@
         <v>41</v>
       </c>
       <c r="F640" s="5" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="G640" s="5" t="s">
         <v>101</v>
@@ -24613,10 +24613,10 @@
     </row>
     <row r="641" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="C641" s="5" t="s">
         <v>13</v>
@@ -24628,7 +24628,7 @@
         <v>41</v>
       </c>
       <c r="F641" s="5" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="G641" s="5" t="s">
         <v>243</v>
@@ -24643,7 +24643,7 @@
     </row>
     <row r="642" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="B642" s="2" t="s">
         <v>114</v>
@@ -24671,7 +24671,7 @@
     </row>
     <row r="643" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>114</v>
@@ -24686,7 +24686,7 @@
         <v>41</v>
       </c>
       <c r="F643" s="3" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="G643" s="3" t="s">
         <v>118</v>
@@ -24702,7 +24702,7 @@
     </row>
     <row r="644" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="B644" s="2" t="s">
         <v>114</v>
@@ -24730,7 +24730,7 @@
     </row>
     <row r="645" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="B645" s="3" t="s">
         <v>114</v>
@@ -24745,7 +24745,7 @@
         <v>41</v>
       </c>
       <c r="F645" s="3" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="G645" s="3" t="s">
         <v>118</v>
@@ -24761,7 +24761,7 @@
     </row>
     <row r="646" spans="1:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="B646" s="2" t="s">
         <v>114</v>
@@ -24789,7 +24789,7 @@
     </row>
     <row r="647" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>114</v>
@@ -24804,7 +24804,7 @@
         <v>41</v>
       </c>
       <c r="F647" s="3" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="G647" s="3" t="s">
         <v>118</v>
@@ -24820,10 +24820,10 @@
     </row>
     <row r="648" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="C648" s="3" t="s">
         <v>13</v>
@@ -24849,15 +24849,15 @@
         <v>664</v>
       </c>
       <c r="L648" s="3" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="649" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>13</v>
@@ -24866,28 +24866,28 @@
         <v>14</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="F649" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G649" s="2" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="H649" s="2"/>
       <c r="I649" s="2" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="J649" s="2" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="650" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="C650" s="5" t="s">
         <v>13</v>
@@ -24899,25 +24899,25 @@
         <v>41</v>
       </c>
       <c r="F650" s="5" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="G650" s="5" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="H650" s="5"/>
       <c r="I650" s="5" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="J650" s="5" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="651" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="C651" s="5" t="s">
         <v>13</v>
@@ -24929,22 +24929,22 @@
         <v>41</v>
       </c>
       <c r="F651" s="5" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="G651" s="5" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="H651" s="5"/>
       <c r="I651" s="5" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="J651" s="5" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="652" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="B652" s="5"/>
       <c r="C652" s="5" t="s">
@@ -24957,25 +24957,25 @@
         <v>41</v>
       </c>
       <c r="F652" s="5" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="G652" s="5" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="H652" s="5"/>
       <c r="I652" s="5" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="J652" s="5" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="653" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>13</v>
@@ -24984,7 +24984,7 @@
         <v>14</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>823</v>
@@ -24995,15 +24995,15 @@
       <c r="H653" s="2"/>
       <c r="I653" s="2"/>
       <c r="J653" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="654" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>13</v>
@@ -25012,7 +25012,7 @@
         <v>14</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>823</v>
@@ -25023,12 +25023,12 @@
       <c r="H654" s="2"/>
       <c r="I654" s="2"/>
       <c r="J654" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="655" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="B655" s="2" t="s">
         <v>705</v>
@@ -25040,7 +25040,7 @@
         <v>14</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="F655" s="2" t="s">
         <v>23</v>
@@ -25056,10 +25056,10 @@
     </row>
     <row r="656" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="C656" s="3" t="s">
         <v>13</v>
@@ -25071,26 +25071,26 @@
         <v>41</v>
       </c>
       <c r="F656" s="3" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="G656" s="3" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="H656" s="3"/>
       <c r="I656" s="3"/>
       <c r="J656" s="3" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="K656" s="3" t="s">
         <v>664</v>
       </c>
       <c r="L656" s="3" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="657" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="B657" s="3">
         <v>15</v>
@@ -25105,7 +25105,7 @@
         <v>41</v>
       </c>
       <c r="F657" s="3" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="G657" s="3" t="s">
         <v>71</v>
@@ -25123,22 +25123,22 @@
     </row>
     <row r="658" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="C658" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="E658" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F658" s="3" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="G658" s="3" t="s">
         <v>71</v>
@@ -25156,10 +25156,10 @@
     </row>
     <row r="659" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="C659" s="3" t="s">
         <v>13</v>
@@ -25171,7 +25171,7 @@
         <v>41</v>
       </c>
       <c r="F659" s="3" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="G659" s="3" t="s">
         <v>71</v>
@@ -25189,7 +25189,7 @@
     </row>
     <row r="660" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="B660" s="3">
         <v>4</v>
@@ -25204,7 +25204,7 @@
         <v>41</v>
       </c>
       <c r="F660" s="3" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="G660" s="3" t="s">
         <v>71</v>
@@ -25222,10 +25222,10 @@
     </row>
     <row r="661" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C661" s="3" t="s">
         <v>13</v>
@@ -25237,7 +25237,7 @@
         <v>41</v>
       </c>
       <c r="F661" s="3" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="G661" s="3" t="s">
         <v>71</v>
@@ -25255,7 +25255,7 @@
     </row>
     <row r="662" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="B662" s="3">
         <v>1</v>
@@ -25270,7 +25270,7 @@
         <v>41</v>
       </c>
       <c r="F662" s="3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="G662" s="3" t="s">
         <v>71</v>
@@ -25288,7 +25288,7 @@
     </row>
     <row r="663" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="B663" s="3">
         <v>16.100000000000001</v>
@@ -25303,7 +25303,7 @@
         <v>41</v>
       </c>
       <c r="F663" s="3" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="G663" s="3" t="s">
         <v>71</v>
@@ -25321,7 +25321,7 @@
     </row>
     <row r="664" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="B664" s="3">
         <v>4</v>
@@ -25330,13 +25330,13 @@
         <v>13</v>
       </c>
       <c r="D664" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="E664" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F664" s="3" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="G664" s="3" t="s">
         <v>71</v>
@@ -25354,7 +25354,7 @@
     </row>
     <row r="665" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="B665" s="3">
         <v>12</v>
@@ -25363,13 +25363,13 @@
         <v>13</v>
       </c>
       <c r="D665" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="E665" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F665" s="3" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="G665" s="3" t="s">
         <v>71</v>
@@ -25387,7 +25387,7 @@
     </row>
     <row r="666" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="B666" s="3">
         <v>1.5</v>
@@ -25402,7 +25402,7 @@
         <v>41</v>
       </c>
       <c r="F666" s="3" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="G666" s="3" t="s">
         <v>71</v>
@@ -25420,10 +25420,10 @@
     </row>
     <row r="667" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="C667" s="3" t="s">
         <v>69</v>
@@ -25435,7 +25435,7 @@
         <v>41</v>
       </c>
       <c r="F667" s="3" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="G667" s="3" t="s">
         <v>71</v>
@@ -25453,10 +25453,10 @@
     </row>
     <row r="668" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="C668" s="3" t="s">
         <v>13</v>
@@ -25468,7 +25468,7 @@
         <v>41</v>
       </c>
       <c r="F668" s="3" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="G668" s="3" t="s">
         <v>71</v>
@@ -25486,10 +25486,10 @@
     </row>
     <row r="669" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="C669" s="5" t="s">
         <v>13</v>
@@ -25501,25 +25501,25 @@
         <v>41</v>
       </c>
       <c r="F669" s="5" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="G669" s="5" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="H669" s="5"/>
       <c r="I669" s="5" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="J669" s="5" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="670" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="C670" s="3" t="s">
         <v>13</v>
@@ -25545,15 +25545,15 @@
         <v>664</v>
       </c>
       <c r="L670" s="3" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="671" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="C671" s="3" t="s">
         <v>13</v>
@@ -25579,15 +25579,15 @@
         <v>664</v>
       </c>
       <c r="L671" s="3" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="672" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="C672" s="3" t="s">
         <v>13</v>
@@ -25613,15 +25613,15 @@
         <v>664</v>
       </c>
       <c r="L672" s="3" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="673" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="C673" s="3" t="s">
         <v>13</v>
@@ -25647,15 +25647,15 @@
         <v>664</v>
       </c>
       <c r="L673" s="3" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="674" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="C674" s="3" t="s">
         <v>13</v>
@@ -25681,15 +25681,15 @@
         <v>664</v>
       </c>
       <c r="L674" s="3" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="675" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="C675" s="3" t="s">
         <v>13</v>
@@ -25715,15 +25715,15 @@
         <v>664</v>
       </c>
       <c r="L675" s="3" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="676" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="C676" s="3" t="s">
         <v>13</v>
@@ -25749,15 +25749,15 @@
         <v>664</v>
       </c>
       <c r="L676" s="3" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="677" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="C677" s="3" t="s">
         <v>13</v>
@@ -25783,15 +25783,15 @@
         <v>664</v>
       </c>
       <c r="L677" s="3" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="678" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="C678" s="3" t="s">
         <v>13</v>
@@ -25817,15 +25817,15 @@
         <v>664</v>
       </c>
       <c r="L678" s="3" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="679" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="C679" s="3" t="s">
         <v>13</v>
@@ -25851,15 +25851,15 @@
         <v>664</v>
       </c>
       <c r="L679" s="3" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="680" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="C680" s="3" t="s">
         <v>13</v>
@@ -25885,15 +25885,15 @@
         <v>664</v>
       </c>
       <c r="L680" s="3" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="681" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="C681" s="3" t="s">
         <v>13</v>
@@ -25919,12 +25919,12 @@
         <v>664</v>
       </c>
       <c r="L681" s="3" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="682" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="B682" s="5"/>
       <c r="C682" s="5" t="s">
@@ -25937,7 +25937,7 @@
         <v>41</v>
       </c>
       <c r="F682" s="5" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="G682" s="5" t="s">
         <v>442</v>
@@ -25950,10 +25950,10 @@
     </row>
     <row r="683" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="C683" s="3" t="s">
         <v>198</v>
@@ -25968,7 +25968,7 @@
         <v>774</v>
       </c>
       <c r="G683" s="3" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="H683" s="3"/>
       <c r="I683" s="3" t="s">
@@ -25979,15 +25979,15 @@
         <v>664</v>
       </c>
       <c r="L683" s="3" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="684" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="3" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="C684" s="3" t="s">
         <v>198</v>
@@ -25999,7 +25999,7 @@
         <v>41</v>
       </c>
       <c r="F684" s="3" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="G684" s="3" t="s">
         <v>71</v>
@@ -26017,22 +26017,22 @@
     </row>
     <row r="685" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="C685" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D685" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="E685" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F685" s="3" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="G685" s="3" t="s">
         <v>80</v>
@@ -26048,10 +26048,10 @@
     </row>
     <row r="686" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="C686" s="3" t="s">
         <v>13</v>
@@ -26077,15 +26077,15 @@
         <v>437</v>
       </c>
       <c r="L686" s="3" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="687" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="C687" s="3" t="s">
         <v>13</v>
@@ -26097,7 +26097,7 @@
         <v>41</v>
       </c>
       <c r="F687" s="3" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="G687" s="3" t="s">
         <v>71</v>
@@ -26113,15 +26113,15 @@
         <v>437</v>
       </c>
       <c r="L687" s="13" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="688" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="C688" s="3" t="s">
         <v>13</v>
@@ -26133,7 +26133,7 @@
         <v>41</v>
       </c>
       <c r="F688" s="3" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="G688" s="3" t="s">
         <v>71</v>
@@ -26151,10 +26151,10 @@
     </row>
     <row r="689" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C689" s="3" t="s">
         <v>13</v>
@@ -26166,7 +26166,7 @@
         <v>41</v>
       </c>
       <c r="F689" s="3" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="G689" s="3" t="s">
         <v>71</v>
@@ -26182,15 +26182,15 @@
         <v>437</v>
       </c>
       <c r="L689" s="3" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="690" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>13</v>
@@ -26199,7 +26199,7 @@
         <v>14</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="F690" s="2"/>
       <c r="G690" s="2" t="s">
@@ -26215,22 +26215,22 @@
     </row>
     <row r="691" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="C691" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D691" s="3" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="E691" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F691" s="3" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="G691" s="3" t="s">
         <v>17</v>
@@ -26249,7 +26249,7 @@
     </row>
     <row r="692" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="B692" s="3">
         <v>3.3</v>
@@ -26264,7 +26264,7 @@
         <v>41</v>
       </c>
       <c r="F692" s="3" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="G692" s="3" t="s">
         <v>442</v>
@@ -26278,12 +26278,12 @@
         <v>664</v>
       </c>
       <c r="L692" s="3" t="s">
-        <v>1758</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="693" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="B693" s="5"/>
       <c r="C693" s="5" t="s">
@@ -26296,23 +26296,23 @@
         <v>41</v>
       </c>
       <c r="F693" s="5" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="G693" s="5" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="H693" s="5"/>
       <c r="I693" s="5"/>
       <c r="J693" s="5" t="s">
-        <v>1762</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="694" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="C694" s="5" t="s">
         <v>115</v>
@@ -26324,7 +26324,7 @@
         <v>41</v>
       </c>
       <c r="F694" s="5" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="G694" s="5" t="s">
         <v>336</v>
@@ -26339,7 +26339,7 @@
     </row>
     <row r="695" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="B695" s="2"/>
       <c r="C695" s="2" t="s">
@@ -26349,7 +26349,7 @@
         <v>14</v>
       </c>
       <c r="E695" s="2" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="F695" s="2"/>
       <c r="G695" s="2" t="s">
@@ -26363,7 +26363,7 @@
     </row>
     <row r="696" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="B696" s="5"/>
       <c r="C696" s="5" t="s">
@@ -26376,7 +26376,7 @@
         <v>41</v>
       </c>
       <c r="F696" s="5" t="s">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="G696" s="5" t="s">
         <v>429</v>
@@ -26386,12 +26386,12 @@
         <v>184</v>
       </c>
       <c r="J696" s="5" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="697" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="B697" s="5"/>
       <c r="C697" s="5" t="s">
@@ -26404,7 +26404,7 @@
         <v>41</v>
       </c>
       <c r="F697" s="5" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="G697" s="5" t="s">
         <v>564</v>
@@ -26417,10 +26417,10 @@
     </row>
     <row r="698" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3" t="s">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="C698" s="3" t="s">
         <v>115</v>
@@ -26432,7 +26432,7 @@
         <v>41</v>
       </c>
       <c r="F698" s="3" t="s">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="G698" s="3" t="s">
         <v>118</v>
@@ -26448,10 +26448,10 @@
     </row>
     <row r="699" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="C699" s="5" t="s">
         <v>13</v>
@@ -26463,25 +26463,25 @@
         <v>41</v>
       </c>
       <c r="F699" s="5" t="s">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="G699" s="5" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="H699" s="5"/>
       <c r="I699" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J699" s="5" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="700" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>13</v>
@@ -26490,26 +26490,26 @@
         <v>14</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="F700" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="H700" s="2"/>
       <c r="I700" s="2"/>
       <c r="J700" s="2" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="701" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="C701" s="3" t="s">
         <v>13</v>
@@ -26521,15 +26521,15 @@
         <v>41</v>
       </c>
       <c r="F701" s="3" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="G701" s="3" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="H701" s="3"/>
       <c r="I701" s="3"/>
       <c r="J701" s="3" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="K701" s="3" t="s">
         <v>44</v>
@@ -26537,7 +26537,7 @@
     </row>
     <row r="702" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="B702" s="3">
         <v>2.4</v>
@@ -26552,15 +26552,15 @@
         <v>41</v>
       </c>
       <c r="F702" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="G702" s="3" t="s">
         <v>1787</v>
-      </c>
-      <c r="G702" s="3" t="s">
-        <v>1783</v>
       </c>
       <c r="H702" s="3"/>
       <c r="I702" s="3"/>
       <c r="J702" s="3" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="K702" s="3" t="s">
         <v>44</v>
@@ -26568,7 +26568,7 @@
     </row>
     <row r="703" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="B703" s="2">
         <v>3.1</v>
@@ -26580,25 +26580,25 @@
         <v>14</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="F703" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G703" s="2" t="s">
-        <v>1789</v>
+        <v>1793</v>
       </c>
       <c r="H703" s="2"/>
       <c r="I703" s="2" t="s">
         <v>337</v>
       </c>
       <c r="J703" s="2" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="704" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="3" t="s">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>862</v>
@@ -26613,7 +26613,7 @@
         <v>41</v>
       </c>
       <c r="F704" s="3" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="G704" s="3" t="s">
         <v>118</v>
@@ -26629,7 +26629,7 @@
     </row>
     <row r="705" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="B705" s="2" t="s">
         <v>114</v>
@@ -26657,7 +26657,7 @@
     </row>
     <row r="706" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>114</v>
@@ -26672,7 +26672,7 @@
         <v>41</v>
       </c>
       <c r="F706" s="3" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="G706" s="3" t="s">
         <v>118</v>
@@ -26688,10 +26688,10 @@
     </row>
     <row r="707" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="3" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="C707" s="3" t="s">
         <v>13</v>
@@ -26703,7 +26703,7 @@
         <v>41</v>
       </c>
       <c r="F707" s="3" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="G707" s="3" t="s">
         <v>71</v>
@@ -26719,12 +26719,12 @@
         <v>664</v>
       </c>
       <c r="L707" s="3" t="s">
-        <v>1797</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="708" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="B708" s="2"/>
       <c r="C708" s="2" t="s">
@@ -26734,7 +26734,7 @@
         <v>14</v>
       </c>
       <c r="E708" s="2" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="F708" s="2"/>
       <c r="G708" s="2" t="s">
@@ -26748,10 +26748,10 @@
     </row>
     <row r="709" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="3" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="C709" s="3" t="s">
         <v>115</v>
@@ -26763,17 +26763,17 @@
         <v>41</v>
       </c>
       <c r="F709" s="3" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="G709" s="3" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="H709" s="3" t="s">
         <v>423</v>
       </c>
       <c r="I709" s="3"/>
       <c r="J709" s="3" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="K709" s="3" t="s">
         <v>44</v>
@@ -26781,7 +26781,7 @@
     </row>
     <row r="710" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="B710" s="5" t="s">
         <v>20</v>
@@ -26796,7 +26796,7 @@
         <v>41</v>
       </c>
       <c r="F710" s="5" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="G710" s="5" t="s">
         <v>24</v>
@@ -26811,7 +26811,7 @@
     </row>
     <row r="711" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="B711" s="5"/>
       <c r="C711" s="5" t="s">
@@ -26824,20 +26824,20 @@
         <v>41</v>
       </c>
       <c r="F711" s="5" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="G711" s="5" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="H711" s="5"/>
       <c r="I711" s="5"/>
       <c r="J711" s="5" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="712" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="B712" s="5"/>
       <c r="C712" s="5" t="s">
@@ -26848,7 +26848,7 @@
       </c>
       <c r="E712" s="5"/>
       <c r="F712" s="5" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="G712" s="5" t="s">
         <v>594</v>
@@ -26861,10 +26861,10 @@
     </row>
     <row r="713" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
       <c r="C713" s="5" t="s">
         <v>13</v>
@@ -26879,7 +26879,7 @@
         <v>952</v>
       </c>
       <c r="G713" s="5" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="H713" s="5"/>
       <c r="I713" s="5" t="s">
@@ -26891,7 +26891,7 @@
     </row>
     <row r="714" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="B714" s="5"/>
       <c r="C714" s="5" t="s">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="E714" s="5"/>
       <c r="F714" s="5" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="G714" s="5" t="s">
         <v>80</v>
@@ -26915,7 +26915,7 @@
     </row>
     <row r="715" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="B715" s="5"/>
       <c r="C715" s="5" t="s">
@@ -26928,7 +26928,7 @@
         <v>41</v>
       </c>
       <c r="F715" s="5" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="G715" s="5" t="s">
         <v>273</v>
@@ -26941,7 +26941,7 @@
     </row>
     <row r="716" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="B716" s="5"/>
       <c r="C716" s="5" t="s">
@@ -26954,7 +26954,7 @@
         <v>41</v>
       </c>
       <c r="F716" s="5" t="s">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="G716" s="5" t="s">
         <v>336</v>
@@ -26969,7 +26969,7 @@
     </row>
     <row r="717" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="B717" s="5"/>
       <c r="C717" s="5" t="s">
@@ -26982,15 +26982,15 @@
         <v>41</v>
       </c>
       <c r="F717" s="5" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="G717" s="5" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="H717" s="5"/>
       <c r="I717" s="5"/>
       <c r="J717" s="5" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
     </row>
   </sheetData>
@@ -27001,41 +27001,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Order0 xmlns="afd34d76-bd0a-4401-a24d-7f289c41d043">1</Order0>
-    <SharedWithUsers xmlns="caa4e187-f897-484e-8238-9cf00fcb7318">
-      <UserInfo>
-        <DisplayName>Costello, Debra L</DisplayName>
-        <AccountId>8430</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bigornia Jr, Agustin</DisplayName>
-        <AccountId>11541</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Armstrong, Francis J</DisplayName>
-        <AccountId>9317</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Morales, John</DisplayName>
-        <AccountId>316</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Beriau, Bernie R</DisplayName>
-        <AccountId>4457</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0E9129E47F7CB438C96AC380E87590A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39995d888827efcf204ab0c3dc3774cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="caa4e187-f897-484e-8238-9cf00fcb7318" xmlns:ns3="afd34d76-bd0a-4401-a24d-7f289c41d043" xmlns:ns4="a875d3b0-e276-4560-a424-4019c376e5e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89b1f1d2fccfd2d7e23e03ab43ea116e" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="caa4e187-f897-484e-8238-9cf00fcb7318"/>
@@ -27225,7 +27190,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -27275,7 +27240,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -27284,25 +27249,42 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
-    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Order0 xmlns="afd34d76-bd0a-4401-a24d-7f289c41d043">1</Order0>
+    <SharedWithUsers xmlns="caa4e187-f897-484e-8238-9cf00fcb7318">
+      <UserInfo>
+        <DisplayName>Costello, Debra L</DisplayName>
+        <AccountId>8430</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bigornia Jr, Agustin</DisplayName>
+        <AccountId>11541</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Armstrong, Francis J</DisplayName>
+        <AccountId>9317</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Morales, John</DisplayName>
+        <AccountId>316</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Beriau, Bernie R</DisplayName>
+        <AccountId>4457</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7400E32-D5BC-41E6-B73C-359CF80FD9CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27322,7 +27304,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8654B897-6565-4D9A-AEDC-2108E98326EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -27330,10 +27312,28 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F157CC7-0BC4-4431-8527-4D48F8B34954}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
+    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
+    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/commonldap/SourceMinder_Product_Contacts.xlsx
+++ b/commonldap/SourceMinder_Product_Contacts.xlsx
@@ -27001,7 +27001,101 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0E9129E47F7CB438C96AC380E87590A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39995d888827efcf204ab0c3dc3774cb">
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Order0 xmlns="afd34d76-bd0a-4401-a24d-7f289c41d043">1</Order0>
+    <SharedWithUsers xmlns="caa4e187-f897-484e-8238-9cf00fcb7318">
+      <UserInfo>
+        <DisplayName>Costello, Debra L</DisplayName>
+        <AccountId>8430</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bigornia Jr, Agustin</DisplayName>
+        <AccountId>11541</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Armstrong, Francis J</DisplayName>
+        <AccountId>9317</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Morales, John</DisplayName>
+        <AccountId>316</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Beriau, Bernie R</DisplayName>
+        <AccountId>4457</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0E9129E47F7CB438C96AC380E87590A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="62825a3371e69d163f9638d6c6be3376">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="caa4e187-f897-484e-8238-9cf00fcb7318" xmlns:ns3="afd34d76-bd0a-4401-a24d-7f289c41d043" xmlns:ns4="a875d3b0-e276-4560-a424-4019c376e5e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89b1f1d2fccfd2d7e23e03ab43ea116e" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="caa4e187-f897-484e-8238-9cf00fcb7318"/>
     <xsd:import namespace="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
@@ -27190,102 +27284,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8654B897-6565-4D9A-AEDC-2108E98326EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F157CC7-0BC4-4431-8527-4D48F8B34954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Order0 xmlns="afd34d76-bd0a-4401-a24d-7f289c41d043">1</Order0>
-    <SharedWithUsers xmlns="caa4e187-f897-484e-8238-9cf00fcb7318">
-      <UserInfo>
-        <DisplayName>Costello, Debra L</DisplayName>
-        <AccountId>8430</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bigornia Jr, Agustin</DisplayName>
-        <AccountId>11541</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Armstrong, Francis J</DisplayName>
-        <AccountId>9317</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Morales, John</DisplayName>
-        <AccountId>316</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Beriau, Bernie R</DisplayName>
-        <AccountId>4457</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
+    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7400E32-D5BC-41E6-B73C-359CF80FD9CF}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35308FA4-18F5-43BE-B53B-FB5410CCBC34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -27302,38 +27336,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8654B897-6565-4D9A-AEDC-2108E98326EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F157CC7-0BC4-4431-8527-4D48F8B34954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B6277B-C863-49C0-93F5-52BF35BF4D15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="caa4e187-f897-484e-8238-9cf00fcb7318"/>
-    <ds:schemaRef ds:uri="a875d3b0-e276-4560-a424-4019c376e5e2"/>
-    <ds:schemaRef ds:uri="afd34d76-bd0a-4401-a24d-7f289c41d043"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>